--- a/other/配置表/z-装备配置表.xlsx
+++ b/other/配置表/z-装备配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13680" windowHeight="12795"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>id</t>
   </si>
@@ -228,6 +228,9 @@
     <t>equip_2000001</t>
   </si>
   <si>
+    <t>101,102</t>
+  </si>
+  <si>
     <t>{100,120}{200,240}</t>
   </si>
   <si>
@@ -258,6 +261,9 @@
     <t>equip_2000005</t>
   </si>
   <si>
+    <t>100,102</t>
+  </si>
+  <si>
     <t>{50,60}{200,240}</t>
   </si>
   <si>
@@ -265,6 +271,9 @@
   </si>
   <si>
     <t>equip_2000006</t>
+  </si>
+  <si>
+    <t>100,101</t>
   </si>
   <si>
     <t>{50,60}{100,120}</t>
@@ -275,12 +284,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,9 +299,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,6 +327,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -313,7 +343,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,8 +418,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,90 +428,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,13 +441,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -449,19 +451,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,7 +553,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,151 +613,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,21 +642,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -673,11 +660,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,11 +692,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,9 +725,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,148 +747,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -894,10 +896,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1251,13 +1253,13 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1271,19 +1273,19 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -1291,7 +1293,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>2000001</v>
       </c>
       <c r="B2" t="s">
@@ -1306,25 +1308,25 @@
       <c r="E2">
         <v>2</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>2100001</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2">
-        <v>101102</v>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2000002</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1339,21 +1341,21 @@
         <v>2200001</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2">
-        <v>101102</v>
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>2000003</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1364,25 +1366,25 @@
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>2300001</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2">
-        <v>101102</v>
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>2000004</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1397,21 +1399,21 @@
         <v>2400001</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1">
         <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>2000005</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1422,25 +1424,25 @@
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>2500001</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="2">
-        <v>100102</v>
+        <v>21</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>2000006</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1455,13 +1457,13 @@
         <v>2600001</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="2">
-        <v>100101</v>
+        <v>25</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/z-装备配置表.xlsx
+++ b/other/配置表/z-装备配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>id</t>
   </si>
@@ -277,6 +277,15 @@
   </si>
   <si>
     <t>{50,60}{100,120}</t>
+  </si>
+  <si>
+    <t>无敌哥哥</t>
+  </si>
+  <si>
+    <t>100,101,102,110,111,112,113,121</t>
+  </si>
+  <si>
+    <t>{1000,2000}{1000,2000}{1000,2000}{1000,2000}{1000,2000}{1000,2000}{1000,2000}{1000,2000}</t>
   </si>
 </sst>
 </file>
@@ -284,10 +293,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -299,21 +308,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,118 +396,58 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -451,187 +460,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,17 +654,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,6 +689,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,39 +728,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -734,11 +737,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,149 +759,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -902,6 +911,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1250,16 +1260,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="9.375"/>
+    <col min="6" max="6" width="9.375"/>
     <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1465,6 +1477,55 @@
       <c r="I7" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>2999999</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2999999</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="6:7">
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="6:7">
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="6:7">
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="6:7">
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="6:7">
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/other/配置表/z-装备配置表.xlsx
+++ b/other/配置表/z-装备配置表.xlsx
@@ -295,8 +295,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -308,22 +308,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,12 +377,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -353,21 +430,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,76 +450,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -460,187 +460,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,9 +671,59 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,56 +751,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -759,10 +759,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -771,133 +771,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1263,7 +1263,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/other/配置表/z-装备配置表.xlsx
+++ b/other/配置表/z-装备配置表.xlsx
@@ -282,10 +282,10 @@
     <t>无敌哥哥</t>
   </si>
   <si>
-    <t>100,101,102,110,111,112,113,121</t>
-  </si>
-  <si>
-    <t>{1000,2000}{1000,2000}{1000,2000}{1000,2000}{1000,2000}{1000,2000}{1000,2000}{1000,2000}</t>
+    <t>100,101,102,110,111,112,113,121,114</t>
+  </si>
+  <si>
+    <t>{1000,2000}{1000,2000}{1000,2000}{1000,2000}{1000,2000}{1000,2000}{1000,2000}{1000,2000}{1000,1000}</t>
   </si>
 </sst>
 </file>
@@ -294,8 +294,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -308,6 +308,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -315,6 +352,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -322,10 +374,26 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -337,117 +405,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -460,181 +460,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,52 +654,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,7 +682,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,11 +728,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,10 +759,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -771,133 +771,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1263,7 +1263,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1271,8 +1271,8 @@
     <col min="1" max="1" width="9.375"/>
     <col min="6" max="6" width="9.375"/>
     <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="34.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.375" customWidth="1"/>
+    <col min="8" max="8" width="39.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="110.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">

--- a/other/配置表/z-装备配置表.xlsx
+++ b/other/配置表/z-装备配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13215"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,33 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Jayork</author>
     <author>CL</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Jayork:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+首位1,第二位部位类型，第三位装备品质，四五六位识别ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -44,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -81,6 +104,31 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
+          <t>Jayork:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.绿色 稀有
+2.蓝色 精炼
+3.紫色 史诗
+4.橙色 传奇</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
           <t>CL:</t>
         </r>
         <r>
@@ -94,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -117,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -140,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="H1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -163,7 +211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="I1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -184,7 +232,57 @@
 属性类型
 100：攻击
 101：防御
-102：生命</t>
+102：生命
+103：当前生命值
+110：命中
+111：闪避
+112：暴击
+113：暴击伤害
+114：攻速</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Jayork:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+当前区间等级上限,每级强化值</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Jayork:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+附加属性ID，随机出现概率</t>
         </r>
       </text>
     </comment>
@@ -193,7 +291,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>id</t>
   </si>
@@ -204,6 +302,9 @@
     <t>type</t>
   </si>
   <si>
+    <t>quality</t>
+  </si>
+  <si>
     <t>stacking</t>
   </si>
   <si>
@@ -222,70 +323,181 @@
     <t>attribute_value</t>
   </si>
   <si>
-    <t>魔界头盔</t>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>cost_up</t>
+  </si>
+  <si>
+    <t>strengthen</t>
+  </si>
+  <si>
+    <t>affix</t>
+  </si>
+  <si>
+    <t>之盔</t>
   </si>
   <si>
     <t>equip_2000001</t>
   </si>
   <si>
-    <t>101,102</t>
-  </si>
-  <si>
-    <t>{100,120}{200,240}</t>
-  </si>
-  <si>
-    <t>魔界衣服</t>
+    <t>102,</t>
+  </si>
+  <si>
+    <t>1000,</t>
+  </si>
+  <si>
+    <t>{20,5}{40,10}{9999,20}</t>
+  </si>
+  <si>
+    <t>{20,100}{40,120}{60,150}{9999,180}</t>
+  </si>
+  <si>
+    <t>{400001,100}{400002,100}{400004,100}{400004,100}</t>
   </si>
   <si>
     <t>equip_2000002</t>
   </si>
   <si>
-    <t>魔界鞋子</t>
+    <t>1100,</t>
   </si>
   <si>
     <t>equip_2000003</t>
   </si>
   <si>
-    <t>魔界武器</t>
+    <t>1200,</t>
   </si>
   <si>
     <t>equip_2000004</t>
   </si>
   <si>
-    <t>{50,60}</t>
-  </si>
-  <si>
-    <t>魔界项链</t>
+    <t>1500,</t>
+  </si>
+  <si>
+    <t>之甲</t>
   </si>
   <si>
     <t>equip_2000005</t>
   </si>
   <si>
-    <t>100,102</t>
-  </si>
-  <si>
-    <t>{50,60}{200,240}</t>
-  </si>
-  <si>
-    <t>魔界魔戒</t>
+    <t>101,</t>
+  </si>
+  <si>
+    <t>50,</t>
+  </si>
+  <si>
+    <t>{400005,100}{400006,100}{400007,100}{400008,100}</t>
   </si>
   <si>
     <t>equip_2000006</t>
   </si>
   <si>
-    <t>100,101</t>
-  </si>
-  <si>
-    <t>{50,60}{100,120}</t>
-  </si>
-  <si>
-    <t>无敌哥哥</t>
-  </si>
-  <si>
-    <t>100,101,102,110,111,112,113,121,114</t>
-  </si>
-  <si>
-    <t>{1000,2000}{1000,2000}{1000,2000}{1000,2000}{1000,2000}{1000,2000}{1000,2000}{1000,2000}{1000,1000}</t>
+    <t>60,</t>
+  </si>
+  <si>
+    <t>equip_2000007</t>
+  </si>
+  <si>
+    <t>70,</t>
+  </si>
+  <si>
+    <t>equip_2000008</t>
+  </si>
+  <si>
+    <t>100,</t>
+  </si>
+  <si>
+    <t>之靴</t>
+  </si>
+  <si>
+    <t>equip_2000009</t>
+  </si>
+  <si>
+    <t>111,</t>
+  </si>
+  <si>
+    <t>{400001,100}{400002,100}{400005,100}{400006,100}</t>
+  </si>
+  <si>
+    <t>equip_2000010</t>
+  </si>
+  <si>
+    <t>200,</t>
+  </si>
+  <si>
+    <t>equip_2000011</t>
+  </si>
+  <si>
+    <t>300,</t>
+  </si>
+  <si>
+    <t>equip_2000012</t>
+  </si>
+  <si>
+    <t>500,</t>
+  </si>
+  <si>
+    <t>之剑</t>
+  </si>
+  <si>
+    <t>equip_2000013</t>
+  </si>
+  <si>
+    <t>{400003,100}{400004,100}{400005,100}{400006,100}</t>
+  </si>
+  <si>
+    <t>equip_2000014</t>
+  </si>
+  <si>
+    <t>equip_2000015</t>
+  </si>
+  <si>
+    <t>equip_2000016</t>
+  </si>
+  <si>
+    <t>之镯</t>
+  </si>
+  <si>
+    <t>equip_2000017</t>
+  </si>
+  <si>
+    <t>113,</t>
+  </si>
+  <si>
+    <t>{400001,100}{400002,100}{400007,100}{400008,100}</t>
+  </si>
+  <si>
+    <t>equip_2000018</t>
+  </si>
+  <si>
+    <t>equip_2000019</t>
+  </si>
+  <si>
+    <t>equip_2000020</t>
+  </si>
+  <si>
+    <t>之戒</t>
+  </si>
+  <si>
+    <t>equip_2000021</t>
+  </si>
+  <si>
+    <t>112,</t>
+  </si>
+  <si>
+    <t>{400001,100}{400003,100}{400005,100}{400007,100}</t>
+  </si>
+  <si>
+    <t>equip_2000022</t>
+  </si>
+  <si>
+    <t>800,</t>
+  </si>
+  <si>
+    <t>equip_2000023</t>
+  </si>
+  <si>
+    <t>equip_2000024</t>
   </si>
 </sst>
 </file>
@@ -293,12 +505,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,14 +520,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,10 +617,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -345,21 +632,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,47 +655,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,36 +668,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -460,25 +678,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,157 +840,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,11 +872,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,30 +937,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -713,17 +946,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,15 +969,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -759,10 +977,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -771,147 +989,155 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1260,22 +1486,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.375"/>
-    <col min="6" max="6" width="9.375"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="39.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="110.375" customWidth="1"/>
+    <col min="2" max="2" width="5.625" customWidth="1"/>
+    <col min="3" max="3" width="5.25" customWidth="1"/>
+    <col min="4" max="4" width="7.75" customWidth="1"/>
+    <col min="7" max="7" width="9.375"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="24.875" customWidth="1"/>
+    <col min="13" max="13" width="40.375" customWidth="1"/>
+    <col min="14" max="14" width="50.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1288,28 +1521,43 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2">
-        <v>2000001</v>
+    <row r="2" spans="1:14">
+      <c r="A2" s="3">
+        <v>2110001</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1318,214 +1566,1047 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2100001</v>
-      </c>
-      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>111001</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2">
-        <v>2000002</v>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>2120001</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>2200001</v>
-      </c>
-      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>112001</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>2130001</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>113001</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2">
-        <v>2000003</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>2140001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>114001</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>2210001</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>121001</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>2220001</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>122001</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>2230001</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2300001</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>123001</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2">
-        <v>2000004</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>2240001</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>124001</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>2310001</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>131001</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>2320001</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>132001</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>2330001</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>133001</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>2340001</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>134001</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>2410010</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>141001</v>
+      </c>
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>2420001</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>142001</v>
+      </c>
+      <c r="H15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>2430001</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>143001</v>
+      </c>
+      <c r="H16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
+      </c>
+      <c r="L16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17">
+        <v>2440001</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>144001</v>
+      </c>
+      <c r="H17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17">
+        <v>10</v>
+      </c>
+      <c r="L17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18">
+        <v>2510001</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>151001</v>
+      </c>
+      <c r="H18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18">
+        <v>10</v>
+      </c>
+      <c r="L18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19">
+        <v>2520001</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>152001</v>
+      </c>
+      <c r="H19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
+      <c r="L19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20">
+        <v>2530001</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>153001</v>
+      </c>
+      <c r="H20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20">
+        <v>10</v>
+      </c>
+      <c r="L20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21">
+        <v>2540001</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>154001</v>
+      </c>
+      <c r="H21" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21">
+        <v>10</v>
+      </c>
+      <c r="L21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22">
+        <v>2610001</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>161001</v>
+      </c>
+      <c r="H22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22">
+        <v>10</v>
+      </c>
+      <c r="L22" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23">
+        <v>2620001</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>162001</v>
+      </c>
+      <c r="H23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23">
+        <v>10</v>
+      </c>
+      <c r="L23" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24">
+        <v>2630001</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>163001</v>
+      </c>
+      <c r="H24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5">
+      <c r="K24">
+        <v>10</v>
+      </c>
+      <c r="L24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25">
+        <v>2640001</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2400001</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>164001</v>
+      </c>
+      <c r="H25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25">
+        <v>10</v>
+      </c>
+      <c r="L25" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="1">
-        <v>100</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M25" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2">
-        <v>2000005</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2500001</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2">
-        <v>2000006</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2600001</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>2999999</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>2999999</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="6:7">
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="6:7">
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="6:7">
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="6:7">
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="6:7">
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="N25" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/other/配置表/z-装备配置表.xlsx
+++ b/other/配置表/z-装备配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="30000" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -291,7 +291,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
   <si>
     <t>id</t>
   </si>
@@ -335,169 +335,457 @@
     <t>affix</t>
   </si>
   <si>
-    <t>之盔</t>
+    <t>纯粹之剑</t>
+  </si>
+  <si>
+    <t>equip_2000004</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>{20,33}{40,67}{60,200}{80,300}{100,450}{120,675}{140,1013}{160,1519}{180,2279}{200,3418}{220,5127}{240,7691}{260,11536}{280,17304}{300,25956}{320,38934}{340,58401}{360,87602}{380,131403}{400,197104}{420,295656}{440,443484}{460,665226}{480,997839}{500,1496759}</t>
+  </si>
+  <si>
+    <t>({20,12}{40,24}{60,36}{80,48}{100,60}{120,72}{140,84}{160,96}{180,108}{200,120}{220,132}{240,144}{260,156}{280,168}{300,180}{320,192}{340,204}{360,216}{380,228}{400,240}{420,252}{440,264}{460,276}{480,288}{500,300})</t>
+  </si>
+  <si>
+    <t>{400001,100}{400002,100}{400004,100}{400004,100}</t>
+  </si>
+  <si>
+    <t>钢铁之剑</t>
+  </si>
+  <si>
+    <t>100,101</t>
+  </si>
+  <si>
+    <t>67,32</t>
+  </si>
+  <si>
+    <t>({20,8}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,4}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
+  </si>
+  <si>
+    <t>{400005,100}{400006,100}{400007,100}{400008,100}</t>
+  </si>
+  <si>
+    <t>生命之剑</t>
+  </si>
+  <si>
+    <t>100,102</t>
+  </si>
+  <si>
+    <t>67,960</t>
+  </si>
+  <si>
+    <t>{400001,100}{400002,100}{400005,100}{400006,100}</t>
+  </si>
+  <si>
+    <t>暴伤之剑</t>
+  </si>
+  <si>
+    <t>100,113</t>
+  </si>
+  <si>
+    <t>67,77</t>
+  </si>
+  <si>
+    <t>({20,8}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,10}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
+  </si>
+  <si>
+    <t>{400003,100}{400004,100}{400005,100}{400006,100}</t>
+  </si>
+  <si>
+    <t>速度之剑</t>
+  </si>
+  <si>
+    <t>100,114</t>
+  </si>
+  <si>
+    <t>67,19</t>
+  </si>
+  <si>
+    <t>({20,8}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
+  </si>
+  <si>
+    <t>{400001,100}{400002,100}{400007,100}{400008,100}</t>
+  </si>
+  <si>
+    <t>重伤之剑</t>
+  </si>
+  <si>
+    <t>100,115</t>
+  </si>
+  <si>
+    <t>67,64</t>
+  </si>
+  <si>
+    <t>({20,8}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,8}{40,16}{60,24}{80,32}{100,40}{120,48}{140,56}{160,64}{180,72}{200,80}{220,88}{240,96}{260,104}{280,112}{300,120}{320,128}{340,136}{360,144}{380,152}{400,160}{420,168}{440,176}{460,184}{480,192}{500,200})</t>
+  </si>
+  <si>
+    <t>{400001,100}{400003,100}{400005,100}{400007,100}</t>
+  </si>
+  <si>
+    <t>纯粹之甲</t>
+  </si>
+  <si>
+    <t>equip_2000002</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>({20,10}{40,20}{60,30}{80,40}{100,50}{120,60}{140,70}{160,80}{180,90}{200,100}{220,110}{240,120}{260,130}{280,140}{300,150}{320,160}{340,170}{360,180}{380,190}{400,200}{420,210}{440,220}{460,230}{480,240}{500,250})</t>
+  </si>
+  <si>
+    <t>攻击之甲</t>
+  </si>
+  <si>
+    <t>101,100</t>
+  </si>
+  <si>
+    <t>56,38</t>
+  </si>
+  <si>
+    <t>({20,7}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,5}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
+  </si>
+  <si>
+    <t>({20,7}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175}({20,5}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120}</t>
+  </si>
+  <si>
+    <t>生命之甲</t>
+  </si>
+  <si>
+    <t>101,102</t>
+  </si>
+  <si>
+    <t>56,960</t>
+  </si>
+  <si>
+    <t>({20,7}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,120}{40,240}{60,360}{80,480}{100,600}{120,720}{140,840}{160,960}{180,1080}{200,1200}{220,1320}{240,1440}{260,1560}{280,1680}{300,1800}{320,1920}{340,2040}{360,2160}{380,2280}{400,2400}{420,2520}{440,2640}{460,2760}{480,2880}{500,3000})</t>
+  </si>
+  <si>
+    <t>暴伤之甲</t>
+  </si>
+  <si>
+    <t>101,113</t>
+  </si>
+  <si>
+    <t>56,77</t>
+  </si>
+  <si>
+    <t>({20,7}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,10}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
+  </si>
+  <si>
+    <t>速度之甲</t>
+  </si>
+  <si>
+    <t>101,114</t>
+  </si>
+  <si>
+    <t>56,19</t>
+  </si>
+  <si>
+    <t>({20,7}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
+  </si>
+  <si>
+    <t>重伤之甲</t>
+  </si>
+  <si>
+    <t>101,115</t>
+  </si>
+  <si>
+    <t>56,64</t>
+  </si>
+  <si>
+    <t>({20,7}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,8}{40,16}{60,24}{80,32}{100,40}{120,48}{140,56}{160,64}{180,72}{200,80}{220,88}{240,96}{260,104}{280,112}{300,120}{320,128}{340,136}{360,144}{380,152}{400,160}{420,168}{440,176}{460,184}{480,192}{500,200})</t>
+  </si>
+  <si>
+    <t>纯粹之靴</t>
+  </si>
+  <si>
+    <t>equip_2000003</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>({20,300}{40,600}{60,900}{80,1200}{100,1500}{120,1800}{140,2100}{160,2400}{180,2700}{200,3000}{220,3300}{240,3600}{260,3900}{280,4200}{300,4500}{320,4800}{340,5100}{360,5400}{380,5700}{400,6000}{420,6300}{440,6600}{460,6900}{480,7200}{500,7500})</t>
+  </si>
+  <si>
+    <t>攻击之靴</t>
+  </si>
+  <si>
+    <t>102,100</t>
+  </si>
+  <si>
+    <t>1680,38</t>
+  </si>
+  <si>
+    <t>({20,210}{40,420}{60,630}{80,840}{100,1050}{120,1260}{140,1470}{160,1680}{180,1890}{200,2100}{220,2310}{240,2520}{260,2730}{280,2940}{300,3150}{320,3360}{340,3570}{360,3780}{380,3990}{400,4200}{420,4410}{440,4620}{460,4830}{480,5040}{500,5250})({20,5}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
+  </si>
+  <si>
+    <t>钢铁之靴</t>
+  </si>
+  <si>
+    <t>102,101</t>
+  </si>
+  <si>
+    <t>1680,32</t>
+  </si>
+  <si>
+    <t>({20,210}{40,420}{60,630}{80,840}{100,1050}{120,1260}{140,1470}{160,1680}{180,1890}{200,2100}{220,2310}{240,2520}{260,2730}{280,2940}{300,3150}{320,3360}{340,3570}{360,3780}{380,3990}{400,4200}{420,4410}{440,4620}{460,4830}{480,5040}{500,5250})({20,4}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
+  </si>
+  <si>
+    <t>暴伤之靴</t>
+  </si>
+  <si>
+    <t>102,113</t>
+  </si>
+  <si>
+    <t>1680,77</t>
+  </si>
+  <si>
+    <t>({20,210}{40,420}{60,630}{80,840}{100,1050}{120,1260}{140,1470}{160,1680}{180,1890}{200,2100}{220,2310}{240,2520}{260,2730}{280,2940}{300,3150}{320,3360}{340,3570}{360,3780}{380,3990}{400,4200}{420,4410}{440,4620}{460,4830}{480,5040}{500,5250})({20,10}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
+  </si>
+  <si>
+    <t>速度之靴</t>
+  </si>
+  <si>
+    <t>102,114</t>
+  </si>
+  <si>
+    <t>1680,19</t>
+  </si>
+  <si>
+    <t>({20,210}{40,420}{60,630}{80,840}{100,1050}{120,1260}{140,1470}{160,1680}{180,1890}{200,2100}{220,2310}{240,2520}{260,2730}{280,2940}{300,3150}{320,3360}{340,3570}{360,3780}{380,3990}{400,4200}{420,4410}{440,4620}{460,4830}{480,5040}{500,5250})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
+  </si>
+  <si>
+    <t>重伤之靴</t>
+  </si>
+  <si>
+    <t>102,115</t>
+  </si>
+  <si>
+    <t>1680,64</t>
+  </si>
+  <si>
+    <t>({20,210}{40,420}{60,630}{80,840}{100,1050}{120,1260}{140,1470}{160,1680}{180,1890}{200,2100}{220,2310}{240,2520}{260,2730}{280,2940}{300,3150}{320,3360}{340,3570}{360,3780}{380,3990}{400,4200}{420,4410}{440,4620}{460,4830}{480,5040}{500,5250})({20,8}{40,16}{60,24}{80,32}{100,40}{120,48}{140,56}{160,64}{180,72}{200,80}{220,88}{240,96}{260,104}{280,112}{300,120}{320,128}{340,136}{360,144}{380,152}{400,160}{420,168}{440,176}{460,184}{480,192}{500,200})</t>
+  </si>
+  <si>
+    <t>纯粹戒指</t>
+  </si>
+  <si>
+    <t>equip_2000006</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>({20,24}{40,48}{60,72}{80,96}{100,120}{120,144}{140,168}{160,192}{180,216}{200,240}{220,264}{240,288}{260,312}{280,336}{300,360}{320,384}{340,408}{360,432}{380,456}{400,480}{420,504}{440,528}{460,552}{480,576}{500,600})</t>
+  </si>
+  <si>
+    <t>攻击戒指</t>
+  </si>
+  <si>
+    <t>113,100</t>
+  </si>
+  <si>
+    <t>134,38</t>
+  </si>
+  <si>
+    <t>({20,17}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,5}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
+  </si>
+  <si>
+    <t>钢铁戒指</t>
+  </si>
+  <si>
+    <t>113,101</t>
+  </si>
+  <si>
+    <t>134,32</t>
+  </si>
+  <si>
+    <t>({20,17}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,4}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
+  </si>
+  <si>
+    <t>生命戒指</t>
+  </si>
+  <si>
+    <t>113,102</t>
+  </si>
+  <si>
+    <t>134,960</t>
+  </si>
+  <si>
+    <t>({20,17}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,120}{40,240}{60,360}{80,480}{100,600}{120,720}{140,840}{160,960}{180,1080}{200,1200}{220,1320}{240,1440}{260,1560}{280,1680}{300,1800}{320,1920}{340,2040}{360,2160}{380,2280}{400,2400}{420,2520}{440,2640}{460,2760}{480,2880}{500,3000})</t>
+  </si>
+  <si>
+    <t>速度戒指</t>
+  </si>
+  <si>
+    <t>113,114</t>
+  </si>
+  <si>
+    <t>134,19</t>
+  </si>
+  <si>
+    <t>({20,17}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
+  </si>
+  <si>
+    <t>重伤戒指</t>
+  </si>
+  <si>
+    <t>113,115</t>
+  </si>
+  <si>
+    <t>134,77</t>
+  </si>
+  <si>
+    <t>({20,17}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,8}{40,16}{60,24}{80,32}{100,40}{120,48}{140,56}{160,64}{180,72}{200,80}{220,88}{240,96}{260,104}{280,112}{300,120}{320,128}{340,136}{360,144}{380,152}{400,160}{420,168}{440,176}{460,184}{480,192}{500,200})</t>
+  </si>
+  <si>
+    <t>纯粹头盔</t>
   </si>
   <si>
     <t>equip_2000001</t>
   </si>
   <si>
-    <t>102,</t>
-  </si>
-  <si>
-    <t>1000,</t>
-  </si>
-  <si>
-    <t>{20,5}{40,10}{9999,20}</t>
-  </si>
-  <si>
-    <t>{20,100}{40,120}{60,150}{9999,180}</t>
-  </si>
-  <si>
-    <t>{400001,100}{400002,100}{400004,100}{400004,100}</t>
-  </si>
-  <si>
-    <t>equip_2000002</t>
-  </si>
-  <si>
-    <t>1100,</t>
-  </si>
-  <si>
-    <t>equip_2000003</t>
-  </si>
-  <si>
-    <t>1200,</t>
-  </si>
-  <si>
-    <t>equip_2000004</t>
-  </si>
-  <si>
-    <t>1500,</t>
-  </si>
-  <si>
-    <t>之甲</t>
+    <t>114</t>
+  </si>
+  <si>
+    <t>({20,6}{40,12}{60,18}{80,24}{100,30}{120,36}{140,42}{160,48}{180,54}{200,60}{220,66}{240,72}{260,78}{280,84}{300,90}{320,96}{340,102}{360,108}{380,114}{400,120}{420,126}{440,132}{460,138}{480,144}{500,150})</t>
+  </si>
+  <si>
+    <t>攻击头盔</t>
+  </si>
+  <si>
+    <t>114,100</t>
+  </si>
+  <si>
+    <t>34,38</t>
+  </si>
+  <si>
+    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,5}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
+  </si>
+  <si>
+    <t>钢铁头盔</t>
+  </si>
+  <si>
+    <t>114,101</t>
+  </si>
+  <si>
+    <t>34,32</t>
+  </si>
+  <si>
+    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,4}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
+  </si>
+  <si>
+    <t>生命头盔</t>
+  </si>
+  <si>
+    <t>114,102</t>
+  </si>
+  <si>
+    <t>34,960</t>
+  </si>
+  <si>
+    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,120}{40,240}{60,360}{80,480}{100,600}{120,720}{140,840}{160,960}{180,1080}{200,1200}{220,1320}{240,1440}{260,1560}{280,1680}{300,1800}{320,1920}{340,2040}{360,2160}{380,2280}{400,2400}{420,2520}{440,2640}{460,2760}{480,2880}{500,3000})</t>
+  </si>
+  <si>
+    <t>暴伤头盔</t>
+  </si>
+  <si>
+    <t>114,113</t>
+  </si>
+  <si>
+    <t>34,77</t>
+  </si>
+  <si>
+    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,10}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
+  </si>
+  <si>
+    <t>重伤头盔</t>
+  </si>
+  <si>
+    <t>114,115</t>
+  </si>
+  <si>
+    <t>34,64</t>
+  </si>
+  <si>
+    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,8}{40,16}{60,24}{80,32}{100,40}{120,48}{140,56}{160,64}{180,72}{200,80}{220,88}{240,96}{260,104}{280,112}{300,120}{320,128}{340,136}{360,144}{380,152}{400,160}{420,168}{440,176}{460,184}{480,192}{500,200})</t>
+  </si>
+  <si>
+    <t>纯粹项链</t>
   </si>
   <si>
     <t>equip_2000005</t>
   </si>
   <si>
-    <t>101,</t>
-  </si>
-  <si>
-    <t>50,</t>
-  </si>
-  <si>
-    <t>{400005,100}{400006,100}{400007,100}{400008,100}</t>
-  </si>
-  <si>
-    <t>equip_2000006</t>
-  </si>
-  <si>
-    <t>60,</t>
-  </si>
-  <si>
-    <t>equip_2000007</t>
-  </si>
-  <si>
-    <t>70,</t>
-  </si>
-  <si>
-    <t>equip_2000008</t>
-  </si>
-  <si>
-    <t>100,</t>
-  </si>
-  <si>
-    <t>之靴</t>
-  </si>
-  <si>
-    <t>equip_2000009</t>
-  </si>
-  <si>
-    <t>111,</t>
-  </si>
-  <si>
-    <t>{400001,100}{400002,100}{400005,100}{400006,100}</t>
-  </si>
-  <si>
-    <t>equip_2000010</t>
-  </si>
-  <si>
-    <t>200,</t>
-  </si>
-  <si>
-    <t>equip_2000011</t>
-  </si>
-  <si>
-    <t>300,</t>
-  </si>
-  <si>
-    <t>equip_2000012</t>
-  </si>
-  <si>
-    <t>500,</t>
-  </si>
-  <si>
-    <t>之剑</t>
-  </si>
-  <si>
-    <t>equip_2000013</t>
-  </si>
-  <si>
-    <t>{400003,100}{400004,100}{400005,100}{400006,100}</t>
-  </si>
-  <si>
-    <t>equip_2000014</t>
-  </si>
-  <si>
-    <t>equip_2000015</t>
-  </si>
-  <si>
-    <t>equip_2000016</t>
-  </si>
-  <si>
-    <t>之镯</t>
-  </si>
-  <si>
-    <t>equip_2000017</t>
-  </si>
-  <si>
-    <t>113,</t>
-  </si>
-  <si>
-    <t>{400001,100}{400002,100}{400007,100}{400008,100}</t>
-  </si>
-  <si>
-    <t>equip_2000018</t>
-  </si>
-  <si>
-    <t>equip_2000019</t>
-  </si>
-  <si>
-    <t>equip_2000020</t>
-  </si>
-  <si>
-    <t>之戒</t>
-  </si>
-  <si>
-    <t>equip_2000021</t>
-  </si>
-  <si>
-    <t>112,</t>
-  </si>
-  <si>
-    <t>{400001,100}{400003,100}{400005,100}{400007,100}</t>
-  </si>
-  <si>
-    <t>equip_2000022</t>
-  </si>
-  <si>
-    <t>800,</t>
-  </si>
-  <si>
-    <t>equip_2000023</t>
-  </si>
-  <si>
-    <t>equip_2000024</t>
+    <t>115</t>
+  </si>
+  <si>
+    <t>({20,20}{40,40}{60,60}{80,80}{100,100}{120,120}{140,140}{160,160}{180,180}{200,200}{220,220}{240,240}{260,260}{280,280}{300,300}{320,320}{340,340}{360,360}{380,380}{400,400}{420,420}{440,440}{460,460}{480,480}{500,500})</t>
+  </si>
+  <si>
+    <t>攻击项链</t>
+  </si>
+  <si>
+    <t>115,100</t>
+  </si>
+  <si>
+    <t>112,38</t>
+  </si>
+  <si>
+    <t>({20,14}{40,28}{60,42}{80,56}{100,70}{120,84}{140,98}{160,112}{180,126}{200,140}{220,154}{240,168}{260,182}{280,196}{300,210}{320,224}{340,238}{360,252}{380,266}{400,280}{420,294}{440,308}{460,322}{480,336}{500,350})({20,5}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
+  </si>
+  <si>
+    <t>钢铁项链</t>
+  </si>
+  <si>
+    <t>115,101</t>
+  </si>
+  <si>
+    <t>112,32</t>
+  </si>
+  <si>
+    <t>({20,14}{40,28}{60,42}{80,56}{100,70}{120,84}{140,98}{160,112}{180,126}{200,140}{220,154}{240,168}{260,182}{280,196}{300,210}{320,224}{340,238}{360,252}{380,266}{400,280}{420,294}{440,308}{460,322}{480,336}{500,350}({20,4}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100}</t>
+  </si>
+  <si>
+    <t>生命项链</t>
+  </si>
+  <si>
+    <t>115,102</t>
+  </si>
+  <si>
+    <t>112,960</t>
+  </si>
+  <si>
+    <t>({20,14}{40,28}{60,42}{80,56}{100,70}{120,84}{140,98}{160,112}{180,126}{200,140}{220,154}{240,168}{260,182}{280,196}{300,210}{320,224}{340,238}{360,252}{380,266}{400,280}{420,294}{440,308}{460,322}{480,336}{500,350})({20,120}{40,240}{60,360}{80,480}{100,600}{120,720}{140,840}{160,960}{180,1080}{200,1200}{220,1320}{240,1440}{260,1560}{280,1680}{300,1800}{320,1920}{340,2040}{360,2160}{380,2280}{400,2400}{420,2520}{440,2640}{460,2760}{480,2880}{500,3000})</t>
+  </si>
+  <si>
+    <t>暴伤项链</t>
+  </si>
+  <si>
+    <t>115,113</t>
+  </si>
+  <si>
+    <t>112,77</t>
+  </si>
+  <si>
+    <t>({20,14}{40,28}{60,42}{80,56}{100,70}{120,84}{140,98}{160,112}{180,126}{200,140}{220,154}{240,168}{260,182}{280,196}{300,210}{320,224}{340,238}{360,252}{380,266}{400,280}{420,294}{440,308}{460,322}{480,336}{500,350})({20,10}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
+  </si>
+  <si>
+    <t>速度项链</t>
+  </si>
+  <si>
+    <t>115,114</t>
+  </si>
+  <si>
+    <t>112,19</t>
+  </si>
+  <si>
+    <t>({20,14}{40,28}{60,42}{80,56}{100,70}{120,84}{140,98}{160,112}{180,126}{200,140}{220,154}{240,168}{260,182}{280,196}{300,210}{320,224}{340,238}{360,252}{380,266}{400,280}{420,294}{440,308}{460,322}{480,336}{500,350})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
   </si>
 </sst>
 </file>
@@ -505,10 +793,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -523,10 +811,95 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,21 +913,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -579,30 +937,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,59 +953,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,7 +967,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,7 +1117,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,157 +1141,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,6 +1158,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -883,24 +1181,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,21 +1200,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -942,15 +1207,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -969,6 +1225,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -977,10 +1266,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -989,133 +1278,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1132,12 +1421,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1190,6 +1477,18 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1486,10 +1785,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="H1" sqref="H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1553,14 +1852,14 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="3">
-        <v>2110001</v>
+      <c r="A2">
+        <v>241001</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1569,42 +1868,42 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" s="3">
-        <v>111001</v>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
+      <c r="J2">
+        <v>96</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" t="s">
         <v>19</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
-        <v>2120001</v>
+        <v>242002</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1613,42 +1912,42 @@
         <v>1</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="G3">
-        <v>112001</v>
-      </c>
       <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>22</v>
+      <c r="J3">
+        <v>96</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" t="s">
         <v>19</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
-        <v>2130001</v>
+        <v>243003</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1657,42 +1956,42 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>113001</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>24</v>
+      <c r="J4">
+        <v>96</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" t="s">
         <v>19</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
-        <v>2140001</v>
+        <v>244004</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1701,42 +2000,42 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>114001</v>
+        <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>26</v>
+      <c r="J5">
+        <v>96</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" t="s">
         <v>19</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
-        <v>2210001</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>241005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1745,42 +2044,42 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>121001</v>
+        <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
-        <v>2220001</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>242006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1789,42 +2088,42 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>122001</v>
+        <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8">
-        <v>2230001</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>243007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1833,42 +2132,42 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>123001</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9">
-        <v>2240001</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>244008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -1877,42 +2176,42 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>124001</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10">
-        <v>2310001</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>241009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1921,42 +2220,42 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>131001</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11">
-        <v>2320001</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>242010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1965,42 +2264,42 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>132001</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12">
-        <v>2330001</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>243011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -2009,42 +2308,42 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>133001</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13">
-        <v>2340001</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>244012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -2053,39 +2352,39 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>134001</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>47</v>
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14">
-        <v>2410010</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>241013</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -2097,39 +2396,39 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>141001</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15">
-        <v>2420001</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>242014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -2141,39 +2440,39 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>142001</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16">
-        <v>2430001</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>243015</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -2185,39 +2484,39 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>143001</v>
+        <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" t="s">
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L16" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17">
-        <v>2440001</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>244016</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -2229,42 +2528,42 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>144001</v>
+        <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="J17" t="s">
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18">
-        <v>2510001</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>241017</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2273,42 +2572,42 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>151001</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" t="s">
+        <v>36</v>
       </c>
       <c r="K18">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>57</v>
+        <v>17</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N18" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19">
-        <v>2520001</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>242018</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -2317,42 +2616,42 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>152001</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="J19" t="s">
+        <v>36</v>
       </c>
       <c r="K19">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L19" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>57</v>
+        <v>17</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N19" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20">
-        <v>2530001</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>243019</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -2361,42 +2660,42 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>153001</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="J20" t="s">
+        <v>36</v>
+      </c>
       <c r="K20">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>57</v>
+        <v>17</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21">
-        <v>2540001</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>244020</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -2405,42 +2704,42 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>154001</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21">
+        <v>33</v>
+      </c>
+      <c r="L21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K21">
-        <v>10</v>
-      </c>
-      <c r="L21" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>57</v>
+      <c r="N21" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22">
-        <v>2610001</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>241021</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2449,42 +2748,42 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>161001</v>
+        <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>47</v>
+        <v>15</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" t="s">
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L22" t="s">
-        <v>18</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>64</v>
+        <v>17</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23">
-        <v>2620001</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>61</v>
+        <v>242022</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -2493,42 +2792,42 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>162001</v>
+        <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
+      </c>
+      <c r="J23" t="s">
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L23" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>64</v>
+        <v>17</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N23" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24">
-        <v>2630001</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>243023</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -2537,42 +2836,42 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>163001</v>
+        <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" t="s">
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>64</v>
+        <v>17</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25">
-        <v>2640001</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>244024</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <v>4</v>
@@ -2581,34 +2880,5317 @@
         <v>1</v>
       </c>
       <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>24</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25">
+        <v>33</v>
+      </c>
+      <c r="L25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26">
+        <v>221001</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26">
         <v>2</v>
       </c>
-      <c r="G25">
-        <v>164001</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>25</v>
+      </c>
+      <c r="H26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26">
+        <v>80</v>
+      </c>
+      <c r="K26">
+        <v>33</v>
+      </c>
+      <c r="L26" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27">
+        <v>222002</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27">
+        <v>80</v>
+      </c>
+      <c r="K27">
+        <v>33</v>
+      </c>
+      <c r="L27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28">
+        <v>223003</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28">
+        <v>80</v>
+      </c>
+      <c r="K28">
+        <v>33</v>
+      </c>
+      <c r="L28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29">
+        <v>224004</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>28</v>
+      </c>
+      <c r="H29" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29">
+        <v>80</v>
+      </c>
+      <c r="K29">
+        <v>33</v>
+      </c>
+      <c r="L29" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30">
+        <v>221005</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>29</v>
+      </c>
+      <c r="H30" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30">
+        <v>33</v>
+      </c>
+      <c r="L30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31">
+        <v>222006</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>30</v>
+      </c>
+      <c r="H31" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31">
+        <v>33</v>
+      </c>
+      <c r="L31" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" t="s">
+        <v>52</v>
+      </c>
+      <c r="N31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32">
+        <v>223007</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>31</v>
+      </c>
+      <c r="H32" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J32" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32">
+        <v>33</v>
+      </c>
+      <c r="L32" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" t="s">
+        <v>52</v>
+      </c>
+      <c r="N32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33">
+        <v>224008</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>32</v>
+      </c>
+      <c r="H33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J33" t="s">
+        <v>50</v>
+      </c>
+      <c r="K33">
+        <v>33</v>
+      </c>
+      <c r="L33" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" t="s">
+        <v>52</v>
+      </c>
+      <c r="N33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34">
+        <v>221009</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>33</v>
+      </c>
+      <c r="H34" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K34">
+        <v>33</v>
+      </c>
+      <c r="L34" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35">
+        <v>222010</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>34</v>
+      </c>
+      <c r="H35" t="s">
+        <v>45</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35" t="s">
+        <v>55</v>
+      </c>
+      <c r="K35">
+        <v>33</v>
+      </c>
+      <c r="L35" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36">
+        <v>223011</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>35</v>
+      </c>
+      <c r="H36" t="s">
+        <v>45</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J36" t="s">
+        <v>55</v>
+      </c>
+      <c r="K36">
+        <v>33</v>
+      </c>
+      <c r="L36" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37">
+        <v>224012</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>36</v>
+      </c>
+      <c r="H37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J37" t="s">
+        <v>55</v>
+      </c>
+      <c r="K37">
+        <v>33</v>
+      </c>
+      <c r="L37" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38">
+        <v>221013</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>37</v>
+      </c>
+      <c r="H38" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J38" t="s">
+        <v>59</v>
+      </c>
+      <c r="K38">
+        <v>33</v>
+      </c>
+      <c r="L38" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39">
+        <v>222014</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>38</v>
+      </c>
+      <c r="H39" t="s">
+        <v>45</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J39" t="s">
+        <v>59</v>
+      </c>
+      <c r="K39">
+        <v>33</v>
+      </c>
+      <c r="L39" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40">
+        <v>223015</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>39</v>
+      </c>
+      <c r="H40" t="s">
+        <v>45</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J40" t="s">
+        <v>59</v>
+      </c>
+      <c r="K40">
+        <v>33</v>
+      </c>
+      <c r="L40" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41">
+        <v>224016</v>
+      </c>
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>40</v>
+      </c>
+      <c r="H41" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J41" t="s">
+        <v>59</v>
+      </c>
+      <c r="K41">
+        <v>33</v>
+      </c>
+      <c r="L41" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42">
+        <v>221017</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>41</v>
+      </c>
+      <c r="H42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J42" t="s">
+        <v>63</v>
+      </c>
+      <c r="K42">
+        <v>33</v>
+      </c>
+      <c r="L42" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43">
+        <v>222018</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>42</v>
+      </c>
+      <c r="H43" t="s">
+        <v>45</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J43" t="s">
+        <v>63</v>
+      </c>
+      <c r="K43">
+        <v>33</v>
+      </c>
+      <c r="L43" t="s">
+        <v>17</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44">
+        <v>223019</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>43</v>
+      </c>
+      <c r="H44" t="s">
+        <v>45</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J44" t="s">
+        <v>63</v>
+      </c>
+      <c r="K44">
+        <v>33</v>
+      </c>
+      <c r="L44" t="s">
+        <v>17</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45">
+        <v>224020</v>
+      </c>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>44</v>
+      </c>
+      <c r="H45" t="s">
+        <v>45</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J45" t="s">
+        <v>63</v>
+      </c>
+      <c r="K45">
+        <v>33</v>
+      </c>
+      <c r="L45" t="s">
+        <v>17</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46">
+        <v>221021</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>45</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J46" t="s">
+        <v>67</v>
+      </c>
+      <c r="K46">
+        <v>33</v>
+      </c>
+      <c r="L46" t="s">
+        <v>17</v>
+      </c>
+      <c r="M46" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="N46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47">
+        <v>222022</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>45</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J47" t="s">
+        <v>67</v>
+      </c>
+      <c r="K47">
+        <v>33</v>
+      </c>
+      <c r="L47" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48">
+        <v>223023</v>
+      </c>
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>47</v>
+      </c>
+      <c r="H48" t="s">
+        <v>45</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J48" t="s">
+        <v>67</v>
+      </c>
+      <c r="K48">
+        <v>33</v>
+      </c>
+      <c r="L48" t="s">
+        <v>17</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49">
+        <v>224024</v>
+      </c>
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>48</v>
+      </c>
+      <c r="H49" t="s">
+        <v>45</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J49" t="s">
+        <v>67</v>
+      </c>
+      <c r="K49">
+        <v>33</v>
+      </c>
+      <c r="L49" t="s">
+        <v>17</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50">
+        <v>231001</v>
+      </c>
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>49</v>
+      </c>
+      <c r="H50" t="s">
+        <v>70</v>
+      </c>
+      <c r="I50" t="s">
+        <v>71</v>
+      </c>
+      <c r="J50">
+        <v>2400</v>
+      </c>
+      <c r="K50">
+        <v>33</v>
+      </c>
+      <c r="L50" t="s">
+        <v>17</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51">
+        <v>232002</v>
+      </c>
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>50</v>
+      </c>
+      <c r="H51" t="s">
+        <v>70</v>
+      </c>
+      <c r="I51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J51">
+        <v>2400</v>
+      </c>
+      <c r="K51">
+        <v>33</v>
+      </c>
+      <c r="L51" t="s">
+        <v>17</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52">
+        <v>233003</v>
+      </c>
+      <c r="B52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>51</v>
+      </c>
+      <c r="H52" t="s">
+        <v>70</v>
+      </c>
+      <c r="I52" t="s">
+        <v>71</v>
+      </c>
+      <c r="J52">
+        <v>2400</v>
+      </c>
+      <c r="K52">
+        <v>33</v>
+      </c>
+      <c r="L52" t="s">
+        <v>17</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53">
+        <v>234004</v>
+      </c>
+      <c r="B53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>52</v>
+      </c>
+      <c r="H53" t="s">
+        <v>70</v>
+      </c>
+      <c r="I53" t="s">
+        <v>71</v>
+      </c>
+      <c r="J53">
+        <v>2400</v>
+      </c>
+      <c r="K53">
+        <v>33</v>
+      </c>
+      <c r="L53" t="s">
+        <v>17</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54">
+        <v>231005</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>53</v>
+      </c>
+      <c r="H54" t="s">
+        <v>70</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J54" t="s">
+        <v>75</v>
+      </c>
+      <c r="K54">
+        <v>33</v>
+      </c>
+      <c r="L54" t="s">
+        <v>17</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55">
+        <v>232006</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>54</v>
+      </c>
+      <c r="H55" t="s">
+        <v>70</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J55" t="s">
+        <v>75</v>
+      </c>
+      <c r="K55">
+        <v>33</v>
+      </c>
+      <c r="L55" t="s">
+        <v>17</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56">
+        <v>233007</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>55</v>
+      </c>
+      <c r="H56" t="s">
+        <v>70</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J56" t="s">
+        <v>75</v>
+      </c>
+      <c r="K56">
+        <v>33</v>
+      </c>
+      <c r="L56" t="s">
+        <v>17</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N56" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57">
+        <v>234008</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>56</v>
+      </c>
+      <c r="H57" t="s">
+        <v>70</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J57" t="s">
+        <v>75</v>
+      </c>
+      <c r="K57">
+        <v>33</v>
+      </c>
+      <c r="L57" t="s">
+        <v>17</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58">
+        <v>231009</v>
+      </c>
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>57</v>
+      </c>
+      <c r="H58" t="s">
+        <v>70</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J58" t="s">
+        <v>79</v>
+      </c>
+      <c r="K58">
+        <v>33</v>
+      </c>
+      <c r="L58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59">
+        <v>232010</v>
+      </c>
+      <c r="B59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>58</v>
+      </c>
+      <c r="H59" t="s">
+        <v>70</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J59" t="s">
+        <v>79</v>
+      </c>
+      <c r="K59">
+        <v>33</v>
+      </c>
+      <c r="L59" t="s">
+        <v>17</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60">
+        <v>233011</v>
+      </c>
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>59</v>
+      </c>
+      <c r="H60" t="s">
+        <v>70</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J60" t="s">
+        <v>79</v>
+      </c>
+      <c r="K60">
+        <v>33</v>
+      </c>
+      <c r="L60" t="s">
+        <v>17</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61">
+        <v>234012</v>
+      </c>
+      <c r="B61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>60</v>
+      </c>
+      <c r="H61" t="s">
+        <v>70</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K61">
+        <v>33</v>
+      </c>
+      <c r="L61" t="s">
+        <v>17</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62">
+        <v>231013</v>
+      </c>
+      <c r="B62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>61</v>
+      </c>
+      <c r="H62" t="s">
+        <v>70</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J62" t="s">
+        <v>83</v>
+      </c>
+      <c r="K62">
+        <v>33</v>
+      </c>
+      <c r="L62" t="s">
+        <v>17</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63">
+        <v>232014</v>
+      </c>
+      <c r="B63" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>62</v>
+      </c>
+      <c r="H63" t="s">
+        <v>70</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J63" t="s">
+        <v>83</v>
+      </c>
+      <c r="K63">
+        <v>33</v>
+      </c>
+      <c r="L63" t="s">
+        <v>17</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64">
+        <v>233015</v>
+      </c>
+      <c r="B64" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
         <v>63</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="H64" t="s">
+        <v>70</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J64" t="s">
+        <v>83</v>
+      </c>
+      <c r="K64">
+        <v>33</v>
+      </c>
+      <c r="L64" t="s">
+        <v>17</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65">
+        <v>234016</v>
+      </c>
+      <c r="B65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>64</v>
+      </c>
+      <c r="H65" t="s">
+        <v>70</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J65" t="s">
+        <v>83</v>
+      </c>
+      <c r="K65">
+        <v>33</v>
+      </c>
+      <c r="L65" t="s">
+        <v>17</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66">
+        <v>231017</v>
+      </c>
+      <c r="B66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>65</v>
+      </c>
+      <c r="H66" t="s">
+        <v>70</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J66" t="s">
+        <v>87</v>
+      </c>
+      <c r="K66">
+        <v>33</v>
+      </c>
+      <c r="L66" t="s">
+        <v>17</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N66" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67">
+        <v>232018</v>
+      </c>
+      <c r="B67" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>66</v>
+      </c>
+      <c r="H67" t="s">
+        <v>70</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J67" t="s">
+        <v>87</v>
+      </c>
+      <c r="K67">
+        <v>33</v>
+      </c>
+      <c r="L67" t="s">
+        <v>17</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68">
+        <v>233019</v>
+      </c>
+      <c r="B68" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>67</v>
+      </c>
+      <c r="H68" t="s">
+        <v>70</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J68" t="s">
+        <v>87</v>
+      </c>
+      <c r="K68">
+        <v>33</v>
+      </c>
+      <c r="L68" t="s">
+        <v>17</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N68" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69">
+        <v>234020</v>
+      </c>
+      <c r="B69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>68</v>
+      </c>
+      <c r="H69" t="s">
+        <v>70</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J69" t="s">
+        <v>87</v>
+      </c>
+      <c r="K69">
+        <v>33</v>
+      </c>
+      <c r="L69" t="s">
+        <v>17</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70">
+        <v>231021</v>
+      </c>
+      <c r="B70" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>69</v>
+      </c>
+      <c r="H70" t="s">
+        <v>70</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J70" t="s">
+        <v>91</v>
+      </c>
+      <c r="K70">
+        <v>33</v>
+      </c>
+      <c r="L70" t="s">
+        <v>17</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N70" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71">
+        <v>232022</v>
+      </c>
+      <c r="B71" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>70</v>
+      </c>
+      <c r="H71" t="s">
+        <v>70</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K71">
+        <v>33</v>
+      </c>
+      <c r="L71" t="s">
+        <v>17</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N71" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72">
+        <v>233023</v>
+      </c>
+      <c r="B72" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>71</v>
+      </c>
+      <c r="H72" t="s">
+        <v>70</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K72">
+        <v>33</v>
+      </c>
+      <c r="L72" t="s">
+        <v>17</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N72" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73">
+        <v>234024</v>
+      </c>
+      <c r="B73" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>72</v>
+      </c>
+      <c r="H73" t="s">
+        <v>70</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K73">
+        <v>33</v>
+      </c>
+      <c r="L73" t="s">
+        <v>17</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N73" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74">
+        <v>261001</v>
+      </c>
+      <c r="B74" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74">
+        <v>6</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>73</v>
+      </c>
+      <c r="H74" t="s">
+        <v>94</v>
+      </c>
+      <c r="I74" t="s">
+        <v>95</v>
+      </c>
+      <c r="J74">
+        <v>192</v>
+      </c>
+      <c r="K74">
+        <v>33</v>
+      </c>
+      <c r="L74" t="s">
+        <v>17</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75">
+        <v>262002</v>
+      </c>
+      <c r="B75" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75">
+        <v>6</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>74</v>
+      </c>
+      <c r="H75" t="s">
+        <v>94</v>
+      </c>
+      <c r="I75" t="s">
+        <v>95</v>
+      </c>
+      <c r="J75">
+        <v>192</v>
+      </c>
+      <c r="K75">
+        <v>33</v>
+      </c>
+      <c r="L75" t="s">
+        <v>17</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76">
+        <v>263003</v>
+      </c>
+      <c r="B76" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76">
+        <v>6</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>75</v>
+      </c>
+      <c r="H76" t="s">
+        <v>94</v>
+      </c>
+      <c r="I76" t="s">
+        <v>95</v>
+      </c>
+      <c r="J76">
+        <v>192</v>
+      </c>
+      <c r="K76">
+        <v>33</v>
+      </c>
+      <c r="L76" t="s">
+        <v>17</v>
+      </c>
+      <c r="M76" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77">
+        <v>264004</v>
+      </c>
+      <c r="B77" t="s">
+        <v>93</v>
+      </c>
+      <c r="C77">
+        <v>6</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>76</v>
+      </c>
+      <c r="H77" t="s">
+        <v>94</v>
+      </c>
+      <c r="I77" t="s">
+        <v>95</v>
+      </c>
+      <c r="J77">
+        <v>192</v>
+      </c>
+      <c r="K77">
+        <v>33</v>
+      </c>
+      <c r="L77" t="s">
+        <v>17</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78">
+        <v>261005</v>
+      </c>
+      <c r="B78" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78">
+        <v>6</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>77</v>
+      </c>
+      <c r="H78" t="s">
+        <v>94</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J78" t="s">
+        <v>99</v>
+      </c>
+      <c r="K78">
+        <v>33</v>
+      </c>
+      <c r="L78" t="s">
+        <v>17</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="N78" t="s">
         <v>24</v>
       </c>
-      <c r="K25">
-        <v>10</v>
-      </c>
-      <c r="L25" t="s">
-        <v>18</v>
-      </c>
-      <c r="M25" s="2" t="s">
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79">
+        <v>262006</v>
+      </c>
+      <c r="B79" t="s">
+        <v>97</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>78</v>
+      </c>
+      <c r="H79" t="s">
+        <v>94</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J79" t="s">
+        <v>99</v>
+      </c>
+      <c r="K79">
+        <v>33</v>
+      </c>
+      <c r="L79" t="s">
+        <v>17</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="N79" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80">
+        <v>263007</v>
+      </c>
+      <c r="B80" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80">
+        <v>6</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>79</v>
+      </c>
+      <c r="H80" t="s">
+        <v>94</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J80" t="s">
+        <v>99</v>
+      </c>
+      <c r="K80">
+        <v>33</v>
+      </c>
+      <c r="L80" t="s">
+        <v>17</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="N80" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81">
+        <v>264008</v>
+      </c>
+      <c r="B81" t="s">
+        <v>97</v>
+      </c>
+      <c r="C81">
+        <v>6</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>80</v>
+      </c>
+      <c r="H81" t="s">
+        <v>94</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J81" t="s">
+        <v>99</v>
+      </c>
+      <c r="K81">
+        <v>33</v>
+      </c>
+      <c r="L81" t="s">
+        <v>17</v>
+      </c>
+      <c r="M81" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="N81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82">
+        <v>261009</v>
+      </c>
+      <c r="B82" t="s">
+        <v>101</v>
+      </c>
+      <c r="C82">
+        <v>6</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>81</v>
+      </c>
+      <c r="H82" t="s">
+        <v>94</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J82" t="s">
+        <v>103</v>
+      </c>
+      <c r="K82">
+        <v>33</v>
+      </c>
+      <c r="L82" t="s">
+        <v>17</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="N82" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83">
+        <v>262010</v>
+      </c>
+      <c r="B83" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83">
+        <v>6</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>82</v>
+      </c>
+      <c r="H83" t="s">
+        <v>94</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J83" t="s">
+        <v>103</v>
+      </c>
+      <c r="K83">
+        <v>33</v>
+      </c>
+      <c r="L83" t="s">
+        <v>17</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="N83" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84">
+        <v>263011</v>
+      </c>
+      <c r="B84" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84">
+        <v>6</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>83</v>
+      </c>
+      <c r="H84" t="s">
+        <v>94</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J84" t="s">
+        <v>103</v>
+      </c>
+      <c r="K84">
+        <v>33</v>
+      </c>
+      <c r="L84" t="s">
+        <v>17</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="N84" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85">
+        <v>264012</v>
+      </c>
+      <c r="B85" t="s">
+        <v>101</v>
+      </c>
+      <c r="C85">
+        <v>6</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>84</v>
+      </c>
+      <c r="H85" t="s">
+        <v>94</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J85" t="s">
+        <v>103</v>
+      </c>
+      <c r="K85">
+        <v>33</v>
+      </c>
+      <c r="L85" t="s">
+        <v>17</v>
+      </c>
+      <c r="M85" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="N85" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86">
+        <v>261013</v>
+      </c>
+      <c r="B86" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86">
+        <v>6</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>85</v>
+      </c>
+      <c r="H86" t="s">
+        <v>94</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J86" t="s">
+        <v>107</v>
+      </c>
+      <c r="K86">
+        <v>33</v>
+      </c>
+      <c r="L86" t="s">
+        <v>17</v>
+      </c>
+      <c r="M86" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N86" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87">
+        <v>262014</v>
+      </c>
+      <c r="B87" t="s">
+        <v>105</v>
+      </c>
+      <c r="C87">
+        <v>6</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>86</v>
+      </c>
+      <c r="H87" t="s">
+        <v>94</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J87" t="s">
+        <v>107</v>
+      </c>
+      <c r="K87">
+        <v>33</v>
+      </c>
+      <c r="L87" t="s">
+        <v>17</v>
+      </c>
+      <c r="M87" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88">
+        <v>263015</v>
+      </c>
+      <c r="B88" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88">
+        <v>6</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>87</v>
+      </c>
+      <c r="H88" t="s">
+        <v>94</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J88" t="s">
+        <v>107</v>
+      </c>
+      <c r="K88">
+        <v>33</v>
+      </c>
+      <c r="L88" t="s">
+        <v>17</v>
+      </c>
+      <c r="M88" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N88" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89">
+        <v>264016</v>
+      </c>
+      <c r="B89" t="s">
+        <v>105</v>
+      </c>
+      <c r="C89">
+        <v>6</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>88</v>
+      </c>
+      <c r="H89" t="s">
+        <v>94</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J89" t="s">
+        <v>107</v>
+      </c>
+      <c r="K89">
+        <v>33</v>
+      </c>
+      <c r="L89" t="s">
+        <v>17</v>
+      </c>
+      <c r="M89" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N89" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90">
+        <v>261017</v>
+      </c>
+      <c r="B90" t="s">
+        <v>109</v>
+      </c>
+      <c r="C90">
+        <v>6</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>89</v>
+      </c>
+      <c r="H90" t="s">
+        <v>94</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J90" t="s">
+        <v>111</v>
+      </c>
+      <c r="K90">
+        <v>33</v>
+      </c>
+      <c r="L90" t="s">
+        <v>17</v>
+      </c>
+      <c r="M90" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N90" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91">
+        <v>262018</v>
+      </c>
+      <c r="B91" t="s">
+        <v>109</v>
+      </c>
+      <c r="C91">
+        <v>6</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>90</v>
+      </c>
+      <c r="H91" t="s">
+        <v>94</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J91" t="s">
+        <v>111</v>
+      </c>
+      <c r="K91">
+        <v>33</v>
+      </c>
+      <c r="L91" t="s">
+        <v>17</v>
+      </c>
+      <c r="M91" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N91" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92">
+        <v>263019</v>
+      </c>
+      <c r="B92" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92">
+        <v>6</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>91</v>
+      </c>
+      <c r="H92" t="s">
+        <v>94</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J92" t="s">
+        <v>111</v>
+      </c>
+      <c r="K92">
+        <v>33</v>
+      </c>
+      <c r="L92" t="s">
+        <v>17</v>
+      </c>
+      <c r="M92" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N92" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93">
+        <v>264020</v>
+      </c>
+      <c r="B93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93">
+        <v>6</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>92</v>
+      </c>
+      <c r="H93" t="s">
+        <v>94</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J93" t="s">
+        <v>111</v>
+      </c>
+      <c r="K93">
+        <v>33</v>
+      </c>
+      <c r="L93" t="s">
+        <v>17</v>
+      </c>
+      <c r="M93" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N93" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94">
+        <v>261021</v>
+      </c>
+      <c r="B94" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94">
+        <v>6</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>93</v>
+      </c>
+      <c r="H94" t="s">
+        <v>94</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J94" t="s">
+        <v>115</v>
+      </c>
+      <c r="K94">
+        <v>33</v>
+      </c>
+      <c r="L94" t="s">
+        <v>17</v>
+      </c>
+      <c r="M94" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N94" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95">
+        <v>262022</v>
+      </c>
+      <c r="B95" t="s">
+        <v>113</v>
+      </c>
+      <c r="C95">
+        <v>6</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>94</v>
+      </c>
+      <c r="H95" t="s">
+        <v>94</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J95" t="s">
+        <v>115</v>
+      </c>
+      <c r="K95">
+        <v>33</v>
+      </c>
+      <c r="L95" t="s">
+        <v>17</v>
+      </c>
+      <c r="M95" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N95" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96">
+        <v>263023</v>
+      </c>
+      <c r="B96" t="s">
+        <v>113</v>
+      </c>
+      <c r="C96">
+        <v>6</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>95</v>
+      </c>
+      <c r="H96" t="s">
+        <v>94</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J96" t="s">
+        <v>115</v>
+      </c>
+      <c r="K96">
+        <v>33</v>
+      </c>
+      <c r="L96" t="s">
+        <v>17</v>
+      </c>
+      <c r="M96" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N96" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97">
+        <v>264024</v>
+      </c>
+      <c r="B97" t="s">
+        <v>113</v>
+      </c>
+      <c r="C97">
+        <v>6</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>96</v>
+      </c>
+      <c r="H97" t="s">
+        <v>94</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J97" t="s">
+        <v>115</v>
+      </c>
+      <c r="K97">
+        <v>33</v>
+      </c>
+      <c r="L97" t="s">
+        <v>17</v>
+      </c>
+      <c r="M97" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N97" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98">
+        <v>211001</v>
+      </c>
+      <c r="B98" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>97</v>
+      </c>
+      <c r="H98" t="s">
+        <v>118</v>
+      </c>
+      <c r="I98" t="s">
+        <v>119</v>
+      </c>
+      <c r="J98">
+        <v>48</v>
+      </c>
+      <c r="K98">
+        <v>33</v>
+      </c>
+      <c r="L98" t="s">
+        <v>17</v>
+      </c>
+      <c r="M98" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="N98" t="s">
         <v>19</v>
       </c>
-      <c r="N25" s="2" t="s">
-        <v>64</v>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99">
+        <v>212002</v>
+      </c>
+      <c r="B99" t="s">
+        <v>117</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>98</v>
+      </c>
+      <c r="H99" t="s">
+        <v>118</v>
+      </c>
+      <c r="I99" t="s">
+        <v>119</v>
+      </c>
+      <c r="J99">
+        <v>48</v>
+      </c>
+      <c r="K99">
+        <v>33</v>
+      </c>
+      <c r="L99" t="s">
+        <v>17</v>
+      </c>
+      <c r="M99" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="N99" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100">
+        <v>213003</v>
+      </c>
+      <c r="B100" t="s">
+        <v>117</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>99</v>
+      </c>
+      <c r="H100" t="s">
+        <v>118</v>
+      </c>
+      <c r="I100" t="s">
+        <v>119</v>
+      </c>
+      <c r="J100">
+        <v>48</v>
+      </c>
+      <c r="K100">
+        <v>33</v>
+      </c>
+      <c r="L100" t="s">
+        <v>17</v>
+      </c>
+      <c r="M100" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="N100" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101">
+        <v>214004</v>
+      </c>
+      <c r="B101" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>4</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>100</v>
+      </c>
+      <c r="H101" t="s">
+        <v>118</v>
+      </c>
+      <c r="I101" t="s">
+        <v>119</v>
+      </c>
+      <c r="J101">
+        <v>48</v>
+      </c>
+      <c r="K101">
+        <v>33</v>
+      </c>
+      <c r="L101" t="s">
+        <v>17</v>
+      </c>
+      <c r="M101" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="N101" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102">
+        <v>211005</v>
+      </c>
+      <c r="B102" t="s">
+        <v>121</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>101</v>
+      </c>
+      <c r="H102" t="s">
+        <v>118</v>
+      </c>
+      <c r="I102" t="s">
+        <v>122</v>
+      </c>
+      <c r="J102" t="s">
+        <v>123</v>
+      </c>
+      <c r="K102">
+        <v>33</v>
+      </c>
+      <c r="L102" t="s">
+        <v>17</v>
+      </c>
+      <c r="M102" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="N102" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103">
+        <v>212006</v>
+      </c>
+      <c r="B103" t="s">
+        <v>121</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>102</v>
+      </c>
+      <c r="H103" t="s">
+        <v>118</v>
+      </c>
+      <c r="I103" t="s">
+        <v>122</v>
+      </c>
+      <c r="J103" t="s">
+        <v>123</v>
+      </c>
+      <c r="K103">
+        <v>33</v>
+      </c>
+      <c r="L103" t="s">
+        <v>17</v>
+      </c>
+      <c r="M103" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="N103" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104">
+        <v>213007</v>
+      </c>
+      <c r="B104" t="s">
+        <v>121</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>103</v>
+      </c>
+      <c r="H104" t="s">
+        <v>118</v>
+      </c>
+      <c r="I104" t="s">
+        <v>122</v>
+      </c>
+      <c r="J104" t="s">
+        <v>123</v>
+      </c>
+      <c r="K104">
+        <v>33</v>
+      </c>
+      <c r="L104" t="s">
+        <v>17</v>
+      </c>
+      <c r="M104" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="N104" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105">
+        <v>214008</v>
+      </c>
+      <c r="B105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>4</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>104</v>
+      </c>
+      <c r="H105" t="s">
+        <v>118</v>
+      </c>
+      <c r="I105" t="s">
+        <v>122</v>
+      </c>
+      <c r="J105" t="s">
+        <v>123</v>
+      </c>
+      <c r="K105">
+        <v>33</v>
+      </c>
+      <c r="L105" t="s">
+        <v>17</v>
+      </c>
+      <c r="M105" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="N105" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106">
+        <v>211009</v>
+      </c>
+      <c r="B106" t="s">
+        <v>125</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>105</v>
+      </c>
+      <c r="H106" t="s">
+        <v>118</v>
+      </c>
+      <c r="I106" t="s">
+        <v>126</v>
+      </c>
+      <c r="J106" t="s">
+        <v>127</v>
+      </c>
+      <c r="K106">
+        <v>33</v>
+      </c>
+      <c r="L106" t="s">
+        <v>17</v>
+      </c>
+      <c r="M106" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="N106" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107">
+        <v>212010</v>
+      </c>
+      <c r="B107" t="s">
+        <v>125</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>106</v>
+      </c>
+      <c r="H107" t="s">
+        <v>118</v>
+      </c>
+      <c r="I107" t="s">
+        <v>126</v>
+      </c>
+      <c r="J107" t="s">
+        <v>127</v>
+      </c>
+      <c r="K107">
+        <v>33</v>
+      </c>
+      <c r="L107" t="s">
+        <v>17</v>
+      </c>
+      <c r="M107" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="N107" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108">
+        <v>213011</v>
+      </c>
+      <c r="B108" t="s">
+        <v>125</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>107</v>
+      </c>
+      <c r="H108" t="s">
+        <v>118</v>
+      </c>
+      <c r="I108" t="s">
+        <v>126</v>
+      </c>
+      <c r="J108" t="s">
+        <v>127</v>
+      </c>
+      <c r="K108">
+        <v>33</v>
+      </c>
+      <c r="L108" t="s">
+        <v>17</v>
+      </c>
+      <c r="M108" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="N108" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109">
+        <v>214012</v>
+      </c>
+      <c r="B109" t="s">
+        <v>125</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>4</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>108</v>
+      </c>
+      <c r="H109" t="s">
+        <v>118</v>
+      </c>
+      <c r="I109" t="s">
+        <v>126</v>
+      </c>
+      <c r="J109" t="s">
+        <v>127</v>
+      </c>
+      <c r="K109">
+        <v>33</v>
+      </c>
+      <c r="L109" t="s">
+        <v>17</v>
+      </c>
+      <c r="M109" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="N109" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110">
+        <v>211013</v>
+      </c>
+      <c r="B110" t="s">
+        <v>129</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>109</v>
+      </c>
+      <c r="H110" t="s">
+        <v>118</v>
+      </c>
+      <c r="I110" t="s">
+        <v>130</v>
+      </c>
+      <c r="J110" t="s">
+        <v>131</v>
+      </c>
+      <c r="K110">
+        <v>33</v>
+      </c>
+      <c r="L110" t="s">
+        <v>17</v>
+      </c>
+      <c r="M110" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N110" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111">
+        <v>212014</v>
+      </c>
+      <c r="B111" t="s">
+        <v>129</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>110</v>
+      </c>
+      <c r="H111" t="s">
+        <v>118</v>
+      </c>
+      <c r="I111" t="s">
+        <v>130</v>
+      </c>
+      <c r="J111" t="s">
+        <v>131</v>
+      </c>
+      <c r="K111">
+        <v>33</v>
+      </c>
+      <c r="L111" t="s">
+        <v>17</v>
+      </c>
+      <c r="M111" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N111" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112">
+        <v>213015</v>
+      </c>
+      <c r="B112" t="s">
+        <v>129</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>111</v>
+      </c>
+      <c r="H112" t="s">
+        <v>118</v>
+      </c>
+      <c r="I112" t="s">
+        <v>130</v>
+      </c>
+      <c r="J112" t="s">
+        <v>131</v>
+      </c>
+      <c r="K112">
+        <v>33</v>
+      </c>
+      <c r="L112" t="s">
+        <v>17</v>
+      </c>
+      <c r="M112" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N112" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113">
+        <v>214016</v>
+      </c>
+      <c r="B113" t="s">
+        <v>129</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>4</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>112</v>
+      </c>
+      <c r="H113" t="s">
+        <v>118</v>
+      </c>
+      <c r="I113" t="s">
+        <v>130</v>
+      </c>
+      <c r="J113" t="s">
+        <v>131</v>
+      </c>
+      <c r="K113">
+        <v>33</v>
+      </c>
+      <c r="L113" t="s">
+        <v>17</v>
+      </c>
+      <c r="M113" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N113" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114">
+        <v>211017</v>
+      </c>
+      <c r="B114" t="s">
+        <v>133</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>113</v>
+      </c>
+      <c r="H114" t="s">
+        <v>118</v>
+      </c>
+      <c r="I114" t="s">
+        <v>134</v>
+      </c>
+      <c r="J114" t="s">
+        <v>135</v>
+      </c>
+      <c r="K114">
+        <v>33</v>
+      </c>
+      <c r="L114" t="s">
+        <v>17</v>
+      </c>
+      <c r="M114" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N114" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115">
+        <v>212018</v>
+      </c>
+      <c r="B115" t="s">
+        <v>133</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>114</v>
+      </c>
+      <c r="H115" t="s">
+        <v>118</v>
+      </c>
+      <c r="I115" t="s">
+        <v>134</v>
+      </c>
+      <c r="J115" t="s">
+        <v>135</v>
+      </c>
+      <c r="K115">
+        <v>33</v>
+      </c>
+      <c r="L115" t="s">
+        <v>17</v>
+      </c>
+      <c r="M115" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N115" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116">
+        <v>213019</v>
+      </c>
+      <c r="B116" t="s">
+        <v>133</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>3</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>115</v>
+      </c>
+      <c r="H116" t="s">
+        <v>118</v>
+      </c>
+      <c r="I116" t="s">
+        <v>134</v>
+      </c>
+      <c r="J116" t="s">
+        <v>135</v>
+      </c>
+      <c r="K116">
+        <v>33</v>
+      </c>
+      <c r="L116" t="s">
+        <v>17</v>
+      </c>
+      <c r="M116" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N116" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117">
+        <v>214020</v>
+      </c>
+      <c r="B117" t="s">
+        <v>133</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>4</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>116</v>
+      </c>
+      <c r="H117" t="s">
+        <v>118</v>
+      </c>
+      <c r="I117" t="s">
+        <v>134</v>
+      </c>
+      <c r="J117" t="s">
+        <v>135</v>
+      </c>
+      <c r="K117">
+        <v>33</v>
+      </c>
+      <c r="L117" t="s">
+        <v>17</v>
+      </c>
+      <c r="M117" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N117" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118">
+        <v>211021</v>
+      </c>
+      <c r="B118" t="s">
+        <v>137</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>117</v>
+      </c>
+      <c r="H118" t="s">
+        <v>118</v>
+      </c>
+      <c r="I118" t="s">
+        <v>138</v>
+      </c>
+      <c r="J118" t="s">
+        <v>139</v>
+      </c>
+      <c r="K118">
+        <v>33</v>
+      </c>
+      <c r="L118" t="s">
+        <v>17</v>
+      </c>
+      <c r="M118" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N118" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119">
+        <v>212022</v>
+      </c>
+      <c r="B119" t="s">
+        <v>137</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>118</v>
+      </c>
+      <c r="H119" t="s">
+        <v>118</v>
+      </c>
+      <c r="I119" t="s">
+        <v>138</v>
+      </c>
+      <c r="J119" t="s">
+        <v>139</v>
+      </c>
+      <c r="K119">
+        <v>33</v>
+      </c>
+      <c r="L119" t="s">
+        <v>17</v>
+      </c>
+      <c r="M119" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N119" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120">
+        <v>213023</v>
+      </c>
+      <c r="B120" t="s">
+        <v>137</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>119</v>
+      </c>
+      <c r="H120" t="s">
+        <v>118</v>
+      </c>
+      <c r="I120" t="s">
+        <v>138</v>
+      </c>
+      <c r="J120" t="s">
+        <v>139</v>
+      </c>
+      <c r="K120">
+        <v>33</v>
+      </c>
+      <c r="L120" t="s">
+        <v>17</v>
+      </c>
+      <c r="M120" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N120" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121">
+        <v>214024</v>
+      </c>
+      <c r="B121" t="s">
+        <v>137</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>4</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>120</v>
+      </c>
+      <c r="H121" t="s">
+        <v>118</v>
+      </c>
+      <c r="I121" t="s">
+        <v>138</v>
+      </c>
+      <c r="J121" t="s">
+        <v>139</v>
+      </c>
+      <c r="K121">
+        <v>33</v>
+      </c>
+      <c r="L121" t="s">
+        <v>17</v>
+      </c>
+      <c r="M121" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N121" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122">
+        <v>251001</v>
+      </c>
+      <c r="B122" t="s">
+        <v>141</v>
+      </c>
+      <c r="C122">
+        <v>5</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>121</v>
+      </c>
+      <c r="H122" t="s">
+        <v>142</v>
+      </c>
+      <c r="I122" t="s">
+        <v>143</v>
+      </c>
+      <c r="J122">
+        <v>160</v>
+      </c>
+      <c r="K122">
+        <v>33</v>
+      </c>
+      <c r="L122" t="s">
+        <v>17</v>
+      </c>
+      <c r="M122" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="N122" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123">
+        <v>252002</v>
+      </c>
+      <c r="B123" t="s">
+        <v>141</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>122</v>
+      </c>
+      <c r="H123" t="s">
+        <v>142</v>
+      </c>
+      <c r="I123" t="s">
+        <v>143</v>
+      </c>
+      <c r="J123">
+        <v>160</v>
+      </c>
+      <c r="K123">
+        <v>33</v>
+      </c>
+      <c r="L123" t="s">
+        <v>17</v>
+      </c>
+      <c r="M123" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="N123" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124">
+        <v>253003</v>
+      </c>
+      <c r="B124" t="s">
+        <v>141</v>
+      </c>
+      <c r="C124">
+        <v>5</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>123</v>
+      </c>
+      <c r="H124" t="s">
+        <v>142</v>
+      </c>
+      <c r="I124" t="s">
+        <v>143</v>
+      </c>
+      <c r="J124">
+        <v>160</v>
+      </c>
+      <c r="K124">
+        <v>33</v>
+      </c>
+      <c r="L124" t="s">
+        <v>17</v>
+      </c>
+      <c r="M124" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="N124" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125">
+        <v>254004</v>
+      </c>
+      <c r="B125" t="s">
+        <v>141</v>
+      </c>
+      <c r="C125">
+        <v>5</v>
+      </c>
+      <c r="D125">
+        <v>4</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>124</v>
+      </c>
+      <c r="H125" t="s">
+        <v>142</v>
+      </c>
+      <c r="I125" t="s">
+        <v>143</v>
+      </c>
+      <c r="J125">
+        <v>160</v>
+      </c>
+      <c r="K125">
+        <v>33</v>
+      </c>
+      <c r="L125" t="s">
+        <v>17</v>
+      </c>
+      <c r="M125" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="N125" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126">
+        <v>251005</v>
+      </c>
+      <c r="B126" t="s">
+        <v>145</v>
+      </c>
+      <c r="C126">
+        <v>5</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>125</v>
+      </c>
+      <c r="H126" t="s">
+        <v>142</v>
+      </c>
+      <c r="I126" t="s">
+        <v>146</v>
+      </c>
+      <c r="J126" t="s">
+        <v>147</v>
+      </c>
+      <c r="K126">
+        <v>33</v>
+      </c>
+      <c r="L126" t="s">
+        <v>17</v>
+      </c>
+      <c r="M126" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="N126" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127">
+        <v>252006</v>
+      </c>
+      <c r="B127" t="s">
+        <v>145</v>
+      </c>
+      <c r="C127">
+        <v>5</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>126</v>
+      </c>
+      <c r="H127" t="s">
+        <v>142</v>
+      </c>
+      <c r="I127" t="s">
+        <v>146</v>
+      </c>
+      <c r="J127" t="s">
+        <v>147</v>
+      </c>
+      <c r="K127">
+        <v>33</v>
+      </c>
+      <c r="L127" t="s">
+        <v>17</v>
+      </c>
+      <c r="M127" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="N127" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128">
+        <v>253007</v>
+      </c>
+      <c r="B128" t="s">
+        <v>145</v>
+      </c>
+      <c r="C128">
+        <v>5</v>
+      </c>
+      <c r="D128">
+        <v>3</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>127</v>
+      </c>
+      <c r="H128" t="s">
+        <v>142</v>
+      </c>
+      <c r="I128" t="s">
+        <v>146</v>
+      </c>
+      <c r="J128" t="s">
+        <v>147</v>
+      </c>
+      <c r="K128">
+        <v>33</v>
+      </c>
+      <c r="L128" t="s">
+        <v>17</v>
+      </c>
+      <c r="M128" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="N128" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="A129">
+        <v>254008</v>
+      </c>
+      <c r="B129" t="s">
+        <v>145</v>
+      </c>
+      <c r="C129">
+        <v>5</v>
+      </c>
+      <c r="D129">
+        <v>4</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>128</v>
+      </c>
+      <c r="H129" t="s">
+        <v>142</v>
+      </c>
+      <c r="I129" t="s">
+        <v>146</v>
+      </c>
+      <c r="J129" t="s">
+        <v>147</v>
+      </c>
+      <c r="K129">
+        <v>33</v>
+      </c>
+      <c r="L129" t="s">
+        <v>17</v>
+      </c>
+      <c r="M129" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="N129" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130">
+        <v>251009</v>
+      </c>
+      <c r="B130" t="s">
+        <v>149</v>
+      </c>
+      <c r="C130">
+        <v>5</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>129</v>
+      </c>
+      <c r="H130" t="s">
+        <v>142</v>
+      </c>
+      <c r="I130" t="s">
+        <v>150</v>
+      </c>
+      <c r="J130" t="s">
+        <v>151</v>
+      </c>
+      <c r="K130">
+        <v>33</v>
+      </c>
+      <c r="L130" t="s">
+        <v>17</v>
+      </c>
+      <c r="M130" t="s">
+        <v>152</v>
+      </c>
+      <c r="N130" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131">
+        <v>252010</v>
+      </c>
+      <c r="B131" t="s">
+        <v>149</v>
+      </c>
+      <c r="C131">
+        <v>5</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>130</v>
+      </c>
+      <c r="H131" t="s">
+        <v>142</v>
+      </c>
+      <c r="I131" t="s">
+        <v>150</v>
+      </c>
+      <c r="J131" t="s">
+        <v>151</v>
+      </c>
+      <c r="K131">
+        <v>33</v>
+      </c>
+      <c r="L131" t="s">
+        <v>17</v>
+      </c>
+      <c r="M131" t="s">
+        <v>152</v>
+      </c>
+      <c r="N131" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="A132">
+        <v>253011</v>
+      </c>
+      <c r="B132" t="s">
+        <v>149</v>
+      </c>
+      <c r="C132">
+        <v>5</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>131</v>
+      </c>
+      <c r="H132" t="s">
+        <v>142</v>
+      </c>
+      <c r="I132" t="s">
+        <v>150</v>
+      </c>
+      <c r="J132" t="s">
+        <v>151</v>
+      </c>
+      <c r="K132">
+        <v>33</v>
+      </c>
+      <c r="L132" t="s">
+        <v>17</v>
+      </c>
+      <c r="M132" t="s">
+        <v>152</v>
+      </c>
+      <c r="N132" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="A133">
+        <v>254012</v>
+      </c>
+      <c r="B133" t="s">
+        <v>149</v>
+      </c>
+      <c r="C133">
+        <v>5</v>
+      </c>
+      <c r="D133">
+        <v>4</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>132</v>
+      </c>
+      <c r="H133" t="s">
+        <v>142</v>
+      </c>
+      <c r="I133" t="s">
+        <v>150</v>
+      </c>
+      <c r="J133" t="s">
+        <v>151</v>
+      </c>
+      <c r="K133">
+        <v>33</v>
+      </c>
+      <c r="L133" t="s">
+        <v>17</v>
+      </c>
+      <c r="M133" t="s">
+        <v>152</v>
+      </c>
+      <c r="N133" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="A134">
+        <v>251013</v>
+      </c>
+      <c r="B134" t="s">
+        <v>153</v>
+      </c>
+      <c r="C134">
+        <v>5</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>133</v>
+      </c>
+      <c r="H134" t="s">
+        <v>142</v>
+      </c>
+      <c r="I134" t="s">
+        <v>154</v>
+      </c>
+      <c r="J134" t="s">
+        <v>155</v>
+      </c>
+      <c r="K134">
+        <v>33</v>
+      </c>
+      <c r="L134" t="s">
+        <v>17</v>
+      </c>
+      <c r="M134" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="N134" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="A135">
+        <v>252014</v>
+      </c>
+      <c r="B135" t="s">
+        <v>153</v>
+      </c>
+      <c r="C135">
+        <v>5</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>134</v>
+      </c>
+      <c r="H135" t="s">
+        <v>142</v>
+      </c>
+      <c r="I135" t="s">
+        <v>154</v>
+      </c>
+      <c r="J135" t="s">
+        <v>155</v>
+      </c>
+      <c r="K135">
+        <v>33</v>
+      </c>
+      <c r="L135" t="s">
+        <v>17</v>
+      </c>
+      <c r="M135" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="N135" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="A136">
+        <v>253015</v>
+      </c>
+      <c r="B136" t="s">
+        <v>153</v>
+      </c>
+      <c r="C136">
+        <v>5</v>
+      </c>
+      <c r="D136">
+        <v>3</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>135</v>
+      </c>
+      <c r="H136" t="s">
+        <v>142</v>
+      </c>
+      <c r="I136" t="s">
+        <v>154</v>
+      </c>
+      <c r="J136" t="s">
+        <v>155</v>
+      </c>
+      <c r="K136">
+        <v>33</v>
+      </c>
+      <c r="L136" t="s">
+        <v>17</v>
+      </c>
+      <c r="M136" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="N136" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="A137">
+        <v>254016</v>
+      </c>
+      <c r="B137" t="s">
+        <v>153</v>
+      </c>
+      <c r="C137">
+        <v>5</v>
+      </c>
+      <c r="D137">
+        <v>4</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>136</v>
+      </c>
+      <c r="H137" t="s">
+        <v>142</v>
+      </c>
+      <c r="I137" t="s">
+        <v>154</v>
+      </c>
+      <c r="J137" t="s">
+        <v>155</v>
+      </c>
+      <c r="K137">
+        <v>33</v>
+      </c>
+      <c r="L137" t="s">
+        <v>17</v>
+      </c>
+      <c r="M137" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="N137" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="A138">
+        <v>251017</v>
+      </c>
+      <c r="B138" t="s">
+        <v>157</v>
+      </c>
+      <c r="C138">
+        <v>5</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <v>137</v>
+      </c>
+      <c r="H138" t="s">
+        <v>142</v>
+      </c>
+      <c r="I138" t="s">
+        <v>158</v>
+      </c>
+      <c r="J138" t="s">
+        <v>159</v>
+      </c>
+      <c r="K138">
+        <v>33</v>
+      </c>
+      <c r="L138" t="s">
+        <v>17</v>
+      </c>
+      <c r="M138" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="N138" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="A139">
+        <v>252018</v>
+      </c>
+      <c r="B139" t="s">
+        <v>157</v>
+      </c>
+      <c r="C139">
+        <v>5</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <v>138</v>
+      </c>
+      <c r="H139" t="s">
+        <v>142</v>
+      </c>
+      <c r="I139" t="s">
+        <v>158</v>
+      </c>
+      <c r="J139" t="s">
+        <v>159</v>
+      </c>
+      <c r="K139">
+        <v>33</v>
+      </c>
+      <c r="L139" t="s">
+        <v>17</v>
+      </c>
+      <c r="M139" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="N139" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="A140">
+        <v>253019</v>
+      </c>
+      <c r="B140" t="s">
+        <v>157</v>
+      </c>
+      <c r="C140">
+        <v>5</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>139</v>
+      </c>
+      <c r="H140" t="s">
+        <v>142</v>
+      </c>
+      <c r="I140" t="s">
+        <v>158</v>
+      </c>
+      <c r="J140" t="s">
+        <v>159</v>
+      </c>
+      <c r="K140">
+        <v>33</v>
+      </c>
+      <c r="L140" t="s">
+        <v>17</v>
+      </c>
+      <c r="M140" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="N140" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="A141">
+        <v>254020</v>
+      </c>
+      <c r="B141" t="s">
+        <v>157</v>
+      </c>
+      <c r="C141">
+        <v>5</v>
+      </c>
+      <c r="D141">
+        <v>4</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>140</v>
+      </c>
+      <c r="H141" t="s">
+        <v>142</v>
+      </c>
+      <c r="I141" t="s">
+        <v>158</v>
+      </c>
+      <c r="J141" t="s">
+        <v>159</v>
+      </c>
+      <c r="K141">
+        <v>33</v>
+      </c>
+      <c r="L141" t="s">
+        <v>17</v>
+      </c>
+      <c r="M141" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="N141" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="A142">
+        <v>251021</v>
+      </c>
+      <c r="B142" t="s">
+        <v>161</v>
+      </c>
+      <c r="C142">
+        <v>5</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>141</v>
+      </c>
+      <c r="H142" t="s">
+        <v>142</v>
+      </c>
+      <c r="I142" t="s">
+        <v>162</v>
+      </c>
+      <c r="J142" t="s">
+        <v>163</v>
+      </c>
+      <c r="K142">
+        <v>33</v>
+      </c>
+      <c r="L142" t="s">
+        <v>17</v>
+      </c>
+      <c r="M142" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="N142" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="A143">
+        <v>252022</v>
+      </c>
+      <c r="B143" t="s">
+        <v>161</v>
+      </c>
+      <c r="C143">
+        <v>5</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>142</v>
+      </c>
+      <c r="H143" t="s">
+        <v>142</v>
+      </c>
+      <c r="I143" t="s">
+        <v>162</v>
+      </c>
+      <c r="J143" t="s">
+        <v>163</v>
+      </c>
+      <c r="K143">
+        <v>33</v>
+      </c>
+      <c r="L143" t="s">
+        <v>17</v>
+      </c>
+      <c r="M143" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="N143" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="A144">
+        <v>253023</v>
+      </c>
+      <c r="B144" t="s">
+        <v>161</v>
+      </c>
+      <c r="C144">
+        <v>5</v>
+      </c>
+      <c r="D144">
+        <v>3</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>143</v>
+      </c>
+      <c r="H144" t="s">
+        <v>142</v>
+      </c>
+      <c r="I144" t="s">
+        <v>162</v>
+      </c>
+      <c r="J144" t="s">
+        <v>163</v>
+      </c>
+      <c r="K144">
+        <v>33</v>
+      </c>
+      <c r="L144" t="s">
+        <v>17</v>
+      </c>
+      <c r="M144" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="N144" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="A145">
+        <v>254024</v>
+      </c>
+      <c r="B145" t="s">
+        <v>161</v>
+      </c>
+      <c r="C145">
+        <v>5</v>
+      </c>
+      <c r="D145">
+        <v>4</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>144</v>
+      </c>
+      <c r="H145" t="s">
+        <v>142</v>
+      </c>
+      <c r="I145" t="s">
+        <v>162</v>
+      </c>
+      <c r="J145" t="s">
+        <v>163</v>
+      </c>
+      <c r="K145">
+        <v>33</v>
+      </c>
+      <c r="L145" t="s">
+        <v>17</v>
+      </c>
+      <c r="M145" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="N145" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A$1:A$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/other/配置表/z-装备配置表.xlsx
+++ b/other/配置表/z-装备配置表.xlsx
@@ -793,12 +793,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -810,13 +810,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -831,9 +838,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -844,72 +859,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -928,16 +881,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -952,9 +897,57 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -967,7 +960,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,13 +1050,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,13 +1080,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,79 +1110,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,55 +1128,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1158,15 +1151,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1186,32 +1170,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1221,6 +1179,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1244,17 +1217,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1266,10 +1259,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1278,137 +1271,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1421,10 +1414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1787,8 +1777,8 @@
   <sheetPr/>
   <dimension ref="A1:N145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H$1:H$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1868,10 +1858,11 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <f>A2</f>
+        <v>241001</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1888,7 +1879,7 @@
       <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N2" t="s">
@@ -1912,10 +1903,11 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <f t="shared" ref="G3:G34" si="0">A3</f>
+        <v>242002</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -1932,7 +1924,7 @@
       <c r="L3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N3" t="s">
@@ -1956,10 +1948,11 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>243003</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -1976,7 +1969,7 @@
       <c r="L4" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N4" t="s">
@@ -2000,10 +1993,11 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>244004</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -2020,7 +2014,7 @@
       <c r="L5" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N5" t="s">
@@ -2044,15 +2038,16 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>241005</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J6" t="s">
@@ -2064,7 +2059,7 @@
       <c r="L6" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N6" t="s">
@@ -2088,15 +2083,16 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>242006</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J7" t="s">
@@ -2108,7 +2104,7 @@
       <c r="L7" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N7" t="s">
@@ -2132,15 +2128,16 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>243007</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J8" t="s">
@@ -2152,7 +2149,7 @@
       <c r="L8" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N8" t="s">
@@ -2176,15 +2173,16 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>244008</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J9" t="s">
@@ -2196,7 +2194,7 @@
       <c r="L9" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N9" t="s">
@@ -2220,15 +2218,16 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>241009</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="4" t="s">
         <v>26</v>
       </c>
       <c r="J10" t="s">
@@ -2240,7 +2239,7 @@
       <c r="L10" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N10" t="s">
@@ -2264,15 +2263,16 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>242010</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="4" t="s">
         <v>26</v>
       </c>
       <c r="J11" t="s">
@@ -2284,7 +2284,7 @@
       <c r="L11" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N11" t="s">
@@ -2308,15 +2308,16 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>243011</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="4" t="s">
         <v>26</v>
       </c>
       <c r="J12" t="s">
@@ -2328,7 +2329,7 @@
       <c r="L12" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N12" t="s">
@@ -2352,15 +2353,16 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>244012</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="J13" t="s">
@@ -2372,7 +2374,7 @@
       <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="N13" t="s">
@@ -2396,15 +2398,16 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>241013</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J14" t="s">
@@ -2416,7 +2419,7 @@
       <c r="L14" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="N14" t="s">
@@ -2440,15 +2443,16 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>242014</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J15" t="s">
@@ -2460,7 +2464,7 @@
       <c r="L15" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="N15" t="s">
@@ -2484,15 +2488,16 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>243015</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J16" t="s">
@@ -2504,7 +2509,7 @@
       <c r="L16" t="s">
         <v>17</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="N16" t="s">
@@ -2528,15 +2533,16 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>244016</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J17" t="s">
@@ -2548,7 +2554,7 @@
       <c r="L17" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="N17" t="s">
@@ -2572,15 +2578,16 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>241017</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="J18" t="s">
@@ -2592,7 +2599,7 @@
       <c r="L18" t="s">
         <v>17</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="2" t="s">
         <v>37</v>
       </c>
       <c r="N18" t="s">
@@ -2616,15 +2623,16 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>242018</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="4" t="s">
         <v>35</v>
       </c>
       <c r="J19" t="s">
@@ -2636,7 +2644,7 @@
       <c r="L19" t="s">
         <v>17</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="2" t="s">
         <v>37</v>
       </c>
       <c r="N19" t="s">
@@ -2660,15 +2668,16 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>243019</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="4" t="s">
         <v>35</v>
       </c>
       <c r="J20" t="s">
@@ -2680,7 +2689,7 @@
       <c r="L20" t="s">
         <v>17</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="N20" t="s">
@@ -2704,15 +2713,16 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>244020</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="4" t="s">
         <v>35</v>
       </c>
       <c r="J21" t="s">
@@ -2724,7 +2734,7 @@
       <c r="L21" t="s">
         <v>17</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="2" t="s">
         <v>37</v>
       </c>
       <c r="N21" t="s">
@@ -2748,15 +2758,16 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>241021</v>
       </c>
       <c r="H22" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J22" t="s">
@@ -2768,7 +2779,7 @@
       <c r="L22" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="M22" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N22" t="s">
@@ -2792,15 +2803,16 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>242022</v>
       </c>
       <c r="H23" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J23" t="s">
@@ -2812,7 +2824,7 @@
       <c r="L23" t="s">
         <v>17</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N23" t="s">
@@ -2836,15 +2848,16 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>243023</v>
       </c>
       <c r="H24" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J24" t="s">
@@ -2856,7 +2869,7 @@
       <c r="L24" t="s">
         <v>17</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N24" t="s">
@@ -2880,15 +2893,16 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>244024</v>
       </c>
       <c r="H25" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J25" t="s">
@@ -2900,7 +2914,7 @@
       <c r="L25" t="s">
         <v>17</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="M25" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N25" t="s">
@@ -2924,10 +2938,11 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>221001</v>
       </c>
       <c r="H26" t="s">
         <v>45</v>
@@ -2944,7 +2959,7 @@
       <c r="L26" t="s">
         <v>17</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="M26" s="2" t="s">
         <v>47</v>
       </c>
       <c r="N26" t="s">
@@ -2968,10 +2983,11 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>222002</v>
       </c>
       <c r="H27" t="s">
         <v>45</v>
@@ -2988,7 +3004,7 @@
       <c r="L27" t="s">
         <v>17</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="M27" s="2" t="s">
         <v>47</v>
       </c>
       <c r="N27" t="s">
@@ -3012,10 +3028,11 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>27</v>
+        <f t="shared" si="0"/>
+        <v>223003</v>
       </c>
       <c r="H28" t="s">
         <v>45</v>
@@ -3032,7 +3049,7 @@
       <c r="L28" t="s">
         <v>17</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="M28" s="2" t="s">
         <v>47</v>
       </c>
       <c r="N28" t="s">
@@ -3056,10 +3073,11 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>224004</v>
       </c>
       <c r="H29" t="s">
         <v>45</v>
@@ -3076,7 +3094,7 @@
       <c r="L29" t="s">
         <v>17</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="M29" s="2" t="s">
         <v>47</v>
       </c>
       <c r="N29" t="s">
@@ -3100,15 +3118,16 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>221005</v>
       </c>
       <c r="H30" t="s">
         <v>45</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="4" t="s">
         <v>49</v>
       </c>
       <c r="J30" t="s">
@@ -3120,7 +3139,7 @@
       <c r="L30" t="s">
         <v>17</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="M30" s="2" t="s">
         <v>51</v>
       </c>
       <c r="N30" t="s">
@@ -3144,15 +3163,16 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>222006</v>
       </c>
       <c r="H31" t="s">
         <v>45</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="4" t="s">
         <v>49</v>
       </c>
       <c r="J31" t="s">
@@ -3188,15 +3208,16 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32">
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>223007</v>
       </c>
       <c r="H32" t="s">
         <v>45</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I32" s="4" t="s">
         <v>49</v>
       </c>
       <c r="J32" t="s">
@@ -3232,15 +3253,16 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33">
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>224008</v>
       </c>
       <c r="H33" t="s">
         <v>45</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="4" t="s">
         <v>49</v>
       </c>
       <c r="J33" t="s">
@@ -3276,15 +3298,16 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>221009</v>
       </c>
       <c r="H34" t="s">
         <v>45</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" s="4" t="s">
         <v>54</v>
       </c>
       <c r="J34" t="s">
@@ -3296,7 +3319,7 @@
       <c r="L34" t="s">
         <v>17</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="M34" s="2" t="s">
         <v>56</v>
       </c>
       <c r="N34" t="s">
@@ -3320,15 +3343,16 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35">
-        <v>34</v>
+        <f t="shared" ref="G35:G66" si="1">A35</f>
+        <v>222010</v>
       </c>
       <c r="H35" t="s">
         <v>45</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="4" t="s">
         <v>54</v>
       </c>
       <c r="J35" t="s">
@@ -3340,7 +3364,7 @@
       <c r="L35" t="s">
         <v>17</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="M35" s="2" t="s">
         <v>56</v>
       </c>
       <c r="N35" t="s">
@@ -3364,15 +3388,16 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>223011</v>
       </c>
       <c r="H36" t="s">
         <v>45</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="4" t="s">
         <v>54</v>
       </c>
       <c r="J36" t="s">
@@ -3384,7 +3409,7 @@
       <c r="L36" t="s">
         <v>17</v>
       </c>
-      <c r="M36" s="4" t="s">
+      <c r="M36" s="2" t="s">
         <v>56</v>
       </c>
       <c r="N36" t="s">
@@ -3408,15 +3433,16 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37">
-        <v>36</v>
+        <f t="shared" si="1"/>
+        <v>224012</v>
       </c>
       <c r="H37" t="s">
         <v>45</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" s="4" t="s">
         <v>54</v>
       </c>
       <c r="J37" t="s">
@@ -3428,7 +3454,7 @@
       <c r="L37" t="s">
         <v>17</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="M37" s="2" t="s">
         <v>56</v>
       </c>
       <c r="N37" t="s">
@@ -3452,15 +3478,16 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38">
-        <v>37</v>
+        <f t="shared" si="1"/>
+        <v>221013</v>
       </c>
       <c r="H38" t="s">
         <v>45</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" s="4" t="s">
         <v>58</v>
       </c>
       <c r="J38" t="s">
@@ -3472,7 +3499,7 @@
       <c r="L38" t="s">
         <v>17</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="M38" s="2" t="s">
         <v>60</v>
       </c>
       <c r="N38" t="s">
@@ -3496,15 +3523,16 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39">
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>222014</v>
       </c>
       <c r="H39" t="s">
         <v>45</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="4" t="s">
         <v>58</v>
       </c>
       <c r="J39" t="s">
@@ -3516,7 +3544,7 @@
       <c r="L39" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="4" t="s">
+      <c r="M39" s="2" t="s">
         <v>60</v>
       </c>
       <c r="N39" t="s">
@@ -3540,15 +3568,16 @@
         <v>1</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40">
-        <v>39</v>
+        <f t="shared" si="1"/>
+        <v>223015</v>
       </c>
       <c r="H40" t="s">
         <v>45</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I40" s="4" t="s">
         <v>58</v>
       </c>
       <c r="J40" t="s">
@@ -3560,7 +3589,7 @@
       <c r="L40" t="s">
         <v>17</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="M40" s="2" t="s">
         <v>60</v>
       </c>
       <c r="N40" t="s">
@@ -3584,15 +3613,16 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>224016</v>
       </c>
       <c r="H41" t="s">
         <v>45</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="I41" s="4" t="s">
         <v>58</v>
       </c>
       <c r="J41" t="s">
@@ -3604,7 +3634,7 @@
       <c r="L41" t="s">
         <v>17</v>
       </c>
-      <c r="M41" s="4" t="s">
+      <c r="M41" s="2" t="s">
         <v>60</v>
       </c>
       <c r="N41" t="s">
@@ -3628,15 +3658,16 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42">
-        <v>41</v>
+        <f t="shared" si="1"/>
+        <v>221017</v>
       </c>
       <c r="H42" t="s">
         <v>45</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I42" s="4" t="s">
         <v>62</v>
       </c>
       <c r="J42" t="s">
@@ -3648,7 +3679,7 @@
       <c r="L42" t="s">
         <v>17</v>
       </c>
-      <c r="M42" s="4" t="s">
+      <c r="M42" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N42" t="s">
@@ -3672,15 +3703,16 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43">
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>222018</v>
       </c>
       <c r="H43" t="s">
         <v>45</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I43" s="4" t="s">
         <v>62</v>
       </c>
       <c r="J43" t="s">
@@ -3692,7 +3724,7 @@
       <c r="L43" t="s">
         <v>17</v>
       </c>
-      <c r="M43" s="4" t="s">
+      <c r="M43" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N43" t="s">
@@ -3716,15 +3748,16 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44">
-        <v>43</v>
+        <f t="shared" si="1"/>
+        <v>223019</v>
       </c>
       <c r="H44" t="s">
         <v>45</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="I44" s="4" t="s">
         <v>62</v>
       </c>
       <c r="J44" t="s">
@@ -3736,7 +3769,7 @@
       <c r="L44" t="s">
         <v>17</v>
       </c>
-      <c r="M44" s="4" t="s">
+      <c r="M44" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N44" t="s">
@@ -3760,15 +3793,16 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>44</v>
+        <f t="shared" si="1"/>
+        <v>224020</v>
       </c>
       <c r="H45" t="s">
         <v>45</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="I45" s="4" t="s">
         <v>62</v>
       </c>
       <c r="J45" t="s">
@@ -3780,7 +3814,7 @@
       <c r="L45" t="s">
         <v>17</v>
       </c>
-      <c r="M45" s="4" t="s">
+      <c r="M45" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N45" t="s">
@@ -3804,15 +3838,16 @@
         <v>1</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46">
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>221021</v>
       </c>
       <c r="H46" t="s">
         <v>45</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I46" s="4" t="s">
         <v>66</v>
       </c>
       <c r="J46" t="s">
@@ -3824,7 +3859,7 @@
       <c r="L46" t="s">
         <v>17</v>
       </c>
-      <c r="M46" s="4" t="s">
+      <c r="M46" s="2" t="s">
         <v>68</v>
       </c>
       <c r="N46" t="s">
@@ -3848,15 +3883,16 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47">
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>222022</v>
       </c>
       <c r="H47" t="s">
         <v>45</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="I47" s="4" t="s">
         <v>66</v>
       </c>
       <c r="J47" t="s">
@@ -3868,7 +3904,7 @@
       <c r="L47" t="s">
         <v>17</v>
       </c>
-      <c r="M47" s="4" t="s">
+      <c r="M47" s="2" t="s">
         <v>68</v>
       </c>
       <c r="N47" t="s">
@@ -3892,15 +3928,16 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48">
-        <v>47</v>
+        <f t="shared" si="1"/>
+        <v>223023</v>
       </c>
       <c r="H48" t="s">
         <v>45</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="I48" s="4" t="s">
         <v>66</v>
       </c>
       <c r="J48" t="s">
@@ -3912,7 +3949,7 @@
       <c r="L48" t="s">
         <v>17</v>
       </c>
-      <c r="M48" s="4" t="s">
+      <c r="M48" s="2" t="s">
         <v>68</v>
       </c>
       <c r="N48" t="s">
@@ -3936,15 +3973,16 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>48</v>
+        <f t="shared" si="1"/>
+        <v>224024</v>
       </c>
       <c r="H49" t="s">
         <v>45</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="I49" s="4" t="s">
         <v>66</v>
       </c>
       <c r="J49" t="s">
@@ -3956,7 +3994,7 @@
       <c r="L49" t="s">
         <v>17</v>
       </c>
-      <c r="M49" s="4" t="s">
+      <c r="M49" s="2" t="s">
         <v>68</v>
       </c>
       <c r="N49" t="s">
@@ -3980,10 +4018,11 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50">
-        <v>49</v>
+        <f t="shared" si="1"/>
+        <v>231001</v>
       </c>
       <c r="H50" t="s">
         <v>70</v>
@@ -4000,7 +4039,7 @@
       <c r="L50" t="s">
         <v>17</v>
       </c>
-      <c r="M50" s="4" t="s">
+      <c r="M50" s="2" t="s">
         <v>72</v>
       </c>
       <c r="N50" t="s">
@@ -4024,10 +4063,11 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>232002</v>
       </c>
       <c r="H51" t="s">
         <v>70</v>
@@ -4044,7 +4084,7 @@
       <c r="L51" t="s">
         <v>17</v>
       </c>
-      <c r="M51" s="4" t="s">
+      <c r="M51" s="2" t="s">
         <v>72</v>
       </c>
       <c r="N51" t="s">
@@ -4068,10 +4108,11 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52">
-        <v>51</v>
+        <f t="shared" si="1"/>
+        <v>233003</v>
       </c>
       <c r="H52" t="s">
         <v>70</v>
@@ -4088,7 +4129,7 @@
       <c r="L52" t="s">
         <v>17</v>
       </c>
-      <c r="M52" s="4" t="s">
+      <c r="M52" s="2" t="s">
         <v>72</v>
       </c>
       <c r="N52" t="s">
@@ -4112,10 +4153,11 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53">
-        <v>52</v>
+        <f t="shared" si="1"/>
+        <v>234004</v>
       </c>
       <c r="H53" t="s">
         <v>70</v>
@@ -4132,7 +4174,7 @@
       <c r="L53" t="s">
         <v>17</v>
       </c>
-      <c r="M53" s="4" t="s">
+      <c r="M53" s="2" t="s">
         <v>72</v>
       </c>
       <c r="N53" t="s">
@@ -4156,15 +4198,16 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54">
-        <v>53</v>
+        <f t="shared" si="1"/>
+        <v>231005</v>
       </c>
       <c r="H54" t="s">
         <v>70</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="I54" s="4" t="s">
         <v>74</v>
       </c>
       <c r="J54" t="s">
@@ -4176,7 +4219,7 @@
       <c r="L54" t="s">
         <v>17</v>
       </c>
-      <c r="M54" s="4" t="s">
+      <c r="M54" s="2" t="s">
         <v>76</v>
       </c>
       <c r="N54" t="s">
@@ -4200,15 +4243,16 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55">
-        <v>54</v>
+        <f t="shared" si="1"/>
+        <v>232006</v>
       </c>
       <c r="H55" t="s">
         <v>70</v>
       </c>
-      <c r="I55" s="5" t="s">
+      <c r="I55" s="4" t="s">
         <v>74</v>
       </c>
       <c r="J55" t="s">
@@ -4220,7 +4264,7 @@
       <c r="L55" t="s">
         <v>17</v>
       </c>
-      <c r="M55" s="4" t="s">
+      <c r="M55" s="2" t="s">
         <v>76</v>
       </c>
       <c r="N55" t="s">
@@ -4244,15 +4288,16 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56">
-        <v>55</v>
+        <f t="shared" si="1"/>
+        <v>233007</v>
       </c>
       <c r="H56" t="s">
         <v>70</v>
       </c>
-      <c r="I56" s="5" t="s">
+      <c r="I56" s="4" t="s">
         <v>74</v>
       </c>
       <c r="J56" t="s">
@@ -4264,7 +4309,7 @@
       <c r="L56" t="s">
         <v>17</v>
       </c>
-      <c r="M56" s="4" t="s">
+      <c r="M56" s="2" t="s">
         <v>76</v>
       </c>
       <c r="N56" t="s">
@@ -4288,15 +4333,16 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57">
-        <v>56</v>
+        <f t="shared" si="1"/>
+        <v>234008</v>
       </c>
       <c r="H57" t="s">
         <v>70</v>
       </c>
-      <c r="I57" s="5" t="s">
+      <c r="I57" s="4" t="s">
         <v>74</v>
       </c>
       <c r="J57" t="s">
@@ -4308,7 +4354,7 @@
       <c r="L57" t="s">
         <v>17</v>
       </c>
-      <c r="M57" s="4" t="s">
+      <c r="M57" s="2" t="s">
         <v>76</v>
       </c>
       <c r="N57" t="s">
@@ -4332,15 +4378,16 @@
         <v>1</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>231009</v>
       </c>
       <c r="H58" t="s">
         <v>70</v>
       </c>
-      <c r="I58" s="5" t="s">
+      <c r="I58" s="4" t="s">
         <v>78</v>
       </c>
       <c r="J58" t="s">
@@ -4352,7 +4399,7 @@
       <c r="L58" t="s">
         <v>17</v>
       </c>
-      <c r="M58" s="4" t="s">
+      <c r="M58" s="2" t="s">
         <v>80</v>
       </c>
       <c r="N58" t="s">
@@ -4376,15 +4423,16 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59">
-        <v>58</v>
+        <f t="shared" si="1"/>
+        <v>232010</v>
       </c>
       <c r="H59" t="s">
         <v>70</v>
       </c>
-      <c r="I59" s="5" t="s">
+      <c r="I59" s="4" t="s">
         <v>78</v>
       </c>
       <c r="J59" t="s">
@@ -4396,7 +4444,7 @@
       <c r="L59" t="s">
         <v>17</v>
       </c>
-      <c r="M59" s="4" t="s">
+      <c r="M59" s="2" t="s">
         <v>80</v>
       </c>
       <c r="N59" t="s">
@@ -4420,15 +4468,16 @@
         <v>1</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60">
-        <v>59</v>
+        <f t="shared" si="1"/>
+        <v>233011</v>
       </c>
       <c r="H60" t="s">
         <v>70</v>
       </c>
-      <c r="I60" s="5" t="s">
+      <c r="I60" s="4" t="s">
         <v>78</v>
       </c>
       <c r="J60" t="s">
@@ -4440,7 +4489,7 @@
       <c r="L60" t="s">
         <v>17</v>
       </c>
-      <c r="M60" s="4" t="s">
+      <c r="M60" s="2" t="s">
         <v>80</v>
       </c>
       <c r="N60" t="s">
@@ -4464,15 +4513,16 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61">
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>234012</v>
       </c>
       <c r="H61" t="s">
         <v>70</v>
       </c>
-      <c r="I61" s="5" t="s">
+      <c r="I61" s="4" t="s">
         <v>78</v>
       </c>
       <c r="J61" t="s">
@@ -4484,7 +4534,7 @@
       <c r="L61" t="s">
         <v>17</v>
       </c>
-      <c r="M61" s="4" t="s">
+      <c r="M61" s="2" t="s">
         <v>80</v>
       </c>
       <c r="N61" t="s">
@@ -4508,15 +4558,16 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62">
-        <v>61</v>
+        <f t="shared" si="1"/>
+        <v>231013</v>
       </c>
       <c r="H62" t="s">
         <v>70</v>
       </c>
-      <c r="I62" s="5" t="s">
+      <c r="I62" s="4" t="s">
         <v>82</v>
       </c>
       <c r="J62" t="s">
@@ -4528,7 +4579,7 @@
       <c r="L62" t="s">
         <v>17</v>
       </c>
-      <c r="M62" s="4" t="s">
+      <c r="M62" s="2" t="s">
         <v>84</v>
       </c>
       <c r="N62" t="s">
@@ -4552,15 +4603,16 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63">
-        <v>62</v>
+        <f t="shared" si="1"/>
+        <v>232014</v>
       </c>
       <c r="H63" t="s">
         <v>70</v>
       </c>
-      <c r="I63" s="5" t="s">
+      <c r="I63" s="4" t="s">
         <v>82</v>
       </c>
       <c r="J63" t="s">
@@ -4572,7 +4624,7 @@
       <c r="L63" t="s">
         <v>17</v>
       </c>
-      <c r="M63" s="4" t="s">
+      <c r="M63" s="2" t="s">
         <v>84</v>
       </c>
       <c r="N63" t="s">
@@ -4596,15 +4648,16 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64">
-        <v>63</v>
+        <f t="shared" si="1"/>
+        <v>233015</v>
       </c>
       <c r="H64" t="s">
         <v>70</v>
       </c>
-      <c r="I64" s="5" t="s">
+      <c r="I64" s="4" t="s">
         <v>82</v>
       </c>
       <c r="J64" t="s">
@@ -4616,7 +4669,7 @@
       <c r="L64" t="s">
         <v>17</v>
       </c>
-      <c r="M64" s="4" t="s">
+      <c r="M64" s="2" t="s">
         <v>84</v>
       </c>
       <c r="N64" t="s">
@@ -4640,15 +4693,16 @@
         <v>1</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65">
-        <v>64</v>
+        <f t="shared" si="1"/>
+        <v>234016</v>
       </c>
       <c r="H65" t="s">
         <v>70</v>
       </c>
-      <c r="I65" s="5" t="s">
+      <c r="I65" s="4" t="s">
         <v>82</v>
       </c>
       <c r="J65" t="s">
@@ -4660,7 +4714,7 @@
       <c r="L65" t="s">
         <v>17</v>
       </c>
-      <c r="M65" s="4" t="s">
+      <c r="M65" s="2" t="s">
         <v>84</v>
       </c>
       <c r="N65" t="s">
@@ -4684,15 +4738,16 @@
         <v>1</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66">
-        <v>65</v>
+        <f t="shared" si="1"/>
+        <v>231017</v>
       </c>
       <c r="H66" t="s">
         <v>70</v>
       </c>
-      <c r="I66" s="5" t="s">
+      <c r="I66" s="4" t="s">
         <v>86</v>
       </c>
       <c r="J66" t="s">
@@ -4704,7 +4759,7 @@
       <c r="L66" t="s">
         <v>17</v>
       </c>
-      <c r="M66" s="4" t="s">
+      <c r="M66" s="2" t="s">
         <v>88</v>
       </c>
       <c r="N66" t="s">
@@ -4728,15 +4783,16 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67">
-        <v>66</v>
+        <f t="shared" ref="G67:G98" si="2">A67</f>
+        <v>232018</v>
       </c>
       <c r="H67" t="s">
         <v>70</v>
       </c>
-      <c r="I67" s="5" t="s">
+      <c r="I67" s="4" t="s">
         <v>86</v>
       </c>
       <c r="J67" t="s">
@@ -4748,7 +4804,7 @@
       <c r="L67" t="s">
         <v>17</v>
       </c>
-      <c r="M67" s="4" t="s">
+      <c r="M67" s="2" t="s">
         <v>88</v>
       </c>
       <c r="N67" t="s">
@@ -4772,15 +4828,16 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68">
-        <v>67</v>
+        <f t="shared" si="2"/>
+        <v>233019</v>
       </c>
       <c r="H68" t="s">
         <v>70</v>
       </c>
-      <c r="I68" s="5" t="s">
+      <c r="I68" s="4" t="s">
         <v>86</v>
       </c>
       <c r="J68" t="s">
@@ -4792,7 +4849,7 @@
       <c r="L68" t="s">
         <v>17</v>
       </c>
-      <c r="M68" s="4" t="s">
+      <c r="M68" s="2" t="s">
         <v>88</v>
       </c>
       <c r="N68" t="s">
@@ -4816,15 +4873,16 @@
         <v>1</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G69">
-        <v>68</v>
+        <f t="shared" si="2"/>
+        <v>234020</v>
       </c>
       <c r="H69" t="s">
         <v>70</v>
       </c>
-      <c r="I69" s="5" t="s">
+      <c r="I69" s="4" t="s">
         <v>86</v>
       </c>
       <c r="J69" t="s">
@@ -4836,7 +4894,7 @@
       <c r="L69" t="s">
         <v>17</v>
       </c>
-      <c r="M69" s="4" t="s">
+      <c r="M69" s="2" t="s">
         <v>88</v>
       </c>
       <c r="N69" t="s">
@@ -4860,15 +4918,16 @@
         <v>1</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G70">
-        <v>69</v>
+        <f t="shared" si="2"/>
+        <v>231021</v>
       </c>
       <c r="H70" t="s">
         <v>70</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="I70" s="4" t="s">
         <v>90</v>
       </c>
       <c r="J70" t="s">
@@ -4880,7 +4939,7 @@
       <c r="L70" t="s">
         <v>17</v>
       </c>
-      <c r="M70" s="4" t="s">
+      <c r="M70" s="2" t="s">
         <v>92</v>
       </c>
       <c r="N70" t="s">
@@ -4904,15 +4963,16 @@
         <v>1</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71">
-        <v>70</v>
+        <f t="shared" si="2"/>
+        <v>232022</v>
       </c>
       <c r="H71" t="s">
         <v>70</v>
       </c>
-      <c r="I71" s="5" t="s">
+      <c r="I71" s="4" t="s">
         <v>90</v>
       </c>
       <c r="J71" t="s">
@@ -4924,7 +4984,7 @@
       <c r="L71" t="s">
         <v>17</v>
       </c>
-      <c r="M71" s="4" t="s">
+      <c r="M71" s="2" t="s">
         <v>92</v>
       </c>
       <c r="N71" t="s">
@@ -4948,15 +5008,16 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72">
-        <v>71</v>
+        <f t="shared" si="2"/>
+        <v>233023</v>
       </c>
       <c r="H72" t="s">
         <v>70</v>
       </c>
-      <c r="I72" s="5" t="s">
+      <c r="I72" s="4" t="s">
         <v>90</v>
       </c>
       <c r="J72" t="s">
@@ -4968,7 +5029,7 @@
       <c r="L72" t="s">
         <v>17</v>
       </c>
-      <c r="M72" s="4" t="s">
+      <c r="M72" s="2" t="s">
         <v>92</v>
       </c>
       <c r="N72" t="s">
@@ -4992,15 +5053,16 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73">
-        <v>72</v>
+        <f t="shared" si="2"/>
+        <v>234024</v>
       </c>
       <c r="H73" t="s">
         <v>70</v>
       </c>
-      <c r="I73" s="5" t="s">
+      <c r="I73" s="4" t="s">
         <v>90</v>
       </c>
       <c r="J73" t="s">
@@ -5012,7 +5074,7 @@
       <c r="L73" t="s">
         <v>17</v>
       </c>
-      <c r="M73" s="4" t="s">
+      <c r="M73" s="2" t="s">
         <v>92</v>
       </c>
       <c r="N73" t="s">
@@ -5036,10 +5098,11 @@
         <v>1</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G74">
-        <v>73</v>
+        <f t="shared" si="2"/>
+        <v>261001</v>
       </c>
       <c r="H74" t="s">
         <v>94</v>
@@ -5056,7 +5119,7 @@
       <c r="L74" t="s">
         <v>17</v>
       </c>
-      <c r="M74" s="4" t="s">
+      <c r="M74" s="2" t="s">
         <v>96</v>
       </c>
       <c r="N74" t="s">
@@ -5080,10 +5143,11 @@
         <v>1</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75">
-        <v>74</v>
+        <f t="shared" si="2"/>
+        <v>262002</v>
       </c>
       <c r="H75" t="s">
         <v>94</v>
@@ -5100,7 +5164,7 @@
       <c r="L75" t="s">
         <v>17</v>
       </c>
-      <c r="M75" s="4" t="s">
+      <c r="M75" s="2" t="s">
         <v>96</v>
       </c>
       <c r="N75" t="s">
@@ -5124,10 +5188,11 @@
         <v>1</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G76">
-        <v>75</v>
+        <f t="shared" si="2"/>
+        <v>263003</v>
       </c>
       <c r="H76" t="s">
         <v>94</v>
@@ -5144,7 +5209,7 @@
       <c r="L76" t="s">
         <v>17</v>
       </c>
-      <c r="M76" s="4" t="s">
+      <c r="M76" s="2" t="s">
         <v>96</v>
       </c>
       <c r="N76" t="s">
@@ -5168,10 +5233,11 @@
         <v>1</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77">
-        <v>76</v>
+        <f t="shared" si="2"/>
+        <v>264004</v>
       </c>
       <c r="H77" t="s">
         <v>94</v>
@@ -5188,7 +5254,7 @@
       <c r="L77" t="s">
         <v>17</v>
       </c>
-      <c r="M77" s="4" t="s">
+      <c r="M77" s="2" t="s">
         <v>96</v>
       </c>
       <c r="N77" t="s">
@@ -5212,15 +5278,16 @@
         <v>1</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78">
-        <v>77</v>
+        <f t="shared" si="2"/>
+        <v>261005</v>
       </c>
       <c r="H78" t="s">
         <v>94</v>
       </c>
-      <c r="I78" s="5" t="s">
+      <c r="I78" s="4" t="s">
         <v>98</v>
       </c>
       <c r="J78" t="s">
@@ -5232,7 +5299,7 @@
       <c r="L78" t="s">
         <v>17</v>
       </c>
-      <c r="M78" s="4" t="s">
+      <c r="M78" s="2" t="s">
         <v>100</v>
       </c>
       <c r="N78" t="s">
@@ -5256,15 +5323,16 @@
         <v>1</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79">
-        <v>78</v>
+        <f t="shared" si="2"/>
+        <v>262006</v>
       </c>
       <c r="H79" t="s">
         <v>94</v>
       </c>
-      <c r="I79" s="5" t="s">
+      <c r="I79" s="4" t="s">
         <v>98</v>
       </c>
       <c r="J79" t="s">
@@ -5276,7 +5344,7 @@
       <c r="L79" t="s">
         <v>17</v>
       </c>
-      <c r="M79" s="4" t="s">
+      <c r="M79" s="2" t="s">
         <v>100</v>
       </c>
       <c r="N79" t="s">
@@ -5300,15 +5368,16 @@
         <v>1</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G80">
-        <v>79</v>
+        <f t="shared" si="2"/>
+        <v>263007</v>
       </c>
       <c r="H80" t="s">
         <v>94</v>
       </c>
-      <c r="I80" s="5" t="s">
+      <c r="I80" s="4" t="s">
         <v>98</v>
       </c>
       <c r="J80" t="s">
@@ -5320,7 +5389,7 @@
       <c r="L80" t="s">
         <v>17</v>
       </c>
-      <c r="M80" s="4" t="s">
+      <c r="M80" s="2" t="s">
         <v>100</v>
       </c>
       <c r="N80" t="s">
@@ -5344,15 +5413,16 @@
         <v>1</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G81">
-        <v>80</v>
+        <f t="shared" si="2"/>
+        <v>264008</v>
       </c>
       <c r="H81" t="s">
         <v>94</v>
       </c>
-      <c r="I81" s="5" t="s">
+      <c r="I81" s="4" t="s">
         <v>98</v>
       </c>
       <c r="J81" t="s">
@@ -5364,7 +5434,7 @@
       <c r="L81" t="s">
         <v>17</v>
       </c>
-      <c r="M81" s="4" t="s">
+      <c r="M81" s="2" t="s">
         <v>100</v>
       </c>
       <c r="N81" t="s">
@@ -5388,15 +5458,16 @@
         <v>1</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G82">
-        <v>81</v>
+        <f t="shared" si="2"/>
+        <v>261009</v>
       </c>
       <c r="H82" t="s">
         <v>94</v>
       </c>
-      <c r="I82" s="5" t="s">
+      <c r="I82" s="4" t="s">
         <v>102</v>
       </c>
       <c r="J82" t="s">
@@ -5408,7 +5479,7 @@
       <c r="L82" t="s">
         <v>17</v>
       </c>
-      <c r="M82" s="4" t="s">
+      <c r="M82" s="2" t="s">
         <v>104</v>
       </c>
       <c r="N82" t="s">
@@ -5432,15 +5503,16 @@
         <v>1</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83">
-        <v>82</v>
+        <f t="shared" si="2"/>
+        <v>262010</v>
       </c>
       <c r="H83" t="s">
         <v>94</v>
       </c>
-      <c r="I83" s="5" t="s">
+      <c r="I83" s="4" t="s">
         <v>102</v>
       </c>
       <c r="J83" t="s">
@@ -5452,7 +5524,7 @@
       <c r="L83" t="s">
         <v>17</v>
       </c>
-      <c r="M83" s="4" t="s">
+      <c r="M83" s="2" t="s">
         <v>104</v>
       </c>
       <c r="N83" t="s">
@@ -5476,15 +5548,16 @@
         <v>1</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G84">
-        <v>83</v>
+        <f t="shared" si="2"/>
+        <v>263011</v>
       </c>
       <c r="H84" t="s">
         <v>94</v>
       </c>
-      <c r="I84" s="5" t="s">
+      <c r="I84" s="4" t="s">
         <v>102</v>
       </c>
       <c r="J84" t="s">
@@ -5496,7 +5569,7 @@
       <c r="L84" t="s">
         <v>17</v>
       </c>
-      <c r="M84" s="4" t="s">
+      <c r="M84" s="2" t="s">
         <v>104</v>
       </c>
       <c r="N84" t="s">
@@ -5520,15 +5593,16 @@
         <v>1</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85">
-        <v>84</v>
+        <f t="shared" si="2"/>
+        <v>264012</v>
       </c>
       <c r="H85" t="s">
         <v>94</v>
       </c>
-      <c r="I85" s="5" t="s">
+      <c r="I85" s="4" t="s">
         <v>102</v>
       </c>
       <c r="J85" t="s">
@@ -5540,7 +5614,7 @@
       <c r="L85" t="s">
         <v>17</v>
       </c>
-      <c r="M85" s="4" t="s">
+      <c r="M85" s="2" t="s">
         <v>104</v>
       </c>
       <c r="N85" t="s">
@@ -5564,15 +5638,16 @@
         <v>1</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86">
-        <v>85</v>
+        <f t="shared" si="2"/>
+        <v>261013</v>
       </c>
       <c r="H86" t="s">
         <v>94</v>
       </c>
-      <c r="I86" s="5" t="s">
+      <c r="I86" s="4" t="s">
         <v>106</v>
       </c>
       <c r="J86" t="s">
@@ -5584,7 +5659,7 @@
       <c r="L86" t="s">
         <v>17</v>
       </c>
-      <c r="M86" s="4" t="s">
+      <c r="M86" s="2" t="s">
         <v>108</v>
       </c>
       <c r="N86" t="s">
@@ -5608,15 +5683,16 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G87">
-        <v>86</v>
+        <f t="shared" si="2"/>
+        <v>262014</v>
       </c>
       <c r="H87" t="s">
         <v>94</v>
       </c>
-      <c r="I87" s="5" t="s">
+      <c r="I87" s="4" t="s">
         <v>106</v>
       </c>
       <c r="J87" t="s">
@@ -5628,7 +5704,7 @@
       <c r="L87" t="s">
         <v>17</v>
       </c>
-      <c r="M87" s="4" t="s">
+      <c r="M87" s="2" t="s">
         <v>108</v>
       </c>
       <c r="N87" t="s">
@@ -5652,15 +5728,16 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G88">
-        <v>87</v>
+        <f t="shared" si="2"/>
+        <v>263015</v>
       </c>
       <c r="H88" t="s">
         <v>94</v>
       </c>
-      <c r="I88" s="5" t="s">
+      <c r="I88" s="4" t="s">
         <v>106</v>
       </c>
       <c r="J88" t="s">
@@ -5672,7 +5749,7 @@
       <c r="L88" t="s">
         <v>17</v>
       </c>
-      <c r="M88" s="4" t="s">
+      <c r="M88" s="2" t="s">
         <v>108</v>
       </c>
       <c r="N88" t="s">
@@ -5696,15 +5773,16 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G89">
-        <v>88</v>
+        <f t="shared" si="2"/>
+        <v>264016</v>
       </c>
       <c r="H89" t="s">
         <v>94</v>
       </c>
-      <c r="I89" s="5" t="s">
+      <c r="I89" s="4" t="s">
         <v>106</v>
       </c>
       <c r="J89" t="s">
@@ -5716,7 +5794,7 @@
       <c r="L89" t="s">
         <v>17</v>
       </c>
-      <c r="M89" s="4" t="s">
+      <c r="M89" s="2" t="s">
         <v>108</v>
       </c>
       <c r="N89" t="s">
@@ -5740,15 +5818,16 @@
         <v>1</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G90">
-        <v>89</v>
+        <f t="shared" si="2"/>
+        <v>261017</v>
       </c>
       <c r="H90" t="s">
         <v>94</v>
       </c>
-      <c r="I90" s="5" t="s">
+      <c r="I90" s="4" t="s">
         <v>110</v>
       </c>
       <c r="J90" t="s">
@@ -5760,7 +5839,7 @@
       <c r="L90" t="s">
         <v>17</v>
       </c>
-      <c r="M90" s="4" t="s">
+      <c r="M90" s="2" t="s">
         <v>112</v>
       </c>
       <c r="N90" t="s">
@@ -5784,15 +5863,16 @@
         <v>1</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G91">
-        <v>90</v>
+        <f t="shared" si="2"/>
+        <v>262018</v>
       </c>
       <c r="H91" t="s">
         <v>94</v>
       </c>
-      <c r="I91" s="5" t="s">
+      <c r="I91" s="4" t="s">
         <v>110</v>
       </c>
       <c r="J91" t="s">
@@ -5804,7 +5884,7 @@
       <c r="L91" t="s">
         <v>17</v>
       </c>
-      <c r="M91" s="4" t="s">
+      <c r="M91" s="2" t="s">
         <v>112</v>
       </c>
       <c r="N91" t="s">
@@ -5828,15 +5908,16 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G92">
-        <v>91</v>
+        <f t="shared" si="2"/>
+        <v>263019</v>
       </c>
       <c r="H92" t="s">
         <v>94</v>
       </c>
-      <c r="I92" s="5" t="s">
+      <c r="I92" s="4" t="s">
         <v>110</v>
       </c>
       <c r="J92" t="s">
@@ -5848,7 +5929,7 @@
       <c r="L92" t="s">
         <v>17</v>
       </c>
-      <c r="M92" s="4" t="s">
+      <c r="M92" s="2" t="s">
         <v>112</v>
       </c>
       <c r="N92" t="s">
@@ -5872,15 +5953,16 @@
         <v>1</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G93">
-        <v>92</v>
+        <f t="shared" si="2"/>
+        <v>264020</v>
       </c>
       <c r="H93" t="s">
         <v>94</v>
       </c>
-      <c r="I93" s="5" t="s">
+      <c r="I93" s="4" t="s">
         <v>110</v>
       </c>
       <c r="J93" t="s">
@@ -5892,7 +5974,7 @@
       <c r="L93" t="s">
         <v>17</v>
       </c>
-      <c r="M93" s="4" t="s">
+      <c r="M93" s="2" t="s">
         <v>112</v>
       </c>
       <c r="N93" t="s">
@@ -5916,15 +5998,16 @@
         <v>1</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G94">
-        <v>93</v>
+        <f t="shared" si="2"/>
+        <v>261021</v>
       </c>
       <c r="H94" t="s">
         <v>94</v>
       </c>
-      <c r="I94" s="5" t="s">
+      <c r="I94" s="4" t="s">
         <v>114</v>
       </c>
       <c r="J94" t="s">
@@ -5936,7 +6019,7 @@
       <c r="L94" t="s">
         <v>17</v>
       </c>
-      <c r="M94" s="4" t="s">
+      <c r="M94" s="2" t="s">
         <v>116</v>
       </c>
       <c r="N94" t="s">
@@ -5960,15 +6043,16 @@
         <v>1</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G95">
-        <v>94</v>
+        <f t="shared" si="2"/>
+        <v>262022</v>
       </c>
       <c r="H95" t="s">
         <v>94</v>
       </c>
-      <c r="I95" s="5" t="s">
+      <c r="I95" s="4" t="s">
         <v>114</v>
       </c>
       <c r="J95" t="s">
@@ -5980,7 +6064,7 @@
       <c r="L95" t="s">
         <v>17</v>
       </c>
-      <c r="M95" s="4" t="s">
+      <c r="M95" s="2" t="s">
         <v>116</v>
       </c>
       <c r="N95" t="s">
@@ -6004,15 +6088,16 @@
         <v>1</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G96">
-        <v>95</v>
+        <f t="shared" si="2"/>
+        <v>263023</v>
       </c>
       <c r="H96" t="s">
         <v>94</v>
       </c>
-      <c r="I96" s="5" t="s">
+      <c r="I96" s="4" t="s">
         <v>114</v>
       </c>
       <c r="J96" t="s">
@@ -6024,7 +6109,7 @@
       <c r="L96" t="s">
         <v>17</v>
       </c>
-      <c r="M96" s="4" t="s">
+      <c r="M96" s="2" t="s">
         <v>116</v>
       </c>
       <c r="N96" t="s">
@@ -6048,15 +6133,16 @@
         <v>1</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G97">
-        <v>96</v>
+        <f t="shared" si="2"/>
+        <v>264024</v>
       </c>
       <c r="H97" t="s">
         <v>94</v>
       </c>
-      <c r="I97" s="5" t="s">
+      <c r="I97" s="4" t="s">
         <v>114</v>
       </c>
       <c r="J97" t="s">
@@ -6068,7 +6154,7 @@
       <c r="L97" t="s">
         <v>17</v>
       </c>
-      <c r="M97" s="4" t="s">
+      <c r="M97" s="2" t="s">
         <v>116</v>
       </c>
       <c r="N97" t="s">
@@ -6092,10 +6178,11 @@
         <v>1</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98">
-        <v>97</v>
+        <f t="shared" si="2"/>
+        <v>211001</v>
       </c>
       <c r="H98" t="s">
         <v>118</v>
@@ -6112,7 +6199,7 @@
       <c r="L98" t="s">
         <v>17</v>
       </c>
-      <c r="M98" s="4" t="s">
+      <c r="M98" s="2" t="s">
         <v>120</v>
       </c>
       <c r="N98" t="s">
@@ -6136,10 +6223,11 @@
         <v>1</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G99">
-        <v>98</v>
+        <f t="shared" ref="G99:G145" si="3">A99</f>
+        <v>212002</v>
       </c>
       <c r="H99" t="s">
         <v>118</v>
@@ -6156,7 +6244,7 @@
       <c r="L99" t="s">
         <v>17</v>
       </c>
-      <c r="M99" s="4" t="s">
+      <c r="M99" s="2" t="s">
         <v>120</v>
       </c>
       <c r="N99" t="s">
@@ -6180,10 +6268,11 @@
         <v>1</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G100">
-        <v>99</v>
+        <f t="shared" si="3"/>
+        <v>213003</v>
       </c>
       <c r="H100" t="s">
         <v>118</v>
@@ -6200,7 +6289,7 @@
       <c r="L100" t="s">
         <v>17</v>
       </c>
-      <c r="M100" s="4" t="s">
+      <c r="M100" s="2" t="s">
         <v>120</v>
       </c>
       <c r="N100" t="s">
@@ -6224,10 +6313,11 @@
         <v>1</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G101">
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>214004</v>
       </c>
       <c r="H101" t="s">
         <v>118</v>
@@ -6244,7 +6334,7 @@
       <c r="L101" t="s">
         <v>17</v>
       </c>
-      <c r="M101" s="4" t="s">
+      <c r="M101" s="2" t="s">
         <v>120</v>
       </c>
       <c r="N101" t="s">
@@ -6268,10 +6358,11 @@
         <v>1</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G102">
-        <v>101</v>
+        <f t="shared" si="3"/>
+        <v>211005</v>
       </c>
       <c r="H102" t="s">
         <v>118</v>
@@ -6288,7 +6379,7 @@
       <c r="L102" t="s">
         <v>17</v>
       </c>
-      <c r="M102" s="4" t="s">
+      <c r="M102" s="2" t="s">
         <v>124</v>
       </c>
       <c r="N102" t="s">
@@ -6312,10 +6403,11 @@
         <v>1</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G103">
-        <v>102</v>
+        <f t="shared" si="3"/>
+        <v>212006</v>
       </c>
       <c r="H103" t="s">
         <v>118</v>
@@ -6332,7 +6424,7 @@
       <c r="L103" t="s">
         <v>17</v>
       </c>
-      <c r="M103" s="4" t="s">
+      <c r="M103" s="2" t="s">
         <v>124</v>
       </c>
       <c r="N103" t="s">
@@ -6356,10 +6448,11 @@
         <v>1</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G104">
-        <v>103</v>
+        <f t="shared" si="3"/>
+        <v>213007</v>
       </c>
       <c r="H104" t="s">
         <v>118</v>
@@ -6376,7 +6469,7 @@
       <c r="L104" t="s">
         <v>17</v>
       </c>
-      <c r="M104" s="4" t="s">
+      <c r="M104" s="2" t="s">
         <v>124</v>
       </c>
       <c r="N104" t="s">
@@ -6400,10 +6493,11 @@
         <v>1</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G105">
-        <v>104</v>
+        <f t="shared" si="3"/>
+        <v>214008</v>
       </c>
       <c r="H105" t="s">
         <v>118</v>
@@ -6420,7 +6514,7 @@
       <c r="L105" t="s">
         <v>17</v>
       </c>
-      <c r="M105" s="4" t="s">
+      <c r="M105" s="2" t="s">
         <v>124</v>
       </c>
       <c r="N105" t="s">
@@ -6444,10 +6538,11 @@
         <v>1</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G106">
-        <v>105</v>
+        <f t="shared" si="3"/>
+        <v>211009</v>
       </c>
       <c r="H106" t="s">
         <v>118</v>
@@ -6464,7 +6559,7 @@
       <c r="L106" t="s">
         <v>17</v>
       </c>
-      <c r="M106" s="4" t="s">
+      <c r="M106" s="2" t="s">
         <v>128</v>
       </c>
       <c r="N106" t="s">
@@ -6488,10 +6583,11 @@
         <v>1</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G107">
-        <v>106</v>
+        <f t="shared" si="3"/>
+        <v>212010</v>
       </c>
       <c r="H107" t="s">
         <v>118</v>
@@ -6508,7 +6604,7 @@
       <c r="L107" t="s">
         <v>17</v>
       </c>
-      <c r="M107" s="4" t="s">
+      <c r="M107" s="2" t="s">
         <v>128</v>
       </c>
       <c r="N107" t="s">
@@ -6532,10 +6628,11 @@
         <v>1</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G108">
-        <v>107</v>
+        <f t="shared" si="3"/>
+        <v>213011</v>
       </c>
       <c r="H108" t="s">
         <v>118</v>
@@ -6552,7 +6649,7 @@
       <c r="L108" t="s">
         <v>17</v>
       </c>
-      <c r="M108" s="4" t="s">
+      <c r="M108" s="2" t="s">
         <v>128</v>
       </c>
       <c r="N108" t="s">
@@ -6576,10 +6673,11 @@
         <v>1</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G109">
-        <v>108</v>
+        <f t="shared" si="3"/>
+        <v>214012</v>
       </c>
       <c r="H109" t="s">
         <v>118</v>
@@ -6596,7 +6694,7 @@
       <c r="L109" t="s">
         <v>17</v>
       </c>
-      <c r="M109" s="4" t="s">
+      <c r="M109" s="2" t="s">
         <v>128</v>
       </c>
       <c r="N109" t="s">
@@ -6620,10 +6718,11 @@
         <v>1</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G110">
-        <v>109</v>
+        <f t="shared" si="3"/>
+        <v>211013</v>
       </c>
       <c r="H110" t="s">
         <v>118</v>
@@ -6640,7 +6739,7 @@
       <c r="L110" t="s">
         <v>17</v>
       </c>
-      <c r="M110" s="4" t="s">
+      <c r="M110" s="2" t="s">
         <v>132</v>
       </c>
       <c r="N110" t="s">
@@ -6664,10 +6763,11 @@
         <v>1</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G111">
-        <v>110</v>
+        <f t="shared" si="3"/>
+        <v>212014</v>
       </c>
       <c r="H111" t="s">
         <v>118</v>
@@ -6684,7 +6784,7 @@
       <c r="L111" t="s">
         <v>17</v>
       </c>
-      <c r="M111" s="4" t="s">
+      <c r="M111" s="2" t="s">
         <v>132</v>
       </c>
       <c r="N111" t="s">
@@ -6708,10 +6808,11 @@
         <v>1</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G112">
-        <v>111</v>
+        <f t="shared" si="3"/>
+        <v>213015</v>
       </c>
       <c r="H112" t="s">
         <v>118</v>
@@ -6728,7 +6829,7 @@
       <c r="L112" t="s">
         <v>17</v>
       </c>
-      <c r="M112" s="4" t="s">
+      <c r="M112" s="2" t="s">
         <v>132</v>
       </c>
       <c r="N112" t="s">
@@ -6752,10 +6853,11 @@
         <v>1</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G113">
-        <v>112</v>
+        <f t="shared" si="3"/>
+        <v>214016</v>
       </c>
       <c r="H113" t="s">
         <v>118</v>
@@ -6772,7 +6874,7 @@
       <c r="L113" t="s">
         <v>17</v>
       </c>
-      <c r="M113" s="4" t="s">
+      <c r="M113" s="2" t="s">
         <v>132</v>
       </c>
       <c r="N113" t="s">
@@ -6796,10 +6898,11 @@
         <v>1</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G114">
-        <v>113</v>
+        <f t="shared" si="3"/>
+        <v>211017</v>
       </c>
       <c r="H114" t="s">
         <v>118</v>
@@ -6816,7 +6919,7 @@
       <c r="L114" t="s">
         <v>17</v>
       </c>
-      <c r="M114" s="4" t="s">
+      <c r="M114" s="2" t="s">
         <v>136</v>
       </c>
       <c r="N114" t="s">
@@ -6840,10 +6943,11 @@
         <v>1</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G115">
-        <v>114</v>
+        <f t="shared" si="3"/>
+        <v>212018</v>
       </c>
       <c r="H115" t="s">
         <v>118</v>
@@ -6860,7 +6964,7 @@
       <c r="L115" t="s">
         <v>17</v>
       </c>
-      <c r="M115" s="4" t="s">
+      <c r="M115" s="2" t="s">
         <v>136</v>
       </c>
       <c r="N115" t="s">
@@ -6884,10 +6988,11 @@
         <v>1</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G116">
-        <v>115</v>
+        <f t="shared" si="3"/>
+        <v>213019</v>
       </c>
       <c r="H116" t="s">
         <v>118</v>
@@ -6904,7 +7009,7 @@
       <c r="L116" t="s">
         <v>17</v>
       </c>
-      <c r="M116" s="4" t="s">
+      <c r="M116" s="2" t="s">
         <v>136</v>
       </c>
       <c r="N116" t="s">
@@ -6928,10 +7033,11 @@
         <v>1</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G117">
-        <v>116</v>
+        <f t="shared" si="3"/>
+        <v>214020</v>
       </c>
       <c r="H117" t="s">
         <v>118</v>
@@ -6948,7 +7054,7 @@
       <c r="L117" t="s">
         <v>17</v>
       </c>
-      <c r="M117" s="4" t="s">
+      <c r="M117" s="2" t="s">
         <v>136</v>
       </c>
       <c r="N117" t="s">
@@ -6972,10 +7078,11 @@
         <v>1</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G118">
-        <v>117</v>
+        <f t="shared" si="3"/>
+        <v>211021</v>
       </c>
       <c r="H118" t="s">
         <v>118</v>
@@ -6992,7 +7099,7 @@
       <c r="L118" t="s">
         <v>17</v>
       </c>
-      <c r="M118" s="4" t="s">
+      <c r="M118" s="2" t="s">
         <v>140</v>
       </c>
       <c r="N118" t="s">
@@ -7016,10 +7123,11 @@
         <v>1</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G119">
-        <v>118</v>
+        <f t="shared" si="3"/>
+        <v>212022</v>
       </c>
       <c r="H119" t="s">
         <v>118</v>
@@ -7036,7 +7144,7 @@
       <c r="L119" t="s">
         <v>17</v>
       </c>
-      <c r="M119" s="4" t="s">
+      <c r="M119" s="2" t="s">
         <v>140</v>
       </c>
       <c r="N119" t="s">
@@ -7060,10 +7168,11 @@
         <v>1</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G120">
-        <v>119</v>
+        <f t="shared" si="3"/>
+        <v>213023</v>
       </c>
       <c r="H120" t="s">
         <v>118</v>
@@ -7080,7 +7189,7 @@
       <c r="L120" t="s">
         <v>17</v>
       </c>
-      <c r="M120" s="4" t="s">
+      <c r="M120" s="2" t="s">
         <v>140</v>
       </c>
       <c r="N120" t="s">
@@ -7104,10 +7213,11 @@
         <v>1</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G121">
-        <v>120</v>
+        <f t="shared" si="3"/>
+        <v>214024</v>
       </c>
       <c r="H121" t="s">
         <v>118</v>
@@ -7124,7 +7234,7 @@
       <c r="L121" t="s">
         <v>17</v>
       </c>
-      <c r="M121" s="4" t="s">
+      <c r="M121" s="2" t="s">
         <v>140</v>
       </c>
       <c r="N121" t="s">
@@ -7148,10 +7258,11 @@
         <v>1</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G122">
-        <v>121</v>
+        <f t="shared" si="3"/>
+        <v>251001</v>
       </c>
       <c r="H122" t="s">
         <v>142</v>
@@ -7168,7 +7279,7 @@
       <c r="L122" t="s">
         <v>17</v>
       </c>
-      <c r="M122" s="4" t="s">
+      <c r="M122" s="2" t="s">
         <v>144</v>
       </c>
       <c r="N122" t="s">
@@ -7192,10 +7303,11 @@
         <v>1</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G123">
-        <v>122</v>
+        <f t="shared" si="3"/>
+        <v>252002</v>
       </c>
       <c r="H123" t="s">
         <v>142</v>
@@ -7212,7 +7324,7 @@
       <c r="L123" t="s">
         <v>17</v>
       </c>
-      <c r="M123" s="4" t="s">
+      <c r="M123" s="2" t="s">
         <v>144</v>
       </c>
       <c r="N123" t="s">
@@ -7236,10 +7348,11 @@
         <v>1</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G124">
-        <v>123</v>
+        <f t="shared" si="3"/>
+        <v>253003</v>
       </c>
       <c r="H124" t="s">
         <v>142</v>
@@ -7256,7 +7369,7 @@
       <c r="L124" t="s">
         <v>17</v>
       </c>
-      <c r="M124" s="4" t="s">
+      <c r="M124" s="2" t="s">
         <v>144</v>
       </c>
       <c r="N124" t="s">
@@ -7280,10 +7393,11 @@
         <v>1</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G125">
-        <v>124</v>
+        <f t="shared" si="3"/>
+        <v>254004</v>
       </c>
       <c r="H125" t="s">
         <v>142</v>
@@ -7300,7 +7414,7 @@
       <c r="L125" t="s">
         <v>17</v>
       </c>
-      <c r="M125" s="4" t="s">
+      <c r="M125" s="2" t="s">
         <v>144</v>
       </c>
       <c r="N125" t="s">
@@ -7324,10 +7438,11 @@
         <v>1</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G126">
-        <v>125</v>
+        <f t="shared" si="3"/>
+        <v>251005</v>
       </c>
       <c r="H126" t="s">
         <v>142</v>
@@ -7344,7 +7459,7 @@
       <c r="L126" t="s">
         <v>17</v>
       </c>
-      <c r="M126" s="4" t="s">
+      <c r="M126" s="2" t="s">
         <v>148</v>
       </c>
       <c r="N126" t="s">
@@ -7368,10 +7483,11 @@
         <v>1</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G127">
-        <v>126</v>
+        <f t="shared" si="3"/>
+        <v>252006</v>
       </c>
       <c r="H127" t="s">
         <v>142</v>
@@ -7388,7 +7504,7 @@
       <c r="L127" t="s">
         <v>17</v>
       </c>
-      <c r="M127" s="4" t="s">
+      <c r="M127" s="2" t="s">
         <v>148</v>
       </c>
       <c r="N127" t="s">
@@ -7412,10 +7528,11 @@
         <v>1</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G128">
-        <v>127</v>
+        <f t="shared" si="3"/>
+        <v>253007</v>
       </c>
       <c r="H128" t="s">
         <v>142</v>
@@ -7432,7 +7549,7 @@
       <c r="L128" t="s">
         <v>17</v>
       </c>
-      <c r="M128" s="4" t="s">
+      <c r="M128" s="2" t="s">
         <v>148</v>
       </c>
       <c r="N128" t="s">
@@ -7456,10 +7573,11 @@
         <v>1</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G129">
-        <v>128</v>
+        <f t="shared" si="3"/>
+        <v>254008</v>
       </c>
       <c r="H129" t="s">
         <v>142</v>
@@ -7476,7 +7594,7 @@
       <c r="L129" t="s">
         <v>17</v>
       </c>
-      <c r="M129" s="4" t="s">
+      <c r="M129" s="2" t="s">
         <v>148</v>
       </c>
       <c r="N129" t="s">
@@ -7500,10 +7618,11 @@
         <v>1</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G130">
-        <v>129</v>
+        <f t="shared" si="3"/>
+        <v>251009</v>
       </c>
       <c r="H130" t="s">
         <v>142</v>
@@ -7544,10 +7663,11 @@
         <v>1</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G131">
-        <v>130</v>
+        <f t="shared" si="3"/>
+        <v>252010</v>
       </c>
       <c r="H131" t="s">
         <v>142</v>
@@ -7588,10 +7708,11 @@
         <v>1</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G132">
-        <v>131</v>
+        <f t="shared" si="3"/>
+        <v>253011</v>
       </c>
       <c r="H132" t="s">
         <v>142</v>
@@ -7632,10 +7753,11 @@
         <v>1</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G133">
-        <v>132</v>
+        <f t="shared" si="3"/>
+        <v>254012</v>
       </c>
       <c r="H133" t="s">
         <v>142</v>
@@ -7676,10 +7798,11 @@
         <v>1</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G134">
-        <v>133</v>
+        <f t="shared" si="3"/>
+        <v>251013</v>
       </c>
       <c r="H134" t="s">
         <v>142</v>
@@ -7696,7 +7819,7 @@
       <c r="L134" t="s">
         <v>17</v>
       </c>
-      <c r="M134" s="4" t="s">
+      <c r="M134" s="2" t="s">
         <v>156</v>
       </c>
       <c r="N134" t="s">
@@ -7720,10 +7843,11 @@
         <v>1</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G135">
-        <v>134</v>
+        <f t="shared" si="3"/>
+        <v>252014</v>
       </c>
       <c r="H135" t="s">
         <v>142</v>
@@ -7740,7 +7864,7 @@
       <c r="L135" t="s">
         <v>17</v>
       </c>
-      <c r="M135" s="4" t="s">
+      <c r="M135" s="2" t="s">
         <v>156</v>
       </c>
       <c r="N135" t="s">
@@ -7764,10 +7888,11 @@
         <v>1</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G136">
-        <v>135</v>
+        <f t="shared" si="3"/>
+        <v>253015</v>
       </c>
       <c r="H136" t="s">
         <v>142</v>
@@ -7784,7 +7909,7 @@
       <c r="L136" t="s">
         <v>17</v>
       </c>
-      <c r="M136" s="4" t="s">
+      <c r="M136" s="2" t="s">
         <v>156</v>
       </c>
       <c r="N136" t="s">
@@ -7808,10 +7933,11 @@
         <v>1</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G137">
-        <v>136</v>
+        <f t="shared" si="3"/>
+        <v>254016</v>
       </c>
       <c r="H137" t="s">
         <v>142</v>
@@ -7828,7 +7954,7 @@
       <c r="L137" t="s">
         <v>17</v>
       </c>
-      <c r="M137" s="4" t="s">
+      <c r="M137" s="2" t="s">
         <v>156</v>
       </c>
       <c r="N137" t="s">
@@ -7852,10 +7978,11 @@
         <v>1</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G138">
-        <v>137</v>
+        <f t="shared" si="3"/>
+        <v>251017</v>
       </c>
       <c r="H138" t="s">
         <v>142</v>
@@ -7872,7 +7999,7 @@
       <c r="L138" t="s">
         <v>17</v>
       </c>
-      <c r="M138" s="4" t="s">
+      <c r="M138" s="2" t="s">
         <v>160</v>
       </c>
       <c r="N138" t="s">
@@ -7896,10 +8023,11 @@
         <v>1</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G139">
-        <v>138</v>
+        <f t="shared" si="3"/>
+        <v>252018</v>
       </c>
       <c r="H139" t="s">
         <v>142</v>
@@ -7916,7 +8044,7 @@
       <c r="L139" t="s">
         <v>17</v>
       </c>
-      <c r="M139" s="4" t="s">
+      <c r="M139" s="2" t="s">
         <v>160</v>
       </c>
       <c r="N139" t="s">
@@ -7940,10 +8068,11 @@
         <v>1</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G140">
-        <v>139</v>
+        <f t="shared" si="3"/>
+        <v>253019</v>
       </c>
       <c r="H140" t="s">
         <v>142</v>
@@ -7960,7 +8089,7 @@
       <c r="L140" t="s">
         <v>17</v>
       </c>
-      <c r="M140" s="4" t="s">
+      <c r="M140" s="2" t="s">
         <v>160</v>
       </c>
       <c r="N140" t="s">
@@ -7984,10 +8113,11 @@
         <v>1</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G141">
-        <v>140</v>
+        <f t="shared" si="3"/>
+        <v>254020</v>
       </c>
       <c r="H141" t="s">
         <v>142</v>
@@ -8004,7 +8134,7 @@
       <c r="L141" t="s">
         <v>17</v>
       </c>
-      <c r="M141" s="4" t="s">
+      <c r="M141" s="2" t="s">
         <v>160</v>
       </c>
       <c r="N141" t="s">
@@ -8028,10 +8158,11 @@
         <v>1</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G142">
-        <v>141</v>
+        <f t="shared" si="3"/>
+        <v>251021</v>
       </c>
       <c r="H142" t="s">
         <v>142</v>
@@ -8048,7 +8179,7 @@
       <c r="L142" t="s">
         <v>17</v>
       </c>
-      <c r="M142" s="4" t="s">
+      <c r="M142" s="2" t="s">
         <v>164</v>
       </c>
       <c r="N142" t="s">
@@ -8072,10 +8203,11 @@
         <v>1</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G143">
-        <v>142</v>
+        <f t="shared" si="3"/>
+        <v>252022</v>
       </c>
       <c r="H143" t="s">
         <v>142</v>
@@ -8092,7 +8224,7 @@
       <c r="L143" t="s">
         <v>17</v>
       </c>
-      <c r="M143" s="4" t="s">
+      <c r="M143" s="2" t="s">
         <v>164</v>
       </c>
       <c r="N143" t="s">
@@ -8116,10 +8248,11 @@
         <v>1</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G144">
-        <v>143</v>
+        <f t="shared" si="3"/>
+        <v>253023</v>
       </c>
       <c r="H144" t="s">
         <v>142</v>
@@ -8136,7 +8269,7 @@
       <c r="L144" t="s">
         <v>17</v>
       </c>
-      <c r="M144" s="4" t="s">
+      <c r="M144" s="2" t="s">
         <v>164</v>
       </c>
       <c r="N144" t="s">
@@ -8160,10 +8293,11 @@
         <v>1</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G145">
-        <v>144</v>
+        <f t="shared" si="3"/>
+        <v>254024</v>
       </c>
       <c r="H145" t="s">
         <v>142</v>
@@ -8180,7 +8314,7 @@
       <c r="L145" t="s">
         <v>17</v>
       </c>
-      <c r="M145" s="4" t="s">
+      <c r="M145" s="2" t="s">
         <v>164</v>
       </c>
       <c r="N145" t="s">

--- a/other/配置表/z-装备配置表.xlsx
+++ b/other/配置表/z-装备配置表.xlsx
@@ -291,7 +291,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171">
   <si>
     <t>id</t>
   </si>
@@ -341,7 +341,10 @@
     <t>equip_2000004</t>
   </si>
   <si>
-    <t>100</t>
+    <t>100,</t>
+  </si>
+  <si>
+    <t>96,</t>
   </si>
   <si>
     <t>{20,33}{40,67}{60,200}{80,300}{100,450}{120,675}{140,1013}{160,1519}{180,2279}{200,3418}{220,5127}{240,7691}{260,11536}{280,17304}{300,25956}{320,38934}{340,58401}{360,87602}{380,131403}{400,197104}{420,295656}{440,443484}{460,665226}{480,997839}{500,1496759}</t>
@@ -431,7 +434,10 @@
     <t>equip_2000002</t>
   </si>
   <si>
-    <t>101</t>
+    <t>101,</t>
+  </si>
+  <si>
+    <t>80,</t>
   </si>
   <si>
     <t>({20,10}{40,20}{60,30}{80,40}{100,50}{120,60}{140,70}{160,80}{180,90}{200,100}{220,110}{240,120}{260,130}{280,140}{300,150}{320,160}{340,170}{360,180}{380,190}{400,200}{420,210}{440,220}{460,230}{480,240}{500,250})</t>
@@ -506,7 +512,10 @@
     <t>equip_2000003</t>
   </si>
   <si>
-    <t>102</t>
+    <t>102,</t>
+  </si>
+  <si>
+    <t>2400,</t>
   </si>
   <si>
     <t>({20,300}{40,600}{60,900}{80,1200}{100,1500}{120,1800}{140,2100}{160,2400}{180,2700}{200,3000}{220,3300}{240,3600}{260,3900}{280,4200}{300,4500}{320,4800}{340,5100}{360,5400}{380,5700}{400,6000}{420,6300}{440,6600}{460,6900}{480,7200}{500,7500})</t>
@@ -578,7 +587,10 @@
     <t>equip_2000006</t>
   </si>
   <si>
-    <t>113</t>
+    <t>113,</t>
+  </si>
+  <si>
+    <t>192,</t>
   </si>
   <si>
     <t>({20,24}{40,48}{60,72}{80,96}{100,120}{120,144}{140,168}{160,192}{180,216}{200,240}{220,264}{240,288}{260,312}{280,336}{300,360}{320,384}{340,408}{360,432}{380,456}{400,480}{420,504}{440,528}{460,552}{480,576}{500,600})</t>
@@ -650,7 +662,10 @@
     <t>equip_2000001</t>
   </si>
   <si>
-    <t>114</t>
+    <t>114,</t>
+  </si>
+  <si>
+    <t>48,</t>
   </si>
   <si>
     <t>({20,6}{40,12}{60,18}{80,24}{100,30}{120,36}{140,42}{160,48}{180,54}{200,60}{220,66}{240,72}{260,78}{280,84}{300,90}{320,96}{340,102}{360,108}{380,114}{400,120}{420,126}{440,132}{460,138}{480,144}{500,150})</t>
@@ -722,7 +737,10 @@
     <t>equip_2000005</t>
   </si>
   <si>
-    <t>115</t>
+    <t>115,</t>
+  </si>
+  <si>
+    <t>160,</t>
   </si>
   <si>
     <t>({20,20}{40,40}{60,60}{80,80}{100,100}{120,120}{140,140}{160,160}{180,180}{200,200}{220,220}{240,240}{260,260}{280,280}{300,300}{320,320}{340,340}{360,360}{380,380}{400,400}{420,420}{440,440}{460,460}{480,480}{500,500})</t>
@@ -794,9 +812,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -809,14 +827,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,9 +846,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,50 +855,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -919,6 +885,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -935,19 +962,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -960,7 +978,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,7 +1032,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,61 +1056,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,19 +1074,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,43 +1134,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,13 +1146,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,6 +1169,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1169,17 +1231,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1199,55 +1255,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1259,10 +1277,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1271,133 +1289,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1777,14 +1795,14 @@
   <sheetPr/>
   <dimension ref="A1:N145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F145"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.375"/>
-    <col min="2" max="2" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="8.875" customWidth="1"/>
     <col min="3" max="3" width="5.25" customWidth="1"/>
     <col min="4" max="4" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="9.375"/>
@@ -1870,20 +1888,20 @@
       <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="J2">
-        <v>96</v>
+      <c r="J2" t="s">
+        <v>17</v>
       </c>
       <c r="K2">
         <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1915,20 +1933,20 @@
       <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="J3">
-        <v>96</v>
+      <c r="J3" t="s">
+        <v>17</v>
       </c>
       <c r="K3">
         <v>33</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1960,20 +1978,20 @@
       <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="J4">
-        <v>96</v>
+      <c r="J4" t="s">
+        <v>17</v>
       </c>
       <c r="K4">
         <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2005,20 +2023,20 @@
       <c r="I5" t="s">
         <v>16</v>
       </c>
-      <c r="J5">
-        <v>96</v>
+      <c r="J5" t="s">
+        <v>17</v>
       </c>
       <c r="K5">
         <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2026,7 +2044,7 @@
         <v>241005</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2048,22 +2066,22 @@
         <v>15</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6">
         <v>33</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2071,7 +2089,7 @@
         <v>242006</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -2093,22 +2111,22 @@
         <v>15</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7">
         <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2116,7 +2134,7 @@
         <v>243007</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2138,22 +2156,22 @@
         <v>15</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K8">
         <v>33</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2161,7 +2179,7 @@
         <v>244008</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -2183,22 +2201,22 @@
         <v>15</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9">
         <v>33</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2206,7 +2224,7 @@
         <v>241009</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -2228,22 +2246,22 @@
         <v>15</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K10">
         <v>33</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2251,7 +2269,7 @@
         <v>242010</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -2273,22 +2291,22 @@
         <v>15</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K11">
         <v>33</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2296,7 +2314,7 @@
         <v>243011</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -2318,22 +2336,22 @@
         <v>15</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K12">
         <v>33</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2341,7 +2359,7 @@
         <v>244012</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -2363,22 +2381,22 @@
         <v>15</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K13">
         <v>33</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2386,7 +2404,7 @@
         <v>241013</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -2408,22 +2426,22 @@
         <v>15</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K14">
         <v>33</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -2431,7 +2449,7 @@
         <v>242014</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -2453,22 +2471,22 @@
         <v>15</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K15">
         <v>33</v>
       </c>
       <c r="L15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2476,7 +2494,7 @@
         <v>243015</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -2498,22 +2516,22 @@
         <v>15</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K16">
         <v>33</v>
       </c>
       <c r="L16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2521,7 +2539,7 @@
         <v>244016</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -2543,22 +2561,22 @@
         <v>15</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K17">
         <v>33</v>
       </c>
       <c r="L17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2566,7 +2584,7 @@
         <v>241017</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -2588,22 +2606,22 @@
         <v>15</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K18">
         <v>33</v>
       </c>
       <c r="L18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2611,7 +2629,7 @@
         <v>242018</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -2633,22 +2651,22 @@
         <v>15</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K19">
         <v>33</v>
       </c>
       <c r="L19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2656,7 +2674,7 @@
         <v>243019</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -2678,22 +2696,22 @@
         <v>15</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K20">
         <v>33</v>
       </c>
       <c r="L20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2701,7 +2719,7 @@
         <v>244020</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -2723,22 +2741,22 @@
         <v>15</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K21">
         <v>33</v>
       </c>
       <c r="L21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2746,7 +2764,7 @@
         <v>241021</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -2768,22 +2786,22 @@
         <v>15</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K22">
         <v>33</v>
       </c>
       <c r="L22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2791,7 +2809,7 @@
         <v>242022</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -2813,22 +2831,22 @@
         <v>15</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K23">
         <v>33</v>
       </c>
       <c r="L23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2836,7 +2854,7 @@
         <v>243023</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -2858,22 +2876,22 @@
         <v>15</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K24">
         <v>33</v>
       </c>
       <c r="L24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2881,7 +2899,7 @@
         <v>244024</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -2903,22 +2921,22 @@
         <v>15</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K25">
         <v>33</v>
       </c>
       <c r="L25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2926,7 +2944,7 @@
         <v>221001</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -2945,25 +2963,25 @@
         <v>221001</v>
       </c>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
-      </c>
-      <c r="J26">
-        <v>80</v>
+        <v>47</v>
+      </c>
+      <c r="J26" t="s">
+        <v>48</v>
       </c>
       <c r="K26">
         <v>33</v>
       </c>
       <c r="L26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2971,7 +2989,7 @@
         <v>222002</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -2990,25 +3008,25 @@
         <v>222002</v>
       </c>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
-      </c>
-      <c r="J27">
-        <v>80</v>
+        <v>47</v>
+      </c>
+      <c r="J27" t="s">
+        <v>48</v>
       </c>
       <c r="K27">
         <v>33</v>
       </c>
       <c r="L27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -3016,7 +3034,7 @@
         <v>223003</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -3035,25 +3053,25 @@
         <v>223003</v>
       </c>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
-      </c>
-      <c r="J28">
-        <v>80</v>
+        <v>47</v>
+      </c>
+      <c r="J28" t="s">
+        <v>48</v>
       </c>
       <c r="K28">
         <v>33</v>
       </c>
       <c r="L28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -3061,7 +3079,7 @@
         <v>224004</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -3080,25 +3098,25 @@
         <v>224004</v>
       </c>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J29">
-        <v>80</v>
+        <v>47</v>
+      </c>
+      <c r="J29" t="s">
+        <v>48</v>
       </c>
       <c r="K29">
         <v>33</v>
       </c>
       <c r="L29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -3106,7 +3124,7 @@
         <v>221005</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -3125,25 +3143,25 @@
         <v>221005</v>
       </c>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K30">
         <v>33</v>
       </c>
       <c r="L30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -3151,7 +3169,7 @@
         <v>222006</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -3170,25 +3188,25 @@
         <v>222006</v>
       </c>
       <c r="H31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K31">
         <v>33</v>
       </c>
       <c r="L31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -3196,7 +3214,7 @@
         <v>223007</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -3215,25 +3233,25 @@
         <v>223007</v>
       </c>
       <c r="H32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K32">
         <v>33</v>
       </c>
       <c r="L32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -3241,7 +3259,7 @@
         <v>224008</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -3260,25 +3278,25 @@
         <v>224008</v>
       </c>
       <c r="H33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K33">
         <v>33</v>
       </c>
       <c r="L33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -3286,7 +3304,7 @@
         <v>221009</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -3305,25 +3323,25 @@
         <v>221009</v>
       </c>
       <c r="H34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K34">
         <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -3331,7 +3349,7 @@
         <v>222010</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -3350,25 +3368,25 @@
         <v>222010</v>
       </c>
       <c r="H35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K35">
         <v>33</v>
       </c>
       <c r="L35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -3376,7 +3394,7 @@
         <v>223011</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -3395,25 +3413,25 @@
         <v>223011</v>
       </c>
       <c r="H36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K36">
         <v>33</v>
       </c>
       <c r="L36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3421,7 +3439,7 @@
         <v>224012</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -3440,25 +3458,25 @@
         <v>224012</v>
       </c>
       <c r="H37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K37">
         <v>33</v>
       </c>
       <c r="L37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -3466,7 +3484,7 @@
         <v>221013</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -3485,25 +3503,25 @@
         <v>221013</v>
       </c>
       <c r="H38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K38">
         <v>33</v>
       </c>
       <c r="L38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -3511,7 +3529,7 @@
         <v>222014</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -3530,25 +3548,25 @@
         <v>222014</v>
       </c>
       <c r="H39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K39">
         <v>33</v>
       </c>
       <c r="L39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3556,7 +3574,7 @@
         <v>223015</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -3575,25 +3593,25 @@
         <v>223015</v>
       </c>
       <c r="H40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K40">
         <v>33</v>
       </c>
       <c r="L40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -3601,7 +3619,7 @@
         <v>224016</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -3620,25 +3638,25 @@
         <v>224016</v>
       </c>
       <c r="H41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K41">
         <v>33</v>
       </c>
       <c r="L41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3646,7 +3664,7 @@
         <v>221017</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -3665,25 +3683,25 @@
         <v>221017</v>
       </c>
       <c r="H42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K42">
         <v>33</v>
       </c>
       <c r="L42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3691,7 +3709,7 @@
         <v>222018</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -3710,25 +3728,25 @@
         <v>222018</v>
       </c>
       <c r="H43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K43">
         <v>33</v>
       </c>
       <c r="L43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3736,7 +3754,7 @@
         <v>223019</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -3755,25 +3773,25 @@
         <v>223019</v>
       </c>
       <c r="H44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K44">
         <v>33</v>
       </c>
       <c r="L44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -3781,7 +3799,7 @@
         <v>224020</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -3800,25 +3818,25 @@
         <v>224020</v>
       </c>
       <c r="H45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K45">
         <v>33</v>
       </c>
       <c r="L45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3826,7 +3844,7 @@
         <v>221021</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -3845,25 +3863,25 @@
         <v>221021</v>
       </c>
       <c r="H46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J46" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K46">
         <v>33</v>
       </c>
       <c r="L46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3871,7 +3889,7 @@
         <v>222022</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -3890,25 +3908,25 @@
         <v>222022</v>
       </c>
       <c r="H47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J47" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K47">
         <v>33</v>
       </c>
       <c r="L47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3916,7 +3934,7 @@
         <v>223023</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -3935,25 +3953,25 @@
         <v>223023</v>
       </c>
       <c r="H48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K48">
         <v>33</v>
       </c>
       <c r="L48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3961,7 +3979,7 @@
         <v>224024</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -3980,25 +3998,25 @@
         <v>224024</v>
       </c>
       <c r="H49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K49">
         <v>33</v>
       </c>
       <c r="L49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -4006,7 +4024,7 @@
         <v>231001</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -4025,25 +4043,25 @@
         <v>231001</v>
       </c>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I50" t="s">
-        <v>71</v>
-      </c>
-      <c r="J50">
-        <v>2400</v>
+        <v>73</v>
+      </c>
+      <c r="J50" t="s">
+        <v>74</v>
       </c>
       <c r="K50">
         <v>33</v>
       </c>
       <c r="L50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -4051,7 +4069,7 @@
         <v>232002</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -4070,25 +4088,25 @@
         <v>232002</v>
       </c>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I51" t="s">
-        <v>71</v>
-      </c>
-      <c r="J51">
-        <v>2400</v>
+        <v>73</v>
+      </c>
+      <c r="J51" t="s">
+        <v>74</v>
       </c>
       <c r="K51">
         <v>33</v>
       </c>
       <c r="L51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -4096,7 +4114,7 @@
         <v>233003</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -4115,25 +4133,25 @@
         <v>233003</v>
       </c>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I52" t="s">
-        <v>71</v>
-      </c>
-      <c r="J52">
-        <v>2400</v>
+        <v>73</v>
+      </c>
+      <c r="J52" t="s">
+        <v>74</v>
       </c>
       <c r="K52">
         <v>33</v>
       </c>
       <c r="L52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -4141,7 +4159,7 @@
         <v>234004</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -4160,25 +4178,25 @@
         <v>234004</v>
       </c>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I53" t="s">
-        <v>71</v>
-      </c>
-      <c r="J53">
-        <v>2400</v>
+        <v>73</v>
+      </c>
+      <c r="J53" t="s">
+        <v>74</v>
       </c>
       <c r="K53">
         <v>33</v>
       </c>
       <c r="L53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -4186,7 +4204,7 @@
         <v>231005</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -4205,25 +4223,25 @@
         <v>231005</v>
       </c>
       <c r="H54" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J54" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K54">
         <v>33</v>
       </c>
       <c r="L54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N54" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -4231,7 +4249,7 @@
         <v>232006</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -4250,25 +4268,25 @@
         <v>232006</v>
       </c>
       <c r="H55" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K55">
         <v>33</v>
       </c>
       <c r="L55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N55" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -4276,7 +4294,7 @@
         <v>233007</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -4295,25 +4313,25 @@
         <v>233007</v>
       </c>
       <c r="H56" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J56" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K56">
         <v>33</v>
       </c>
       <c r="L56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N56" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -4321,7 +4339,7 @@
         <v>234008</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -4340,25 +4358,25 @@
         <v>234008</v>
       </c>
       <c r="H57" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J57" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K57">
         <v>33</v>
       </c>
       <c r="L57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N57" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -4366,7 +4384,7 @@
         <v>231009</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -4385,25 +4403,25 @@
         <v>231009</v>
       </c>
       <c r="H58" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J58" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K58">
         <v>33</v>
       </c>
       <c r="L58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -4411,7 +4429,7 @@
         <v>232010</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -4430,25 +4448,25 @@
         <v>232010</v>
       </c>
       <c r="H59" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J59" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K59">
         <v>33</v>
       </c>
       <c r="L59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -4456,7 +4474,7 @@
         <v>233011</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -4475,25 +4493,25 @@
         <v>233011</v>
       </c>
       <c r="H60" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J60" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K60">
         <v>33</v>
       </c>
       <c r="L60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -4501,7 +4519,7 @@
         <v>234012</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -4520,25 +4538,25 @@
         <v>234012</v>
       </c>
       <c r="H61" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J61" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K61">
         <v>33</v>
       </c>
       <c r="L61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -4546,7 +4564,7 @@
         <v>231013</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -4565,25 +4583,25 @@
         <v>231013</v>
       </c>
       <c r="H62" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J62" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K62">
         <v>33</v>
       </c>
       <c r="L62" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -4591,7 +4609,7 @@
         <v>232014</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -4610,25 +4628,25 @@
         <v>232014</v>
       </c>
       <c r="H63" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J63" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K63">
         <v>33</v>
       </c>
       <c r="L63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -4636,7 +4654,7 @@
         <v>233015</v>
       </c>
       <c r="B64" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -4655,25 +4673,25 @@
         <v>233015</v>
       </c>
       <c r="H64" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J64" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K64">
         <v>33</v>
       </c>
       <c r="L64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -4681,7 +4699,7 @@
         <v>234016</v>
       </c>
       <c r="B65" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -4700,25 +4718,25 @@
         <v>234016</v>
       </c>
       <c r="H65" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J65" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K65">
         <v>33</v>
       </c>
       <c r="L65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -4726,7 +4744,7 @@
         <v>231017</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -4745,25 +4763,25 @@
         <v>231017</v>
       </c>
       <c r="H66" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J66" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K66">
         <v>33</v>
       </c>
       <c r="L66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -4771,7 +4789,7 @@
         <v>232018</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -4790,25 +4808,25 @@
         <v>232018</v>
       </c>
       <c r="H67" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J67" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K67">
         <v>33</v>
       </c>
       <c r="L67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -4816,7 +4834,7 @@
         <v>233019</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -4835,25 +4853,25 @@
         <v>233019</v>
       </c>
       <c r="H68" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J68" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K68">
         <v>33</v>
       </c>
       <c r="L68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -4861,7 +4879,7 @@
         <v>234020</v>
       </c>
       <c r="B69" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -4880,25 +4898,25 @@
         <v>234020</v>
       </c>
       <c r="H69" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J69" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K69">
         <v>33</v>
       </c>
       <c r="L69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N69" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -4906,7 +4924,7 @@
         <v>231021</v>
       </c>
       <c r="B70" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -4925,25 +4943,25 @@
         <v>231021</v>
       </c>
       <c r="H70" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J70" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K70">
         <v>33</v>
       </c>
       <c r="L70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -4951,7 +4969,7 @@
         <v>232022</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -4970,25 +4988,25 @@
         <v>232022</v>
       </c>
       <c r="H71" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J71" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K71">
         <v>33</v>
       </c>
       <c r="L71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -4996,7 +5014,7 @@
         <v>233023</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -5015,25 +5033,25 @@
         <v>233023</v>
       </c>
       <c r="H72" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J72" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K72">
         <v>33</v>
       </c>
       <c r="L72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -5041,7 +5059,7 @@
         <v>234024</v>
       </c>
       <c r="B73" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -5060,25 +5078,25 @@
         <v>234024</v>
       </c>
       <c r="H73" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J73" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K73">
         <v>33</v>
       </c>
       <c r="L73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -5086,7 +5104,7 @@
         <v>261001</v>
       </c>
       <c r="B74" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C74">
         <v>6</v>
@@ -5105,25 +5123,25 @@
         <v>261001</v>
       </c>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I74" t="s">
-        <v>95</v>
-      </c>
-      <c r="J74">
-        <v>192</v>
+        <v>98</v>
+      </c>
+      <c r="J74" t="s">
+        <v>99</v>
       </c>
       <c r="K74">
         <v>33</v>
       </c>
       <c r="L74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="N74" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -5131,7 +5149,7 @@
         <v>262002</v>
       </c>
       <c r="B75" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C75">
         <v>6</v>
@@ -5150,25 +5168,25 @@
         <v>262002</v>
       </c>
       <c r="H75" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I75" t="s">
-        <v>95</v>
-      </c>
-      <c r="J75">
-        <v>192</v>
+        <v>98</v>
+      </c>
+      <c r="J75" t="s">
+        <v>99</v>
       </c>
       <c r="K75">
         <v>33</v>
       </c>
       <c r="L75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="N75" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -5176,7 +5194,7 @@
         <v>263003</v>
       </c>
       <c r="B76" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C76">
         <v>6</v>
@@ -5195,25 +5213,25 @@
         <v>263003</v>
       </c>
       <c r="H76" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I76" t="s">
-        <v>95</v>
-      </c>
-      <c r="J76">
-        <v>192</v>
+        <v>98</v>
+      </c>
+      <c r="J76" t="s">
+        <v>99</v>
       </c>
       <c r="K76">
         <v>33</v>
       </c>
       <c r="L76" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="N76" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -5221,7 +5239,7 @@
         <v>264004</v>
       </c>
       <c r="B77" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C77">
         <v>6</v>
@@ -5240,25 +5258,25 @@
         <v>264004</v>
       </c>
       <c r="H77" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I77" t="s">
-        <v>95</v>
-      </c>
-      <c r="J77">
-        <v>192</v>
+        <v>98</v>
+      </c>
+      <c r="J77" t="s">
+        <v>99</v>
       </c>
       <c r="K77">
         <v>33</v>
       </c>
       <c r="L77" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="N77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -5266,7 +5284,7 @@
         <v>261005</v>
       </c>
       <c r="B78" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -5285,25 +5303,25 @@
         <v>261005</v>
       </c>
       <c r="H78" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J78" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K78">
         <v>33</v>
       </c>
       <c r="L78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="N78" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -5311,7 +5329,7 @@
         <v>262006</v>
       </c>
       <c r="B79" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C79">
         <v>6</v>
@@ -5330,25 +5348,25 @@
         <v>262006</v>
       </c>
       <c r="H79" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J79" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K79">
         <v>33</v>
       </c>
       <c r="L79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="N79" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -5356,7 +5374,7 @@
         <v>263007</v>
       </c>
       <c r="B80" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C80">
         <v>6</v>
@@ -5375,25 +5393,25 @@
         <v>263007</v>
       </c>
       <c r="H80" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J80" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K80">
         <v>33</v>
       </c>
       <c r="L80" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="N80" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -5401,7 +5419,7 @@
         <v>264008</v>
       </c>
       <c r="B81" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C81">
         <v>6</v>
@@ -5420,25 +5438,25 @@
         <v>264008</v>
       </c>
       <c r="H81" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J81" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K81">
         <v>33</v>
       </c>
       <c r="L81" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="N81" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -5446,7 +5464,7 @@
         <v>261009</v>
       </c>
       <c r="B82" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C82">
         <v>6</v>
@@ -5465,25 +5483,25 @@
         <v>261009</v>
       </c>
       <c r="H82" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J82" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K82">
         <v>33</v>
       </c>
       <c r="L82" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="N82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -5491,7 +5509,7 @@
         <v>262010</v>
       </c>
       <c r="B83" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C83">
         <v>6</v>
@@ -5510,25 +5528,25 @@
         <v>262010</v>
       </c>
       <c r="H83" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J83" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K83">
         <v>33</v>
       </c>
       <c r="L83" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="N83" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -5536,7 +5554,7 @@
         <v>263011</v>
       </c>
       <c r="B84" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C84">
         <v>6</v>
@@ -5555,25 +5573,25 @@
         <v>263011</v>
       </c>
       <c r="H84" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J84" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K84">
         <v>33</v>
       </c>
       <c r="L84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="N84" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -5581,7 +5599,7 @@
         <v>264012</v>
       </c>
       <c r="B85" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C85">
         <v>6</v>
@@ -5600,25 +5618,25 @@
         <v>264012</v>
       </c>
       <c r="H85" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J85" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K85">
         <v>33</v>
       </c>
       <c r="L85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="N85" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -5626,7 +5644,7 @@
         <v>261013</v>
       </c>
       <c r="B86" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C86">
         <v>6</v>
@@ -5645,25 +5663,25 @@
         <v>261013</v>
       </c>
       <c r="H86" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J86" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K86">
         <v>33</v>
       </c>
       <c r="L86" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -5671,7 +5689,7 @@
         <v>262014</v>
       </c>
       <c r="B87" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C87">
         <v>6</v>
@@ -5690,25 +5708,25 @@
         <v>262014</v>
       </c>
       <c r="H87" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J87" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K87">
         <v>33</v>
       </c>
       <c r="L87" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -5716,7 +5734,7 @@
         <v>263015</v>
       </c>
       <c r="B88" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C88">
         <v>6</v>
@@ -5735,25 +5753,25 @@
         <v>263015</v>
       </c>
       <c r="H88" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J88" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K88">
         <v>33</v>
       </c>
       <c r="L88" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -5761,7 +5779,7 @@
         <v>264016</v>
       </c>
       <c r="B89" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C89">
         <v>6</v>
@@ -5780,25 +5798,25 @@
         <v>264016</v>
       </c>
       <c r="H89" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J89" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K89">
         <v>33</v>
       </c>
       <c r="L89" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -5806,7 +5824,7 @@
         <v>261017</v>
       </c>
       <c r="B90" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C90">
         <v>6</v>
@@ -5825,25 +5843,25 @@
         <v>261017</v>
       </c>
       <c r="H90" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J90" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K90">
         <v>33</v>
       </c>
       <c r="L90" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="N90" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -5851,7 +5869,7 @@
         <v>262018</v>
       </c>
       <c r="B91" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C91">
         <v>6</v>
@@ -5870,25 +5888,25 @@
         <v>262018</v>
       </c>
       <c r="H91" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J91" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K91">
         <v>33</v>
       </c>
       <c r="L91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="N91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -5896,7 +5914,7 @@
         <v>263019</v>
       </c>
       <c r="B92" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C92">
         <v>6</v>
@@ -5915,25 +5933,25 @@
         <v>263019</v>
       </c>
       <c r="H92" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J92" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K92">
         <v>33</v>
       </c>
       <c r="L92" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="N92" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -5941,7 +5959,7 @@
         <v>264020</v>
       </c>
       <c r="B93" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C93">
         <v>6</v>
@@ -5960,25 +5978,25 @@
         <v>264020</v>
       </c>
       <c r="H93" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J93" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K93">
         <v>33</v>
       </c>
       <c r="L93" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="N93" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -5986,7 +6004,7 @@
         <v>261021</v>
       </c>
       <c r="B94" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C94">
         <v>6</v>
@@ -6005,25 +6023,25 @@
         <v>261021</v>
       </c>
       <c r="H94" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="J94" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K94">
         <v>33</v>
       </c>
       <c r="L94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -6031,7 +6049,7 @@
         <v>262022</v>
       </c>
       <c r="B95" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C95">
         <v>6</v>
@@ -6050,25 +6068,25 @@
         <v>262022</v>
       </c>
       <c r="H95" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="J95" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K95">
         <v>33</v>
       </c>
       <c r="L95" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -6076,7 +6094,7 @@
         <v>263023</v>
       </c>
       <c r="B96" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C96">
         <v>6</v>
@@ -6095,25 +6113,25 @@
         <v>263023</v>
       </c>
       <c r="H96" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="J96" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K96">
         <v>33</v>
       </c>
       <c r="L96" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -6121,7 +6139,7 @@
         <v>264024</v>
       </c>
       <c r="B97" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C97">
         <v>6</v>
@@ -6140,25 +6158,25 @@
         <v>264024</v>
       </c>
       <c r="H97" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="J97" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K97">
         <v>33</v>
       </c>
       <c r="L97" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -6166,7 +6184,7 @@
         <v>211001</v>
       </c>
       <c r="B98" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -6185,25 +6203,25 @@
         <v>211001</v>
       </c>
       <c r="H98" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I98" t="s">
-        <v>119</v>
-      </c>
-      <c r="J98">
-        <v>48</v>
+        <v>123</v>
+      </c>
+      <c r="J98" t="s">
+        <v>124</v>
       </c>
       <c r="K98">
         <v>33</v>
       </c>
       <c r="L98" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N98" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -6211,7 +6229,7 @@
         <v>212002</v>
       </c>
       <c r="B99" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -6230,25 +6248,25 @@
         <v>212002</v>
       </c>
       <c r="H99" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I99" t="s">
-        <v>119</v>
-      </c>
-      <c r="J99">
-        <v>48</v>
+        <v>123</v>
+      </c>
+      <c r="J99" t="s">
+        <v>124</v>
       </c>
       <c r="K99">
         <v>33</v>
       </c>
       <c r="L99" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N99" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -6256,7 +6274,7 @@
         <v>213003</v>
       </c>
       <c r="B100" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -6275,25 +6293,25 @@
         <v>213003</v>
       </c>
       <c r="H100" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I100" t="s">
-        <v>119</v>
-      </c>
-      <c r="J100">
-        <v>48</v>
+        <v>123</v>
+      </c>
+      <c r="J100" t="s">
+        <v>124</v>
       </c>
       <c r="K100">
         <v>33</v>
       </c>
       <c r="L100" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N100" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -6301,7 +6319,7 @@
         <v>214004</v>
       </c>
       <c r="B101" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -6320,25 +6338,25 @@
         <v>214004</v>
       </c>
       <c r="H101" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I101" t="s">
-        <v>119</v>
-      </c>
-      <c r="J101">
-        <v>48</v>
+        <v>123</v>
+      </c>
+      <c r="J101" t="s">
+        <v>124</v>
       </c>
       <c r="K101">
         <v>33</v>
       </c>
       <c r="L101" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N101" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -6346,7 +6364,7 @@
         <v>211005</v>
       </c>
       <c r="B102" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -6365,25 +6383,25 @@
         <v>211005</v>
       </c>
       <c r="H102" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I102" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="J102" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K102">
         <v>33</v>
       </c>
       <c r="L102" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="N102" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -6391,7 +6409,7 @@
         <v>212006</v>
       </c>
       <c r="B103" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -6410,25 +6428,25 @@
         <v>212006</v>
       </c>
       <c r="H103" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I103" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="J103" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K103">
         <v>33</v>
       </c>
       <c r="L103" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="N103" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -6436,7 +6454,7 @@
         <v>213007</v>
       </c>
       <c r="B104" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -6455,25 +6473,25 @@
         <v>213007</v>
       </c>
       <c r="H104" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I104" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="J104" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K104">
         <v>33</v>
       </c>
       <c r="L104" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="N104" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -6481,7 +6499,7 @@
         <v>214008</v>
       </c>
       <c r="B105" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -6500,25 +6518,25 @@
         <v>214008</v>
       </c>
       <c r="H105" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I105" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="J105" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K105">
         <v>33</v>
       </c>
       <c r="L105" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="N105" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -6526,7 +6544,7 @@
         <v>211009</v>
       </c>
       <c r="B106" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -6545,25 +6563,25 @@
         <v>211009</v>
       </c>
       <c r="H106" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I106" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="J106" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="K106">
         <v>33</v>
       </c>
       <c r="L106" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="N106" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -6571,7 +6589,7 @@
         <v>212010</v>
       </c>
       <c r="B107" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -6590,25 +6608,25 @@
         <v>212010</v>
       </c>
       <c r="H107" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I107" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="J107" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="K107">
         <v>33</v>
       </c>
       <c r="L107" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="N107" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -6616,7 +6634,7 @@
         <v>213011</v>
       </c>
       <c r="B108" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -6635,25 +6653,25 @@
         <v>213011</v>
       </c>
       <c r="H108" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I108" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="J108" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="K108">
         <v>33</v>
       </c>
       <c r="L108" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="N108" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -6661,7 +6679,7 @@
         <v>214012</v>
       </c>
       <c r="B109" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -6680,25 +6698,25 @@
         <v>214012</v>
       </c>
       <c r="H109" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I109" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="J109" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="K109">
         <v>33</v>
       </c>
       <c r="L109" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="N109" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -6706,7 +6724,7 @@
         <v>211013</v>
       </c>
       <c r="B110" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -6725,25 +6743,25 @@
         <v>211013</v>
       </c>
       <c r="H110" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I110" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="J110" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K110">
         <v>33</v>
       </c>
       <c r="L110" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="N110" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -6751,7 +6769,7 @@
         <v>212014</v>
       </c>
       <c r="B111" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -6770,25 +6788,25 @@
         <v>212014</v>
       </c>
       <c r="H111" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I111" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="J111" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K111">
         <v>33</v>
       </c>
       <c r="L111" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="N111" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -6796,7 +6814,7 @@
         <v>213015</v>
       </c>
       <c r="B112" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -6815,25 +6833,25 @@
         <v>213015</v>
       </c>
       <c r="H112" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I112" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="J112" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K112">
         <v>33</v>
       </c>
       <c r="L112" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="N112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -6841,7 +6859,7 @@
         <v>214016</v>
       </c>
       <c r="B113" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -6860,25 +6878,25 @@
         <v>214016</v>
       </c>
       <c r="H113" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I113" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="J113" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K113">
         <v>33</v>
       </c>
       <c r="L113" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="N113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -6886,7 +6904,7 @@
         <v>211017</v>
       </c>
       <c r="B114" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -6905,25 +6923,25 @@
         <v>211017</v>
       </c>
       <c r="H114" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I114" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="J114" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K114">
         <v>33</v>
       </c>
       <c r="L114" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="N114" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -6931,7 +6949,7 @@
         <v>212018</v>
       </c>
       <c r="B115" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -6950,25 +6968,25 @@
         <v>212018</v>
       </c>
       <c r="H115" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I115" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="J115" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K115">
         <v>33</v>
       </c>
       <c r="L115" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="N115" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -6976,7 +6994,7 @@
         <v>213019</v>
       </c>
       <c r="B116" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -6995,25 +7013,25 @@
         <v>213019</v>
       </c>
       <c r="H116" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I116" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="J116" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K116">
         <v>33</v>
       </c>
       <c r="L116" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="N116" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -7021,7 +7039,7 @@
         <v>214020</v>
       </c>
       <c r="B117" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -7040,25 +7058,25 @@
         <v>214020</v>
       </c>
       <c r="H117" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I117" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="J117" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K117">
         <v>33</v>
       </c>
       <c r="L117" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="N117" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -7066,7 +7084,7 @@
         <v>211021</v>
       </c>
       <c r="B118" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -7085,25 +7103,25 @@
         <v>211021</v>
       </c>
       <c r="H118" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I118" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="J118" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K118">
         <v>33</v>
       </c>
       <c r="L118" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="N118" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -7111,7 +7129,7 @@
         <v>212022</v>
       </c>
       <c r="B119" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -7130,25 +7148,25 @@
         <v>212022</v>
       </c>
       <c r="H119" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I119" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="J119" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K119">
         <v>33</v>
       </c>
       <c r="L119" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="N119" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -7156,7 +7174,7 @@
         <v>213023</v>
       </c>
       <c r="B120" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -7175,25 +7193,25 @@
         <v>213023</v>
       </c>
       <c r="H120" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I120" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="J120" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K120">
         <v>33</v>
       </c>
       <c r="L120" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="N120" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -7201,7 +7219,7 @@
         <v>214024</v>
       </c>
       <c r="B121" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -7220,25 +7238,25 @@
         <v>214024</v>
       </c>
       <c r="H121" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I121" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="J121" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K121">
         <v>33</v>
       </c>
       <c r="L121" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="N121" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -7246,7 +7264,7 @@
         <v>251001</v>
       </c>
       <c r="B122" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C122">
         <v>5</v>
@@ -7265,25 +7283,25 @@
         <v>251001</v>
       </c>
       <c r="H122" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I122" t="s">
-        <v>143</v>
-      </c>
-      <c r="J122">
-        <v>160</v>
+        <v>148</v>
+      </c>
+      <c r="J122" t="s">
+        <v>149</v>
       </c>
       <c r="K122">
         <v>33</v>
       </c>
       <c r="L122" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="N122" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -7291,7 +7309,7 @@
         <v>252002</v>
       </c>
       <c r="B123" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C123">
         <v>5</v>
@@ -7310,25 +7328,25 @@
         <v>252002</v>
       </c>
       <c r="H123" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I123" t="s">
-        <v>143</v>
-      </c>
-      <c r="J123">
-        <v>160</v>
+        <v>148</v>
+      </c>
+      <c r="J123" t="s">
+        <v>149</v>
       </c>
       <c r="K123">
         <v>33</v>
       </c>
       <c r="L123" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="N123" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -7336,7 +7354,7 @@
         <v>253003</v>
       </c>
       <c r="B124" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C124">
         <v>5</v>
@@ -7355,25 +7373,25 @@
         <v>253003</v>
       </c>
       <c r="H124" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I124" t="s">
-        <v>143</v>
-      </c>
-      <c r="J124">
-        <v>160</v>
+        <v>148</v>
+      </c>
+      <c r="J124" t="s">
+        <v>149</v>
       </c>
       <c r="K124">
         <v>33</v>
       </c>
       <c r="L124" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="N124" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -7381,7 +7399,7 @@
         <v>254004</v>
       </c>
       <c r="B125" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C125">
         <v>5</v>
@@ -7400,25 +7418,25 @@
         <v>254004</v>
       </c>
       <c r="H125" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I125" t="s">
-        <v>143</v>
-      </c>
-      <c r="J125">
-        <v>160</v>
+        <v>148</v>
+      </c>
+      <c r="J125" t="s">
+        <v>149</v>
       </c>
       <c r="K125">
         <v>33</v>
       </c>
       <c r="L125" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="N125" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -7426,7 +7444,7 @@
         <v>251005</v>
       </c>
       <c r="B126" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C126">
         <v>5</v>
@@ -7445,25 +7463,25 @@
         <v>251005</v>
       </c>
       <c r="H126" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I126" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="J126" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K126">
         <v>33</v>
       </c>
       <c r="L126" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="N126" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -7471,7 +7489,7 @@
         <v>252006</v>
       </c>
       <c r="B127" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C127">
         <v>5</v>
@@ -7490,25 +7508,25 @@
         <v>252006</v>
       </c>
       <c r="H127" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I127" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="J127" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K127">
         <v>33</v>
       </c>
       <c r="L127" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="N127" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -7516,7 +7534,7 @@
         <v>253007</v>
       </c>
       <c r="B128" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C128">
         <v>5</v>
@@ -7535,25 +7553,25 @@
         <v>253007</v>
       </c>
       <c r="H128" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I128" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="J128" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K128">
         <v>33</v>
       </c>
       <c r="L128" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="N128" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -7561,7 +7579,7 @@
         <v>254008</v>
       </c>
       <c r="B129" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C129">
         <v>5</v>
@@ -7580,25 +7598,25 @@
         <v>254008</v>
       </c>
       <c r="H129" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I129" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="J129" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K129">
         <v>33</v>
       </c>
       <c r="L129" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="N129" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -7606,7 +7624,7 @@
         <v>251009</v>
       </c>
       <c r="B130" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C130">
         <v>5</v>
@@ -7625,25 +7643,25 @@
         <v>251009</v>
       </c>
       <c r="H130" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I130" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="J130" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="K130">
         <v>33</v>
       </c>
       <c r="L130" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M130" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="N130" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -7651,7 +7669,7 @@
         <v>252010</v>
       </c>
       <c r="B131" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C131">
         <v>5</v>
@@ -7670,25 +7688,25 @@
         <v>252010</v>
       </c>
       <c r="H131" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I131" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="J131" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="K131">
         <v>33</v>
       </c>
       <c r="L131" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M131" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="N131" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -7696,7 +7714,7 @@
         <v>253011</v>
       </c>
       <c r="B132" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C132">
         <v>5</v>
@@ -7715,25 +7733,25 @@
         <v>253011</v>
       </c>
       <c r="H132" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I132" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="J132" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="K132">
         <v>33</v>
       </c>
       <c r="L132" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M132" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="N132" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -7741,7 +7759,7 @@
         <v>254012</v>
       </c>
       <c r="B133" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C133">
         <v>5</v>
@@ -7760,25 +7778,25 @@
         <v>254012</v>
       </c>
       <c r="H133" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I133" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="J133" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="K133">
         <v>33</v>
       </c>
       <c r="L133" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M133" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="N133" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -7786,7 +7804,7 @@
         <v>251013</v>
       </c>
       <c r="B134" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C134">
         <v>5</v>
@@ -7805,25 +7823,25 @@
         <v>251013</v>
       </c>
       <c r="H134" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I134" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="J134" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="K134">
         <v>33</v>
       </c>
       <c r="L134" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="N134" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -7831,7 +7849,7 @@
         <v>252014</v>
       </c>
       <c r="B135" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C135">
         <v>5</v>
@@ -7850,25 +7868,25 @@
         <v>252014</v>
       </c>
       <c r="H135" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I135" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="J135" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="K135">
         <v>33</v>
       </c>
       <c r="L135" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="N135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -7876,7 +7894,7 @@
         <v>253015</v>
       </c>
       <c r="B136" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C136">
         <v>5</v>
@@ -7895,25 +7913,25 @@
         <v>253015</v>
       </c>
       <c r="H136" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I136" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="J136" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="K136">
         <v>33</v>
       </c>
       <c r="L136" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="N136" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -7921,7 +7939,7 @@
         <v>254016</v>
       </c>
       <c r="B137" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C137">
         <v>5</v>
@@ -7940,25 +7958,25 @@
         <v>254016</v>
       </c>
       <c r="H137" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I137" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="J137" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="K137">
         <v>33</v>
       </c>
       <c r="L137" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="N137" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -7966,7 +7984,7 @@
         <v>251017</v>
       </c>
       <c r="B138" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C138">
         <v>5</v>
@@ -7985,25 +8003,25 @@
         <v>251017</v>
       </c>
       <c r="H138" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I138" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J138" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K138">
         <v>33</v>
       </c>
       <c r="L138" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="N138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -8011,7 +8029,7 @@
         <v>252018</v>
       </c>
       <c r="B139" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C139">
         <v>5</v>
@@ -8030,25 +8048,25 @@
         <v>252018</v>
       </c>
       <c r="H139" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I139" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J139" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K139">
         <v>33</v>
       </c>
       <c r="L139" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="N139" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -8056,7 +8074,7 @@
         <v>253019</v>
       </c>
       <c r="B140" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C140">
         <v>5</v>
@@ -8075,25 +8093,25 @@
         <v>253019</v>
       </c>
       <c r="H140" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I140" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J140" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K140">
         <v>33</v>
       </c>
       <c r="L140" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="N140" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -8101,7 +8119,7 @@
         <v>254020</v>
       </c>
       <c r="B141" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C141">
         <v>5</v>
@@ -8120,25 +8138,25 @@
         <v>254020</v>
       </c>
       <c r="H141" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I141" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J141" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K141">
         <v>33</v>
       </c>
       <c r="L141" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="N141" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -8146,7 +8164,7 @@
         <v>251021</v>
       </c>
       <c r="B142" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C142">
         <v>5</v>
@@ -8165,25 +8183,25 @@
         <v>251021</v>
       </c>
       <c r="H142" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I142" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="J142" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K142">
         <v>33</v>
       </c>
       <c r="L142" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="N142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -8191,7 +8209,7 @@
         <v>252022</v>
       </c>
       <c r="B143" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C143">
         <v>5</v>
@@ -8210,25 +8228,25 @@
         <v>252022</v>
       </c>
       <c r="H143" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I143" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="J143" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K143">
         <v>33</v>
       </c>
       <c r="L143" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="N143" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -8236,7 +8254,7 @@
         <v>253023</v>
       </c>
       <c r="B144" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C144">
         <v>5</v>
@@ -8255,25 +8273,25 @@
         <v>253023</v>
       </c>
       <c r="H144" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I144" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="J144" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K144">
         <v>33</v>
       </c>
       <c r="L144" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="N144" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -8281,7 +8299,7 @@
         <v>254024</v>
       </c>
       <c r="B145" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C145">
         <v>5</v>
@@ -8300,25 +8318,25 @@
         <v>254024</v>
       </c>
       <c r="H145" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I145" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="J145" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K145">
         <v>33</v>
       </c>
       <c r="L145" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="N145" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/z-装备配置表.xlsx
+++ b/other/配置表/z-装备配置表.xlsx
@@ -812,8 +812,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -826,13 +826,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -840,14 +833,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -862,10 +863,62 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -886,37 +939,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -924,7 +948,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -938,32 +962,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -978,7 +978,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,79 +1074,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,25 +1098,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1122,25 +1128,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1152,13 +1152,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,26 +1169,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1216,6 +1196,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1236,6 +1227,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1277,10 +1277,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1289,133 +1289,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1795,8 +1795,8 @@
   <sheetPr/>
   <dimension ref="A1:N145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/other/配置表/z-装备配置表.xlsx
+++ b/other/配置表/z-装备配置表.xlsx
@@ -1,34 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1115\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DBE0DA-B598-42DF-AFDB-335241ED2DD9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30000" windowHeight="14145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30000" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jayork</author>
     <author>CL</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jayork:</t>
@@ -37,6 +44,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -44,13 +52,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="1">
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -59,6 +68,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -67,13 +77,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -82,6 +93,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -95,13 +107,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jayork:</t>
@@ -110,6 +123,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -120,13 +134,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="1">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -135,6 +150,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -142,13 +158,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1">
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -157,6 +174,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -165,13 +183,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1">
+    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -180,6 +199,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -188,13 +208,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1">
+    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -203,6 +224,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -211,13 +233,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="1">
+    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -226,6 +249,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -242,13 +266,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jayork:</t>
@@ -257,6 +282,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -264,13 +290,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jayork:</t>
@@ -279,6 +306,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -291,7 +319,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="165">
   <si>
     <t>id</t>
   </si>
@@ -341,18 +369,12 @@
     <t>equip_2000004</t>
   </si>
   <si>
-    <t>100,</t>
-  </si>
-  <si>
-    <t>96,</t>
+    <t>100</t>
   </si>
   <si>
     <t>{20,33}{40,67}{60,200}{80,300}{100,450}{120,675}{140,1013}{160,1519}{180,2279}{200,3418}{220,5127}{240,7691}{260,11536}{280,17304}{300,25956}{320,38934}{340,58401}{360,87602}{380,131403}{400,197104}{420,295656}{440,443484}{460,665226}{480,997839}{500,1496759}</t>
   </si>
   <si>
-    <t>({20,12}{40,24}{60,36}{80,48}{100,60}{120,72}{140,84}{160,96}{180,108}{200,120}{220,132}{240,144}{260,156}{280,168}{300,180}{320,192}{340,204}{360,216}{380,228}{400,240}{420,252}{440,264}{460,276}{480,288}{500,300})</t>
-  </si>
-  <si>
     <t>{400001,100}{400002,100}{400004,100}{400004,100}</t>
   </si>
   <si>
@@ -365,9 +387,6 @@
     <t>67,32</t>
   </si>
   <si>
-    <t>({20,8}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,4}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
-  </si>
-  <si>
     <t>{400005,100}{400006,100}{400007,100}{400008,100}</t>
   </si>
   <si>
@@ -392,9 +411,6 @@
     <t>67,77</t>
   </si>
   <si>
-    <t>({20,8}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,10}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
-  </si>
-  <si>
     <t>{400003,100}{400004,100}{400005,100}{400006,100}</t>
   </si>
   <si>
@@ -407,9 +423,6 @@
     <t>67,19</t>
   </si>
   <si>
-    <t>({20,8}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
-  </si>
-  <si>
     <t>{400001,100}{400002,100}{400007,100}{400008,100}</t>
   </si>
   <si>
@@ -422,9 +435,6 @@
     <t>67,64</t>
   </si>
   <si>
-    <t>({20,8}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,8}{40,16}{60,24}{80,32}{100,40}{120,48}{140,56}{160,64}{180,72}{200,80}{220,88}{240,96}{260,104}{280,112}{300,120}{320,128}{340,136}{360,144}{380,152}{400,160}{420,168}{440,176}{460,184}{480,192}{500,200})</t>
-  </si>
-  <si>
     <t>{400001,100}{400003,100}{400005,100}{400007,100}</t>
   </si>
   <si>
@@ -434,13 +444,7 @@
     <t>equip_2000002</t>
   </si>
   <si>
-    <t>101,</t>
-  </si>
-  <si>
-    <t>80,</t>
-  </si>
-  <si>
-    <t>({20,10}{40,20}{60,30}{80,40}{100,50}{120,60}{140,70}{160,80}{180,90}{200,100}{220,110}{240,120}{260,130}{280,140}{300,150}{320,160}{340,170}{360,180}{380,190}{400,200}{420,210}{440,220}{460,230}{480,240}{500,250})</t>
+    <t>101</t>
   </si>
   <si>
     <t>攻击之甲</t>
@@ -452,12 +456,6 @@
     <t>56,38</t>
   </si>
   <si>
-    <t>({20,7}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,5}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
-  </si>
-  <si>
-    <t>({20,7}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175}({20,5}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120}</t>
-  </si>
-  <si>
     <t>生命之甲</t>
   </si>
   <si>
@@ -467,9 +465,6 @@
     <t>56,960</t>
   </si>
   <si>
-    <t>({20,7}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,120}{40,240}{60,360}{80,480}{100,600}{120,720}{140,840}{160,960}{180,1080}{200,1200}{220,1320}{240,1440}{260,1560}{280,1680}{300,1800}{320,1920}{340,2040}{360,2160}{380,2280}{400,2400}{420,2520}{440,2640}{460,2760}{480,2880}{500,3000})</t>
-  </si>
-  <si>
     <t>暴伤之甲</t>
   </si>
   <si>
@@ -479,9 +474,6 @@
     <t>56,77</t>
   </si>
   <si>
-    <t>({20,7}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,10}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
-  </si>
-  <si>
     <t>速度之甲</t>
   </si>
   <si>
@@ -491,9 +483,6 @@
     <t>56,19</t>
   </si>
   <si>
-    <t>({20,7}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
-  </si>
-  <si>
     <t>重伤之甲</t>
   </si>
   <si>
@@ -503,22 +492,13 @@
     <t>56,64</t>
   </si>
   <si>
-    <t>({20,7}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,8}{40,16}{60,24}{80,32}{100,40}{120,48}{140,56}{160,64}{180,72}{200,80}{220,88}{240,96}{260,104}{280,112}{300,120}{320,128}{340,136}{360,144}{380,152}{400,160}{420,168}{440,176}{460,184}{480,192}{500,200})</t>
-  </si>
-  <si>
     <t>纯粹之靴</t>
   </si>
   <si>
     <t>equip_2000003</t>
   </si>
   <si>
-    <t>102,</t>
-  </si>
-  <si>
-    <t>2400,</t>
-  </si>
-  <si>
-    <t>({20,300}{40,600}{60,900}{80,1200}{100,1500}{120,1800}{140,2100}{160,2400}{180,2700}{200,3000}{220,3300}{240,3600}{260,3900}{280,4200}{300,4500}{320,4800}{340,5100}{360,5400}{380,5700}{400,6000}{420,6300}{440,6600}{460,6900}{480,7200}{500,7500})</t>
+    <t>102</t>
   </si>
   <si>
     <t>攻击之靴</t>
@@ -530,9 +510,6 @@
     <t>1680,38</t>
   </si>
   <si>
-    <t>({20,210}{40,420}{60,630}{80,840}{100,1050}{120,1260}{140,1470}{160,1680}{180,1890}{200,2100}{220,2310}{240,2520}{260,2730}{280,2940}{300,3150}{320,3360}{340,3570}{360,3780}{380,3990}{400,4200}{420,4410}{440,4620}{460,4830}{480,5040}{500,5250})({20,5}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
-  </si>
-  <si>
     <t>钢铁之靴</t>
   </si>
   <si>
@@ -542,9 +519,6 @@
     <t>1680,32</t>
   </si>
   <si>
-    <t>({20,210}{40,420}{60,630}{80,840}{100,1050}{120,1260}{140,1470}{160,1680}{180,1890}{200,2100}{220,2310}{240,2520}{260,2730}{280,2940}{300,3150}{320,3360}{340,3570}{360,3780}{380,3990}{400,4200}{420,4410}{440,4620}{460,4830}{480,5040}{500,5250})({20,4}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
-  </si>
-  <si>
     <t>暴伤之靴</t>
   </si>
   <si>
@@ -554,9 +528,6 @@
     <t>1680,77</t>
   </si>
   <si>
-    <t>({20,210}{40,420}{60,630}{80,840}{100,1050}{120,1260}{140,1470}{160,1680}{180,1890}{200,2100}{220,2310}{240,2520}{260,2730}{280,2940}{300,3150}{320,3360}{340,3570}{360,3780}{380,3990}{400,4200}{420,4410}{440,4620}{460,4830}{480,5040}{500,5250})({20,10}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
-  </si>
-  <si>
     <t>速度之靴</t>
   </si>
   <si>
@@ -566,9 +537,6 @@
     <t>1680,19</t>
   </si>
   <si>
-    <t>({20,210}{40,420}{60,630}{80,840}{100,1050}{120,1260}{140,1470}{160,1680}{180,1890}{200,2100}{220,2310}{240,2520}{260,2730}{280,2940}{300,3150}{320,3360}{340,3570}{360,3780}{380,3990}{400,4200}{420,4410}{440,4620}{460,4830}{480,5040}{500,5250})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
-  </si>
-  <si>
     <t>重伤之靴</t>
   </si>
   <si>
@@ -578,22 +546,13 @@
     <t>1680,64</t>
   </si>
   <si>
-    <t>({20,210}{40,420}{60,630}{80,840}{100,1050}{120,1260}{140,1470}{160,1680}{180,1890}{200,2100}{220,2310}{240,2520}{260,2730}{280,2940}{300,3150}{320,3360}{340,3570}{360,3780}{380,3990}{400,4200}{420,4410}{440,4620}{460,4830}{480,5040}{500,5250})({20,8}{40,16}{60,24}{80,32}{100,40}{120,48}{140,56}{160,64}{180,72}{200,80}{220,88}{240,96}{260,104}{280,112}{300,120}{320,128}{340,136}{360,144}{380,152}{400,160}{420,168}{440,176}{460,184}{480,192}{500,200})</t>
-  </si>
-  <si>
     <t>纯粹戒指</t>
   </si>
   <si>
     <t>equip_2000006</t>
   </si>
   <si>
-    <t>113,</t>
-  </si>
-  <si>
-    <t>192,</t>
-  </si>
-  <si>
-    <t>({20,24}{40,48}{60,72}{80,96}{100,120}{120,144}{140,168}{160,192}{180,216}{200,240}{220,264}{240,288}{260,312}{280,336}{300,360}{320,384}{340,408}{360,432}{380,456}{400,480}{420,504}{440,528}{460,552}{480,576}{500,600})</t>
+    <t>113</t>
   </si>
   <si>
     <t>攻击戒指</t>
@@ -605,9 +564,6 @@
     <t>134,38</t>
   </si>
   <si>
-    <t>({20,17}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,5}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
-  </si>
-  <si>
     <t>钢铁戒指</t>
   </si>
   <si>
@@ -617,9 +573,6 @@
     <t>134,32</t>
   </si>
   <si>
-    <t>({20,17}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,4}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
-  </si>
-  <si>
     <t>生命戒指</t>
   </si>
   <si>
@@ -629,9 +582,6 @@
     <t>134,960</t>
   </si>
   <si>
-    <t>({20,17}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,120}{40,240}{60,360}{80,480}{100,600}{120,720}{140,840}{160,960}{180,1080}{200,1200}{220,1320}{240,1440}{260,1560}{280,1680}{300,1800}{320,1920}{340,2040}{360,2160}{380,2280}{400,2400}{420,2520}{440,2640}{460,2760}{480,2880}{500,3000})</t>
-  </si>
-  <si>
     <t>速度戒指</t>
   </si>
   <si>
@@ -641,9 +591,6 @@
     <t>134,19</t>
   </si>
   <si>
-    <t>({20,17}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
-  </si>
-  <si>
     <t>重伤戒指</t>
   </si>
   <si>
@@ -653,22 +600,13 @@
     <t>134,77</t>
   </si>
   <si>
-    <t>({20,17}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,8}{40,16}{60,24}{80,32}{100,40}{120,48}{140,56}{160,64}{180,72}{200,80}{220,88}{240,96}{260,104}{280,112}{300,120}{320,128}{340,136}{360,144}{380,152}{400,160}{420,168}{440,176}{460,184}{480,192}{500,200})</t>
-  </si>
-  <si>
     <t>纯粹头盔</t>
   </si>
   <si>
     <t>equip_2000001</t>
   </si>
   <si>
-    <t>114,</t>
-  </si>
-  <si>
-    <t>48,</t>
-  </si>
-  <si>
-    <t>({20,6}{40,12}{60,18}{80,24}{100,30}{120,36}{140,42}{160,48}{180,54}{200,60}{220,66}{240,72}{260,78}{280,84}{300,90}{320,96}{340,102}{360,108}{380,114}{400,120}{420,126}{440,132}{460,138}{480,144}{500,150})</t>
+    <t>114</t>
   </si>
   <si>
     <t>攻击头盔</t>
@@ -680,9 +618,6 @@
     <t>34,38</t>
   </si>
   <si>
-    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,5}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
-  </si>
-  <si>
     <t>钢铁头盔</t>
   </si>
   <si>
@@ -692,9 +627,6 @@
     <t>34,32</t>
   </si>
   <si>
-    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,4}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
-  </si>
-  <si>
     <t>生命头盔</t>
   </si>
   <si>
@@ -704,9 +636,6 @@
     <t>34,960</t>
   </si>
   <si>
-    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,120}{40,240}{60,360}{80,480}{100,600}{120,720}{140,840}{160,960}{180,1080}{200,1200}{220,1320}{240,1440}{260,1560}{280,1680}{300,1800}{320,1920}{340,2040}{360,2160}{380,2280}{400,2400}{420,2520}{440,2640}{460,2760}{480,2880}{500,3000})</t>
-  </si>
-  <si>
     <t>暴伤头盔</t>
   </si>
   <si>
@@ -716,9 +645,6 @@
     <t>34,77</t>
   </si>
   <si>
-    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,10}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
-  </si>
-  <si>
     <t>重伤头盔</t>
   </si>
   <si>
@@ -728,22 +654,13 @@
     <t>34,64</t>
   </si>
   <si>
-    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,8}{40,16}{60,24}{80,32}{100,40}{120,48}{140,56}{160,64}{180,72}{200,80}{220,88}{240,96}{260,104}{280,112}{300,120}{320,128}{340,136}{360,144}{380,152}{400,160}{420,168}{440,176}{460,184}{480,192}{500,200})</t>
-  </si>
-  <si>
     <t>纯粹项链</t>
   </si>
   <si>
     <t>equip_2000005</t>
   </si>
   <si>
-    <t>115,</t>
-  </si>
-  <si>
-    <t>160,</t>
-  </si>
-  <si>
-    <t>({20,20}{40,40}{60,60}{80,80}{100,100}{120,120}{140,140}{160,160}{180,180}{200,200}{220,220}{240,240}{260,260}{280,280}{300,300}{320,320}{340,340}{360,360}{380,380}{400,400}{420,420}{440,440}{460,460}{480,480}{500,500})</t>
+    <t>115</t>
   </si>
   <si>
     <t>攻击项链</t>
@@ -755,9 +672,6 @@
     <t>112,38</t>
   </si>
   <si>
-    <t>({20,14}{40,28}{60,42}{80,56}{100,70}{120,84}{140,98}{160,112}{180,126}{200,140}{220,154}{240,168}{260,182}{280,196}{300,210}{320,224}{340,238}{360,252}{380,266}{400,280}{420,294}{440,308}{460,322}{480,336}{500,350})({20,5}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
-  </si>
-  <si>
     <t>钢铁项链</t>
   </si>
   <si>
@@ -767,9 +681,6 @@
     <t>112,32</t>
   </si>
   <si>
-    <t>({20,14}{40,28}{60,42}{80,56}{100,70}{120,84}{140,98}{160,112}{180,126}{200,140}{220,154}{240,168}{260,182}{280,196}{300,210}{320,224}{340,238}{360,252}{380,266}{400,280}{420,294}{440,308}{460,322}{480,336}{500,350}({20,4}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100}</t>
-  </si>
-  <si>
     <t>生命项链</t>
   </si>
   <si>
@@ -779,9 +690,6 @@
     <t>112,960</t>
   </si>
   <si>
-    <t>({20,14}{40,28}{60,42}{80,56}{100,70}{120,84}{140,98}{160,112}{180,126}{200,140}{220,154}{240,168}{260,182}{280,196}{300,210}{320,224}{340,238}{360,252}{380,266}{400,280}{420,294}{440,308}{460,322}{480,336}{500,350})({20,120}{40,240}{60,360}{80,480}{100,600}{120,720}{140,840}{160,960}{180,1080}{200,1200}{220,1320}{240,1440}{260,1560}{280,1680}{300,1800}{320,1920}{340,2040}{360,2160}{380,2280}{400,2400}{420,2520}{440,2640}{460,2760}{480,2880}{500,3000})</t>
-  </si>
-  <si>
     <t>暴伤项链</t>
   </si>
   <si>
@@ -791,9 +699,6 @@
     <t>112,77</t>
   </si>
   <si>
-    <t>({20,14}{40,28}{60,42}{80,56}{100,70}{120,84}{140,98}{160,112}{180,126}{200,140}{220,154}{240,168}{260,182}{280,196}{300,210}{320,224}{340,238}{360,252}{380,266}{400,280}{420,294}{440,308}{460,322}{480,336}{500,350})({20,10}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
-  </si>
-  <si>
     <t>速度项链</t>
   </si>
   <si>
@@ -803,20 +708,119 @@
     <t>112,19</t>
   </si>
   <si>
-    <t>({20,14}{40,28}{60,42}{80,56}{100,70}{120,84}{140,98}{160,112}{180,126}{200,140}{220,154}{240,168}{260,182}{280,196}{300,210}{320,224}{340,238}{360,252}{380,266}{400,280}{420,294}{440,308}{460,322}{480,336}{500,350})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
+    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
+  </si>
+  <si>
+    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,107}{40,267}{60,400}{80,533}{100,667}{120,800}{140,933}{160,1067}{180,1200}{200,1333}{220,1467}{240,1600}{260,1733}{280,1867}{300,2000}{320,2133}{340,2267}{360,2400}{380,2533}{400,2667}{420,2800}{440,2933}{460,3067}{480,3200}{500,3333})</t>
+  </si>
+  <si>
+    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
+  </si>
+  <si>
+    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
+  </si>
+  <si>
+    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
+  </si>
+  <si>
+    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,107}{40,267}{60,400}{80,533}{100,667}{120,800}{140,933}{160,1067}{180,1200}{200,1333}{220,1467}{240,1600}{260,1733}{280,1867}{300,2000}{320,2133}{340,2267}{360,2400}{380,2533}{400,2667}{420,2800}{440,2933}{460,3067}{480,3200}{500,3333})</t>
+  </si>
+  <si>
+    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
+  </si>
+  <si>
+    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
+  </si>
+  <si>
+    <t>({20,187}{40,467}{60,700}{80,933}{100,1167}{120,1400}{140,1633}{160,1867}{180,2100}{200,2333}{220,2567}{240,2800}{260,3033}{280,3267}{300,3500}{320,3733}{340,3967}{360,4200}{380,4433}{400,4667}{420,4900}{440,5133}{460,5367}{480,5600}{500,5833})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
+  </si>
+  <si>
+    <t>({20,187}{40,467}{60,700}{80,933}{100,1167}{120,1400}{140,1633}{160,1867}{180,2100}{200,2333}{220,2567}{240,2800}{260,3033}{280,3267}{300,3500}{320,3733}{340,3967}{360,4200}{380,4433}{400,4667}{420,4900}{440,5133}{460,5367}{480,5600}{500,5833})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
+  </si>
+  <si>
+    <t>({20,187}{40,467}{60,700}{80,933}{100,1167}{120,1400}{140,1633}{160,1867}{180,2100}{200,2333}{220,2567}{240,2800}{260,3033}{280,3267}{300,3500}{320,3733}{340,3967}{360,4200}{380,4433}{400,4667}{420,4900}{440,5133}{460,5367}{480,5600}{500,5833})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
+  </si>
+  <si>
+    <t>({20,187}{40,467}{60,700}{80,933}{100,1167}{120,1400}{140,1633}{160,1867}{180,2100}{200,2333}{220,2567}{240,2800}{260,3033}{280,3267}{300,3500}{320,3733}{340,3967}{360,4200}{380,4433}{400,4667}{420,4900}{440,5133}{460,5367}{480,5600}{500,5833})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
+  </si>
+  <si>
+    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
+  </si>
+  <si>
+    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
+  </si>
+  <si>
+    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,107}{40,267}{60,400}{80,533}{100,667}{120,800}{140,933}{160,1067}{180,1200}{200,1333}{220,1467}{240,1600}{260,1733}{280,1867}{300,2000}{320,2133}{340,2267}{360,2400}{380,2533}{400,2667}{420,2800}{440,2933}{460,3067}{480,3200}{500,3333})</t>
+  </si>
+  <si>
+    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
+  </si>
+  <si>
+    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
+  </si>
+  <si>
+    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
+  </si>
+  <si>
+    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,107}{40,267}{60,400}{80,533}{100,667}{120,800}{140,933}{160,1067}{180,1200}{200,1333}{220,1467}{240,1600}{260,1733}{280,1867}{300,2000}{320,2133}{340,2267}{360,2400}{380,2533}{400,2667}{420,2800}{440,2933}{460,3067}{480,3200}{500,3333})</t>
+  </si>
+  <si>
+    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
+  </si>
+  <si>
+    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
+  </si>
+  <si>
+    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
+  </si>
+  <si>
+    <t>({20,187}{40,467}{60,700}{80,933}{100,1167}{120,1400}{140,1633}{160,1867}{180,2100}{200,2333}{220,2567}{240,2800}{260,3033}{280,3267}{300,3500}{320,3733}{340,3967}{360,4200}{380,4433}{400,4667}{420,4900}{440,5133}{460,5367}{480,5600}{500,5833})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
+  </si>
+  <si>
+    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
+  </si>
+  <si>
+    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
+  </si>
+  <si>
+    <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
+  </si>
+  <si>
+    <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
+  </si>
+  <si>
+    <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,107}{40,267}{60,400}{80,533}{100,667}{120,800}{140,933}{160,1067}{180,1200}{200,1333}{220,1467}{240,1600}{260,1733}{280,1867}{300,2000}{320,2133}{340,2267}{360,2400}{380,2533}{400,2667}{420,2800}{440,2933}{460,3067}{480,3200}{500,3333})</t>
+  </si>
+  <si>
+    <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
+  </si>
+  <si>
+    <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
+  </si>
+  <si>
+    <t>({20,10}{40,24}{60,36}{80,48}{100,60}{120,72}{140,84}{160,96}{180,108}{200,120}{220,132}{240,144}{260,156}{280,168}{300,180}{320,192}{340,204}{360,216}{380,228}{400,240}{420,252}{440,264}{460,276}{480,288}{500,300})</t>
+  </si>
+  <si>
+    <t>({20,8}{40,20}{60,30}{80,40}{100,50}{120,60}{140,70}{160,80}{180,90}{200,100}{220,110}{240,120}{260,130}{280,140}{300,150}{320,160}{340,170}{360,180}{380,190}{400,200}{420,210}{440,220}{460,230}{480,240}{500,250})</t>
+  </si>
+  <si>
+    <t>({20,267}{40,667}{60,1000}{80,1333}{100,1667}{120,2000}{140,2333}{160,2667}{180,3000}{200,3333}{220,3667}{240,4000}{260,4333}{280,4667}{300,5000}{320,5333}{340,5667}{360,6000}{380,6333}{400,6667}{420,7000}{440,7333}{460,7667}{480,8000}{500,8333})</t>
+  </si>
+  <si>
+    <t>({20,20}{40,48}{60,72}{80,96}{100,120}{120,144}{140,168}{160,192}{180,216}{200,240}{220,264}{240,288}{260,312}{280,336}{300,360}{320,384}{340,408}{360,432}{380,456}{400,480}{420,504}{440,528}{460,552}{480,576}{500,600})</t>
+  </si>
+  <si>
+    <t>({20,5}{40,12}{60,18}{80,24}{100,30}{120,36}{140,42}{160,48}{180,54}{200,60}{220,66}{240,72}{260,78}{280,84}{300,90}{320,96}{340,102}{360,108}{380,114}{400,120}{420,126}{440,132}{460,138}{480,144}{500,150})</t>
+  </si>
+  <si>
+    <t>({20,7}{40,16}{60,24}{80,32}{100,40}{120,48}{140,56}{160,64}{180,72}{200,80}{220,88}{240,96}{260,104}{280,112}{300,120}{320,128}{340,136}{360,144}{380,152}{400,160}{420,168}{440,176}{460,184}{480,192}{500,200})</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -826,344 +830,42 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1171,255 +873,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1432,58 +892,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1501,6 +916,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1787,22 +1205,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:J57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.375"/>
-    <col min="2" max="2" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="5.625" customWidth="1"/>
     <col min="3" max="3" width="5.25" customWidth="1"/>
     <col min="4" max="4" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="9.375"/>
@@ -1815,7 +1233,7 @@
     <col min="14" max="14" width="50.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1859,7 +1277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>241001</v>
       </c>
@@ -1876,11 +1294,10 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <f>A2</f>
-        <v>241001</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1888,23 +1305,23 @@
       <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
-        <v>17</v>
+      <c r="J2">
+        <v>96</v>
       </c>
       <c r="K2">
         <v>33</v>
       </c>
       <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="N2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>242002</v>
       </c>
@@ -1921,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>2</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G34" si="0">A3</f>
-        <v>242002</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -1933,23 +1349,23 @@
       <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
-        <v>17</v>
+      <c r="J3">
+        <v>96</v>
       </c>
       <c r="K3">
         <v>33</v>
       </c>
       <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="N3" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>243003</v>
       </c>
@@ -1966,11 +1382,10 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>243003</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -1978,23 +1393,23 @@
       <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="J4" t="s">
-        <v>17</v>
+      <c r="J4">
+        <v>96</v>
       </c>
       <c r="K4">
         <v>33</v>
       </c>
       <c r="L4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="N4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>244004</v>
       </c>
@@ -2011,11 +1426,10 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>244004</v>
+        <v>4</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -2023,28 +1437,28 @@
       <c r="I5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" t="s">
-        <v>17</v>
+      <c r="J5">
+        <v>96</v>
       </c>
       <c r="K5">
         <v>33</v>
       </c>
       <c r="L5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="N5" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>241005</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2056,40 +1470,39 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>241005</v>
+        <v>5</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N6" t="s">
         <v>22</v>
       </c>
-      <c r="J6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>242006</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -2101,40 +1514,39 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>242006</v>
+        <v>6</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N7" t="s">
         <v>22</v>
       </c>
-      <c r="J7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7">
-        <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>243007</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2146,40 +1558,39 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>243007</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N8" t="s">
         <v>22</v>
       </c>
-      <c r="J8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8">
-        <v>33</v>
-      </c>
-      <c r="L8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>244008</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -2191,40 +1602,39 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>244008</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N9" t="s">
         <v>22</v>
       </c>
-      <c r="J9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9">
-        <v>33</v>
-      </c>
-      <c r="L9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>241009</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -2236,40 +1646,39 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>241009</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>27</v>
+      <c r="I10" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K10">
         <v>33</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="N10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>242010</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -2281,40 +1690,39 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
-        <v>242010</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>27</v>
+      <c r="I11" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K11">
         <v>33</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="N11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>243011</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -2326,40 +1734,39 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>243011</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>27</v>
+      <c r="I12" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="J12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K12">
         <v>33</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="N12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>244012</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -2371,40 +1778,39 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>244012</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>27</v>
+      <c r="I13" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="J13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K13">
         <v>33</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="N13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>241013</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -2416,40 +1822,39 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>241013</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>31</v>
+      <c r="I14" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="J14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K14">
         <v>33</v>
       </c>
       <c r="L14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="N14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>242014</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -2461,40 +1866,39 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>242014</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>31</v>
+      <c r="I15" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="J15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K15">
         <v>33</v>
       </c>
       <c r="L15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="N15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>243015</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -2506,40 +1910,39 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>243015</v>
+        <v>15</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>31</v>
+      <c r="I16" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="J16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K16">
         <v>33</v>
       </c>
       <c r="L16" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="N16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>244016</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -2551,40 +1954,39 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
-        <v>244016</v>
+        <v>16</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>31</v>
+      <c r="I17" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="J17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K17">
         <v>33</v>
       </c>
       <c r="L17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="N17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>241017</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -2596,40 +1998,39 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
-        <v>241017</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>36</v>
+      <c r="I18" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="J18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K18">
         <v>33</v>
       </c>
       <c r="L18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="N18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>242018</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -2641,40 +2042,39 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
-        <v>242018</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>36</v>
+      <c r="I19" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="J19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K19">
         <v>33</v>
       </c>
       <c r="L19" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="N19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>243019</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -2686,40 +2086,39 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
-        <v>243019</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>36</v>
+      <c r="I20" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="J20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K20">
         <v>33</v>
       </c>
       <c r="L20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="N20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>244020</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -2731,40 +2130,39 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
-        <v>244020</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>36</v>
+      <c r="I21" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="J21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K21">
         <v>33</v>
       </c>
       <c r="L21" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="N21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>241021</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -2776,40 +2174,39 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
-        <v>241021</v>
+        <v>21</v>
       </c>
       <c r="H22" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>41</v>
+      <c r="I22" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K22">
         <v>33</v>
       </c>
       <c r="L22" t="s">
-        <v>18</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="N22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>242022</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -2821,40 +2218,39 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
-        <v>242022</v>
+        <v>22</v>
       </c>
       <c r="H23" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="4" t="s">
-        <v>41</v>
+      <c r="I23" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K23">
         <v>33</v>
       </c>
       <c r="L23" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="N23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>243023</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -2866,40 +2262,39 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
-        <v>243023</v>
+        <v>23</v>
       </c>
       <c r="H24" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>41</v>
+      <c r="I24" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K24">
         <v>33</v>
       </c>
       <c r="L24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="N24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>244024</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -2911,40 +2306,39 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
-        <v>244024</v>
+        <v>24</v>
       </c>
       <c r="H25" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>41</v>
+      <c r="I25" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K25">
         <v>33</v>
       </c>
       <c r="L25" t="s">
-        <v>18</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="N25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>221001</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -2956,40 +2350,39 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
-        <v>221001</v>
+        <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
-      </c>
-      <c r="J26" t="s">
-        <v>48</v>
+        <v>41</v>
+      </c>
+      <c r="J26">
+        <v>80</v>
       </c>
       <c r="K26">
         <v>33</v>
       </c>
       <c r="L26" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="N26" t="s">
         <v>18</v>
       </c>
-      <c r="M26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>222002</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -3001,40 +2394,39 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
-        <v>222002</v>
+        <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
-      </c>
-      <c r="J27" t="s">
-        <v>48</v>
+        <v>41</v>
+      </c>
+      <c r="J27">
+        <v>80</v>
       </c>
       <c r="K27">
         <v>33</v>
       </c>
       <c r="L27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="N27" t="s">
         <v>18</v>
       </c>
-      <c r="M27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>223003</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -3046,40 +2438,39 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
-        <v>223003</v>
+        <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
-      </c>
-      <c r="J28" t="s">
-        <v>48</v>
+        <v>41</v>
+      </c>
+      <c r="J28">
+        <v>80</v>
       </c>
       <c r="K28">
         <v>33</v>
       </c>
       <c r="L28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="N28" t="s">
         <v>18</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>224004</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -3091,40 +2482,39 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
-        <v>224004</v>
+        <v>28</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I29" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" t="s">
-        <v>48</v>
+        <v>41</v>
+      </c>
+      <c r="J29">
+        <v>80</v>
       </c>
       <c r="K29">
         <v>33</v>
       </c>
       <c r="L29" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="N29" t="s">
         <v>18</v>
       </c>
-      <c r="M29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>221005</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -3136,40 +2526,39 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
-        <v>221005</v>
+        <v>29</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>51</v>
+        <v>40</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="J30" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="K30">
         <v>33</v>
       </c>
       <c r="L30" t="s">
-        <v>18</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>53</v>
+        <v>17</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="N30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>222006</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -3181,40 +2570,39 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
-        <v>222006</v>
+        <v>30</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>51</v>
+        <v>40</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="J31" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="K31">
         <v>33</v>
       </c>
       <c r="L31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M31" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="N31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>223007</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -3226,40 +2614,39 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
-        <v>223007</v>
+        <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>51</v>
+        <v>40</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="J32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="K32">
         <v>33</v>
       </c>
       <c r="L32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M32" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="N32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>224008</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -3271,40 +2658,39 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
-        <v>224008</v>
+        <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>51</v>
+        <v>40</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="J33" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="K33">
         <v>33</v>
       </c>
       <c r="L33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M33" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="N33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>221009</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -3316,40 +2702,39 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
-        <v>221009</v>
+        <v>33</v>
       </c>
       <c r="H34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I34" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="J34" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K34">
         <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>18</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>58</v>
+        <v>17</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="N34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>222010</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -3361,40 +2746,39 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35:G66" si="1">A35</f>
-        <v>222010</v>
+        <v>34</v>
       </c>
       <c r="H35" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I35" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="J35" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K35">
         <v>33</v>
       </c>
       <c r="L35" t="s">
-        <v>18</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>58</v>
+        <v>17</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="N35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>223011</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -3406,40 +2790,39 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <f t="shared" si="1"/>
-        <v>223011</v>
+        <v>35</v>
       </c>
       <c r="H36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I36" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="J36" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K36">
         <v>33</v>
       </c>
       <c r="L36" t="s">
-        <v>18</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>58</v>
+        <v>17</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="N36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>224012</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -3451,40 +2834,39 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <f t="shared" si="1"/>
-        <v>224012</v>
+        <v>36</v>
       </c>
       <c r="H37" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I37" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="J37" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K37">
         <v>33</v>
       </c>
       <c r="L37" t="s">
-        <v>18</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>58</v>
+        <v>17</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="N37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>221013</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -3496,40 +2878,39 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <f t="shared" si="1"/>
-        <v>221013</v>
+        <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="J38" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="K38">
         <v>33</v>
       </c>
       <c r="L38" t="s">
-        <v>18</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>62</v>
+        <v>17</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="N38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>222014</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -3541,40 +2922,39 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <f t="shared" si="1"/>
-        <v>222014</v>
+        <v>38</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="J39" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="K39">
         <v>33</v>
       </c>
       <c r="L39" t="s">
-        <v>18</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>62</v>
+        <v>17</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="N39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>223015</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -3586,40 +2966,39 @@
         <v>1</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <f t="shared" si="1"/>
-        <v>223015</v>
+        <v>39</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="J40" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="K40">
         <v>33</v>
       </c>
       <c r="L40" t="s">
-        <v>18</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>62</v>
+        <v>17</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="N40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>224016</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -3631,40 +3010,39 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <f t="shared" si="1"/>
-        <v>224016</v>
+        <v>40</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="J41" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="K41">
         <v>33</v>
       </c>
       <c r="L41" t="s">
-        <v>18</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>62</v>
+        <v>17</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="N41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>221017</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -3676,40 +3054,39 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <f t="shared" si="1"/>
-        <v>221017</v>
+        <v>41</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>64</v>
+        <v>40</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="J42" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K42">
         <v>33</v>
       </c>
       <c r="L42" t="s">
-        <v>18</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>66</v>
+        <v>17</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="N42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>222018</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -3721,40 +3098,39 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <f t="shared" si="1"/>
-        <v>222018</v>
+        <v>42</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>64</v>
+        <v>40</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="J43" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K43">
         <v>33</v>
       </c>
       <c r="L43" t="s">
-        <v>18</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>66</v>
+        <v>17</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="N43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>223019</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -3766,40 +3142,39 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <f t="shared" si="1"/>
-        <v>223019</v>
+        <v>43</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>64</v>
+        <v>40</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="J44" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K44">
         <v>33</v>
       </c>
       <c r="L44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>66</v>
+        <v>17</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="N44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>224020</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -3811,40 +3186,39 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <f t="shared" si="1"/>
-        <v>224020</v>
+        <v>44</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>64</v>
+        <v>40</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="J45" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K45">
         <v>33</v>
       </c>
       <c r="L45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>66</v>
+        <v>17</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="N45" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>221021</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -3856,40 +3230,39 @@
         <v>1</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <f t="shared" si="1"/>
-        <v>221021</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>68</v>
+        <v>40</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="J46" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K46">
         <v>33</v>
       </c>
       <c r="L46" t="s">
-        <v>18</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>70</v>
+        <v>17</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="N46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>222022</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -3901,40 +3274,39 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <f t="shared" si="1"/>
-        <v>222022</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>68</v>
+        <v>40</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="J47" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K47">
         <v>33</v>
       </c>
       <c r="L47" t="s">
-        <v>18</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>70</v>
+        <v>17</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="N47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>223023</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -3946,40 +3318,39 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <f t="shared" si="1"/>
-        <v>223023</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>68</v>
+        <v>40</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="J48" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K48">
         <v>33</v>
       </c>
       <c r="L48" t="s">
-        <v>18</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>70</v>
+        <v>17</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="N48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>224024</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -3991,40 +3362,39 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <f t="shared" si="1"/>
-        <v>224024</v>
+        <v>48</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>68</v>
+        <v>40</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="J49" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K49">
         <v>33</v>
       </c>
       <c r="L49" t="s">
-        <v>18</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>70</v>
+        <v>17</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="N49" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>231001</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -4036,40 +3406,39 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <f t="shared" si="1"/>
-        <v>231001</v>
+        <v>49</v>
       </c>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I50" t="s">
-        <v>73</v>
-      </c>
-      <c r="J50" t="s">
-        <v>74</v>
+        <v>59</v>
+      </c>
+      <c r="J50">
+        <v>2400</v>
       </c>
       <c r="K50">
         <v>33</v>
       </c>
       <c r="L50" t="s">
+        <v>17</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="N50" t="s">
         <v>18</v>
       </c>
-      <c r="M50" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>232002</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -4081,40 +3450,39 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <f t="shared" si="1"/>
-        <v>232002</v>
+        <v>50</v>
       </c>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I51" t="s">
-        <v>73</v>
-      </c>
-      <c r="J51" t="s">
-        <v>74</v>
+        <v>59</v>
+      </c>
+      <c r="J51">
+        <v>2400</v>
       </c>
       <c r="K51">
         <v>33</v>
       </c>
       <c r="L51" t="s">
+        <v>17</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="N51" t="s">
         <v>18</v>
       </c>
-      <c r="M51" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N51" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>233003</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -4126,40 +3494,39 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <f t="shared" si="1"/>
-        <v>233003</v>
+        <v>51</v>
       </c>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I52" t="s">
-        <v>73</v>
-      </c>
-      <c r="J52" t="s">
-        <v>74</v>
+        <v>59</v>
+      </c>
+      <c r="J52">
+        <v>2400</v>
       </c>
       <c r="K52">
         <v>33</v>
       </c>
       <c r="L52" t="s">
+        <v>17</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="N52" t="s">
         <v>18</v>
       </c>
-      <c r="M52" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>234004</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -4171,40 +3538,39 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <f t="shared" si="1"/>
-        <v>234004</v>
+        <v>52</v>
       </c>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I53" t="s">
-        <v>73</v>
-      </c>
-      <c r="J53" t="s">
-        <v>74</v>
+        <v>59</v>
+      </c>
+      <c r="J53">
+        <v>2400</v>
       </c>
       <c r="K53">
         <v>33</v>
       </c>
       <c r="L53" t="s">
+        <v>17</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="N53" t="s">
         <v>18</v>
       </c>
-      <c r="M53" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>231005</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -4216,40 +3582,39 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <f t="shared" si="1"/>
-        <v>231005</v>
+        <v>53</v>
       </c>
       <c r="H54" t="s">
-        <v>72</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>77</v>
+        <v>58</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="J54" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="K54">
         <v>33</v>
       </c>
       <c r="L54" t="s">
-        <v>18</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>79</v>
+        <v>17</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="N54" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>232006</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -4261,40 +3626,39 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <f t="shared" si="1"/>
-        <v>232006</v>
+        <v>54</v>
       </c>
       <c r="H55" t="s">
-        <v>72</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>77</v>
+        <v>58</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="J55" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="K55">
         <v>33</v>
       </c>
       <c r="L55" t="s">
-        <v>18</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>79</v>
+        <v>17</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="N55" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>233007</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -4306,40 +3670,39 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <f t="shared" si="1"/>
-        <v>233007</v>
+        <v>55</v>
       </c>
       <c r="H56" t="s">
-        <v>72</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>77</v>
+        <v>58</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="J56" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="K56">
         <v>33</v>
       </c>
       <c r="L56" t="s">
-        <v>18</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>79</v>
+        <v>17</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="N56" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>234008</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -4351,40 +3714,39 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <f t="shared" si="1"/>
-        <v>234008</v>
+        <v>56</v>
       </c>
       <c r="H57" t="s">
-        <v>72</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>77</v>
+        <v>58</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="J57" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="K57">
         <v>33</v>
       </c>
       <c r="L57" t="s">
-        <v>18</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>79</v>
+        <v>17</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="N57" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>231009</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -4396,40 +3758,39 @@
         <v>1</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <f t="shared" si="1"/>
-        <v>231009</v>
+        <v>57</v>
       </c>
       <c r="H58" t="s">
-        <v>72</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="J58" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="K58">
         <v>33</v>
       </c>
       <c r="L58" t="s">
-        <v>18</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>83</v>
+        <v>17</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="N58" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>232010</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -4441,40 +3802,39 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <f t="shared" si="1"/>
-        <v>232010</v>
+        <v>58</v>
       </c>
       <c r="H59" t="s">
-        <v>72</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="J59" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="K59">
         <v>33</v>
       </c>
       <c r="L59" t="s">
-        <v>18</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>83</v>
+        <v>17</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="N59" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>233011</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -4486,40 +3846,39 @@
         <v>1</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <f t="shared" si="1"/>
-        <v>233011</v>
+        <v>59</v>
       </c>
       <c r="H60" t="s">
-        <v>72</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="J60" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="K60">
         <v>33</v>
       </c>
       <c r="L60" t="s">
-        <v>18</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>83</v>
+        <v>17</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="N60" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>234012</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -4531,40 +3890,39 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <f t="shared" si="1"/>
-        <v>234012</v>
+        <v>60</v>
       </c>
       <c r="H61" t="s">
-        <v>72</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="J61" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="K61">
         <v>33</v>
       </c>
       <c r="L61" t="s">
-        <v>18</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>83</v>
+        <v>17</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="N61" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>231013</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -4576,40 +3934,39 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <f t="shared" si="1"/>
-        <v>231013</v>
+        <v>61</v>
       </c>
       <c r="H62" t="s">
-        <v>72</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>85</v>
+        <v>58</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="J62" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="K62">
         <v>33</v>
       </c>
       <c r="L62" t="s">
-        <v>18</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>87</v>
+        <v>17</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="N62" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>232014</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -4621,40 +3978,39 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <f t="shared" si="1"/>
-        <v>232014</v>
+        <v>62</v>
       </c>
       <c r="H63" t="s">
-        <v>72</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>85</v>
+        <v>58</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="J63" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="K63">
         <v>33</v>
       </c>
       <c r="L63" t="s">
-        <v>18</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>87</v>
+        <v>17</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="N63" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>233015</v>
       </c>
       <c r="B64" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -4666,40 +4022,39 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <f t="shared" si="1"/>
-        <v>233015</v>
+        <v>63</v>
       </c>
       <c r="H64" t="s">
-        <v>72</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>85</v>
+        <v>58</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="J64" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="K64">
         <v>33</v>
       </c>
       <c r="L64" t="s">
-        <v>18</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>87</v>
+        <v>17</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="N64" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>234016</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -4711,40 +4066,39 @@
         <v>1</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <f t="shared" si="1"/>
-        <v>234016</v>
+        <v>64</v>
       </c>
       <c r="H65" t="s">
-        <v>72</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>85</v>
+        <v>58</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="J65" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="K65">
         <v>33</v>
       </c>
       <c r="L65" t="s">
-        <v>18</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>87</v>
+        <v>17</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="N65" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>231017</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -4756,40 +4110,39 @@
         <v>1</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <f t="shared" si="1"/>
-        <v>231017</v>
+        <v>65</v>
       </c>
       <c r="H66" t="s">
-        <v>72</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>89</v>
+        <v>58</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="J66" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="K66">
         <v>33</v>
       </c>
       <c r="L66" t="s">
-        <v>18</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>91</v>
+        <v>17</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="N66" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>232018</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -4801,40 +4154,39 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G98" si="2">A67</f>
-        <v>232018</v>
+        <v>66</v>
       </c>
       <c r="H67" t="s">
-        <v>72</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>89</v>
+        <v>58</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="J67" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="K67">
         <v>33</v>
       </c>
       <c r="L67" t="s">
-        <v>18</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>91</v>
+        <v>17</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="N67" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>233019</v>
       </c>
       <c r="B68" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -4846,40 +4198,39 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68">
-        <f t="shared" si="2"/>
-        <v>233019</v>
+        <v>67</v>
       </c>
       <c r="H68" t="s">
-        <v>72</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>89</v>
+        <v>58</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="J68" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="K68">
         <v>33</v>
       </c>
       <c r="L68" t="s">
-        <v>18</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>91</v>
+        <v>17</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="N68" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>234020</v>
       </c>
       <c r="B69" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -4891,40 +4242,39 @@
         <v>1</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <f t="shared" si="2"/>
-        <v>234020</v>
+        <v>68</v>
       </c>
       <c r="H69" t="s">
-        <v>72</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>89</v>
+        <v>58</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="J69" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="K69">
         <v>33</v>
       </c>
       <c r="L69" t="s">
-        <v>18</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>91</v>
+        <v>17</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="N69" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>231021</v>
       </c>
       <c r="B70" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -4936,40 +4286,39 @@
         <v>1</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <f t="shared" si="2"/>
-        <v>231021</v>
+        <v>69</v>
       </c>
       <c r="H70" t="s">
-        <v>72</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>93</v>
+        <v>58</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="J70" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="K70">
         <v>33</v>
       </c>
       <c r="L70" t="s">
-        <v>18</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>95</v>
+        <v>17</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="N70" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>232022</v>
       </c>
       <c r="B71" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -4981,40 +4330,39 @@
         <v>1</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <f t="shared" si="2"/>
-        <v>232022</v>
+        <v>70</v>
       </c>
       <c r="H71" t="s">
-        <v>72</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>93</v>
+        <v>58</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="J71" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="K71">
         <v>33</v>
       </c>
       <c r="L71" t="s">
-        <v>18</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>95</v>
+        <v>17</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="N71" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>233023</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -5026,40 +4374,39 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G72">
-        <f t="shared" si="2"/>
-        <v>233023</v>
+        <v>71</v>
       </c>
       <c r="H72" t="s">
-        <v>72</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>93</v>
+        <v>58</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="J72" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="K72">
         <v>33</v>
       </c>
       <c r="L72" t="s">
-        <v>18</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>95</v>
+        <v>17</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="N72" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>234024</v>
       </c>
       <c r="B73" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -5071,40 +4418,39 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <f t="shared" si="2"/>
-        <v>234024</v>
+        <v>72</v>
       </c>
       <c r="H73" t="s">
-        <v>72</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>93</v>
+        <v>58</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="J73" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="K73">
         <v>33</v>
       </c>
       <c r="L73" t="s">
-        <v>18</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>95</v>
+        <v>17</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="N73" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>261001</v>
       </c>
       <c r="B74" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C74">
         <v>6</v>
@@ -5116,40 +4462,39 @@
         <v>1</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <f t="shared" si="2"/>
-        <v>261001</v>
+        <v>73</v>
       </c>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I74" t="s">
-        <v>98</v>
-      </c>
-      <c r="J74" t="s">
-        <v>99</v>
+        <v>77</v>
+      </c>
+      <c r="J74">
+        <v>192</v>
       </c>
       <c r="K74">
         <v>33</v>
       </c>
       <c r="L74" t="s">
+        <v>17</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N74" t="s">
         <v>18</v>
       </c>
-      <c r="M74" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="N74" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>262002</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C75">
         <v>6</v>
@@ -5161,40 +4506,39 @@
         <v>1</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <f t="shared" si="2"/>
-        <v>262002</v>
+        <v>74</v>
       </c>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I75" t="s">
-        <v>98</v>
-      </c>
-      <c r="J75" t="s">
-        <v>99</v>
+        <v>77</v>
+      </c>
+      <c r="J75">
+        <v>192</v>
       </c>
       <c r="K75">
         <v>33</v>
       </c>
       <c r="L75" t="s">
+        <v>17</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N75" t="s">
         <v>18</v>
       </c>
-      <c r="M75" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="N75" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>263003</v>
       </c>
       <c r="B76" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C76">
         <v>6</v>
@@ -5206,40 +4550,39 @@
         <v>1</v>
       </c>
       <c r="F76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G76">
-        <f t="shared" si="2"/>
-        <v>263003</v>
+        <v>75</v>
       </c>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I76" t="s">
-        <v>98</v>
-      </c>
-      <c r="J76" t="s">
-        <v>99</v>
+        <v>77</v>
+      </c>
+      <c r="J76">
+        <v>192</v>
       </c>
       <c r="K76">
         <v>33</v>
       </c>
       <c r="L76" t="s">
+        <v>17</v>
+      </c>
+      <c r="M76" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N76" t="s">
         <v>18</v>
       </c>
-      <c r="M76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="N76" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>264004</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C77">
         <v>6</v>
@@ -5251,40 +4594,39 @@
         <v>1</v>
       </c>
       <c r="F77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77">
-        <f t="shared" si="2"/>
-        <v>264004</v>
+        <v>76</v>
       </c>
       <c r="H77" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I77" t="s">
-        <v>98</v>
-      </c>
-      <c r="J77" t="s">
-        <v>99</v>
+        <v>77</v>
+      </c>
+      <c r="J77">
+        <v>192</v>
       </c>
       <c r="K77">
         <v>33</v>
       </c>
       <c r="L77" t="s">
+        <v>17</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N77" t="s">
         <v>18</v>
       </c>
-      <c r="M77" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="N77" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>261005</v>
       </c>
       <c r="B78" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -5296,40 +4638,39 @@
         <v>1</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <f t="shared" si="2"/>
-        <v>261005</v>
+        <v>77</v>
       </c>
       <c r="H78" t="s">
-        <v>97</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>102</v>
+        <v>76</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="J78" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="K78">
         <v>33</v>
       </c>
       <c r="L78" t="s">
-        <v>18</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>104</v>
+        <v>17</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="N78" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>262006</v>
       </c>
       <c r="B79" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C79">
         <v>6</v>
@@ -5341,40 +4682,39 @@
         <v>1</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G79">
-        <f t="shared" si="2"/>
-        <v>262006</v>
+        <v>78</v>
       </c>
       <c r="H79" t="s">
-        <v>97</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>102</v>
+        <v>76</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="J79" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="K79">
         <v>33</v>
       </c>
       <c r="L79" t="s">
-        <v>18</v>
-      </c>
-      <c r="M79" s="2" t="s">
-        <v>104</v>
+        <v>17</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="N79" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>263007</v>
       </c>
       <c r="B80" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C80">
         <v>6</v>
@@ -5386,40 +4726,39 @@
         <v>1</v>
       </c>
       <c r="F80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G80">
-        <f t="shared" si="2"/>
-        <v>263007</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s">
-        <v>97</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>102</v>
+        <v>76</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="J80" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="K80">
         <v>33</v>
       </c>
       <c r="L80" t="s">
-        <v>18</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>104</v>
+        <v>17</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="N80" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>264008</v>
       </c>
       <c r="B81" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C81">
         <v>6</v>
@@ -5431,40 +4770,39 @@
         <v>1</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G81">
-        <f t="shared" si="2"/>
-        <v>264008</v>
+        <v>80</v>
       </c>
       <c r="H81" t="s">
-        <v>97</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>102</v>
+        <v>76</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="J81" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="K81">
         <v>33</v>
       </c>
       <c r="L81" t="s">
-        <v>18</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>104</v>
+        <v>17</v>
+      </c>
+      <c r="M81" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="N81" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>261009</v>
       </c>
       <c r="B82" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="C82">
         <v>6</v>
@@ -5476,40 +4814,39 @@
         <v>1</v>
       </c>
       <c r="F82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G82">
-        <f t="shared" si="2"/>
-        <v>261009</v>
+        <v>81</v>
       </c>
       <c r="H82" t="s">
-        <v>97</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>106</v>
+        <v>76</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="J82" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="K82">
         <v>33</v>
       </c>
       <c r="L82" t="s">
-        <v>18</v>
-      </c>
-      <c r="M82" s="2" t="s">
-        <v>108</v>
+        <v>17</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="N82" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>262010</v>
       </c>
       <c r="B83" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="C83">
         <v>6</v>
@@ -5521,40 +4858,39 @@
         <v>1</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G83">
-        <f t="shared" si="2"/>
-        <v>262010</v>
+        <v>82</v>
       </c>
       <c r="H83" t="s">
-        <v>97</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>106</v>
+        <v>76</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="J83" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="K83">
         <v>33</v>
       </c>
       <c r="L83" t="s">
-        <v>18</v>
-      </c>
-      <c r="M83" s="2" t="s">
-        <v>108</v>
+        <v>17</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="N83" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>263011</v>
       </c>
       <c r="B84" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="C84">
         <v>6</v>
@@ -5566,40 +4902,39 @@
         <v>1</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <f t="shared" si="2"/>
-        <v>263011</v>
+        <v>83</v>
       </c>
       <c r="H84" t="s">
-        <v>97</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>106</v>
+        <v>76</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="J84" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="K84">
         <v>33</v>
       </c>
       <c r="L84" t="s">
-        <v>18</v>
-      </c>
-      <c r="M84" s="2" t="s">
-        <v>108</v>
+        <v>17</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="N84" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>264012</v>
       </c>
       <c r="B85" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="C85">
         <v>6</v>
@@ -5611,40 +4946,39 @@
         <v>1</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <f t="shared" si="2"/>
-        <v>264012</v>
+        <v>84</v>
       </c>
       <c r="H85" t="s">
-        <v>97</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>106</v>
+        <v>76</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="J85" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="K85">
         <v>33</v>
       </c>
       <c r="L85" t="s">
-        <v>18</v>
-      </c>
-      <c r="M85" s="2" t="s">
-        <v>108</v>
+        <v>17</v>
+      </c>
+      <c r="M85" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="N85" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>261013</v>
       </c>
       <c r="B86" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C86">
         <v>6</v>
@@ -5656,40 +4990,39 @@
         <v>1</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G86">
-        <f t="shared" si="2"/>
-        <v>261013</v>
+        <v>85</v>
       </c>
       <c r="H86" t="s">
-        <v>97</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>110</v>
+        <v>76</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="J86" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="K86">
         <v>33</v>
       </c>
       <c r="L86" t="s">
-        <v>18</v>
-      </c>
-      <c r="M86" s="2" t="s">
-        <v>112</v>
+        <v>17</v>
+      </c>
+      <c r="M86" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="N86" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>262014</v>
       </c>
       <c r="B87" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C87">
         <v>6</v>
@@ -5701,40 +5034,39 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G87">
-        <f t="shared" si="2"/>
-        <v>262014</v>
+        <v>86</v>
       </c>
       <c r="H87" t="s">
-        <v>97</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>110</v>
+        <v>76</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="J87" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="K87">
         <v>33</v>
       </c>
       <c r="L87" t="s">
-        <v>18</v>
-      </c>
-      <c r="M87" s="2" t="s">
-        <v>112</v>
+        <v>17</v>
+      </c>
+      <c r="M87" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="N87" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>263015</v>
       </c>
       <c r="B88" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C88">
         <v>6</v>
@@ -5746,40 +5078,39 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G88">
-        <f t="shared" si="2"/>
-        <v>263015</v>
+        <v>87</v>
       </c>
       <c r="H88" t="s">
-        <v>97</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>110</v>
+        <v>76</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="J88" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="K88">
         <v>33</v>
       </c>
       <c r="L88" t="s">
-        <v>18</v>
-      </c>
-      <c r="M88" s="2" t="s">
-        <v>112</v>
+        <v>17</v>
+      </c>
+      <c r="M88" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="N88" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>264016</v>
       </c>
       <c r="B89" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C89">
         <v>6</v>
@@ -5791,40 +5122,39 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G89">
-        <f t="shared" si="2"/>
-        <v>264016</v>
+        <v>88</v>
       </c>
       <c r="H89" t="s">
-        <v>97</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>110</v>
+        <v>76</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="J89" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="K89">
         <v>33</v>
       </c>
       <c r="L89" t="s">
-        <v>18</v>
-      </c>
-      <c r="M89" s="2" t="s">
-        <v>112</v>
+        <v>17</v>
+      </c>
+      <c r="M89" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="N89" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>261017</v>
       </c>
       <c r="B90" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C90">
         <v>6</v>
@@ -5836,40 +5166,39 @@
         <v>1</v>
       </c>
       <c r="F90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90">
-        <f t="shared" si="2"/>
-        <v>261017</v>
+        <v>89</v>
       </c>
       <c r="H90" t="s">
-        <v>97</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>114</v>
+        <v>76</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="J90" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="K90">
         <v>33</v>
       </c>
       <c r="L90" t="s">
-        <v>18</v>
-      </c>
-      <c r="M90" s="2" t="s">
-        <v>116</v>
+        <v>17</v>
+      </c>
+      <c r="M90" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="N90" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>262018</v>
       </c>
       <c r="B91" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C91">
         <v>6</v>
@@ -5881,40 +5210,39 @@
         <v>1</v>
       </c>
       <c r="F91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G91">
-        <f t="shared" si="2"/>
-        <v>262018</v>
+        <v>90</v>
       </c>
       <c r="H91" t="s">
-        <v>97</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>114</v>
+        <v>76</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="J91" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="K91">
         <v>33</v>
       </c>
       <c r="L91" t="s">
-        <v>18</v>
-      </c>
-      <c r="M91" s="2" t="s">
-        <v>116</v>
+        <v>17</v>
+      </c>
+      <c r="M91" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="N91" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>263019</v>
       </c>
       <c r="B92" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C92">
         <v>6</v>
@@ -5926,40 +5254,39 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G92">
-        <f t="shared" si="2"/>
-        <v>263019</v>
+        <v>91</v>
       </c>
       <c r="H92" t="s">
-        <v>97</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>114</v>
+        <v>76</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="J92" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="K92">
         <v>33</v>
       </c>
       <c r="L92" t="s">
-        <v>18</v>
-      </c>
-      <c r="M92" s="2" t="s">
-        <v>116</v>
+        <v>17</v>
+      </c>
+      <c r="M92" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="N92" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>264020</v>
       </c>
       <c r="B93" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C93">
         <v>6</v>
@@ -5971,40 +5298,39 @@
         <v>1</v>
       </c>
       <c r="F93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <f t="shared" si="2"/>
-        <v>264020</v>
+        <v>92</v>
       </c>
       <c r="H93" t="s">
-        <v>97</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>114</v>
+        <v>76</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="J93" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="K93">
         <v>33</v>
       </c>
       <c r="L93" t="s">
-        <v>18</v>
-      </c>
-      <c r="M93" s="2" t="s">
-        <v>116</v>
+        <v>17</v>
+      </c>
+      <c r="M93" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="N93" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>261021</v>
       </c>
       <c r="B94" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C94">
         <v>6</v>
@@ -6016,40 +5342,39 @@
         <v>1</v>
       </c>
       <c r="F94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G94">
-        <f t="shared" si="2"/>
-        <v>261021</v>
+        <v>93</v>
       </c>
       <c r="H94" t="s">
-        <v>97</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>118</v>
+        <v>76</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="J94" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="K94">
         <v>33</v>
       </c>
       <c r="L94" t="s">
-        <v>18</v>
-      </c>
-      <c r="M94" s="2" t="s">
-        <v>120</v>
+        <v>17</v>
+      </c>
+      <c r="M94" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="N94" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>262022</v>
       </c>
       <c r="B95" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C95">
         <v>6</v>
@@ -6061,40 +5386,39 @@
         <v>1</v>
       </c>
       <c r="F95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G95">
-        <f t="shared" si="2"/>
-        <v>262022</v>
+        <v>94</v>
       </c>
       <c r="H95" t="s">
-        <v>97</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>118</v>
+        <v>76</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="J95" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="K95">
         <v>33</v>
       </c>
       <c r="L95" t="s">
-        <v>18</v>
-      </c>
-      <c r="M95" s="2" t="s">
-        <v>120</v>
+        <v>17</v>
+      </c>
+      <c r="M95" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="N95" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>263023</v>
       </c>
       <c r="B96" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C96">
         <v>6</v>
@@ -6106,40 +5430,39 @@
         <v>1</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G96">
-        <f t="shared" si="2"/>
-        <v>263023</v>
+        <v>95</v>
       </c>
       <c r="H96" t="s">
-        <v>97</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>118</v>
+        <v>76</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="J96" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="K96">
         <v>33</v>
       </c>
       <c r="L96" t="s">
-        <v>18</v>
-      </c>
-      <c r="M96" s="2" t="s">
-        <v>120</v>
+        <v>17</v>
+      </c>
+      <c r="M96" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="N96" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>264024</v>
       </c>
       <c r="B97" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C97">
         <v>6</v>
@@ -6151,40 +5474,39 @@
         <v>1</v>
       </c>
       <c r="F97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G97">
-        <f t="shared" si="2"/>
-        <v>264024</v>
+        <v>96</v>
       </c>
       <c r="H97" t="s">
-        <v>97</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>118</v>
+        <v>76</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="J97" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="K97">
         <v>33</v>
       </c>
       <c r="L97" t="s">
-        <v>18</v>
-      </c>
-      <c r="M97" s="2" t="s">
-        <v>120</v>
+        <v>17</v>
+      </c>
+      <c r="M97" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="N97" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>211001</v>
       </c>
       <c r="B98" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -6196,40 +5518,39 @@
         <v>1</v>
       </c>
       <c r="F98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G98">
-        <f t="shared" si="2"/>
-        <v>211001</v>
+        <v>97</v>
       </c>
       <c r="H98" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="I98" t="s">
-        <v>123</v>
-      </c>
-      <c r="J98" t="s">
-        <v>124</v>
+        <v>95</v>
+      </c>
+      <c r="J98">
+        <v>48</v>
       </c>
       <c r="K98">
         <v>33</v>
       </c>
       <c r="L98" t="s">
+        <v>17</v>
+      </c>
+      <c r="M98" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N98" t="s">
         <v>18</v>
       </c>
-      <c r="M98" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="N98" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>212002</v>
       </c>
       <c r="B99" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -6241,40 +5562,39 @@
         <v>1</v>
       </c>
       <c r="F99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G99">
-        <f t="shared" ref="G99:G145" si="3">A99</f>
-        <v>212002</v>
+        <v>98</v>
       </c>
       <c r="H99" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="I99" t="s">
-        <v>123</v>
-      </c>
-      <c r="J99" t="s">
-        <v>124</v>
+        <v>95</v>
+      </c>
+      <c r="J99">
+        <v>48</v>
       </c>
       <c r="K99">
         <v>33</v>
       </c>
       <c r="L99" t="s">
+        <v>17</v>
+      </c>
+      <c r="M99" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N99" t="s">
         <v>18</v>
       </c>
-      <c r="M99" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="N99" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>213003</v>
       </c>
       <c r="B100" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -6286,40 +5606,39 @@
         <v>1</v>
       </c>
       <c r="F100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G100">
-        <f t="shared" si="3"/>
-        <v>213003</v>
+        <v>99</v>
       </c>
       <c r="H100" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="I100" t="s">
-        <v>123</v>
-      </c>
-      <c r="J100" t="s">
-        <v>124</v>
+        <v>95</v>
+      </c>
+      <c r="J100">
+        <v>48</v>
       </c>
       <c r="K100">
         <v>33</v>
       </c>
       <c r="L100" t="s">
+        <v>17</v>
+      </c>
+      <c r="M100" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N100" t="s">
         <v>18</v>
       </c>
-      <c r="M100" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="N100" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>214004</v>
       </c>
       <c r="B101" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -6331,40 +5650,39 @@
         <v>1</v>
       </c>
       <c r="F101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G101">
-        <f t="shared" si="3"/>
-        <v>214004</v>
+        <v>100</v>
       </c>
       <c r="H101" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="I101" t="s">
-        <v>123</v>
-      </c>
-      <c r="J101" t="s">
-        <v>124</v>
+        <v>95</v>
+      </c>
+      <c r="J101">
+        <v>48</v>
       </c>
       <c r="K101">
         <v>33</v>
       </c>
       <c r="L101" t="s">
+        <v>17</v>
+      </c>
+      <c r="M101" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N101" t="s">
         <v>18</v>
       </c>
-      <c r="M101" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="N101" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>211005</v>
       </c>
       <c r="B102" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -6376,40 +5694,39 @@
         <v>1</v>
       </c>
       <c r="F102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G102">
-        <f t="shared" si="3"/>
-        <v>211005</v>
+        <v>101</v>
       </c>
       <c r="H102" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="I102" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="J102" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="K102">
         <v>33</v>
       </c>
       <c r="L102" t="s">
-        <v>18</v>
-      </c>
-      <c r="M102" s="2" t="s">
-        <v>129</v>
+        <v>17</v>
+      </c>
+      <c r="M102" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="N102" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>212006</v>
       </c>
       <c r="B103" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -6421,40 +5738,39 @@
         <v>1</v>
       </c>
       <c r="F103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G103">
-        <f t="shared" si="3"/>
-        <v>212006</v>
+        <v>102</v>
       </c>
       <c r="H103" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="I103" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="J103" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="K103">
         <v>33</v>
       </c>
       <c r="L103" t="s">
-        <v>18</v>
-      </c>
-      <c r="M103" s="2" t="s">
-        <v>129</v>
+        <v>17</v>
+      </c>
+      <c r="M103" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="N103" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>213007</v>
       </c>
       <c r="B104" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -6466,40 +5782,39 @@
         <v>1</v>
       </c>
       <c r="F104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G104">
-        <f t="shared" si="3"/>
-        <v>213007</v>
+        <v>103</v>
       </c>
       <c r="H104" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="I104" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="J104" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="K104">
         <v>33</v>
       </c>
       <c r="L104" t="s">
-        <v>18</v>
-      </c>
-      <c r="M104" s="2" t="s">
-        <v>129</v>
+        <v>17</v>
+      </c>
+      <c r="M104" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="N104" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>214008</v>
       </c>
       <c r="B105" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -6511,40 +5826,39 @@
         <v>1</v>
       </c>
       <c r="F105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G105">
-        <f t="shared" si="3"/>
-        <v>214008</v>
+        <v>104</v>
       </c>
       <c r="H105" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="I105" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="J105" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="K105">
         <v>33</v>
       </c>
       <c r="L105" t="s">
-        <v>18</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>129</v>
+        <v>17</v>
+      </c>
+      <c r="M105" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="N105" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>211009</v>
       </c>
       <c r="B106" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -6556,40 +5870,39 @@
         <v>1</v>
       </c>
       <c r="F106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G106">
-        <f t="shared" si="3"/>
-        <v>211009</v>
+        <v>105</v>
       </c>
       <c r="H106" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="I106" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="J106" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="K106">
         <v>33</v>
       </c>
       <c r="L106" t="s">
-        <v>18</v>
-      </c>
-      <c r="M106" s="2" t="s">
-        <v>133</v>
+        <v>17</v>
+      </c>
+      <c r="M106" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="N106" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>212010</v>
       </c>
       <c r="B107" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -6601,40 +5914,39 @@
         <v>1</v>
       </c>
       <c r="F107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G107">
-        <f t="shared" si="3"/>
-        <v>212010</v>
+        <v>106</v>
       </c>
       <c r="H107" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="I107" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="J107" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="K107">
         <v>33</v>
       </c>
       <c r="L107" t="s">
-        <v>18</v>
-      </c>
-      <c r="M107" s="2" t="s">
-        <v>133</v>
+        <v>17</v>
+      </c>
+      <c r="M107" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="N107" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>213011</v>
       </c>
       <c r="B108" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -6646,40 +5958,39 @@
         <v>1</v>
       </c>
       <c r="F108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G108">
-        <f t="shared" si="3"/>
-        <v>213011</v>
+        <v>107</v>
       </c>
       <c r="H108" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="I108" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="J108" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="K108">
         <v>33</v>
       </c>
       <c r="L108" t="s">
-        <v>18</v>
-      </c>
-      <c r="M108" s="2" t="s">
-        <v>133</v>
+        <v>17</v>
+      </c>
+      <c r="M108" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="N108" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>214012</v>
       </c>
       <c r="B109" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -6691,40 +6002,39 @@
         <v>1</v>
       </c>
       <c r="F109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G109">
-        <f t="shared" si="3"/>
-        <v>214012</v>
+        <v>108</v>
       </c>
       <c r="H109" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="I109" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="J109" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="K109">
         <v>33</v>
       </c>
       <c r="L109" t="s">
-        <v>18</v>
-      </c>
-      <c r="M109" s="2" t="s">
-        <v>133</v>
+        <v>17</v>
+      </c>
+      <c r="M109" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="N109" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>211013</v>
       </c>
       <c r="B110" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -6736,40 +6046,39 @@
         <v>1</v>
       </c>
       <c r="F110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G110">
-        <f t="shared" si="3"/>
-        <v>211013</v>
+        <v>109</v>
       </c>
       <c r="H110" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="I110" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="J110" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="K110">
         <v>33</v>
       </c>
       <c r="L110" t="s">
-        <v>18</v>
-      </c>
-      <c r="M110" s="2" t="s">
-        <v>137</v>
+        <v>17</v>
+      </c>
+      <c r="M110" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="N110" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>212014</v>
       </c>
       <c r="B111" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -6781,40 +6090,39 @@
         <v>1</v>
       </c>
       <c r="F111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G111">
-        <f t="shared" si="3"/>
-        <v>212014</v>
+        <v>110</v>
       </c>
       <c r="H111" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="I111" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="J111" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="K111">
         <v>33</v>
       </c>
       <c r="L111" t="s">
-        <v>18</v>
-      </c>
-      <c r="M111" s="2" t="s">
-        <v>137</v>
+        <v>17</v>
+      </c>
+      <c r="M111" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="N111" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>213015</v>
       </c>
       <c r="B112" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -6826,40 +6134,39 @@
         <v>1</v>
       </c>
       <c r="F112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G112">
-        <f t="shared" si="3"/>
-        <v>213015</v>
+        <v>111</v>
       </c>
       <c r="H112" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="I112" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="J112" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="K112">
         <v>33</v>
       </c>
       <c r="L112" t="s">
-        <v>18</v>
-      </c>
-      <c r="M112" s="2" t="s">
-        <v>137</v>
+        <v>17</v>
+      </c>
+      <c r="M112" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="N112" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>214016</v>
       </c>
       <c r="B113" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -6871,40 +6178,39 @@
         <v>1</v>
       </c>
       <c r="F113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G113">
-        <f t="shared" si="3"/>
-        <v>214016</v>
+        <v>112</v>
       </c>
       <c r="H113" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="I113" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="J113" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="K113">
         <v>33</v>
       </c>
       <c r="L113" t="s">
-        <v>18</v>
-      </c>
-      <c r="M113" s="2" t="s">
-        <v>137</v>
+        <v>17</v>
+      </c>
+      <c r="M113" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="N113" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>211017</v>
       </c>
       <c r="B114" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -6916,40 +6222,39 @@
         <v>1</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G114">
-        <f t="shared" si="3"/>
-        <v>211017</v>
+        <v>113</v>
       </c>
       <c r="H114" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="I114" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="J114" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="K114">
         <v>33</v>
       </c>
       <c r="L114" t="s">
-        <v>18</v>
-      </c>
-      <c r="M114" s="2" t="s">
-        <v>141</v>
+        <v>17</v>
+      </c>
+      <c r="M114" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="N114" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>212018</v>
       </c>
       <c r="B115" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -6961,40 +6266,39 @@
         <v>1</v>
       </c>
       <c r="F115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G115">
-        <f t="shared" si="3"/>
-        <v>212018</v>
+        <v>114</v>
       </c>
       <c r="H115" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="I115" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="J115" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="K115">
         <v>33</v>
       </c>
       <c r="L115" t="s">
-        <v>18</v>
-      </c>
-      <c r="M115" s="2" t="s">
-        <v>141</v>
+        <v>17</v>
+      </c>
+      <c r="M115" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="N115" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>213019</v>
       </c>
       <c r="B116" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -7006,40 +6310,39 @@
         <v>1</v>
       </c>
       <c r="F116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G116">
-        <f t="shared" si="3"/>
-        <v>213019</v>
+        <v>115</v>
       </c>
       <c r="H116" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="I116" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="J116" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="K116">
         <v>33</v>
       </c>
       <c r="L116" t="s">
-        <v>18</v>
-      </c>
-      <c r="M116" s="2" t="s">
-        <v>141</v>
+        <v>17</v>
+      </c>
+      <c r="M116" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="N116" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>214020</v>
       </c>
       <c r="B117" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -7051,40 +6354,39 @@
         <v>1</v>
       </c>
       <c r="F117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G117">
-        <f t="shared" si="3"/>
-        <v>214020</v>
+        <v>116</v>
       </c>
       <c r="H117" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="I117" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="J117" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="K117">
         <v>33</v>
       </c>
       <c r="L117" t="s">
-        <v>18</v>
-      </c>
-      <c r="M117" s="2" t="s">
-        <v>141</v>
+        <v>17</v>
+      </c>
+      <c r="M117" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="N117" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>211021</v>
       </c>
       <c r="B118" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -7096,40 +6398,39 @@
         <v>1</v>
       </c>
       <c r="F118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G118">
-        <f t="shared" si="3"/>
-        <v>211021</v>
+        <v>117</v>
       </c>
       <c r="H118" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="I118" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="J118" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="K118">
         <v>33</v>
       </c>
       <c r="L118" t="s">
-        <v>18</v>
-      </c>
-      <c r="M118" s="2" t="s">
-        <v>145</v>
+        <v>17</v>
+      </c>
+      <c r="M118" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="N118" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>212022</v>
       </c>
       <c r="B119" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -7141,40 +6442,39 @@
         <v>1</v>
       </c>
       <c r="F119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G119">
-        <f t="shared" si="3"/>
-        <v>212022</v>
+        <v>118</v>
       </c>
       <c r="H119" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="I119" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="J119" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="K119">
         <v>33</v>
       </c>
       <c r="L119" t="s">
-        <v>18</v>
-      </c>
-      <c r="M119" s="2" t="s">
-        <v>145</v>
+        <v>17</v>
+      </c>
+      <c r="M119" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="N119" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>213023</v>
       </c>
       <c r="B120" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -7186,40 +6486,39 @@
         <v>1</v>
       </c>
       <c r="F120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G120">
-        <f t="shared" si="3"/>
-        <v>213023</v>
+        <v>119</v>
       </c>
       <c r="H120" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="I120" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="J120" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="K120">
         <v>33</v>
       </c>
       <c r="L120" t="s">
-        <v>18</v>
-      </c>
-      <c r="M120" s="2" t="s">
-        <v>145</v>
+        <v>17</v>
+      </c>
+      <c r="M120" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="N120" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>214024</v>
       </c>
       <c r="B121" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -7231,40 +6530,39 @@
         <v>1</v>
       </c>
       <c r="F121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G121">
-        <f t="shared" si="3"/>
-        <v>214024</v>
+        <v>120</v>
       </c>
       <c r="H121" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="I121" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="J121" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="K121">
         <v>33</v>
       </c>
       <c r="L121" t="s">
-        <v>18</v>
-      </c>
-      <c r="M121" s="2" t="s">
-        <v>145</v>
+        <v>17</v>
+      </c>
+      <c r="M121" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="N121" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>251001</v>
       </c>
       <c r="B122" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="C122">
         <v>5</v>
@@ -7276,40 +6574,39 @@
         <v>1</v>
       </c>
       <c r="F122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G122">
-        <f t="shared" si="3"/>
-        <v>251001</v>
+        <v>121</v>
       </c>
       <c r="H122" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="I122" t="s">
-        <v>148</v>
-      </c>
-      <c r="J122" t="s">
-        <v>149</v>
+        <v>113</v>
+      </c>
+      <c r="J122">
+        <v>160</v>
       </c>
       <c r="K122">
         <v>33</v>
       </c>
       <c r="L122" t="s">
+        <v>17</v>
+      </c>
+      <c r="M122" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="N122" t="s">
         <v>18</v>
       </c>
-      <c r="M122" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="N122" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14">
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>252002</v>
       </c>
       <c r="B123" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="C123">
         <v>5</v>
@@ -7321,40 +6618,39 @@
         <v>1</v>
       </c>
       <c r="F123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G123">
-        <f t="shared" si="3"/>
-        <v>252002</v>
+        <v>122</v>
       </c>
       <c r="H123" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="I123" t="s">
-        <v>148</v>
-      </c>
-      <c r="J123" t="s">
-        <v>149</v>
+        <v>113</v>
+      </c>
+      <c r="J123">
+        <v>160</v>
       </c>
       <c r="K123">
         <v>33</v>
       </c>
       <c r="L123" t="s">
+        <v>17</v>
+      </c>
+      <c r="M123" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="N123" t="s">
         <v>18</v>
       </c>
-      <c r="M123" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="N123" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14">
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>253003</v>
       </c>
       <c r="B124" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="C124">
         <v>5</v>
@@ -7366,40 +6662,39 @@
         <v>1</v>
       </c>
       <c r="F124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G124">
-        <f t="shared" si="3"/>
-        <v>253003</v>
+        <v>123</v>
       </c>
       <c r="H124" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="I124" t="s">
-        <v>148</v>
-      </c>
-      <c r="J124" t="s">
-        <v>149</v>
+        <v>113</v>
+      </c>
+      <c r="J124">
+        <v>160</v>
       </c>
       <c r="K124">
         <v>33</v>
       </c>
       <c r="L124" t="s">
+        <v>17</v>
+      </c>
+      <c r="M124" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="N124" t="s">
         <v>18</v>
       </c>
-      <c r="M124" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="N124" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14">
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>254004</v>
       </c>
       <c r="B125" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="C125">
         <v>5</v>
@@ -7411,40 +6706,39 @@
         <v>1</v>
       </c>
       <c r="F125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G125">
-        <f t="shared" si="3"/>
-        <v>254004</v>
+        <v>124</v>
       </c>
       <c r="H125" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="I125" t="s">
-        <v>148</v>
-      </c>
-      <c r="J125" t="s">
-        <v>149</v>
+        <v>113</v>
+      </c>
+      <c r="J125">
+        <v>160</v>
       </c>
       <c r="K125">
         <v>33</v>
       </c>
       <c r="L125" t="s">
+        <v>17</v>
+      </c>
+      <c r="M125" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="N125" t="s">
         <v>18</v>
       </c>
-      <c r="M125" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="N125" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14">
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>251005</v>
       </c>
       <c r="B126" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="C126">
         <v>5</v>
@@ -7456,40 +6750,39 @@
         <v>1</v>
       </c>
       <c r="F126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G126">
-        <f t="shared" si="3"/>
-        <v>251005</v>
+        <v>125</v>
       </c>
       <c r="H126" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="I126" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="J126" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="K126">
         <v>33</v>
       </c>
       <c r="L126" t="s">
-        <v>18</v>
-      </c>
-      <c r="M126" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M126" s="4" t="s">
         <v>154</v>
       </c>
       <c r="N126" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>252006</v>
       </c>
       <c r="B127" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="C127">
         <v>5</v>
@@ -7501,40 +6794,39 @@
         <v>1</v>
       </c>
       <c r="F127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G127">
-        <f t="shared" si="3"/>
-        <v>252006</v>
+        <v>126</v>
       </c>
       <c r="H127" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="I127" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="J127" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="K127">
         <v>33</v>
       </c>
       <c r="L127" t="s">
-        <v>18</v>
-      </c>
-      <c r="M127" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M127" s="4" t="s">
         <v>154</v>
       </c>
       <c r="N127" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>253007</v>
       </c>
       <c r="B128" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="C128">
         <v>5</v>
@@ -7546,40 +6838,39 @@
         <v>1</v>
       </c>
       <c r="F128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G128">
-        <f t="shared" si="3"/>
-        <v>253007</v>
+        <v>127</v>
       </c>
       <c r="H128" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="I128" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="J128" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="K128">
         <v>33</v>
       </c>
       <c r="L128" t="s">
-        <v>18</v>
-      </c>
-      <c r="M128" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M128" s="4" t="s">
         <v>154</v>
       </c>
       <c r="N128" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>254008</v>
       </c>
       <c r="B129" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="C129">
         <v>5</v>
@@ -7591,40 +6882,39 @@
         <v>1</v>
       </c>
       <c r="F129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G129">
-        <f t="shared" si="3"/>
-        <v>254008</v>
+        <v>128</v>
       </c>
       <c r="H129" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="I129" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="J129" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="K129">
         <v>33</v>
       </c>
       <c r="L129" t="s">
-        <v>18</v>
-      </c>
-      <c r="M129" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M129" s="4" t="s">
         <v>154</v>
       </c>
       <c r="N129" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>251009</v>
       </c>
       <c r="B130" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="C130">
         <v>5</v>
@@ -7636,40 +6926,39 @@
         <v>1</v>
       </c>
       <c r="F130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G130">
-        <f t="shared" si="3"/>
-        <v>251009</v>
+        <v>129</v>
       </c>
       <c r="H130" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="I130" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="J130" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="K130">
         <v>33</v>
       </c>
       <c r="L130" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M130" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N130" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>252010</v>
       </c>
       <c r="B131" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="C131">
         <v>5</v>
@@ -7681,40 +6970,39 @@
         <v>1</v>
       </c>
       <c r="F131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G131">
-        <f t="shared" si="3"/>
-        <v>252010</v>
+        <v>130</v>
       </c>
       <c r="H131" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="I131" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="J131" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="K131">
         <v>33</v>
       </c>
       <c r="L131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M131" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N131" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>253011</v>
       </c>
       <c r="B132" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="C132">
         <v>5</v>
@@ -7726,40 +7014,39 @@
         <v>1</v>
       </c>
       <c r="F132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G132">
-        <f t="shared" si="3"/>
-        <v>253011</v>
+        <v>131</v>
       </c>
       <c r="H132" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="I132" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="J132" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="K132">
         <v>33</v>
       </c>
       <c r="L132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M132" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N132" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>254012</v>
       </c>
       <c r="B133" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="C133">
         <v>5</v>
@@ -7771,40 +7058,39 @@
         <v>1</v>
       </c>
       <c r="F133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G133">
-        <f t="shared" si="3"/>
-        <v>254012</v>
+        <v>132</v>
       </c>
       <c r="H133" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="I133" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="J133" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="K133">
         <v>33</v>
       </c>
       <c r="L133" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M133" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N133" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>251013</v>
       </c>
       <c r="B134" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="C134">
         <v>5</v>
@@ -7816,40 +7102,39 @@
         <v>1</v>
       </c>
       <c r="F134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G134">
-        <f t="shared" si="3"/>
-        <v>251013</v>
+        <v>133</v>
       </c>
       <c r="H134" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="I134" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="J134" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="K134">
         <v>33</v>
       </c>
       <c r="L134" t="s">
-        <v>18</v>
-      </c>
-      <c r="M134" s="2" t="s">
-        <v>162</v>
+        <v>17</v>
+      </c>
+      <c r="M134" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="N134" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>252014</v>
       </c>
       <c r="B135" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="C135">
         <v>5</v>
@@ -7861,40 +7146,39 @@
         <v>1</v>
       </c>
       <c r="F135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G135">
-        <f t="shared" si="3"/>
-        <v>252014</v>
+        <v>134</v>
       </c>
       <c r="H135" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="I135" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="J135" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="K135">
         <v>33</v>
       </c>
       <c r="L135" t="s">
-        <v>18</v>
-      </c>
-      <c r="M135" s="2" t="s">
-        <v>162</v>
+        <v>17</v>
+      </c>
+      <c r="M135" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="N135" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>253015</v>
       </c>
       <c r="B136" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="C136">
         <v>5</v>
@@ -7906,40 +7190,39 @@
         <v>1</v>
       </c>
       <c r="F136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G136">
-        <f t="shared" si="3"/>
-        <v>253015</v>
+        <v>135</v>
       </c>
       <c r="H136" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="I136" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="J136" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="K136">
         <v>33</v>
       </c>
       <c r="L136" t="s">
-        <v>18</v>
-      </c>
-      <c r="M136" s="2" t="s">
-        <v>162</v>
+        <v>17</v>
+      </c>
+      <c r="M136" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="N136" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>254016</v>
       </c>
       <c r="B137" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="C137">
         <v>5</v>
@@ -7951,40 +7234,39 @@
         <v>1</v>
       </c>
       <c r="F137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G137">
-        <f t="shared" si="3"/>
-        <v>254016</v>
+        <v>136</v>
       </c>
       <c r="H137" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="I137" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="J137" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="K137">
         <v>33</v>
       </c>
       <c r="L137" t="s">
-        <v>18</v>
-      </c>
-      <c r="M137" s="2" t="s">
-        <v>162</v>
+        <v>17</v>
+      </c>
+      <c r="M137" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="N137" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>251017</v>
       </c>
       <c r="B138" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="C138">
         <v>5</v>
@@ -7996,40 +7278,39 @@
         <v>1</v>
       </c>
       <c r="F138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G138">
-        <f t="shared" si="3"/>
-        <v>251017</v>
+        <v>137</v>
       </c>
       <c r="H138" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="I138" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="J138" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="K138">
         <v>33</v>
       </c>
       <c r="L138" t="s">
-        <v>18</v>
-      </c>
-      <c r="M138" s="2" t="s">
-        <v>166</v>
+        <v>17</v>
+      </c>
+      <c r="M138" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="N138" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>252018</v>
       </c>
       <c r="B139" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="C139">
         <v>5</v>
@@ -8041,40 +7322,39 @@
         <v>1</v>
       </c>
       <c r="F139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G139">
-        <f t="shared" si="3"/>
-        <v>252018</v>
+        <v>138</v>
       </c>
       <c r="H139" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="I139" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="J139" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="K139">
         <v>33</v>
       </c>
       <c r="L139" t="s">
-        <v>18</v>
-      </c>
-      <c r="M139" s="2" t="s">
-        <v>166</v>
+        <v>17</v>
+      </c>
+      <c r="M139" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="N139" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>253019</v>
       </c>
       <c r="B140" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="C140">
         <v>5</v>
@@ -8086,40 +7366,39 @@
         <v>1</v>
       </c>
       <c r="F140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G140">
-        <f t="shared" si="3"/>
-        <v>253019</v>
+        <v>139</v>
       </c>
       <c r="H140" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="I140" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="J140" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="K140">
         <v>33</v>
       </c>
       <c r="L140" t="s">
-        <v>18</v>
-      </c>
-      <c r="M140" s="2" t="s">
-        <v>166</v>
+        <v>17</v>
+      </c>
+      <c r="M140" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="N140" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>254020</v>
       </c>
       <c r="B141" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="C141">
         <v>5</v>
@@ -8131,40 +7410,39 @@
         <v>1</v>
       </c>
       <c r="F141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G141">
-        <f t="shared" si="3"/>
-        <v>254020</v>
+        <v>140</v>
       </c>
       <c r="H141" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="I141" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="J141" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="K141">
         <v>33</v>
       </c>
       <c r="L141" t="s">
-        <v>18</v>
-      </c>
-      <c r="M141" s="2" t="s">
-        <v>166</v>
+        <v>17</v>
+      </c>
+      <c r="M141" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="N141" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>251021</v>
       </c>
       <c r="B142" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="C142">
         <v>5</v>
@@ -8176,40 +7454,39 @@
         <v>1</v>
       </c>
       <c r="F142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G142">
-        <f t="shared" si="3"/>
-        <v>251021</v>
+        <v>141</v>
       </c>
       <c r="H142" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="I142" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="J142" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="K142">
         <v>33</v>
       </c>
       <c r="L142" t="s">
-        <v>18</v>
-      </c>
-      <c r="M142" s="2" t="s">
-        <v>170</v>
+        <v>17</v>
+      </c>
+      <c r="M142" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="N142" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>252022</v>
       </c>
       <c r="B143" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="C143">
         <v>5</v>
@@ -8221,40 +7498,39 @@
         <v>1</v>
       </c>
       <c r="F143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G143">
-        <f t="shared" si="3"/>
-        <v>252022</v>
+        <v>142</v>
       </c>
       <c r="H143" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="I143" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="J143" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="K143">
         <v>33</v>
       </c>
       <c r="L143" t="s">
-        <v>18</v>
-      </c>
-      <c r="M143" s="2" t="s">
-        <v>170</v>
+        <v>17</v>
+      </c>
+      <c r="M143" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="N143" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>253023</v>
       </c>
       <c r="B144" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="C144">
         <v>5</v>
@@ -8266,40 +7542,39 @@
         <v>1</v>
       </c>
       <c r="F144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G144">
-        <f t="shared" si="3"/>
-        <v>253023</v>
+        <v>143</v>
       </c>
       <c r="H144" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="I144" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="J144" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="K144">
         <v>33</v>
       </c>
       <c r="L144" t="s">
-        <v>18</v>
-      </c>
-      <c r="M144" s="2" t="s">
-        <v>170</v>
+        <v>17</v>
+      </c>
+      <c r="M144" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="N144" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>254024</v>
       </c>
       <c r="B145" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="C145">
         <v>5</v>
@@ -8311,75 +7586,68 @@
         <v>1</v>
       </c>
       <c r="F145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G145">
-        <f t="shared" si="3"/>
-        <v>254024</v>
+        <v>144</v>
       </c>
       <c r="H145" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="I145" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="J145" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="K145">
         <v>33</v>
       </c>
       <c r="L145" t="s">
-        <v>18</v>
-      </c>
-      <c r="M145" s="2" t="s">
-        <v>170</v>
+        <v>17</v>
+      </c>
+      <c r="M145" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="N145" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A$1:A$1048576">
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/other/配置表/z-装备配置表.xlsx
+++ b/other/配置表/z-装备配置表.xlsx
@@ -1,34 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1115\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大魔王\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DBE0DA-B598-42DF-AFDB-335241ED2DD9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30000" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30000" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Jayork</author>
     <author>CL</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -158,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="F1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -183,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="G1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="H1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -233,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="I1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -266,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -290,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -819,7 +818,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1210,17 +1209,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M145"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.375"/>
-    <col min="2" max="2" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.25" customWidth="1"/>
     <col min="4" max="4" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="9.375"/>
@@ -1294,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1338,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1382,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -1426,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -1470,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -1514,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -1558,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -1602,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -1646,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -1690,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -1734,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -1778,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <v>12</v>
@@ -1822,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14">
         <v>13</v>
@@ -1866,7 +1865,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <v>14</v>
@@ -1910,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16">
         <v>15</v>
@@ -1954,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17">
         <v>16</v>
@@ -1998,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>17</v>
@@ -2042,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <v>18</v>
@@ -2086,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20">
         <v>19</v>
@@ -2130,7 +2129,7 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21">
         <v>20</v>
@@ -2174,7 +2173,7 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22">
         <v>21</v>
@@ -2218,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23">
         <v>22</v>
@@ -2262,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>23</v>
@@ -2306,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25">
         <v>24</v>
@@ -2350,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26">
         <v>25</v>
@@ -2394,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27">
         <v>26</v>
@@ -2438,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28">
         <v>27</v>
@@ -2482,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29">
         <v>28</v>
@@ -2526,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30">
         <v>29</v>
@@ -2570,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31">
         <v>30</v>
@@ -2614,7 +2613,7 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32">
         <v>31</v>
@@ -2658,7 +2657,7 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33">
         <v>32</v>
@@ -2702,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34">
         <v>33</v>
@@ -2746,7 +2745,7 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35">
         <v>34</v>
@@ -2790,7 +2789,7 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36">
         <v>35</v>
@@ -2834,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37">
         <v>36</v>
@@ -2878,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38">
         <v>37</v>
@@ -2922,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39">
         <v>38</v>
@@ -2966,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40">
         <v>39</v>
@@ -3010,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41">
         <v>40</v>
@@ -3054,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42">
         <v>41</v>
@@ -3098,7 +3097,7 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43">
         <v>42</v>
@@ -3142,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44">
         <v>43</v>
@@ -3186,7 +3185,7 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45">
         <v>44</v>
@@ -3230,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46">
         <v>45</v>
@@ -3274,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47">
         <v>46</v>
@@ -3318,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48">
         <v>47</v>
@@ -3362,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49">
         <v>48</v>
@@ -3406,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50">
         <v>49</v>
@@ -3450,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51">
         <v>50</v>
@@ -3494,7 +3493,7 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52">
         <v>51</v>
@@ -3538,7 +3537,7 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53">
         <v>52</v>
@@ -3582,7 +3581,7 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54">
         <v>53</v>
@@ -3626,7 +3625,7 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55">
         <v>54</v>
@@ -3670,7 +3669,7 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56">
         <v>55</v>
@@ -3714,7 +3713,7 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57">
         <v>56</v>
@@ -3758,7 +3757,7 @@
         <v>1</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58">
         <v>57</v>
@@ -3802,7 +3801,7 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59">
         <v>58</v>
@@ -3846,7 +3845,7 @@
         <v>1</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60">
         <v>59</v>
@@ -3890,7 +3889,7 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61">
         <v>60</v>
@@ -3934,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62">
         <v>61</v>
@@ -3978,7 +3977,7 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63">
         <v>62</v>
@@ -4022,7 +4021,7 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64">
         <v>63</v>
@@ -4066,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65">
         <v>64</v>
@@ -4110,7 +4109,7 @@
         <v>1</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66">
         <v>65</v>
@@ -4154,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67">
         <v>66</v>
@@ -4198,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68">
         <v>67</v>
@@ -4242,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G69">
         <v>68</v>
@@ -4286,7 +4285,7 @@
         <v>1</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G70">
         <v>69</v>
@@ -4330,7 +4329,7 @@
         <v>1</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71">
         <v>70</v>
@@ -4374,7 +4373,7 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72">
         <v>71</v>
@@ -4418,7 +4417,7 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73">
         <v>72</v>
@@ -4462,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G74">
         <v>73</v>
@@ -4506,7 +4505,7 @@
         <v>1</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75">
         <v>74</v>
@@ -4550,7 +4549,7 @@
         <v>1</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G76">
         <v>75</v>
@@ -4594,7 +4593,7 @@
         <v>1</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77">
         <v>76</v>
@@ -4638,7 +4637,7 @@
         <v>1</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78">
         <v>77</v>
@@ -4682,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79">
         <v>78</v>
@@ -4726,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G80">
         <v>79</v>
@@ -4770,7 +4769,7 @@
         <v>1</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G81">
         <v>80</v>
@@ -4814,7 +4813,7 @@
         <v>1</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G82">
         <v>81</v>
@@ -4858,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83">
         <v>82</v>
@@ -4902,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G84">
         <v>83</v>
@@ -4946,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85">
         <v>84</v>
@@ -4990,7 +4989,7 @@
         <v>1</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86">
         <v>85</v>
@@ -5034,7 +5033,7 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G87">
         <v>86</v>
@@ -5078,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G88">
         <v>87</v>
@@ -5122,7 +5121,7 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G89">
         <v>88</v>
@@ -5166,7 +5165,7 @@
         <v>1</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G90">
         <v>89</v>
@@ -5210,7 +5209,7 @@
         <v>1</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G91">
         <v>90</v>
@@ -5254,7 +5253,7 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G92">
         <v>91</v>
@@ -5298,7 +5297,7 @@
         <v>1</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G93">
         <v>92</v>
@@ -5342,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G94">
         <v>93</v>
@@ -5386,7 +5385,7 @@
         <v>1</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G95">
         <v>94</v>
@@ -5430,7 +5429,7 @@
         <v>1</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G96">
         <v>95</v>
@@ -5474,7 +5473,7 @@
         <v>1</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G97">
         <v>96</v>
@@ -5518,7 +5517,7 @@
         <v>1</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98">
         <v>97</v>
@@ -5562,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G99">
         <v>98</v>
@@ -5606,7 +5605,7 @@
         <v>1</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G100">
         <v>99</v>
@@ -5650,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G101">
         <v>100</v>
@@ -5694,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G102">
         <v>101</v>
@@ -5738,7 +5737,7 @@
         <v>1</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G103">
         <v>102</v>
@@ -5782,7 +5781,7 @@
         <v>1</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G104">
         <v>103</v>
@@ -5826,7 +5825,7 @@
         <v>1</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G105">
         <v>104</v>
@@ -5870,7 +5869,7 @@
         <v>1</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G106">
         <v>105</v>
@@ -5914,7 +5913,7 @@
         <v>1</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G107">
         <v>106</v>
@@ -5958,7 +5957,7 @@
         <v>1</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G108">
         <v>107</v>
@@ -6002,7 +6001,7 @@
         <v>1</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G109">
         <v>108</v>
@@ -6046,7 +6045,7 @@
         <v>1</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G110">
         <v>109</v>
@@ -6090,7 +6089,7 @@
         <v>1</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G111">
         <v>110</v>
@@ -6134,7 +6133,7 @@
         <v>1</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G112">
         <v>111</v>
@@ -6178,7 +6177,7 @@
         <v>1</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G113">
         <v>112</v>
@@ -6222,7 +6221,7 @@
         <v>1</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G114">
         <v>113</v>
@@ -6266,7 +6265,7 @@
         <v>1</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G115">
         <v>114</v>
@@ -6310,7 +6309,7 @@
         <v>1</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G116">
         <v>115</v>
@@ -6354,7 +6353,7 @@
         <v>1</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G117">
         <v>116</v>
@@ -6398,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G118">
         <v>117</v>
@@ -6442,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G119">
         <v>118</v>
@@ -6486,7 +6485,7 @@
         <v>1</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G120">
         <v>119</v>
@@ -6530,7 +6529,7 @@
         <v>1</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G121">
         <v>120</v>
@@ -6574,7 +6573,7 @@
         <v>1</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G122">
         <v>121</v>
@@ -6618,7 +6617,7 @@
         <v>1</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G123">
         <v>122</v>
@@ -6662,7 +6661,7 @@
         <v>1</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G124">
         <v>123</v>
@@ -6706,7 +6705,7 @@
         <v>1</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G125">
         <v>124</v>
@@ -6750,7 +6749,7 @@
         <v>1</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G126">
         <v>125</v>
@@ -6794,7 +6793,7 @@
         <v>1</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G127">
         <v>126</v>
@@ -6838,7 +6837,7 @@
         <v>1</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G128">
         <v>127</v>
@@ -6882,7 +6881,7 @@
         <v>1</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G129">
         <v>128</v>
@@ -6926,7 +6925,7 @@
         <v>1</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G130">
         <v>129</v>
@@ -6970,7 +6969,7 @@
         <v>1</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G131">
         <v>130</v>
@@ -7014,7 +7013,7 @@
         <v>1</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G132">
         <v>131</v>
@@ -7058,7 +7057,7 @@
         <v>1</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G133">
         <v>132</v>
@@ -7102,7 +7101,7 @@
         <v>1</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G134">
         <v>133</v>
@@ -7146,7 +7145,7 @@
         <v>1</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G135">
         <v>134</v>
@@ -7190,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G136">
         <v>135</v>
@@ -7234,7 +7233,7 @@
         <v>1</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G137">
         <v>136</v>
@@ -7278,7 +7277,7 @@
         <v>1</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G138">
         <v>137</v>
@@ -7322,7 +7321,7 @@
         <v>1</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G139">
         <v>138</v>
@@ -7366,7 +7365,7 @@
         <v>1</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G140">
         <v>139</v>
@@ -7410,7 +7409,7 @@
         <v>1</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G141">
         <v>140</v>
@@ -7454,7 +7453,7 @@
         <v>1</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G142">
         <v>141</v>
@@ -7498,7 +7497,7 @@
         <v>1</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G143">
         <v>142</v>
@@ -7542,7 +7541,7 @@
         <v>1</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G144">
         <v>143</v>
@@ -7586,7 +7585,7 @@
         <v>1</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G145">
         <v>144</v>
@@ -7625,7 +7624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7639,7 +7638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/other/配置表/z-装备配置表.xlsx
+++ b/other/配置表/z-装备配置表.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大魔王\配置表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30000" windowHeight="14145"/>
+    <workbookView windowWidth="26100" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -27,14 +22,13 @@
     <author>CL</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jayork:</t>
@@ -43,7 +37,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -51,14 +44,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="1" shapeId="0">
+    <comment ref="B1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -67,7 +59,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -76,14 +67,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0">
+    <comment ref="C1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -92,7 +82,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -106,14 +95,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jayork:</t>
@@ -122,7 +110,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -133,14 +120,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0">
+    <comment ref="E1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -149,7 +135,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -157,14 +142,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1" shapeId="0">
+    <comment ref="F1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -173,7 +157,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -182,14 +165,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1" shapeId="0">
+    <comment ref="G1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -198,7 +180,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -207,14 +188,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1" shapeId="0">
+    <comment ref="H1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -223,7 +203,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -232,14 +211,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="1" shapeId="0">
+    <comment ref="I1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -248,7 +226,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -265,14 +242,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jayork:</t>
@@ -281,7 +257,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -289,14 +264,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jayork:</t>
@@ -305,7 +279,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -318,7 +291,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
   <si>
     <t>id</t>
   </si>
@@ -374,6 +347,9 @@
     <t>{20,33}{40,67}{60,200}{80,300}{100,450}{120,675}{140,1013}{160,1519}{180,2279}{200,3418}{220,5127}{240,7691}{260,11536}{280,17304}{300,25956}{320,38934}{340,58401}{360,87602}{380,131403}{400,197104}{420,295656}{440,443484}{460,665226}{480,997839}{500,1496759}</t>
   </si>
   <si>
+    <t>({20,10}{40,24}{60,36}{80,48}{100,60}{120,72}{140,84}{160,96}{180,108}{200,120}{220,132}{240,144}{260,156}{280,168}{300,180}{320,192}{340,204}{360,216}{380,228}{400,240}{420,252}{440,264}{460,276}{480,288}{500,300})</t>
+  </si>
+  <si>
     <t>{400001,100}{400002,100}{400004,100}{400004,100}</t>
   </si>
   <si>
@@ -386,6 +362,9 @@
     <t>67,32</t>
   </si>
   <si>
+    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
+  </si>
+  <si>
     <t>{400005,100}{400006,100}{400007,100}{400008,100}</t>
   </si>
   <si>
@@ -398,6 +377,9 @@
     <t>67,960</t>
   </si>
   <si>
+    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,107}{40,267}{60,400}{80,533}{100,667}{120,800}{140,933}{160,1067}{180,1200}{200,1333}{220,1467}{240,1600}{260,1733}{280,1867}{300,2000}{320,2133}{340,2267}{360,2400}{380,2533}{400,2667}{420,2800}{440,2933}{460,3067}{480,3200}{500,3333})</t>
+  </si>
+  <si>
     <t>{400001,100}{400002,100}{400005,100}{400006,100}</t>
   </si>
   <si>
@@ -410,6 +392,9 @@
     <t>67,77</t>
   </si>
   <si>
+    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
+  </si>
+  <si>
     <t>{400003,100}{400004,100}{400005,100}{400006,100}</t>
   </si>
   <si>
@@ -422,6 +407,9 @@
     <t>67,19</t>
   </si>
   <si>
+    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
+  </si>
+  <si>
     <t>{400001,100}{400002,100}{400007,100}{400008,100}</t>
   </si>
   <si>
@@ -434,6 +422,9 @@
     <t>67,64</t>
   </si>
   <si>
+    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
+  </si>
+  <si>
     <t>{400001,100}{400003,100}{400005,100}{400007,100}</t>
   </si>
   <si>
@@ -446,6 +437,9 @@
     <t>101</t>
   </si>
   <si>
+    <t>({20,8}{40,20}{60,30}{80,40}{100,50}{120,60}{140,70}{160,80}{180,90}{200,100}{220,110}{240,120}{260,130}{280,140}{300,150}{320,160}{340,170}{360,180}{380,190}{400,200}{420,210}{440,220}{460,230}{480,240}{500,250})</t>
+  </si>
+  <si>
     <t>攻击之甲</t>
   </si>
   <si>
@@ -455,6 +449,9 @@
     <t>56,38</t>
   </si>
   <si>
+    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
+  </si>
+  <si>
     <t>生命之甲</t>
   </si>
   <si>
@@ -464,6 +461,9 @@
     <t>56,960</t>
   </si>
   <si>
+    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,107}{40,267}{60,400}{80,533}{100,667}{120,800}{140,933}{160,1067}{180,1200}{200,1333}{220,1467}{240,1600}{260,1733}{280,1867}{300,2000}{320,2133}{340,2267}{360,2400}{380,2533}{400,2667}{420,2800}{440,2933}{460,3067}{480,3200}{500,3333})</t>
+  </si>
+  <si>
     <t>暴伤之甲</t>
   </si>
   <si>
@@ -473,6 +473,9 @@
     <t>56,77</t>
   </si>
   <si>
+    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
+  </si>
+  <si>
     <t>速度之甲</t>
   </si>
   <si>
@@ -482,6 +485,9 @@
     <t>56,19</t>
   </si>
   <si>
+    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
+  </si>
+  <si>
     <t>重伤之甲</t>
   </si>
   <si>
@@ -491,6 +497,9 @@
     <t>56,64</t>
   </si>
   <si>
+    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
+  </si>
+  <si>
     <t>纯粹之靴</t>
   </si>
   <si>
@@ -500,6 +509,9 @@
     <t>102</t>
   </si>
   <si>
+    <t>({20,267}{40,667}{60,1000}{80,1333}{100,1667}{120,2000}{140,2333}{160,2667}{180,3000}{200,3333}{220,3667}{240,4000}{260,4333}{280,4667}{300,5000}{320,5333}{340,5667}{360,6000}{380,6333}{400,6667}{420,7000}{440,7333}{460,7667}{480,8000}{500,8333})</t>
+  </si>
+  <si>
     <t>攻击之靴</t>
   </si>
   <si>
@@ -509,6 +521,9 @@
     <t>1680,38</t>
   </si>
   <si>
+    <t>({20,187}{40,467}{60,700}{80,933}{100,1167}{120,1400}{140,1633}{160,1867}{180,2100}{200,2333}{220,2567}{240,2800}{260,3033}{280,3267}{300,3500}{320,3733}{340,3967}{360,4200}{380,4433}{400,4667}{420,4900}{440,5133}{460,5367}{480,5600}{500,5833})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
+  </si>
+  <si>
     <t>钢铁之靴</t>
   </si>
   <si>
@@ -518,6 +533,9 @@
     <t>1680,32</t>
   </si>
   <si>
+    <t>({20,187}{40,467}{60,700}{80,933}{100,1167}{120,1400}{140,1633}{160,1867}{180,2100}{200,2333}{220,2567}{240,2800}{260,3033}{280,3267}{300,3500}{320,3733}{340,3967}{360,4200}{380,4433}{400,4667}{420,4900}{440,5133}{460,5367}{480,5600}{500,5833})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
+  </si>
+  <si>
     <t>暴伤之靴</t>
   </si>
   <si>
@@ -527,6 +545,9 @@
     <t>1680,77</t>
   </si>
   <si>
+    <t>({20,187}{40,467}{60,700}{80,933}{100,1167}{120,1400}{140,1633}{160,1867}{180,2100}{200,2333}{220,2567}{240,2800}{260,3033}{280,3267}{300,3500}{320,3733}{340,3967}{360,4200}{380,4433}{400,4667}{420,4900}{440,5133}{460,5367}{480,5600}{500,5833})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
+  </si>
+  <si>
     <t>速度之靴</t>
   </si>
   <si>
@@ -536,6 +557,9 @@
     <t>1680,19</t>
   </si>
   <si>
+    <t>({20,187}{40,467}{60,700}{80,933}{100,1167}{120,1400}{140,1633}{160,1867}{180,2100}{200,2333}{220,2567}{240,2800}{260,3033}{280,3267}{300,3500}{320,3733}{340,3967}{360,4200}{380,4433}{400,4667}{420,4900}{440,5133}{460,5367}{480,5600}{500,5833})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
+  </si>
+  <si>
     <t>重伤之靴</t>
   </si>
   <si>
@@ -545,6 +569,9 @@
     <t>1680,64</t>
   </si>
   <si>
+    <t>({20,187}{40,467}{60,700}{80,933}{100,1167}{120,1400}{140,1633}{160,1867}{180,2100}{200,2333}{220,2567}{240,2800}{260,3033}{280,3267}{300,3500}{320,3733}{340,3967}{360,4200}{380,4433}{400,4667}{420,4900}{440,5133}{460,5367}{480,5600}{500,5833})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
+  </si>
+  <si>
     <t>纯粹戒指</t>
   </si>
   <si>
@@ -554,6 +581,9 @@
     <t>113</t>
   </si>
   <si>
+    <t>({20,20}{40,48}{60,72}{80,96}{100,120}{120,144}{140,168}{160,192}{180,216}{200,240}{220,264}{240,288}{260,312}{280,336}{300,360}{320,384}{340,408}{360,432}{380,456}{400,480}{420,504}{440,528}{460,552}{480,576}{500,600})</t>
+  </si>
+  <si>
     <t>攻击戒指</t>
   </si>
   <si>
@@ -563,6 +593,9 @@
     <t>134,38</t>
   </si>
   <si>
+    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
+  </si>
+  <si>
     <t>钢铁戒指</t>
   </si>
   <si>
@@ -572,6 +605,9 @@
     <t>134,32</t>
   </si>
   <si>
+    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
+  </si>
+  <si>
     <t>生命戒指</t>
   </si>
   <si>
@@ -581,6 +617,9 @@
     <t>134,960</t>
   </si>
   <si>
+    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,107}{40,267}{60,400}{80,533}{100,667}{120,800}{140,933}{160,1067}{180,1200}{200,1333}{220,1467}{240,1600}{260,1733}{280,1867}{300,2000}{320,2133}{340,2267}{360,2400}{380,2533}{400,2667}{420,2800}{440,2933}{460,3067}{480,3200}{500,3333})</t>
+  </si>
+  <si>
     <t>速度戒指</t>
   </si>
   <si>
@@ -590,6 +629,9 @@
     <t>134,19</t>
   </si>
   <si>
+    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
+  </si>
+  <si>
     <t>重伤戒指</t>
   </si>
   <si>
@@ -599,6 +641,9 @@
     <t>134,77</t>
   </si>
   <si>
+    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
+  </si>
+  <si>
     <t>纯粹头盔</t>
   </si>
   <si>
@@ -608,6 +653,9 @@
     <t>114</t>
   </si>
   <si>
+    <t>({20,5}{40,12}{60,18}{80,24}{100,30}{120,36}{140,42}{160,48}{180,54}{200,60}{220,66}{240,72}{260,78}{280,84}{300,90}{320,96}{340,102}{360,108}{380,114}{400,120}{420,126}{440,132}{460,138}{480,144}{500,150})</t>
+  </si>
+  <si>
     <t>攻击头盔</t>
   </si>
   <si>
@@ -617,6 +665,9 @@
     <t>34,38</t>
   </si>
   <si>
+    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
+  </si>
+  <si>
     <t>钢铁头盔</t>
   </si>
   <si>
@@ -626,6 +677,9 @@
     <t>34,32</t>
   </si>
   <si>
+    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
+  </si>
+  <si>
     <t>生命头盔</t>
   </si>
   <si>
@@ -635,6 +689,9 @@
     <t>34,960</t>
   </si>
   <si>
+    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,107}{40,267}{60,400}{80,533}{100,667}{120,800}{140,933}{160,1067}{180,1200}{200,1333}{220,1467}{240,1600}{260,1733}{280,1867}{300,2000}{320,2133}{340,2267}{360,2400}{380,2533}{400,2667}{420,2800}{440,2933}{460,3067}{480,3200}{500,3333})</t>
+  </si>
+  <si>
     <t>暴伤头盔</t>
   </si>
   <si>
@@ -644,6 +701,9 @@
     <t>34,77</t>
   </si>
   <si>
+    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
+  </si>
+  <si>
     <t>重伤头盔</t>
   </si>
   <si>
@@ -653,6 +713,9 @@
     <t>34,64</t>
   </si>
   <si>
+    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
+  </si>
+  <si>
     <t>纯粹项链</t>
   </si>
   <si>
@@ -662,6 +725,9 @@
     <t>115</t>
   </si>
   <si>
+    <t>({20,7}{40,16}{60,24}{80,32}{100,40}{120,48}{140,56}{160,64}{180,72}{200,80}{220,88}{240,96}{260,104}{280,112}{300,120}{320,128}{340,136}{360,144}{380,152}{400,160}{420,168}{440,176}{460,184}{480,192}{500,200})</t>
+  </si>
+  <si>
     <t>攻击项链</t>
   </si>
   <si>
@@ -671,6 +737,9 @@
     <t>112,38</t>
   </si>
   <si>
+    <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
+  </si>
+  <si>
     <t>钢铁项链</t>
   </si>
   <si>
@@ -680,6 +749,9 @@
     <t>112,32</t>
   </si>
   <si>
+    <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
+  </si>
+  <si>
     <t>生命项链</t>
   </si>
   <si>
@@ -689,6 +761,9 @@
     <t>112,960</t>
   </si>
   <si>
+    <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,107}{40,267}{60,400}{80,533}{100,667}{120,800}{140,933}{160,1067}{180,1200}{200,1333}{220,1467}{240,1600}{260,1733}{280,1867}{300,2000}{320,2133}{340,2267}{360,2400}{380,2533}{400,2667}{420,2800}{440,2933}{460,3067}{480,3200}{500,3333})</t>
+  </si>
+  <si>
     <t>暴伤项链</t>
   </si>
   <si>
@@ -698,6 +773,9 @@
     <t>112,77</t>
   </si>
   <si>
+    <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
+  </si>
+  <si>
     <t>速度项链</t>
   </si>
   <si>
@@ -707,119 +785,20 @@
     <t>112,19</t>
   </si>
   <si>
-    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
-  </si>
-  <si>
-    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,107}{40,267}{60,400}{80,533}{100,667}{120,800}{140,933}{160,1067}{180,1200}{200,1333}{220,1467}{240,1600}{260,1733}{280,1867}{300,2000}{320,2133}{340,2267}{360,2400}{380,2533}{400,2667}{420,2800}{440,2933}{460,3067}{480,3200}{500,3333})</t>
-  </si>
-  <si>
-    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
-  </si>
-  <si>
-    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
-  </si>
-  <si>
-    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
-  </si>
-  <si>
-    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,107}{40,267}{60,400}{80,533}{100,667}{120,800}{140,933}{160,1067}{180,1200}{200,1333}{220,1467}{240,1600}{260,1733}{280,1867}{300,2000}{320,2133}{340,2267}{360,2400}{380,2533}{400,2667}{420,2800}{440,2933}{460,3067}{480,3200}{500,3333})</t>
-  </si>
-  <si>
-    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
-  </si>
-  <si>
-    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
-  </si>
-  <si>
-    <t>({20,187}{40,467}{60,700}{80,933}{100,1167}{120,1400}{140,1633}{160,1867}{180,2100}{200,2333}{220,2567}{240,2800}{260,3033}{280,3267}{300,3500}{320,3733}{340,3967}{360,4200}{380,4433}{400,4667}{420,4900}{440,5133}{460,5367}{480,5600}{500,5833})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
-  </si>
-  <si>
-    <t>({20,187}{40,467}{60,700}{80,933}{100,1167}{120,1400}{140,1633}{160,1867}{180,2100}{200,2333}{220,2567}{240,2800}{260,3033}{280,3267}{300,3500}{320,3733}{340,3967}{360,4200}{380,4433}{400,4667}{420,4900}{440,5133}{460,5367}{480,5600}{500,5833})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
-  </si>
-  <si>
-    <t>({20,187}{40,467}{60,700}{80,933}{100,1167}{120,1400}{140,1633}{160,1867}{180,2100}{200,2333}{220,2567}{240,2800}{260,3033}{280,3267}{300,3500}{320,3733}{340,3967}{360,4200}{380,4433}{400,4667}{420,4900}{440,5133}{460,5367}{480,5600}{500,5833})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
-  </si>
-  <si>
-    <t>({20,187}{40,467}{60,700}{80,933}{100,1167}{120,1400}{140,1633}{160,1867}{180,2100}{200,2333}{220,2567}{240,2800}{260,3033}{280,3267}{300,3500}{320,3733}{340,3967}{360,4200}{380,4433}{400,4667}{420,4900}{440,5133}{460,5367}{480,5600}{500,5833})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
-  </si>
-  <si>
-    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
-  </si>
-  <si>
-    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
-  </si>
-  <si>
-    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,107}{40,267}{60,400}{80,533}{100,667}{120,800}{140,933}{160,1067}{180,1200}{200,1333}{220,1467}{240,1600}{260,1733}{280,1867}{300,2000}{320,2133}{340,2267}{360,2400}{380,2533}{400,2667}{420,2800}{440,2933}{460,3067}{480,3200}{500,3333})</t>
-  </si>
-  <si>
-    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
-  </si>
-  <si>
-    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
-  </si>
-  <si>
-    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
-  </si>
-  <si>
-    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,107}{40,267}{60,400}{80,533}{100,667}{120,800}{140,933}{160,1067}{180,1200}{200,1333}{220,1467}{240,1600}{260,1733}{280,1867}{300,2000}{320,2133}{340,2267}{360,2400}{380,2533}{400,2667}{420,2800}{440,2933}{460,3067}{480,3200}{500,3333})</t>
-  </si>
-  <si>
-    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
-  </si>
-  <si>
-    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
-  </si>
-  <si>
-    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
-  </si>
-  <si>
-    <t>({20,187}{40,467}{60,700}{80,933}{100,1167}{120,1400}{140,1633}{160,1867}{180,2100}{200,2333}{220,2567}{240,2800}{260,3033}{280,3267}{300,3500}{320,3733}{340,3967}{360,4200}{380,4433}{400,4667}{420,4900}{440,5133}{460,5367}{480,5600}{500,5833})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
-  </si>
-  <si>
-    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
-  </si>
-  <si>
-    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
-  </si>
-  <si>
-    <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
-  </si>
-  <si>
-    <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
-  </si>
-  <si>
-    <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,107}{40,267}{60,400}{80,533}{100,667}{120,800}{140,933}{160,1067}{180,1200}{200,1333}{220,1467}{240,1600}{260,1733}{280,1867}{300,2000}{320,2133}{340,2267}{360,2400}{380,2533}{400,2667}{420,2800}{440,2933}{460,3067}{480,3200}{500,3333})</t>
-  </si>
-  <si>
-    <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
-  </si>
-  <si>
     <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
-  </si>
-  <si>
-    <t>({20,10}{40,24}{60,36}{80,48}{100,60}{120,72}{140,84}{160,96}{180,108}{200,120}{220,132}{240,144}{260,156}{280,168}{300,180}{320,192}{340,204}{360,216}{380,228}{400,240}{420,252}{440,264}{460,276}{480,288}{500,300})</t>
-  </si>
-  <si>
-    <t>({20,8}{40,20}{60,30}{80,40}{100,50}{120,60}{140,70}{160,80}{180,90}{200,100}{220,110}{240,120}{260,130}{280,140}{300,150}{320,160}{340,170}{360,180}{380,190}{400,200}{420,210}{440,220}{460,230}{480,240}{500,250})</t>
-  </si>
-  <si>
-    <t>({20,267}{40,667}{60,1000}{80,1333}{100,1667}{120,2000}{140,2333}{160,2667}{180,3000}{200,3333}{220,3667}{240,4000}{260,4333}{280,4667}{300,5000}{320,5333}{340,5667}{360,6000}{380,6333}{400,6667}{420,7000}{440,7333}{460,7667}{480,8000}{500,8333})</t>
-  </si>
-  <si>
-    <t>({20,20}{40,48}{60,72}{80,96}{100,120}{120,144}{140,168}{160,192}{180,216}{200,240}{220,264}{240,288}{260,312}{280,336}{300,360}{320,384}{340,408}{360,432}{380,456}{400,480}{420,504}{440,528}{460,552}{480,576}{500,600})</t>
-  </si>
-  <si>
-    <t>({20,5}{40,12}{60,18}{80,24}{100,30}{120,36}{140,42}{160,48}{180,54}{200,60}{220,66}{240,72}{260,78}{280,84}{300,90}{320,96}{340,102}{360,108}{380,114}{400,120}{420,126}{440,132}{460,138}{480,144}{500,150})</t>
-  </si>
-  <si>
-    <t>({20,7}{40,16}{60,24}{80,32}{100,40}{120,48}{140,56}{160,64}{180,72}{200,80}{220,88}{240,96}{260,104}{280,112}{300,120}{320,128}{340,136}{360,144}{380,152}{400,160}{420,168}{440,176}{460,184}{480,192}{500,200})</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -831,40 +810,349 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -872,9 +1160,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -896,8 +1426,56 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -915,9 +1493,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1204,22 +1779,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:N145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.375"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="5.25" customWidth="1"/>
     <col min="4" max="4" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="9.375"/>
@@ -1232,7 +1807,7 @@
     <col min="14" max="14" width="50.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1276,7 +1851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>241001</v>
       </c>
@@ -1314,13 +1889,13 @@
         <v>17</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>242002</v>
       </c>
@@ -1358,13 +1933,13 @@
         <v>17</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="N3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>243003</v>
       </c>
@@ -1402,13 +1977,13 @@
         <v>17</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="N4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>244004</v>
       </c>
@@ -1446,18 +2021,18 @@
         <v>17</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="N5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>241005</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1478,10 +2053,10 @@
         <v>15</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6">
         <v>33</v>
@@ -1490,18 +2065,18 @@
         <v>17</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>242006</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -1522,10 +2097,10 @@
         <v>15</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K7">
         <v>33</v>
@@ -1534,18 +2109,18 @@
         <v>17</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="N7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>243007</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -1566,10 +2141,10 @@
         <v>15</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K8">
         <v>33</v>
@@ -1578,18 +2153,18 @@
         <v>17</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="N8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>244008</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -1610,10 +2185,10 @@
         <v>15</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9">
         <v>33</v>
@@ -1622,18 +2197,18 @@
         <v>17</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="N9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>241009</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -1654,10 +2229,10 @@
         <v>15</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K10">
         <v>33</v>
@@ -1666,18 +2241,18 @@
         <v>17</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="N10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>242010</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -1698,10 +2273,10 @@
         <v>15</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K11">
         <v>33</v>
@@ -1710,18 +2285,18 @@
         <v>17</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="N11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>243011</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -1742,10 +2317,10 @@
         <v>15</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K12">
         <v>33</v>
@@ -1754,18 +2329,18 @@
         <v>17</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="N12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>244012</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -1786,10 +2361,10 @@
         <v>15</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K13">
         <v>33</v>
@@ -1798,18 +2373,18 @@
         <v>17</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="N13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>241013</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -1830,10 +2405,10 @@
         <v>15</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K14">
         <v>33</v>
@@ -1842,18 +2417,18 @@
         <v>17</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="N14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>242014</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1874,10 +2449,10 @@
         <v>15</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K15">
         <v>33</v>
@@ -1886,18 +2461,18 @@
         <v>17</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="N15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>243015</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -1918,10 +2493,10 @@
         <v>15</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K16">
         <v>33</v>
@@ -1930,18 +2505,18 @@
         <v>17</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="N16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>244016</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -1962,10 +2537,10 @@
         <v>15</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K17">
         <v>33</v>
@@ -1974,18 +2549,18 @@
         <v>17</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="N17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>241017</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -2006,10 +2581,10 @@
         <v>15</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J18" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K18">
         <v>33</v>
@@ -2018,18 +2593,18 @@
         <v>17</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="N18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>242018</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -2050,10 +2625,10 @@
         <v>15</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J19" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K19">
         <v>33</v>
@@ -2062,18 +2637,18 @@
         <v>17</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="N19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>243019</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -2094,10 +2669,10 @@
         <v>15</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J20" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K20">
         <v>33</v>
@@ -2106,18 +2681,18 @@
         <v>17</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="N20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>244020</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -2138,10 +2713,10 @@
         <v>15</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K21">
         <v>33</v>
@@ -2150,18 +2725,18 @@
         <v>17</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="N21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>241021</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -2182,10 +2757,10 @@
         <v>15</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K22">
         <v>33</v>
@@ -2194,18 +2769,18 @@
         <v>17</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="N22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>242022</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -2226,10 +2801,10 @@
         <v>15</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J23" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K23">
         <v>33</v>
@@ -2238,18 +2813,18 @@
         <v>17</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="N23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>243023</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -2270,10 +2845,10 @@
         <v>15</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J24" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K24">
         <v>33</v>
@@ -2282,18 +2857,18 @@
         <v>17</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="N24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>244024</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -2314,10 +2889,10 @@
         <v>15</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J25" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K25">
         <v>33</v>
@@ -2326,18 +2901,18 @@
         <v>17</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="N25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>221001</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -2355,10 +2930,10 @@
         <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J26">
         <v>80</v>
@@ -2370,18 +2945,18 @@
         <v>17</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="N26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>222002</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -2399,10 +2974,10 @@
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J27">
         <v>80</v>
@@ -2414,18 +2989,18 @@
         <v>17</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="N27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>223003</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -2443,10 +3018,10 @@
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J28">
         <v>80</v>
@@ -2458,18 +3033,18 @@
         <v>17</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="N28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>224004</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -2487,10 +3062,10 @@
         <v>28</v>
       </c>
       <c r="H29" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J29">
         <v>80</v>
@@ -2502,18 +3077,18 @@
         <v>17</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="N29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>221005</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -2531,13 +3106,13 @@
         <v>29</v>
       </c>
       <c r="H30" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K30">
         <v>33</v>
@@ -2546,18 +3121,18 @@
         <v>17</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="N30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31">
         <v>222006</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -2575,13 +3150,13 @@
         <v>30</v>
       </c>
       <c r="H31" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J31" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K31">
         <v>33</v>
@@ -2590,18 +3165,18 @@
         <v>17</v>
       </c>
       <c r="M31" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="N31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32">
         <v>223007</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -2619,13 +3194,13 @@
         <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J32" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K32">
         <v>33</v>
@@ -2634,18 +3209,18 @@
         <v>17</v>
       </c>
       <c r="M32" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="N32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33">
         <v>224008</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -2663,13 +3238,13 @@
         <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J33" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K33">
         <v>33</v>
@@ -2678,18 +3253,18 @@
         <v>17</v>
       </c>
       <c r="M33" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="N33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34">
         <v>221009</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -2707,13 +3282,13 @@
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K34">
         <v>33</v>
@@ -2722,18 +3297,18 @@
         <v>17</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="N34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35">
         <v>222010</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -2751,13 +3326,13 @@
         <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K35">
         <v>33</v>
@@ -2766,18 +3341,18 @@
         <v>17</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="N35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36">
         <v>223011</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -2795,13 +3370,13 @@
         <v>35</v>
       </c>
       <c r="H36" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J36" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K36">
         <v>33</v>
@@ -2810,18 +3385,18 @@
         <v>17</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="N36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37">
         <v>224012</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -2839,13 +3414,13 @@
         <v>36</v>
       </c>
       <c r="H37" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K37">
         <v>33</v>
@@ -2854,18 +3429,18 @@
         <v>17</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="N37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38">
         <v>221013</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -2883,13 +3458,13 @@
         <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J38" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="K38">
         <v>33</v>
@@ -2898,18 +3473,18 @@
         <v>17</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="N38" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39">
         <v>222014</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -2927,13 +3502,13 @@
         <v>38</v>
       </c>
       <c r="H39" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J39" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="K39">
         <v>33</v>
@@ -2942,18 +3517,18 @@
         <v>17</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="N39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40">
         <v>223015</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -2971,13 +3546,13 @@
         <v>39</v>
       </c>
       <c r="H40" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="K40">
         <v>33</v>
@@ -2986,18 +3561,18 @@
         <v>17</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="N40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41">
         <v>224016</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -3015,13 +3590,13 @@
         <v>40</v>
       </c>
       <c r="H41" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J41" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="K41">
         <v>33</v>
@@ -3030,18 +3605,18 @@
         <v>17</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="N41" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42">
         <v>221017</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -3059,13 +3634,13 @@
         <v>41</v>
       </c>
       <c r="H42" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J42" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K42">
         <v>33</v>
@@ -3074,18 +3649,18 @@
         <v>17</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="N42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43">
         <v>222018</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -3103,13 +3678,13 @@
         <v>42</v>
       </c>
       <c r="H43" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J43" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K43">
         <v>33</v>
@@ -3118,18 +3693,18 @@
         <v>17</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="N43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44">
         <v>223019</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -3147,13 +3722,13 @@
         <v>43</v>
       </c>
       <c r="H44" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J44" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K44">
         <v>33</v>
@@ -3162,18 +3737,18 @@
         <v>17</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="N44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45">
         <v>224020</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -3191,13 +3766,13 @@
         <v>44</v>
       </c>
       <c r="H45" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J45" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K45">
         <v>33</v>
@@ -3206,18 +3781,18 @@
         <v>17</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="N45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46">
         <v>221021</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -3235,13 +3810,13 @@
         <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="J46" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="K46">
         <v>33</v>
@@ -3250,18 +3825,18 @@
         <v>17</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="N46" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47">
         <v>222022</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -3279,13 +3854,13 @@
         <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="J47" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="K47">
         <v>33</v>
@@ -3294,18 +3869,18 @@
         <v>17</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="N47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48">
         <v>223023</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -3323,13 +3898,13 @@
         <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="J48" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="K48">
         <v>33</v>
@@ -3338,18 +3913,18 @@
         <v>17</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="N48" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49">
         <v>224024</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -3367,13 +3942,13 @@
         <v>48</v>
       </c>
       <c r="H49" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="J49" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="K49">
         <v>33</v>
@@ -3382,18 +3957,18 @@
         <v>17</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="N49" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50">
         <v>231001</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -3411,10 +3986,10 @@
         <v>49</v>
       </c>
       <c r="H50" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I50" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="J50">
         <v>2400</v>
@@ -3426,18 +4001,18 @@
         <v>17</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="N50" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51">
         <v>232002</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -3455,10 +4030,10 @@
         <v>50</v>
       </c>
       <c r="H51" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I51" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="J51">
         <v>2400</v>
@@ -3470,18 +4045,18 @@
         <v>17</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="N51" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52">
         <v>233003</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -3499,10 +4074,10 @@
         <v>51</v>
       </c>
       <c r="H52" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I52" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="J52">
         <v>2400</v>
@@ -3514,18 +4089,18 @@
         <v>17</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="N52" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53">
         <v>234004</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -3543,10 +4118,10 @@
         <v>52</v>
       </c>
       <c r="H53" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I53" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="J53">
         <v>2400</v>
@@ -3558,18 +4133,18 @@
         <v>17</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="N53" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54">
         <v>231005</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -3587,13 +4162,13 @@
         <v>53</v>
       </c>
       <c r="H54" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="J54" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="K54">
         <v>33</v>
@@ -3602,18 +4177,18 @@
         <v>17</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="N54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55">
         <v>232006</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -3631,13 +4206,13 @@
         <v>54</v>
       </c>
       <c r="H55" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="J55" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="K55">
         <v>33</v>
@@ -3646,18 +4221,18 @@
         <v>17</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="N55" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56">
         <v>233007</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -3675,13 +4250,13 @@
         <v>55</v>
       </c>
       <c r="H56" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="J56" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="K56">
         <v>33</v>
@@ -3690,18 +4265,18 @@
         <v>17</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="N56" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57">
         <v>234008</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -3719,13 +4294,13 @@
         <v>56</v>
       </c>
       <c r="H57" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="J57" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="K57">
         <v>33</v>
@@ -3734,18 +4309,18 @@
         <v>17</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="N57" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58">
         <v>231009</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -3763,13 +4338,13 @@
         <v>57</v>
       </c>
       <c r="H58" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J58" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="K58">
         <v>33</v>
@@ -3778,18 +4353,18 @@
         <v>17</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="N58" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59">
         <v>232010</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -3807,13 +4382,13 @@
         <v>58</v>
       </c>
       <c r="H59" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J59" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="K59">
         <v>33</v>
@@ -3822,18 +4397,18 @@
         <v>17</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="N59" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60">
         <v>233011</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -3851,13 +4426,13 @@
         <v>59</v>
       </c>
       <c r="H60" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J60" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="K60">
         <v>33</v>
@@ -3866,18 +4441,18 @@
         <v>17</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="N60" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61">
         <v>234012</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -3895,13 +4470,13 @@
         <v>60</v>
       </c>
       <c r="H61" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J61" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="K61">
         <v>33</v>
@@ -3910,18 +4485,18 @@
         <v>17</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="N61" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62">
         <v>231013</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -3939,13 +4514,13 @@
         <v>61</v>
       </c>
       <c r="H62" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="J62" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="K62">
         <v>33</v>
@@ -3954,18 +4529,18 @@
         <v>17</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="N62" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63">
         <v>232014</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -3983,13 +4558,13 @@
         <v>62</v>
       </c>
       <c r="H63" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="J63" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="K63">
         <v>33</v>
@@ -3998,18 +4573,18 @@
         <v>17</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="N63" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64">
         <v>233015</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -4027,13 +4602,13 @@
         <v>63</v>
       </c>
       <c r="H64" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="J64" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="K64">
         <v>33</v>
@@ -4042,18 +4617,18 @@
         <v>17</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="N64" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65">
         <v>234016</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -4071,13 +4646,13 @@
         <v>64</v>
       </c>
       <c r="H65" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="J65" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="K65">
         <v>33</v>
@@ -4086,18 +4661,18 @@
         <v>17</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="N65" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66">
         <v>231017</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -4115,13 +4690,13 @@
         <v>65</v>
       </c>
       <c r="H66" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="J66" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="K66">
         <v>33</v>
@@ -4130,18 +4705,18 @@
         <v>17</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="N66" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67">
         <v>232018</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -4159,13 +4734,13 @@
         <v>66</v>
       </c>
       <c r="H67" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="J67" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="K67">
         <v>33</v>
@@ -4174,18 +4749,18 @@
         <v>17</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="N67" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68">
         <v>233019</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -4203,13 +4778,13 @@
         <v>67</v>
       </c>
       <c r="H68" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="J68" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="K68">
         <v>33</v>
@@ -4218,18 +4793,18 @@
         <v>17</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="N68" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69">
         <v>234020</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -4247,13 +4822,13 @@
         <v>68</v>
       </c>
       <c r="H69" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="J69" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="K69">
         <v>33</v>
@@ -4262,18 +4837,18 @@
         <v>17</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="N69" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70">
         <v>231021</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -4291,13 +4866,13 @@
         <v>69</v>
       </c>
       <c r="H70" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="J70" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="K70">
         <v>33</v>
@@ -4306,18 +4881,18 @@
         <v>17</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="N70" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71">
         <v>232022</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -4335,13 +4910,13 @@
         <v>70</v>
       </c>
       <c r="H71" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="J71" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="K71">
         <v>33</v>
@@ -4350,18 +4925,18 @@
         <v>17</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="N71" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72">
         <v>233023</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -4379,13 +4954,13 @@
         <v>71</v>
       </c>
       <c r="H72" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="J72" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="K72">
         <v>33</v>
@@ -4394,18 +4969,18 @@
         <v>17</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="N72" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73">
         <v>234024</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -4423,13 +4998,13 @@
         <v>72</v>
       </c>
       <c r="H73" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="J73" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="K73">
         <v>33</v>
@@ -4438,18 +5013,18 @@
         <v>17</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="N73" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74">
         <v>261001</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C74">
         <v>6</v>
@@ -4467,10 +5042,10 @@
         <v>73</v>
       </c>
       <c r="H74" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I74" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="J74">
         <v>192</v>
@@ -4482,18 +5057,18 @@
         <v>17</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="N74" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75">
         <v>262002</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C75">
         <v>6</v>
@@ -4511,10 +5086,10 @@
         <v>74</v>
       </c>
       <c r="H75" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I75" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="J75">
         <v>192</v>
@@ -4526,18 +5101,18 @@
         <v>17</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="N75" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76">
         <v>263003</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C76">
         <v>6</v>
@@ -4555,10 +5130,10 @@
         <v>75</v>
       </c>
       <c r="H76" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I76" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="J76">
         <v>192</v>
@@ -4570,18 +5145,18 @@
         <v>17</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="N76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77">
         <v>264004</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C77">
         <v>6</v>
@@ -4599,10 +5174,10 @@
         <v>76</v>
       </c>
       <c r="H77" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I77" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="J77">
         <v>192</v>
@@ -4614,18 +5189,18 @@
         <v>17</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="N77" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78">
         <v>261005</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -4643,13 +5218,13 @@
         <v>77</v>
       </c>
       <c r="H78" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="J78" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="K78">
         <v>33</v>
@@ -4658,18 +5233,18 @@
         <v>17</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="N78" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79">
         <v>262006</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C79">
         <v>6</v>
@@ -4687,13 +5262,13 @@
         <v>78</v>
       </c>
       <c r="H79" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="J79" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="K79">
         <v>33</v>
@@ -4702,18 +5277,18 @@
         <v>17</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="N79" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80">
         <v>263007</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C80">
         <v>6</v>
@@ -4731,13 +5306,13 @@
         <v>79</v>
       </c>
       <c r="H80" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="J80" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="K80">
         <v>33</v>
@@ -4746,18 +5321,18 @@
         <v>17</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="N80" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81">
         <v>264008</v>
       </c>
       <c r="B81" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C81">
         <v>6</v>
@@ -4775,13 +5350,13 @@
         <v>80</v>
       </c>
       <c r="H81" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="J81" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="K81">
         <v>33</v>
@@ -4790,18 +5365,18 @@
         <v>17</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="N81" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82">
         <v>261009</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C82">
         <v>6</v>
@@ -4819,13 +5394,13 @@
         <v>81</v>
       </c>
       <c r="H82" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="J82" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="K82">
         <v>33</v>
@@ -4834,18 +5409,18 @@
         <v>17</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="N82" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83">
         <v>262010</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C83">
         <v>6</v>
@@ -4863,13 +5438,13 @@
         <v>82</v>
       </c>
       <c r="H83" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="J83" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="K83">
         <v>33</v>
@@ -4878,18 +5453,18 @@
         <v>17</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="N83" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84">
         <v>263011</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C84">
         <v>6</v>
@@ -4907,13 +5482,13 @@
         <v>83</v>
       </c>
       <c r="H84" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="J84" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="K84">
         <v>33</v>
@@ -4922,18 +5497,18 @@
         <v>17</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="N84" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85">
         <v>264012</v>
       </c>
       <c r="B85" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C85">
         <v>6</v>
@@ -4951,13 +5526,13 @@
         <v>84</v>
       </c>
       <c r="H85" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="J85" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="K85">
         <v>33</v>
@@ -4966,18 +5541,18 @@
         <v>17</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="N85" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86">
         <v>261013</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C86">
         <v>6</v>
@@ -4995,13 +5570,13 @@
         <v>85</v>
       </c>
       <c r="H86" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="J86" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="K86">
         <v>33</v>
@@ -5010,18 +5585,18 @@
         <v>17</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="N86" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87">
         <v>262014</v>
       </c>
       <c r="B87" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C87">
         <v>6</v>
@@ -5039,13 +5614,13 @@
         <v>86</v>
       </c>
       <c r="H87" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="J87" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="K87">
         <v>33</v>
@@ -5054,18 +5629,18 @@
         <v>17</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="N87" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88">
         <v>263015</v>
       </c>
       <c r="B88" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C88">
         <v>6</v>
@@ -5083,13 +5658,13 @@
         <v>87</v>
       </c>
       <c r="H88" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="J88" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="K88">
         <v>33</v>
@@ -5098,18 +5673,18 @@
         <v>17</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="N88" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89">
         <v>264016</v>
       </c>
       <c r="B89" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C89">
         <v>6</v>
@@ -5127,13 +5702,13 @@
         <v>88</v>
       </c>
       <c r="H89" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="J89" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="K89">
         <v>33</v>
@@ -5142,18 +5717,18 @@
         <v>17</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="N89" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90">
         <v>261017</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C90">
         <v>6</v>
@@ -5171,13 +5746,13 @@
         <v>89</v>
       </c>
       <c r="H90" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="J90" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="K90">
         <v>33</v>
@@ -5186,18 +5761,18 @@
         <v>17</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="N90" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91">
         <v>262018</v>
       </c>
       <c r="B91" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C91">
         <v>6</v>
@@ -5215,13 +5790,13 @@
         <v>90</v>
       </c>
       <c r="H91" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="J91" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="K91">
         <v>33</v>
@@ -5230,18 +5805,18 @@
         <v>17</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="N91" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92">
         <v>263019</v>
       </c>
       <c r="B92" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C92">
         <v>6</v>
@@ -5259,13 +5834,13 @@
         <v>91</v>
       </c>
       <c r="H92" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="J92" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="K92">
         <v>33</v>
@@ -5274,18 +5849,18 @@
         <v>17</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="N92" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93">
         <v>264020</v>
       </c>
       <c r="B93" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C93">
         <v>6</v>
@@ -5303,13 +5878,13 @@
         <v>92</v>
       </c>
       <c r="H93" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="J93" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="K93">
         <v>33</v>
@@ -5318,18 +5893,18 @@
         <v>17</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="N93" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94">
         <v>261021</v>
       </c>
       <c r="B94" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C94">
         <v>6</v>
@@ -5347,13 +5922,13 @@
         <v>93</v>
       </c>
       <c r="H94" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="J94" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="K94">
         <v>33</v>
@@ -5362,18 +5937,18 @@
         <v>17</v>
       </c>
       <c r="M94" s="4" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="N94" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95">
         <v>262022</v>
       </c>
       <c r="B95" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C95">
         <v>6</v>
@@ -5391,13 +5966,13 @@
         <v>94</v>
       </c>
       <c r="H95" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="J95" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="K95">
         <v>33</v>
@@ -5406,18 +5981,18 @@
         <v>17</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="N95" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96">
         <v>263023</v>
       </c>
       <c r="B96" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C96">
         <v>6</v>
@@ -5435,13 +6010,13 @@
         <v>95</v>
       </c>
       <c r="H96" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="J96" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="K96">
         <v>33</v>
@@ -5450,18 +6025,18 @@
         <v>17</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="N96" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97">
         <v>264024</v>
       </c>
       <c r="B97" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C97">
         <v>6</v>
@@ -5479,13 +6054,13 @@
         <v>96</v>
       </c>
       <c r="H97" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="J97" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="K97">
         <v>33</v>
@@ -5494,18 +6069,18 @@
         <v>17</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="N97" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98">
         <v>211001</v>
       </c>
       <c r="B98" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -5523,10 +6098,10 @@
         <v>97</v>
       </c>
       <c r="H98" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I98" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="J98">
         <v>48</v>
@@ -5538,18 +6113,18 @@
         <v>17</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="N98" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99">
         <v>212002</v>
       </c>
       <c r="B99" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -5567,10 +6142,10 @@
         <v>98</v>
       </c>
       <c r="H99" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I99" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="J99">
         <v>48</v>
@@ -5582,18 +6157,18 @@
         <v>17</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="N99" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100">
         <v>213003</v>
       </c>
       <c r="B100" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -5611,10 +6186,10 @@
         <v>99</v>
       </c>
       <c r="H100" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I100" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="J100">
         <v>48</v>
@@ -5626,18 +6201,18 @@
         <v>17</v>
       </c>
       <c r="M100" s="4" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="N100" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101">
         <v>214004</v>
       </c>
       <c r="B101" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -5655,10 +6230,10 @@
         <v>100</v>
       </c>
       <c r="H101" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I101" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="J101">
         <v>48</v>
@@ -5670,18 +6245,18 @@
         <v>17</v>
       </c>
       <c r="M101" s="4" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="N101" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102">
         <v>211005</v>
       </c>
       <c r="B102" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -5699,13 +6274,13 @@
         <v>101</v>
       </c>
       <c r="H102" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I102" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="J102" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="K102">
         <v>33</v>
@@ -5714,18 +6289,18 @@
         <v>17</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="N102" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103">
         <v>212006</v>
       </c>
       <c r="B103" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -5743,13 +6318,13 @@
         <v>102</v>
       </c>
       <c r="H103" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I103" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="J103" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="K103">
         <v>33</v>
@@ -5758,18 +6333,18 @@
         <v>17</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="N103" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104">
         <v>213007</v>
       </c>
       <c r="B104" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -5787,13 +6362,13 @@
         <v>103</v>
       </c>
       <c r="H104" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I104" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="J104" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="K104">
         <v>33</v>
@@ -5802,18 +6377,18 @@
         <v>17</v>
       </c>
       <c r="M104" s="4" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="N104" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105">
         <v>214008</v>
       </c>
       <c r="B105" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -5831,13 +6406,13 @@
         <v>104</v>
       </c>
       <c r="H105" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I105" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="J105" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="K105">
         <v>33</v>
@@ -5846,18 +6421,18 @@
         <v>17</v>
       </c>
       <c r="M105" s="4" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="N105" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106">
         <v>211009</v>
       </c>
       <c r="B106" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -5875,13 +6450,13 @@
         <v>105</v>
       </c>
       <c r="H106" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I106" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="J106" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="K106">
         <v>33</v>
@@ -5890,18 +6465,18 @@
         <v>17</v>
       </c>
       <c r="M106" s="4" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="N106" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107">
         <v>212010</v>
       </c>
       <c r="B107" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -5919,13 +6494,13 @@
         <v>106</v>
       </c>
       <c r="H107" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I107" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="J107" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="K107">
         <v>33</v>
@@ -5934,18 +6509,18 @@
         <v>17</v>
       </c>
       <c r="M107" s="4" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="N107" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108">
         <v>213011</v>
       </c>
       <c r="B108" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -5963,13 +6538,13 @@
         <v>107</v>
       </c>
       <c r="H108" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I108" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="J108" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="K108">
         <v>33</v>
@@ -5978,18 +6553,18 @@
         <v>17</v>
       </c>
       <c r="M108" s="4" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="N108" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109">
         <v>214012</v>
       </c>
       <c r="B109" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -6007,13 +6582,13 @@
         <v>108</v>
       </c>
       <c r="H109" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I109" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="J109" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="K109">
         <v>33</v>
@@ -6022,18 +6597,18 @@
         <v>17</v>
       </c>
       <c r="M109" s="4" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="N109" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110">
         <v>211013</v>
       </c>
       <c r="B110" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -6051,13 +6626,13 @@
         <v>109</v>
       </c>
       <c r="H110" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I110" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="J110" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="K110">
         <v>33</v>
@@ -6066,18 +6641,18 @@
         <v>17</v>
       </c>
       <c r="M110" s="4" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="N110" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111">
         <v>212014</v>
       </c>
       <c r="B111" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -6095,13 +6670,13 @@
         <v>110</v>
       </c>
       <c r="H111" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I111" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="J111" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="K111">
         <v>33</v>
@@ -6110,18 +6685,18 @@
         <v>17</v>
       </c>
       <c r="M111" s="4" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="N111" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112">
         <v>213015</v>
       </c>
       <c r="B112" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -6139,13 +6714,13 @@
         <v>111</v>
       </c>
       <c r="H112" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I112" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="J112" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="K112">
         <v>33</v>
@@ -6154,18 +6729,18 @@
         <v>17</v>
       </c>
       <c r="M112" s="4" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="N112" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113">
         <v>214016</v>
       </c>
       <c r="B113" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -6183,13 +6758,13 @@
         <v>112</v>
       </c>
       <c r="H113" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I113" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="J113" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="K113">
         <v>33</v>
@@ -6198,18 +6773,18 @@
         <v>17</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="N113" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114">
         <v>211017</v>
       </c>
       <c r="B114" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -6227,13 +6802,13 @@
         <v>113</v>
       </c>
       <c r="H114" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I114" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="J114" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="K114">
         <v>33</v>
@@ -6242,18 +6817,18 @@
         <v>17</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="N114" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115">
         <v>212018</v>
       </c>
       <c r="B115" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -6271,13 +6846,13 @@
         <v>114</v>
       </c>
       <c r="H115" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I115" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="J115" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="K115">
         <v>33</v>
@@ -6286,18 +6861,18 @@
         <v>17</v>
       </c>
       <c r="M115" s="4" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="N115" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116">
         <v>213019</v>
       </c>
       <c r="B116" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -6315,13 +6890,13 @@
         <v>115</v>
       </c>
       <c r="H116" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I116" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="J116" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="K116">
         <v>33</v>
@@ -6330,18 +6905,18 @@
         <v>17</v>
       </c>
       <c r="M116" s="4" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="N116" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117">
         <v>214020</v>
       </c>
       <c r="B117" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -6359,13 +6934,13 @@
         <v>116</v>
       </c>
       <c r="H117" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I117" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="J117" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="K117">
         <v>33</v>
@@ -6374,18 +6949,18 @@
         <v>17</v>
       </c>
       <c r="M117" s="4" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="N117" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118">
         <v>211021</v>
       </c>
       <c r="B118" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -6403,13 +6978,13 @@
         <v>117</v>
       </c>
       <c r="H118" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I118" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="J118" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="K118">
         <v>33</v>
@@ -6418,18 +6993,18 @@
         <v>17</v>
       </c>
       <c r="M118" s="4" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="N118" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119">
         <v>212022</v>
       </c>
       <c r="B119" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -6447,13 +7022,13 @@
         <v>118</v>
       </c>
       <c r="H119" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I119" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="J119" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="K119">
         <v>33</v>
@@ -6462,18 +7037,18 @@
         <v>17</v>
       </c>
       <c r="M119" s="4" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="N119" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120">
         <v>213023</v>
       </c>
       <c r="B120" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -6491,13 +7066,13 @@
         <v>119</v>
       </c>
       <c r="H120" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I120" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="J120" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="K120">
         <v>33</v>
@@ -6506,18 +7081,18 @@
         <v>17</v>
       </c>
       <c r="M120" s="4" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="N120" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121">
         <v>214024</v>
       </c>
       <c r="B121" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -6535,13 +7110,13 @@
         <v>120</v>
       </c>
       <c r="H121" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I121" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="J121" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="K121">
         <v>33</v>
@@ -6550,18 +7125,18 @@
         <v>17</v>
       </c>
       <c r="M121" s="4" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="N121" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122">
         <v>251001</v>
       </c>
       <c r="B122" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="C122">
         <v>5</v>
@@ -6579,10 +7154,10 @@
         <v>121</v>
       </c>
       <c r="H122" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I122" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="J122">
         <v>160</v>
@@ -6594,18 +7169,18 @@
         <v>17</v>
       </c>
       <c r="M122" s="4" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="N122" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123">
         <v>252002</v>
       </c>
       <c r="B123" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="C123">
         <v>5</v>
@@ -6623,10 +7198,10 @@
         <v>122</v>
       </c>
       <c r="H123" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I123" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="J123">
         <v>160</v>
@@ -6638,18 +7213,18 @@
         <v>17</v>
       </c>
       <c r="M123" s="4" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="N123" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124">
         <v>253003</v>
       </c>
       <c r="B124" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="C124">
         <v>5</v>
@@ -6667,10 +7242,10 @@
         <v>123</v>
       </c>
       <c r="H124" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I124" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="J124">
         <v>160</v>
@@ -6682,18 +7257,18 @@
         <v>17</v>
       </c>
       <c r="M124" s="4" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="N124" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125">
         <v>254004</v>
       </c>
       <c r="B125" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="C125">
         <v>5</v>
@@ -6711,10 +7286,10 @@
         <v>124</v>
       </c>
       <c r="H125" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I125" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="J125">
         <v>160</v>
@@ -6726,18 +7301,18 @@
         <v>17</v>
       </c>
       <c r="M125" s="4" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="N125" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126">
         <v>251005</v>
       </c>
       <c r="B126" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="C126">
         <v>5</v>
@@ -6755,13 +7330,13 @@
         <v>125</v>
       </c>
       <c r="H126" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I126" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="J126" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="K126">
         <v>33</v>
@@ -6770,18 +7345,18 @@
         <v>17</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="N126" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127">
         <v>252006</v>
       </c>
       <c r="B127" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="C127">
         <v>5</v>
@@ -6799,13 +7374,13 @@
         <v>126</v>
       </c>
       <c r="H127" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I127" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="J127" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="K127">
         <v>33</v>
@@ -6814,18 +7389,18 @@
         <v>17</v>
       </c>
       <c r="M127" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="N127" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128">
         <v>253007</v>
       </c>
       <c r="B128" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="C128">
         <v>5</v>
@@ -6843,13 +7418,13 @@
         <v>127</v>
       </c>
       <c r="H128" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I128" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="J128" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="K128">
         <v>33</v>
@@ -6858,18 +7433,18 @@
         <v>17</v>
       </c>
       <c r="M128" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="N128" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
       <c r="A129">
         <v>254008</v>
       </c>
       <c r="B129" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="C129">
         <v>5</v>
@@ -6887,13 +7462,13 @@
         <v>128</v>
       </c>
       <c r="H129" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I129" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="J129" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="K129">
         <v>33</v>
@@ -6902,18 +7477,18 @@
         <v>17</v>
       </c>
       <c r="M129" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="N129" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
       <c r="A130">
         <v>251009</v>
       </c>
       <c r="B130" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="C130">
         <v>5</v>
@@ -6931,13 +7506,13 @@
         <v>129</v>
       </c>
       <c r="H130" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I130" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="J130" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="K130">
         <v>33</v>
@@ -6946,18 +7521,18 @@
         <v>17</v>
       </c>
       <c r="M130" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N130" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
       <c r="A131">
         <v>252010</v>
       </c>
       <c r="B131" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="C131">
         <v>5</v>
@@ -6975,13 +7550,13 @@
         <v>130</v>
       </c>
       <c r="H131" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I131" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="J131" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="K131">
         <v>33</v>
@@ -6990,18 +7565,18 @@
         <v>17</v>
       </c>
       <c r="M131" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N131" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
       <c r="A132">
         <v>253011</v>
       </c>
       <c r="B132" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="C132">
         <v>5</v>
@@ -7019,13 +7594,13 @@
         <v>131</v>
       </c>
       <c r="H132" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I132" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="J132" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="K132">
         <v>33</v>
@@ -7034,18 +7609,18 @@
         <v>17</v>
       </c>
       <c r="M132" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N132" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
       <c r="A133">
         <v>254012</v>
       </c>
       <c r="B133" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="C133">
         <v>5</v>
@@ -7063,13 +7638,13 @@
         <v>132</v>
       </c>
       <c r="H133" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I133" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="J133" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="K133">
         <v>33</v>
@@ -7078,18 +7653,18 @@
         <v>17</v>
       </c>
       <c r="M133" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N133" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
       <c r="A134">
         <v>251013</v>
       </c>
       <c r="B134" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="C134">
         <v>5</v>
@@ -7107,13 +7682,13 @@
         <v>133</v>
       </c>
       <c r="H134" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I134" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="J134" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="K134">
         <v>33</v>
@@ -7125,15 +7700,15 @@
         <v>156</v>
       </c>
       <c r="N134" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
       <c r="A135">
         <v>252014</v>
       </c>
       <c r="B135" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="C135">
         <v>5</v>
@@ -7151,13 +7726,13 @@
         <v>134</v>
       </c>
       <c r="H135" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I135" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="J135" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="K135">
         <v>33</v>
@@ -7169,15 +7744,15 @@
         <v>156</v>
       </c>
       <c r="N135" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
       <c r="A136">
         <v>253015</v>
       </c>
       <c r="B136" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="C136">
         <v>5</v>
@@ -7195,13 +7770,13 @@
         <v>135</v>
       </c>
       <c r="H136" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I136" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="J136" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="K136">
         <v>33</v>
@@ -7213,15 +7788,15 @@
         <v>156</v>
       </c>
       <c r="N136" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
       <c r="A137">
         <v>254016</v>
       </c>
       <c r="B137" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="C137">
         <v>5</v>
@@ -7239,13 +7814,13 @@
         <v>136</v>
       </c>
       <c r="H137" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I137" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="J137" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="K137">
         <v>33</v>
@@ -7257,15 +7832,15 @@
         <v>156</v>
       </c>
       <c r="N137" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
       <c r="A138">
         <v>251017</v>
       </c>
       <c r="B138" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="C138">
         <v>5</v>
@@ -7283,13 +7858,13 @@
         <v>137</v>
       </c>
       <c r="H138" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I138" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="J138" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="K138">
         <v>33</v>
@@ -7298,18 +7873,18 @@
         <v>17</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="N138" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
       <c r="A139">
         <v>252018</v>
       </c>
       <c r="B139" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="C139">
         <v>5</v>
@@ -7327,13 +7902,13 @@
         <v>138</v>
       </c>
       <c r="H139" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I139" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="J139" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="K139">
         <v>33</v>
@@ -7342,18 +7917,18 @@
         <v>17</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="N139" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
       <c r="A140">
         <v>253019</v>
       </c>
       <c r="B140" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="C140">
         <v>5</v>
@@ -7371,13 +7946,13 @@
         <v>139</v>
       </c>
       <c r="H140" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I140" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="J140" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="K140">
         <v>33</v>
@@ -7386,18 +7961,18 @@
         <v>17</v>
       </c>
       <c r="M140" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="N140" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
       <c r="A141">
         <v>254020</v>
       </c>
       <c r="B141" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="C141">
         <v>5</v>
@@ -7415,13 +7990,13 @@
         <v>140</v>
       </c>
       <c r="H141" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I141" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="J141" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="K141">
         <v>33</v>
@@ -7430,18 +8005,18 @@
         <v>17</v>
       </c>
       <c r="M141" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="N141" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
       <c r="A142">
         <v>251021</v>
       </c>
       <c r="B142" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="C142">
         <v>5</v>
@@ -7459,13 +8034,13 @@
         <v>141</v>
       </c>
       <c r="H142" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I142" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="J142" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="K142">
         <v>33</v>
@@ -7474,18 +8049,18 @@
         <v>17</v>
       </c>
       <c r="M142" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N142" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
       <c r="A143">
         <v>252022</v>
       </c>
       <c r="B143" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="C143">
         <v>5</v>
@@ -7503,13 +8078,13 @@
         <v>142</v>
       </c>
       <c r="H143" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I143" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="J143" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="K143">
         <v>33</v>
@@ -7518,18 +8093,18 @@
         <v>17</v>
       </c>
       <c r="M143" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N143" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
       <c r="A144">
         <v>253023</v>
       </c>
       <c r="B144" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="C144">
         <v>5</v>
@@ -7547,13 +8122,13 @@
         <v>143</v>
       </c>
       <c r="H144" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I144" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="J144" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="K144">
         <v>33</v>
@@ -7562,18 +8137,18 @@
         <v>17</v>
       </c>
       <c r="M144" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N144" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
       <c r="A145">
         <v>254024</v>
       </c>
       <c r="B145" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="C145">
         <v>5</v>
@@ -7591,13 +8166,13 @@
         <v>144</v>
       </c>
       <c r="H145" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I145" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="J145" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="K145">
         <v>33</v>
@@ -7606,47 +8181,53 @@
         <v>17</v>
       </c>
       <c r="M145" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N145" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="A$1:A$1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/other/配置表/z-装备配置表.xlsx
+++ b/other/配置表/z-装备配置表.xlsx
@@ -1,34 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1121\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4049B4-EE78-4F5E-9880-F9DB81BC82F6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="26100" windowHeight="14145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30000" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jayork</author>
     <author>CL</author>
+    <author>48203541@qq.com</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jayork:</t>
@@ -37,20 +45,25 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-首位1,第二位部位类型，第三位装备品质，四五六位识别ID</t>
+首位2
+第二位部位类型
+第三位装备品质
+四五六位识别ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="1">
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -59,6 +72,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -67,13 +81,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -82,6 +97,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -95,13 +111,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jayork:</t>
@@ -110,6 +127,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -120,13 +138,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="1">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -135,6 +154,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -142,13 +162,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1">
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -157,6 +178,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -165,13 +187,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1">
+    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -180,6 +203,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -188,13 +212,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1">
+    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -203,6 +228,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -211,13 +237,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="1">
+    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -226,6 +253,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -242,13 +270,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jayork:</t>
@@ -257,6 +286,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -264,13 +294,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jayork:</t>
@@ -279,10 +310,37 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 附加属性ID，随机出现概率</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B146" authorId="2" shapeId="0" xr:uid="{06D2C812-DE0D-4D98-9C23-2F43A7424FCB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>48203541@qq.com:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+第七关掉落特殊神装</t>
         </r>
       </text>
     </comment>
@@ -291,7 +349,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="166">
   <si>
     <t>id</t>
   </si>
@@ -347,458 +405,456 @@
     <t>{20,33}{40,67}{60,200}{80,300}{100,450}{120,675}{140,1013}{160,1519}{180,2279}{200,3418}{220,5127}{240,7691}{260,11536}{280,17304}{300,25956}{320,38934}{340,58401}{360,87602}{380,131403}{400,197104}{420,295656}{440,443484}{460,665226}{480,997839}{500,1496759}</t>
   </si>
   <si>
+    <t>钢铁之剑</t>
+  </si>
+  <si>
+    <t>100,101</t>
+  </si>
+  <si>
+    <t>{400005,100}{400006,100}{400007,100}{400008,100}</t>
+  </si>
+  <si>
+    <t>生命之剑</t>
+  </si>
+  <si>
+    <t>100,102</t>
+  </si>
+  <si>
+    <t>{400001,100}{400002,100}{400005,100}{400006,100}</t>
+  </si>
+  <si>
+    <t>暴伤之剑</t>
+  </si>
+  <si>
+    <t>100,113</t>
+  </si>
+  <si>
+    <t>{400003,100}{400004,100}{400005,100}{400006,100}</t>
+  </si>
+  <si>
+    <t>速度之剑</t>
+  </si>
+  <si>
+    <t>100,114</t>
+  </si>
+  <si>
+    <t>{400001,100}{400002,100}{400007,100}{400008,100}</t>
+  </si>
+  <si>
+    <t>重伤之剑</t>
+  </si>
+  <si>
+    <t>100,115</t>
+  </si>
+  <si>
+    <t>{400001,100}{400003,100}{400005,100}{400007,100}</t>
+  </si>
+  <si>
+    <t>纯粹之甲</t>
+  </si>
+  <si>
+    <t>equip_2000002</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>攻击之甲</t>
+  </si>
+  <si>
+    <t>101,100</t>
+  </si>
+  <si>
+    <t>生命之甲</t>
+  </si>
+  <si>
+    <t>101,102</t>
+  </si>
+  <si>
+    <t>暴伤之甲</t>
+  </si>
+  <si>
+    <t>101,113</t>
+  </si>
+  <si>
+    <t>速度之甲</t>
+  </si>
+  <si>
+    <t>101,114</t>
+  </si>
+  <si>
+    <t>重伤之甲</t>
+  </si>
+  <si>
+    <t>101,115</t>
+  </si>
+  <si>
+    <t>56,64</t>
+  </si>
+  <si>
+    <t>纯粹之靴</t>
+  </si>
+  <si>
+    <t>equip_2000003</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>攻击之靴</t>
+  </si>
+  <si>
+    <t>102,100</t>
+  </si>
+  <si>
+    <t>钢铁之靴</t>
+  </si>
+  <si>
+    <t>102,101</t>
+  </si>
+  <si>
+    <t>暴伤之靴</t>
+  </si>
+  <si>
+    <t>102,113</t>
+  </si>
+  <si>
+    <t>速度之靴</t>
+  </si>
+  <si>
+    <t>102,114</t>
+  </si>
+  <si>
+    <t>重伤之靴</t>
+  </si>
+  <si>
+    <t>102,115</t>
+  </si>
+  <si>
+    <t>纯粹戒指</t>
+  </si>
+  <si>
+    <t>equip_2000006</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>攻击戒指</t>
+  </si>
+  <si>
+    <t>113,100</t>
+  </si>
+  <si>
+    <t>钢铁戒指</t>
+  </si>
+  <si>
+    <t>113,101</t>
+  </si>
+  <si>
+    <t>生命戒指</t>
+  </si>
+  <si>
+    <t>113,102</t>
+  </si>
+  <si>
+    <t>速度戒指</t>
+  </si>
+  <si>
+    <t>113,114</t>
+  </si>
+  <si>
+    <t>重伤戒指</t>
+  </si>
+  <si>
+    <t>113,115</t>
+  </si>
+  <si>
+    <t>纯粹头盔</t>
+  </si>
+  <si>
+    <t>equip_2000001</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>攻击头盔</t>
+  </si>
+  <si>
+    <t>114,100</t>
+  </si>
+  <si>
+    <t>钢铁头盔</t>
+  </si>
+  <si>
+    <t>114,101</t>
+  </si>
+  <si>
+    <t>生命头盔</t>
+  </si>
+  <si>
+    <t>114,102</t>
+  </si>
+  <si>
+    <t>暴伤头盔</t>
+  </si>
+  <si>
+    <t>114,113</t>
+  </si>
+  <si>
+    <t>重伤头盔</t>
+  </si>
+  <si>
+    <t>114,115</t>
+  </si>
+  <si>
+    <t>纯粹项链</t>
+  </si>
+  <si>
+    <t>equip_2000005</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>攻击项链</t>
+  </si>
+  <si>
+    <t>115,100</t>
+  </si>
+  <si>
+    <t>钢铁项链</t>
+  </si>
+  <si>
+    <t>115,101</t>
+  </si>
+  <si>
+    <t>112,32</t>
+  </si>
+  <si>
+    <t>生命项链</t>
+  </si>
+  <si>
+    <t>115,102</t>
+  </si>
+  <si>
+    <t>暴伤项链</t>
+  </si>
+  <si>
+    <t>115,113</t>
+  </si>
+  <si>
+    <t>速度项链</t>
+  </si>
+  <si>
+    <t>115,114</t>
+  </si>
+  <si>
+    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
+  </si>
+  <si>
+    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
+  </si>
+  <si>
+    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
+  </si>
+  <si>
+    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
+  </si>
+  <si>
+    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
+  </si>
+  <si>
+    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
+  </si>
+  <si>
+    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
+  </si>
+  <si>
+    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
+  </si>
+  <si>
+    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
+  </si>
+  <si>
+    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
+  </si>
+  <si>
+    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
+  </si>
+  <si>
+    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
+  </si>
+  <si>
+    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
+  </si>
+  <si>
+    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
+  </si>
+  <si>
+    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
+  </si>
+  <si>
+    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
+  </si>
+  <si>
+    <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
+  </si>
+  <si>
+    <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
+  </si>
+  <si>
+    <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
+  </si>
+  <si>
+    <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
+  </si>
+  <si>
     <t>({20,10}{40,24}{60,36}{80,48}{100,60}{120,72}{140,84}{160,96}{180,108}{200,120}{220,132}{240,144}{260,156}{280,168}{300,180}{320,192}{340,204}{360,216}{380,228}{400,240}{420,252}{440,264}{460,276}{480,288}{500,300})</t>
   </si>
   <si>
-    <t>{400001,100}{400002,100}{400004,100}{400004,100}</t>
-  </si>
-  <si>
-    <t>钢铁之剑</t>
-  </si>
-  <si>
-    <t>100,101</t>
-  </si>
-  <si>
-    <t>67,32</t>
-  </si>
-  <si>
-    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
-  </si>
-  <si>
-    <t>{400005,100}{400006,100}{400007,100}{400008,100}</t>
-  </si>
-  <si>
-    <t>生命之剑</t>
-  </si>
-  <si>
-    <t>100,102</t>
-  </si>
-  <si>
-    <t>67,960</t>
-  </si>
-  <si>
-    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,107}{40,267}{60,400}{80,533}{100,667}{120,800}{140,933}{160,1067}{180,1200}{200,1333}{220,1467}{240,1600}{260,1733}{280,1867}{300,2000}{320,2133}{340,2267}{360,2400}{380,2533}{400,2667}{420,2800}{440,2933}{460,3067}{480,3200}{500,3333})</t>
-  </si>
-  <si>
-    <t>{400001,100}{400002,100}{400005,100}{400006,100}</t>
-  </si>
-  <si>
-    <t>暴伤之剑</t>
-  </si>
-  <si>
-    <t>100,113</t>
-  </si>
-  <si>
-    <t>67,77</t>
-  </si>
-  <si>
-    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
-  </si>
-  <si>
-    <t>{400003,100}{400004,100}{400005,100}{400006,100}</t>
-  </si>
-  <si>
-    <t>速度之剑</t>
-  </si>
-  <si>
-    <t>100,114</t>
-  </si>
-  <si>
-    <t>67,19</t>
-  </si>
-  <si>
-    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
-  </si>
-  <si>
-    <t>{400001,100}{400002,100}{400007,100}{400008,100}</t>
-  </si>
-  <si>
-    <t>重伤之剑</t>
-  </si>
-  <si>
-    <t>100,115</t>
-  </si>
-  <si>
-    <t>67,64</t>
-  </si>
-  <si>
-    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
-  </si>
-  <si>
-    <t>{400001,100}{400003,100}{400005,100}{400007,100}</t>
-  </si>
-  <si>
-    <t>纯粹之甲</t>
-  </si>
-  <si>
-    <t>equip_2000002</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
     <t>({20,8}{40,20}{60,30}{80,40}{100,50}{120,60}{140,70}{160,80}{180,90}{200,100}{220,110}{240,120}{260,130}{280,140}{300,150}{320,160}{340,170}{360,180}{380,190}{400,200}{420,210}{440,220}{460,230}{480,240}{500,250})</t>
   </si>
   <si>
-    <t>攻击之甲</t>
-  </si>
-  <si>
-    <t>101,100</t>
-  </si>
-  <si>
-    <t>56,38</t>
-  </si>
-  <si>
-    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
-  </si>
-  <si>
-    <t>生命之甲</t>
-  </si>
-  <si>
-    <t>101,102</t>
-  </si>
-  <si>
-    <t>56,960</t>
-  </si>
-  <si>
-    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,107}{40,267}{60,400}{80,533}{100,667}{120,800}{140,933}{160,1067}{180,1200}{200,1333}{220,1467}{240,1600}{260,1733}{280,1867}{300,2000}{320,2133}{340,2267}{360,2400}{380,2533}{400,2667}{420,2800}{440,2933}{460,3067}{480,3200}{500,3333})</t>
-  </si>
-  <si>
-    <t>暴伤之甲</t>
-  </si>
-  <si>
-    <t>101,113</t>
-  </si>
-  <si>
-    <t>56,77</t>
-  </si>
-  <si>
-    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
-  </si>
-  <si>
-    <t>速度之甲</t>
-  </si>
-  <si>
-    <t>101,114</t>
-  </si>
-  <si>
-    <t>56,19</t>
-  </si>
-  <si>
-    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
-  </si>
-  <si>
-    <t>重伤之甲</t>
-  </si>
-  <si>
-    <t>101,115</t>
-  </si>
-  <si>
-    <t>56,64</t>
-  </si>
-  <si>
-    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
-  </si>
-  <si>
-    <t>纯粹之靴</t>
-  </si>
-  <si>
-    <t>equip_2000003</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>({20,267}{40,667}{60,1000}{80,1333}{100,1667}{120,2000}{140,2333}{160,2667}{180,3000}{200,3333}{220,3667}{240,4000}{260,4333}{280,4667}{300,5000}{320,5333}{340,5667}{360,6000}{380,6333}{400,6667}{420,7000}{440,7333}{460,7667}{480,8000}{500,8333})</t>
-  </si>
-  <si>
-    <t>攻击之靴</t>
-  </si>
-  <si>
-    <t>102,100</t>
-  </si>
-  <si>
-    <t>1680,38</t>
-  </si>
-  <si>
-    <t>({20,187}{40,467}{60,700}{80,933}{100,1167}{120,1400}{140,1633}{160,1867}{180,2100}{200,2333}{220,2567}{240,2800}{260,3033}{280,3267}{300,3500}{320,3733}{340,3967}{360,4200}{380,4433}{400,4667}{420,4900}{440,5133}{460,5367}{480,5600}{500,5833})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
-  </si>
-  <si>
-    <t>钢铁之靴</t>
-  </si>
-  <si>
-    <t>102,101</t>
-  </si>
-  <si>
-    <t>1680,32</t>
-  </si>
-  <si>
-    <t>({20,187}{40,467}{60,700}{80,933}{100,1167}{120,1400}{140,1633}{160,1867}{180,2100}{200,2333}{220,2567}{240,2800}{260,3033}{280,3267}{300,3500}{320,3733}{340,3967}{360,4200}{380,4433}{400,4667}{420,4900}{440,5133}{460,5367}{480,5600}{500,5833})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
-  </si>
-  <si>
-    <t>暴伤之靴</t>
-  </si>
-  <si>
-    <t>102,113</t>
-  </si>
-  <si>
-    <t>1680,77</t>
-  </si>
-  <si>
-    <t>({20,187}{40,467}{60,700}{80,933}{100,1167}{120,1400}{140,1633}{160,1867}{180,2100}{200,2333}{220,2567}{240,2800}{260,3033}{280,3267}{300,3500}{320,3733}{340,3967}{360,4200}{380,4433}{400,4667}{420,4900}{440,5133}{460,5367}{480,5600}{500,5833})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
-  </si>
-  <si>
-    <t>速度之靴</t>
-  </si>
-  <si>
-    <t>102,114</t>
-  </si>
-  <si>
-    <t>1680,19</t>
-  </si>
-  <si>
-    <t>({20,187}{40,467}{60,700}{80,933}{100,1167}{120,1400}{140,1633}{160,1867}{180,2100}{200,2333}{220,2567}{240,2800}{260,3033}{280,3267}{300,3500}{320,3733}{340,3967}{360,4200}{380,4433}{400,4667}{420,4900}{440,5133}{460,5367}{480,5600}{500,5833})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
-  </si>
-  <si>
-    <t>重伤之靴</t>
-  </si>
-  <si>
-    <t>102,115</t>
-  </si>
-  <si>
-    <t>1680,64</t>
-  </si>
-  <si>
-    <t>({20,187}{40,467}{60,700}{80,933}{100,1167}{120,1400}{140,1633}{160,1867}{180,2100}{200,2333}{220,2567}{240,2800}{260,3033}{280,3267}{300,3500}{320,3733}{340,3967}{360,4200}{380,4433}{400,4667}{420,4900}{440,5133}{460,5367}{480,5600}{500,5833})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
-  </si>
-  <si>
-    <t>纯粹戒指</t>
-  </si>
-  <si>
-    <t>equip_2000006</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
     <t>({20,20}{40,48}{60,72}{80,96}{100,120}{120,144}{140,168}{160,192}{180,216}{200,240}{220,264}{240,288}{260,312}{280,336}{300,360}{320,384}{340,408}{360,432}{380,456}{400,480}{420,504}{440,528}{460,552}{480,576}{500,600})</t>
   </si>
   <si>
-    <t>攻击戒指</t>
-  </si>
-  <si>
-    <t>113,100</t>
-  </si>
-  <si>
-    <t>134,38</t>
-  </si>
-  <si>
-    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
-  </si>
-  <si>
-    <t>钢铁戒指</t>
-  </si>
-  <si>
-    <t>113,101</t>
-  </si>
-  <si>
-    <t>134,32</t>
-  </si>
-  <si>
-    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
-  </si>
-  <si>
-    <t>生命戒指</t>
-  </si>
-  <si>
-    <t>113,102</t>
-  </si>
-  <si>
-    <t>134,960</t>
-  </si>
-  <si>
-    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,107}{40,267}{60,400}{80,533}{100,667}{120,800}{140,933}{160,1067}{180,1200}{200,1333}{220,1467}{240,1600}{260,1733}{280,1867}{300,2000}{320,2133}{340,2267}{360,2400}{380,2533}{400,2667}{420,2800}{440,2933}{460,3067}{480,3200}{500,3333})</t>
-  </si>
-  <si>
-    <t>速度戒指</t>
-  </si>
-  <si>
-    <t>113,114</t>
-  </si>
-  <si>
-    <t>134,19</t>
-  </si>
-  <si>
-    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
-  </si>
-  <si>
-    <t>重伤戒指</t>
-  </si>
-  <si>
-    <t>113,115</t>
-  </si>
-  <si>
-    <t>134,77</t>
-  </si>
-  <si>
-    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
-  </si>
-  <si>
-    <t>纯粹头盔</t>
-  </si>
-  <si>
-    <t>equip_2000001</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
     <t>({20,5}{40,12}{60,18}{80,24}{100,30}{120,36}{140,42}{160,48}{180,54}{200,60}{220,66}{240,72}{260,78}{280,84}{300,90}{320,96}{340,102}{360,108}{380,114}{400,120}{420,126}{440,132}{460,138}{480,144}{500,150})</t>
   </si>
   <si>
-    <t>攻击头盔</t>
-  </si>
-  <si>
-    <t>114,100</t>
-  </si>
-  <si>
-    <t>34,38</t>
-  </si>
-  <si>
-    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
-  </si>
-  <si>
-    <t>钢铁头盔</t>
-  </si>
-  <si>
-    <t>114,101</t>
-  </si>
-  <si>
-    <t>34,32</t>
-  </si>
-  <si>
-    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
-  </si>
-  <si>
-    <t>生命头盔</t>
-  </si>
-  <si>
-    <t>114,102</t>
-  </si>
-  <si>
-    <t>34,960</t>
-  </si>
-  <si>
-    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,107}{40,267}{60,400}{80,533}{100,667}{120,800}{140,933}{160,1067}{180,1200}{200,1333}{220,1467}{240,1600}{260,1733}{280,1867}{300,2000}{320,2133}{340,2267}{360,2400}{380,2533}{400,2667}{420,2800}{440,2933}{460,3067}{480,3200}{500,3333})</t>
-  </si>
-  <si>
-    <t>暴伤头盔</t>
-  </si>
-  <si>
-    <t>114,113</t>
-  </si>
-  <si>
-    <t>34,77</t>
-  </si>
-  <si>
-    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
-  </si>
-  <si>
-    <t>重伤头盔</t>
-  </si>
-  <si>
-    <t>114,115</t>
-  </si>
-  <si>
-    <t>34,64</t>
-  </si>
-  <si>
-    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
-  </si>
-  <si>
-    <t>纯粹项链</t>
-  </si>
-  <si>
-    <t>equip_2000005</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
     <t>({20,7}{40,16}{60,24}{80,32}{100,40}{120,48}{140,56}{160,64}{180,72}{200,80}{220,88}{240,96}{260,104}{280,112}{300,120}{320,128}{340,136}{360,144}{380,152}{400,160}{420,168}{440,176}{460,184}{480,192}{500,200})</t>
   </si>
   <si>
-    <t>攻击项链</t>
-  </si>
-  <si>
-    <t>115,100</t>
-  </si>
-  <si>
-    <t>112,38</t>
-  </si>
-  <si>
-    <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
-  </si>
-  <si>
-    <t>钢铁项链</t>
-  </si>
-  <si>
-    <t>115,101</t>
-  </si>
-  <si>
-    <t>112,32</t>
-  </si>
-  <si>
-    <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
-  </si>
-  <si>
-    <t>生命项链</t>
-  </si>
-  <si>
-    <t>115,102</t>
-  </si>
-  <si>
-    <t>112,960</t>
-  </si>
-  <si>
-    <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,107}{40,267}{60,400}{80,533}{100,667}{120,800}{140,933}{160,1067}{180,1200}{200,1333}{220,1467}{240,1600}{260,1733}{280,1867}{300,2000}{320,2133}{340,2267}{360,2400}{380,2533}{400,2667}{420,2800}{440,2933}{460,3067}{480,3200}{500,3333})</t>
-  </si>
-  <si>
-    <t>暴伤项链</t>
-  </si>
-  <si>
-    <t>115,113</t>
-  </si>
-  <si>
-    <t>112,77</t>
-  </si>
-  <si>
-    <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
-  </si>
-  <si>
-    <t>速度项链</t>
-  </si>
-  <si>
-    <t>115,114</t>
-  </si>
-  <si>
-    <t>112,19</t>
-  </si>
-  <si>
-    <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
+    <t>56,26</t>
+  </si>
+  <si>
+    <t>56,16</t>
+  </si>
+  <si>
+    <t>56,22</t>
+  </si>
+  <si>
+    <t>45,32</t>
+  </si>
+  <si>
+    <t>45,64</t>
+  </si>
+  <si>
+    <t>45,16</t>
+  </si>
+  <si>
+    <t>45,22</t>
+  </si>
+  <si>
+    <t>112,26</t>
+  </si>
+  <si>
+    <t>112,16</t>
+  </si>
+  <si>
+    <t>112,64</t>
+  </si>
+  <si>
+    <t>28,32</t>
+  </si>
+  <si>
+    <t>28,26</t>
+  </si>
+  <si>
+    <t>28,64</t>
+  </si>
+  <si>
+    <t>28,22</t>
+  </si>
+  <si>
+    <t>39,32</t>
+  </si>
+  <si>
+    <t>39,26</t>
+  </si>
+  <si>
+    <t>39,64</t>
+  </si>
+  <si>
+    <t>39,16</t>
+  </si>
+  <si>
+    <t>{400001,100}{400002,100}{400003,100}{400004,100}</t>
+  </si>
+  <si>
+    <t>56,1280</t>
+  </si>
+  <si>
+    <t>45,1280</t>
+  </si>
+  <si>
+    <t>2240,32</t>
+  </si>
+  <si>
+    <t>2240,26</t>
+  </si>
+  <si>
+    <t>2240,64</t>
+  </si>
+  <si>
+    <t>2240,16</t>
+  </si>
+  <si>
+    <t>2240,22</t>
+  </si>
+  <si>
+    <t>112,1280</t>
+  </si>
+  <si>
+    <t>28,1280</t>
+  </si>
+  <si>
+    <t>39,1280</t>
+  </si>
+  <si>
+    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,160}{40,400}{60,600}{80,800}{100,1000}{120,1200}{140,1400}{160,1600}{180,1800}{200,2000}{220,2200}{240,2400}{260,2600}{280,2800}{300,3000}{320,3200}{340,3400}{360,3600}{380,3800}{400,4000}{420,4200}{440,4400}{460,4600}{480,4800}{500,5000})</t>
+  </si>
+  <si>
+    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,160}{40,400}{60,600}{80,800}{100,1000}{120,1200}{140,1400}{160,1600}{180,1800}{200,2000}{220,2200}{240,2400}{260,2600}{280,2800}{300,3000}{320,3200}{340,3400}{360,3600}{380,3800}{400,4000}{420,4200}{440,4400}{460,4600}{480,4800}{500,5000})</t>
+  </si>
+  <si>
+    <t>({20,400}{40,1000}{60,1500}{80,2000}{100,2500}{120,3000}{140,3500}{160,4000}{180,4500}{200,5000}{220,5500}{240,6000}{260,6500}{280,7000}{300,7500}{320,8000}{340,8500}{360,9000}{380,9500}{400,10000}{420,10500}{440,11000}{460,11500}{480,12000}{500,12500})</t>
+  </si>
+  <si>
+    <t>({20,280}{40,700}{60,1050}{80,1400}{100,1750}{120,2100}{140,2450}{160,2800}{180,3150}{200,3500}{220,3850}{240,4200}{260,4550}{280,4900}{300,5250}{320,5600}{340,5950}{360,6300}{380,6650}{400,7000}{420,7350}{440,7700}{460,8050}{480,8400}{500,8750})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
+  </si>
+  <si>
+    <t>({20,280}{40,700}{60,1050}{80,1400}{100,1750}{120,2100}{140,2450}{160,2800}{180,3150}{200,3500}{220,3850}{240,4200}{260,4550}{280,4900}{300,5250}{320,5600}{340,5950}{360,6300}{380,6650}{400,7000}{420,7350}{440,7700}{460,8050}{480,8400}{500,8750})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
+  </si>
+  <si>
+    <t>({20,280}{40,700}{60,1050}{80,1400}{100,1750}{120,2100}{140,2450}{160,2800}{180,3150}{200,3500}{220,3850}{240,4200}{260,4550}{280,4900}{300,5250}{320,5600}{340,5950}{360,6300}{380,6650}{400,7000}{420,7350}{440,7700}{460,8050}{480,8400}{500,8750})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
+  </si>
+  <si>
+    <t>({20,280}{40,700}{60,1050}{80,1400}{100,1750}{120,2100}{140,2450}{160,2800}{180,3150}{200,3500}{220,3850}{240,4200}{260,4550}{280,4900}{300,5250}{320,5600}{340,5950}{360,6300}{380,6650}{400,7000}{420,7350}{440,7700}{460,8050}{480,8400}{500,8750})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
+  </si>
+  <si>
+    <t>({20,280}{40,700}{60,1050}{80,1400}{100,1750}{120,2100}{140,2450}{160,2800}{180,3150}{200,3500}{220,3850}{240,4200}{260,4550}{280,4900}{300,5250}{320,5600}{340,5950}{360,6300}{380,6650}{400,7000}{420,7350}{440,7700}{460,8050}{480,8400}{500,8750})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
+  </si>
+  <si>
+    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,160}{40,400}{60,600}{80,800}{100,1000}{120,1200}{140,1400}{160,1600}{180,1800}{200,2000}{220,2200}{240,2400}{260,2600}{280,2800}{300,3000}{320,3200}{340,3400}{360,3600}{380,3800}{400,4000}{420,4200}{440,4400}{460,4600}{480,4800}{500,5000})</t>
+  </si>
+  <si>
+    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,160}{40,400}{60,600}{80,800}{100,1000}{120,1200}{140,1400}{160,1600}{180,1800}{200,2000}{220,2200}{240,2400}{260,2600}{280,2800}{300,3000}{320,3200}{340,3400}{360,3600}{380,3800}{400,4000}{420,4200}{440,4400}{460,4600}{480,4800}{500,5000})</t>
+  </si>
+  <si>
+    <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,160}{40,400}{60,600}{80,800}{100,1000}{120,1200}{140,1400}{160,1600}{180,1800}{200,2000}{220,2200}{240,2400}{260,2600}{280,2800}{300,3000}{320,3200}{340,3400}{360,3600}{380,3800}{400,4000}{420,4200}{440,4400}{460,4600}{480,4800}{500,5000})</t>
+  </si>
+  <si>
+    <t>{400005,100}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -810,349 +866,55 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1160,251 +922,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1426,58 +946,20 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1493,6 +975,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1541,7 +1026,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1574,9 +1059,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1609,6 +1111,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1779,22 +1298,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:N145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.375"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.25" customWidth="1"/>
     <col min="4" max="4" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="9.375"/>
@@ -1807,7 +1326,7 @@
     <col min="14" max="14" width="50.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1851,7 +1370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>241001</v>
       </c>
@@ -1880,7 +1399,7 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="K2">
         <v>33</v>
@@ -1889,13 +1408,13 @@
         <v>17</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>242002</v>
       </c>
@@ -1924,7 +1443,7 @@
         <v>16</v>
       </c>
       <c r="J3">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="K3">
         <v>33</v>
@@ -1933,13 +1452,13 @@
         <v>17</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="N3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>243003</v>
       </c>
@@ -1968,7 +1487,7 @@
         <v>16</v>
       </c>
       <c r="J4">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="K4">
         <v>33</v>
@@ -1977,13 +1496,13 @@
         <v>17</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="N4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>244004</v>
       </c>
@@ -2012,7 +1531,7 @@
         <v>16</v>
       </c>
       <c r="J5">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="K5">
         <v>33</v>
@@ -2021,18 +1540,18 @@
         <v>17</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="N5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>241005</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2053,10 +1572,10 @@
         <v>15</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="K6">
         <v>33</v>
@@ -2065,18 +1584,18 @@
         <v>17</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="N6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>242006</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -2097,10 +1616,10 @@
         <v>15</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="K7">
         <v>33</v>
@@ -2109,18 +1628,18 @@
         <v>17</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="N7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>243007</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2141,10 +1660,10 @@
         <v>15</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="K8">
         <v>33</v>
@@ -2153,18 +1672,18 @@
         <v>17</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="N8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>244008</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -2185,10 +1704,10 @@
         <v>15</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="K9">
         <v>33</v>
@@ -2197,18 +1716,18 @@
         <v>17</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>241009</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -2229,10 +1748,10 @@
         <v>15</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="K10">
         <v>33</v>
@@ -2241,18 +1760,18 @@
         <v>17</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="N10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>242010</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -2273,10 +1792,10 @@
         <v>15</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="K11">
         <v>33</v>
@@ -2285,18 +1804,18 @@
         <v>17</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="N11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>243011</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -2317,10 +1836,10 @@
         <v>15</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="K12">
         <v>33</v>
@@ -2329,18 +1848,18 @@
         <v>17</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="N12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>244012</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -2361,10 +1880,10 @@
         <v>15</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="K13">
         <v>33</v>
@@ -2373,18 +1892,18 @@
         <v>17</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="N13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>241013</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -2405,10 +1924,10 @@
         <v>15</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J14" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="K14">
         <v>33</v>
@@ -2417,18 +1936,18 @@
         <v>17</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="N14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>242014</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -2449,10 +1968,10 @@
         <v>15</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J15" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="K15">
         <v>33</v>
@@ -2461,18 +1980,18 @@
         <v>17</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="N15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>243015</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -2493,10 +2012,10 @@
         <v>15</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J16" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="K16">
         <v>33</v>
@@ -2505,18 +2024,18 @@
         <v>17</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="N16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>244016</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -2537,10 +2056,10 @@
         <v>15</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J17" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="K17">
         <v>33</v>
@@ -2549,18 +2068,18 @@
         <v>17</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="N17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>241017</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -2581,10 +2100,10 @@
         <v>15</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J18" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="K18">
         <v>33</v>
@@ -2593,18 +2112,18 @@
         <v>17</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="N18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>242018</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -2625,10 +2144,10 @@
         <v>15</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J19" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="K19">
         <v>33</v>
@@ -2637,18 +2156,18 @@
         <v>17</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="N19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>243019</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -2669,10 +2188,10 @@
         <v>15</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J20" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="K20">
         <v>33</v>
@@ -2681,18 +2200,18 @@
         <v>17</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="N20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>244020</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -2713,10 +2232,10 @@
         <v>15</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J21" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="K21">
         <v>33</v>
@@ -2725,18 +2244,18 @@
         <v>17</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="N21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>241021</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -2757,10 +2276,10 @@
         <v>15</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="K22">
         <v>33</v>
@@ -2769,18 +2288,18 @@
         <v>17</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="N22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>242022</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -2801,10 +2320,10 @@
         <v>15</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="K23">
         <v>33</v>
@@ -2813,18 +2332,18 @@
         <v>17</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="N23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>243023</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -2845,10 +2364,10 @@
         <v>15</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="K24">
         <v>33</v>
@@ -2857,18 +2376,18 @@
         <v>17</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="N24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>244024</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -2889,10 +2408,10 @@
         <v>15</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="K25">
         <v>33</v>
@@ -2901,18 +2420,18 @@
         <v>17</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="N25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>221001</v>
+        <v>221025</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -2930,13 +2449,13 @@
         <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J26">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="K26">
         <v>33</v>
@@ -2945,18 +2464,18 @@
         <v>17</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="N26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>222002</v>
+        <v>222026</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -2974,13 +2493,13 @@
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J27">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="K27">
         <v>33</v>
@@ -2989,18 +2508,18 @@
         <v>17</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="N27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>223003</v>
+        <v>223027</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -3018,13 +2537,13 @@
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J28">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="K28">
         <v>33</v>
@@ -3033,18 +2552,18 @@
         <v>17</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="N28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>224004</v>
+        <v>224028</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -3062,13 +2581,13 @@
         <v>28</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I29" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J29">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="K29">
         <v>33</v>
@@ -3077,18 +2596,18 @@
         <v>17</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="N29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>221005</v>
+        <v>221029</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -3106,13 +2625,13 @@
         <v>29</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="J30" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="K30">
         <v>33</v>
@@ -3121,18 +2640,18 @@
         <v>17</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="N30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>222006</v>
+        <v>222030</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -3150,13 +2669,13 @@
         <v>30</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="J31" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="K31">
         <v>33</v>
@@ -3165,18 +2684,18 @@
         <v>17</v>
       </c>
       <c r="M31" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="N31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>223007</v>
+        <v>223031</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -3194,13 +2713,13 @@
         <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="J32" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="K32">
         <v>33</v>
@@ -3209,18 +2728,18 @@
         <v>17</v>
       </c>
       <c r="M32" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="N32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>224008</v>
+        <v>224032</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -3238,13 +2757,13 @@
         <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="J33" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="K33">
         <v>33</v>
@@ -3253,18 +2772,18 @@
         <v>17</v>
       </c>
       <c r="M33" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="N33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>221009</v>
+        <v>221033</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -3282,13 +2801,13 @@
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="J34" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="K34">
         <v>33</v>
@@ -3297,18 +2816,18 @@
         <v>17</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="N34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>222010</v>
+        <v>222034</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -3326,13 +2845,13 @@
         <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="J35" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="K35">
         <v>33</v>
@@ -3341,18 +2860,18 @@
         <v>17</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="N35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>223011</v>
+        <v>223035</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -3370,13 +2889,13 @@
         <v>35</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="J36" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="K36">
         <v>33</v>
@@ -3385,18 +2904,18 @@
         <v>17</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="N36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>224012</v>
+        <v>224036</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -3414,13 +2933,13 @@
         <v>36</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="J37" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="K37">
         <v>33</v>
@@ -3429,18 +2948,18 @@
         <v>17</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="N37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>221013</v>
+        <v>221037</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -3458,13 +2977,13 @@
         <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="J38" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="K38">
         <v>33</v>
@@ -3473,18 +2992,18 @@
         <v>17</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="N38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>222014</v>
+        <v>222038</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -3502,13 +3021,13 @@
         <v>38</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="J39" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="K39">
         <v>33</v>
@@ -3517,18 +3036,18 @@
         <v>17</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="N39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>223015</v>
+        <v>223039</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -3546,13 +3065,13 @@
         <v>39</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="J40" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="K40">
         <v>33</v>
@@ -3561,18 +3080,18 @@
         <v>17</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="N40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>224016</v>
+        <v>224040</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -3590,13 +3109,13 @@
         <v>40</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="J41" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="K41">
         <v>33</v>
@@ -3605,18 +3124,18 @@
         <v>17</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="N41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>221017</v>
+        <v>221041</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -3634,13 +3153,13 @@
         <v>41</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="J42" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="K42">
         <v>33</v>
@@ -3649,18 +3168,18 @@
         <v>17</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="N42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>222018</v>
+        <v>222042</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -3678,13 +3197,13 @@
         <v>42</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="J43" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="K43">
         <v>33</v>
@@ -3693,18 +3212,18 @@
         <v>17</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="N43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>223019</v>
+        <v>223043</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -3722,13 +3241,13 @@
         <v>43</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="J44" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="K44">
         <v>33</v>
@@ -3737,18 +3256,18 @@
         <v>17</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="N44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>224020</v>
+        <v>224044</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -3766,13 +3285,13 @@
         <v>44</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="J45" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="K45">
         <v>33</v>
@@ -3781,18 +3300,18 @@
         <v>17</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="N45" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>221021</v>
+        <v>221045</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -3810,13 +3329,13 @@
         <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="J46" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="K46">
         <v>33</v>
@@ -3825,18 +3344,18 @@
         <v>17</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="N46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>222046</v>
+      </c>
+      <c r="B47" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47">
-        <v>222022</v>
-      </c>
-      <c r="B47" t="s">
-        <v>65</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -3854,13 +3373,13 @@
         <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="J47" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="K47">
         <v>33</v>
@@ -3869,18 +3388,18 @@
         <v>17</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="N47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>223047</v>
+      </c>
+      <c r="B48" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48">
-        <v>223023</v>
-      </c>
-      <c r="B48" t="s">
-        <v>65</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -3898,13 +3417,13 @@
         <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="J48" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="K48">
         <v>33</v>
@@ -3913,18 +3432,18 @@
         <v>17</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="N48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>224048</v>
+      </c>
+      <c r="B49" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49">
-        <v>224024</v>
-      </c>
-      <c r="B49" t="s">
-        <v>65</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -3942,13 +3461,13 @@
         <v>48</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="J49" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="K49">
         <v>33</v>
@@ -3957,18 +3476,18 @@
         <v>17</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="N49" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>231001</v>
+        <v>231049</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -3986,13 +3505,13 @@
         <v>49</v>
       </c>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="J50">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="K50">
         <v>33</v>
@@ -4001,18 +3520,18 @@
         <v>17</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="N50" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>232002</v>
+        <v>232050</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -4030,13 +3549,13 @@
         <v>50</v>
       </c>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="J51">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="K51">
         <v>33</v>
@@ -4045,18 +3564,18 @@
         <v>17</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="N51" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>233003</v>
+        <v>233051</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -4074,13 +3593,13 @@
         <v>51</v>
       </c>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="J52">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="K52">
         <v>33</v>
@@ -4089,18 +3608,18 @@
         <v>17</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="N52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>234004</v>
+        <v>234052</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -4118,13 +3637,13 @@
         <v>52</v>
       </c>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="J53">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="K53">
         <v>33</v>
@@ -4133,18 +3652,18 @@
         <v>17</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="N53" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>231005</v>
+        <v>231053</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -4162,13 +3681,13 @@
         <v>53</v>
       </c>
       <c r="H54" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="J54" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="K54">
         <v>33</v>
@@ -4177,18 +3696,18 @@
         <v>17</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="N54" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>232006</v>
+        <v>232054</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -4206,13 +3725,13 @@
         <v>54</v>
       </c>
       <c r="H55" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="J55" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="K55">
         <v>33</v>
@@ -4221,18 +3740,18 @@
         <v>17</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="N55" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>233007</v>
+        <v>233055</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -4250,13 +3769,13 @@
         <v>55</v>
       </c>
       <c r="H56" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="J56" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="K56">
         <v>33</v>
@@ -4265,18 +3784,18 @@
         <v>17</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="N56" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>234008</v>
+        <v>234056</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -4294,13 +3813,13 @@
         <v>56</v>
       </c>
       <c r="H57" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="J57" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="K57">
         <v>33</v>
@@ -4309,18 +3828,18 @@
         <v>17</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="N57" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58">
-        <v>231009</v>
+        <v>231057</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -4338,13 +3857,13 @@
         <v>57</v>
       </c>
       <c r="H58" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="J58" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="K58">
         <v>33</v>
@@ -4353,18 +3872,18 @@
         <v>17</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="N58" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59">
-        <v>232010</v>
+        <v>232058</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -4382,13 +3901,13 @@
         <v>58</v>
       </c>
       <c r="H59" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="J59" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="K59">
         <v>33</v>
@@ -4397,18 +3916,18 @@
         <v>17</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="N59" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>233011</v>
+        <v>233059</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -4426,13 +3945,13 @@
         <v>59</v>
       </c>
       <c r="H60" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="J60" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="K60">
         <v>33</v>
@@ -4441,18 +3960,18 @@
         <v>17</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="N60" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61">
-        <v>234012</v>
+        <v>234060</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -4470,13 +3989,13 @@
         <v>60</v>
       </c>
       <c r="H61" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="J61" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="K61">
         <v>33</v>
@@ -4485,18 +4004,18 @@
         <v>17</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="N61" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62">
-        <v>231013</v>
+        <v>231061</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -4514,13 +4033,13 @@
         <v>61</v>
       </c>
       <c r="H62" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="J62" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="K62">
         <v>33</v>
@@ -4529,18 +4048,18 @@
         <v>17</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="N62" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63">
-        <v>232014</v>
+        <v>232062</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -4558,13 +4077,13 @@
         <v>62</v>
       </c>
       <c r="H63" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="J63" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="K63">
         <v>33</v>
@@ -4573,18 +4092,18 @@
         <v>17</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="N63" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A64">
-        <v>233015</v>
+        <v>233063</v>
       </c>
       <c r="B64" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -4602,13 +4121,13 @@
         <v>63</v>
       </c>
       <c r="H64" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="J64" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="K64">
         <v>33</v>
@@ -4617,18 +4136,18 @@
         <v>17</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="N64" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A65">
-        <v>234016</v>
+        <v>234064</v>
       </c>
       <c r="B65" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -4646,13 +4165,13 @@
         <v>64</v>
       </c>
       <c r="H65" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="J65" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="K65">
         <v>33</v>
@@ -4661,18 +4180,18 @@
         <v>17</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="N65" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A66">
-        <v>231017</v>
+        <v>231065</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -4690,13 +4209,13 @@
         <v>65</v>
       </c>
       <c r="H66" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="J66" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="K66">
         <v>33</v>
@@ -4705,18 +4224,18 @@
         <v>17</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="N66" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>232018</v>
+        <v>232066</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -4734,13 +4253,13 @@
         <v>66</v>
       </c>
       <c r="H67" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="J67" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="K67">
         <v>33</v>
@@ -4749,18 +4268,18 @@
         <v>17</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="N67" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A68">
-        <v>233019</v>
+        <v>233067</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -4778,13 +4297,13 @@
         <v>67</v>
       </c>
       <c r="H68" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="J68" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="K68">
         <v>33</v>
@@ -4793,18 +4312,18 @@
         <v>17</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="N68" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>234020</v>
+        <v>234068</v>
       </c>
       <c r="B69" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -4822,13 +4341,13 @@
         <v>68</v>
       </c>
       <c r="H69" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="J69" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="K69">
         <v>33</v>
@@ -4837,18 +4356,18 @@
         <v>17</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="N69" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>231021</v>
+        <v>231069</v>
       </c>
       <c r="B70" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -4866,13 +4385,13 @@
         <v>69</v>
       </c>
       <c r="H70" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="J70" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="K70">
         <v>33</v>
@@ -4881,18 +4400,18 @@
         <v>17</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="N70" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A71">
-        <v>232022</v>
+        <v>232070</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -4910,13 +4429,13 @@
         <v>70</v>
       </c>
       <c r="H71" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="J71" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="K71">
         <v>33</v>
@@ -4925,18 +4444,18 @@
         <v>17</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="N71" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>233023</v>
+        <v>233071</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -4954,13 +4473,13 @@
         <v>71</v>
       </c>
       <c r="H72" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="J72" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="K72">
         <v>33</v>
@@ -4969,18 +4488,18 @@
         <v>17</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="N72" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A73">
-        <v>234024</v>
+        <v>234072</v>
       </c>
       <c r="B73" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -4998,13 +4517,13 @@
         <v>72</v>
       </c>
       <c r="H73" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="J73" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="K73">
         <v>33</v>
@@ -5013,18 +4532,18 @@
         <v>17</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="N73" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A74">
-        <v>261001</v>
+        <v>261073</v>
       </c>
       <c r="B74" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C74">
         <v>6</v>
@@ -5042,13 +4561,13 @@
         <v>73</v>
       </c>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="I74" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="J74">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="K74">
         <v>33</v>
@@ -5057,18 +4576,18 @@
         <v>17</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="N74" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A75">
-        <v>262002</v>
+        <v>262074</v>
       </c>
       <c r="B75" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C75">
         <v>6</v>
@@ -5086,13 +4605,13 @@
         <v>74</v>
       </c>
       <c r="H75" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="I75" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="J75">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="K75">
         <v>33</v>
@@ -5101,18 +4620,18 @@
         <v>17</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="N75" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A76">
-        <v>263003</v>
+        <v>263075</v>
       </c>
       <c r="B76" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C76">
         <v>6</v>
@@ -5130,13 +4649,13 @@
         <v>75</v>
       </c>
       <c r="H76" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="I76" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="J76">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="K76">
         <v>33</v>
@@ -5145,18 +4664,18 @@
         <v>17</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="N76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A77">
-        <v>264004</v>
+        <v>264076</v>
       </c>
       <c r="B77" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C77">
         <v>6</v>
@@ -5174,13 +4693,13 @@
         <v>76</v>
       </c>
       <c r="H77" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="I77" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="J77">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="K77">
         <v>33</v>
@@ -5189,18 +4708,18 @@
         <v>17</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="N77" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A78">
-        <v>261005</v>
+        <v>261077</v>
       </c>
       <c r="B78" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -5218,13 +4737,13 @@
         <v>77</v>
       </c>
       <c r="H78" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="J78" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K78">
         <v>33</v>
@@ -5233,18 +4752,18 @@
         <v>17</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="N78" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>262006</v>
+        <v>262078</v>
       </c>
       <c r="B79" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="C79">
         <v>6</v>
@@ -5262,13 +4781,13 @@
         <v>78</v>
       </c>
       <c r="H79" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="J79" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K79">
         <v>33</v>
@@ -5277,18 +4796,18 @@
         <v>17</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="N79" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A80">
-        <v>263007</v>
+        <v>263079</v>
       </c>
       <c r="B80" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="C80">
         <v>6</v>
@@ -5306,13 +4825,13 @@
         <v>79</v>
       </c>
       <c r="H80" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="J80" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K80">
         <v>33</v>
@@ -5321,18 +4840,18 @@
         <v>17</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="N80" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A81">
-        <v>264008</v>
+        <v>264080</v>
       </c>
       <c r="B81" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="C81">
         <v>6</v>
@@ -5350,13 +4869,13 @@
         <v>80</v>
       </c>
       <c r="H81" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="J81" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K81">
         <v>33</v>
@@ -5365,18 +4884,18 @@
         <v>17</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="N81" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A82">
-        <v>261009</v>
+        <v>261081</v>
       </c>
       <c r="B82" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="C82">
         <v>6</v>
@@ -5394,13 +4913,13 @@
         <v>81</v>
       </c>
       <c r="H82" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="J82" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="K82">
         <v>33</v>
@@ -5409,18 +4928,18 @@
         <v>17</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="N82" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A83">
-        <v>262010</v>
+        <v>262082</v>
       </c>
       <c r="B83" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="C83">
         <v>6</v>
@@ -5438,13 +4957,13 @@
         <v>82</v>
       </c>
       <c r="H83" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="J83" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="K83">
         <v>33</v>
@@ -5453,18 +4972,18 @@
         <v>17</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="N83" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A84">
-        <v>263011</v>
+        <v>263083</v>
       </c>
       <c r="B84" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="C84">
         <v>6</v>
@@ -5482,13 +5001,13 @@
         <v>83</v>
       </c>
       <c r="H84" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="J84" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="K84">
         <v>33</v>
@@ -5497,18 +5016,18 @@
         <v>17</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="N84" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A85">
-        <v>264012</v>
+        <v>264084</v>
       </c>
       <c r="B85" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="C85">
         <v>6</v>
@@ -5526,13 +5045,13 @@
         <v>84</v>
       </c>
       <c r="H85" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="J85" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="K85">
         <v>33</v>
@@ -5541,18 +5060,18 @@
         <v>17</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="N85" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A86">
-        <v>261013</v>
+        <v>261085</v>
       </c>
       <c r="B86" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C86">
         <v>6</v>
@@ -5570,13 +5089,13 @@
         <v>85</v>
       </c>
       <c r="H86" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="J86" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="K86">
         <v>33</v>
@@ -5585,18 +5104,18 @@
         <v>17</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N86" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A87">
-        <v>262014</v>
+        <v>262086</v>
       </c>
       <c r="B87" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C87">
         <v>6</v>
@@ -5614,13 +5133,13 @@
         <v>86</v>
       </c>
       <c r="H87" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="J87" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="K87">
         <v>33</v>
@@ -5629,18 +5148,18 @@
         <v>17</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N87" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A88">
-        <v>263015</v>
+        <v>263087</v>
       </c>
       <c r="B88" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C88">
         <v>6</v>
@@ -5658,13 +5177,13 @@
         <v>87</v>
       </c>
       <c r="H88" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="J88" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="K88">
         <v>33</v>
@@ -5673,18 +5192,18 @@
         <v>17</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N88" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A89">
-        <v>264016</v>
+        <v>264088</v>
       </c>
       <c r="B89" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C89">
         <v>6</v>
@@ -5702,13 +5221,13 @@
         <v>88</v>
       </c>
       <c r="H89" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="J89" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="K89">
         <v>33</v>
@@ -5717,18 +5236,18 @@
         <v>17</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="N89" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A90">
-        <v>261017</v>
+        <v>261089</v>
       </c>
       <c r="B90" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="C90">
         <v>6</v>
@@ -5746,13 +5265,13 @@
         <v>89</v>
       </c>
       <c r="H90" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="J90" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="K90">
         <v>33</v>
@@ -5761,18 +5280,18 @@
         <v>17</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="N90" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A91">
-        <v>262018</v>
+        <v>262090</v>
       </c>
       <c r="B91" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="C91">
         <v>6</v>
@@ -5790,13 +5309,13 @@
         <v>90</v>
       </c>
       <c r="H91" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="J91" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="K91">
         <v>33</v>
@@ -5805,18 +5324,18 @@
         <v>17</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="N91" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A92">
-        <v>263019</v>
+        <v>263091</v>
       </c>
       <c r="B92" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="C92">
         <v>6</v>
@@ -5834,13 +5353,13 @@
         <v>91</v>
       </c>
       <c r="H92" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="J92" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="K92">
         <v>33</v>
@@ -5849,18 +5368,18 @@
         <v>17</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="N92" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A93">
-        <v>264020</v>
+        <v>264092</v>
       </c>
       <c r="B93" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="C93">
         <v>6</v>
@@ -5878,13 +5397,13 @@
         <v>92</v>
       </c>
       <c r="H93" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="J93" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="K93">
         <v>33</v>
@@ -5893,18 +5412,18 @@
         <v>17</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="N93" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A94">
-        <v>261021</v>
+        <v>261093</v>
       </c>
       <c r="B94" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="C94">
         <v>6</v>
@@ -5922,33 +5441,33 @@
         <v>93</v>
       </c>
       <c r="H94" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="I94" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J94" t="s">
+        <v>134</v>
+      </c>
+      <c r="K94">
+        <v>33</v>
+      </c>
+      <c r="L94" t="s">
+        <v>17</v>
+      </c>
+      <c r="M94" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J94" t="s">
-        <v>115</v>
-      </c>
-      <c r="K94">
-        <v>33</v>
-      </c>
-      <c r="L94" t="s">
-        <v>17</v>
-      </c>
-      <c r="M94" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="N94" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A95">
-        <v>262022</v>
+        <v>262094</v>
       </c>
       <c r="B95" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="C95">
         <v>6</v>
@@ -5966,33 +5485,33 @@
         <v>94</v>
       </c>
       <c r="H95" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="I95" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J95" t="s">
+        <v>134</v>
+      </c>
+      <c r="K95">
+        <v>33</v>
+      </c>
+      <c r="L95" t="s">
+        <v>17</v>
+      </c>
+      <c r="M95" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J95" t="s">
-        <v>115</v>
-      </c>
-      <c r="K95">
-        <v>33</v>
-      </c>
-      <c r="L95" t="s">
-        <v>17</v>
-      </c>
-      <c r="M95" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="N95" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A96">
-        <v>263023</v>
+        <v>263095</v>
       </c>
       <c r="B96" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="C96">
         <v>6</v>
@@ -6010,33 +5529,33 @@
         <v>95</v>
       </c>
       <c r="H96" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="I96" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J96" t="s">
+        <v>134</v>
+      </c>
+      <c r="K96">
+        <v>33</v>
+      </c>
+      <c r="L96" t="s">
+        <v>17</v>
+      </c>
+      <c r="M96" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J96" t="s">
-        <v>115</v>
-      </c>
-      <c r="K96">
-        <v>33</v>
-      </c>
-      <c r="L96" t="s">
-        <v>17</v>
-      </c>
-      <c r="M96" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="N96" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A97">
-        <v>264024</v>
+        <v>264096</v>
       </c>
       <c r="B97" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="C97">
         <v>6</v>
@@ -6054,33 +5573,33 @@
         <v>96</v>
       </c>
       <c r="H97" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="I97" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J97" t="s">
+        <v>134</v>
+      </c>
+      <c r="K97">
+        <v>33</v>
+      </c>
+      <c r="L97" t="s">
+        <v>17</v>
+      </c>
+      <c r="M97" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J97" t="s">
-        <v>115</v>
-      </c>
-      <c r="K97">
-        <v>33</v>
-      </c>
-      <c r="L97" t="s">
-        <v>17</v>
-      </c>
-      <c r="M97" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="N97" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A98">
-        <v>211001</v>
+        <v>211097</v>
       </c>
       <c r="B98" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -6098,13 +5617,13 @@
         <v>97</v>
       </c>
       <c r="H98" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="I98" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="J98">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K98">
         <v>33</v>
@@ -6113,18 +5632,18 @@
         <v>17</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="N98" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A99">
-        <v>212002</v>
+        <v>212098</v>
       </c>
       <c r="B99" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -6142,13 +5661,13 @@
         <v>98</v>
       </c>
       <c r="H99" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="I99" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="J99">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K99">
         <v>33</v>
@@ -6157,18 +5676,18 @@
         <v>17</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="N99" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A100">
-        <v>213003</v>
+        <v>213099</v>
       </c>
       <c r="B100" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -6186,13 +5705,13 @@
         <v>99</v>
       </c>
       <c r="H100" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="I100" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="J100">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K100">
         <v>33</v>
@@ -6201,18 +5720,18 @@
         <v>17</v>
       </c>
       <c r="M100" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="N100" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A101">
-        <v>214004</v>
+        <v>214100</v>
       </c>
       <c r="B101" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -6230,13 +5749,13 @@
         <v>100</v>
       </c>
       <c r="H101" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="I101" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="J101">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K101">
         <v>33</v>
@@ -6245,18 +5764,18 @@
         <v>17</v>
       </c>
       <c r="M101" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="N101" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A102">
-        <v>211005</v>
+        <v>211101</v>
       </c>
       <c r="B102" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -6274,13 +5793,13 @@
         <v>101</v>
       </c>
       <c r="H102" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="I102" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="J102" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K102">
         <v>33</v>
@@ -6289,18 +5808,18 @@
         <v>17</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="N102" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A103">
-        <v>212006</v>
+        <v>212102</v>
       </c>
       <c r="B103" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -6318,13 +5837,13 @@
         <v>102</v>
       </c>
       <c r="H103" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="I103" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="J103" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K103">
         <v>33</v>
@@ -6333,18 +5852,18 @@
         <v>17</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="N103" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A104">
-        <v>213007</v>
+        <v>213103</v>
       </c>
       <c r="B104" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -6362,13 +5881,13 @@
         <v>103</v>
       </c>
       <c r="H104" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="I104" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="J104" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K104">
         <v>33</v>
@@ -6377,18 +5896,18 @@
         <v>17</v>
       </c>
       <c r="M104" s="4" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="N104" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A105">
-        <v>214008</v>
+        <v>214104</v>
       </c>
       <c r="B105" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -6406,13 +5925,13 @@
         <v>104</v>
       </c>
       <c r="H105" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="I105" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="J105" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K105">
         <v>33</v>
@@ -6421,18 +5940,18 @@
         <v>17</v>
       </c>
       <c r="M105" s="4" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="N105" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A106">
-        <v>211009</v>
+        <v>211105</v>
       </c>
       <c r="B106" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -6450,13 +5969,13 @@
         <v>105</v>
       </c>
       <c r="H106" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="I106" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="J106" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="K106">
         <v>33</v>
@@ -6465,18 +5984,18 @@
         <v>17</v>
       </c>
       <c r="M106" s="4" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="N106" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A107">
-        <v>212010</v>
+        <v>212106</v>
       </c>
       <c r="B107" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -6494,13 +6013,13 @@
         <v>106</v>
       </c>
       <c r="H107" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="I107" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="J107" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="K107">
         <v>33</v>
@@ -6509,18 +6028,18 @@
         <v>17</v>
       </c>
       <c r="M107" s="4" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="N107" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A108">
-        <v>213011</v>
+        <v>213107</v>
       </c>
       <c r="B108" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -6538,13 +6057,13 @@
         <v>107</v>
       </c>
       <c r="H108" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="I108" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="J108" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="K108">
         <v>33</v>
@@ -6553,18 +6072,18 @@
         <v>17</v>
       </c>
       <c r="M108" s="4" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="N108" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A109">
-        <v>214012</v>
+        <v>214108</v>
       </c>
       <c r="B109" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -6582,13 +6101,13 @@
         <v>108</v>
       </c>
       <c r="H109" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="I109" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="J109" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="K109">
         <v>33</v>
@@ -6597,18 +6116,18 @@
         <v>17</v>
       </c>
       <c r="M109" s="4" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="N109" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A110">
-        <v>211013</v>
+        <v>211109</v>
       </c>
       <c r="B110" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -6626,13 +6145,13 @@
         <v>109</v>
       </c>
       <c r="H110" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="I110" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="J110" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="K110">
         <v>33</v>
@@ -6641,18 +6160,18 @@
         <v>17</v>
       </c>
       <c r="M110" s="4" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="N110" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A111">
-        <v>212014</v>
+        <v>212110</v>
       </c>
       <c r="B111" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -6670,13 +6189,13 @@
         <v>110</v>
       </c>
       <c r="H111" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="I111" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="J111" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="K111">
         <v>33</v>
@@ -6685,18 +6204,18 @@
         <v>17</v>
       </c>
       <c r="M111" s="4" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="N111" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A112">
-        <v>213015</v>
+        <v>213111</v>
       </c>
       <c r="B112" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -6714,13 +6233,13 @@
         <v>111</v>
       </c>
       <c r="H112" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="I112" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="J112" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="K112">
         <v>33</v>
@@ -6729,18 +6248,18 @@
         <v>17</v>
       </c>
       <c r="M112" s="4" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="N112" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A113">
-        <v>214016</v>
+        <v>214112</v>
       </c>
       <c r="B113" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -6758,13 +6277,13 @@
         <v>112</v>
       </c>
       <c r="H113" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="I113" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="J113" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="K113">
         <v>33</v>
@@ -6773,18 +6292,18 @@
         <v>17</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="N113" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A114">
-        <v>211017</v>
+        <v>211113</v>
       </c>
       <c r="B114" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -6802,13 +6321,13 @@
         <v>113</v>
       </c>
       <c r="H114" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="I114" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="J114" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K114">
         <v>33</v>
@@ -6817,18 +6336,18 @@
         <v>17</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="N114" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A115">
-        <v>212018</v>
+        <v>212114</v>
       </c>
       <c r="B115" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -6846,13 +6365,13 @@
         <v>114</v>
       </c>
       <c r="H115" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="I115" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="J115" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K115">
         <v>33</v>
@@ -6861,18 +6380,18 @@
         <v>17</v>
       </c>
       <c r="M115" s="4" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="N115" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A116">
-        <v>213019</v>
+        <v>213115</v>
       </c>
       <c r="B116" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -6890,13 +6409,13 @@
         <v>115</v>
       </c>
       <c r="H116" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="I116" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="J116" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K116">
         <v>33</v>
@@ -6905,18 +6424,18 @@
         <v>17</v>
       </c>
       <c r="M116" s="4" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="N116" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A117">
-        <v>214020</v>
+        <v>214116</v>
       </c>
       <c r="B117" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -6934,13 +6453,13 @@
         <v>116</v>
       </c>
       <c r="H117" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="I117" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="J117" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K117">
         <v>33</v>
@@ -6949,18 +6468,18 @@
         <v>17</v>
       </c>
       <c r="M117" s="4" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="N117" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A118">
-        <v>211021</v>
+        <v>211117</v>
       </c>
       <c r="B118" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -6978,14 +6497,14 @@
         <v>117</v>
       </c>
       <c r="H118" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="I118" t="s">
+        <v>85</v>
+      </c>
+      <c r="J118" t="s">
         <v>138</v>
       </c>
-      <c r="J118" t="s">
-        <v>139</v>
-      </c>
       <c r="K118">
         <v>33</v>
       </c>
@@ -6993,18 +6512,18 @@
         <v>17</v>
       </c>
       <c r="M118" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="N118" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A119">
-        <v>212022</v>
+        <v>212118</v>
       </c>
       <c r="B119" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -7022,14 +6541,14 @@
         <v>118</v>
       </c>
       <c r="H119" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="I119" t="s">
+        <v>85</v>
+      </c>
+      <c r="J119" t="s">
         <v>138</v>
       </c>
-      <c r="J119" t="s">
-        <v>139</v>
-      </c>
       <c r="K119">
         <v>33</v>
       </c>
@@ -7037,18 +6556,18 @@
         <v>17</v>
       </c>
       <c r="M119" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="N119" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A120">
-        <v>213023</v>
+        <v>213119</v>
       </c>
       <c r="B120" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -7066,14 +6585,14 @@
         <v>119</v>
       </c>
       <c r="H120" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="I120" t="s">
+        <v>85</v>
+      </c>
+      <c r="J120" t="s">
         <v>138</v>
       </c>
-      <c r="J120" t="s">
-        <v>139</v>
-      </c>
       <c r="K120">
         <v>33</v>
       </c>
@@ -7081,18 +6600,18 @@
         <v>17</v>
       </c>
       <c r="M120" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="N120" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A121">
-        <v>214024</v>
+        <v>214120</v>
       </c>
       <c r="B121" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -7110,14 +6629,14 @@
         <v>120</v>
       </c>
       <c r="H121" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="I121" t="s">
+        <v>85</v>
+      </c>
+      <c r="J121" t="s">
         <v>138</v>
       </c>
-      <c r="J121" t="s">
-        <v>139</v>
-      </c>
       <c r="K121">
         <v>33</v>
       </c>
@@ -7125,18 +6644,18 @@
         <v>17</v>
       </c>
       <c r="M121" s="4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="N121" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A122">
-        <v>251001</v>
+        <v>251121</v>
       </c>
       <c r="B122" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="C122">
         <v>5</v>
@@ -7154,33 +6673,33 @@
         <v>121</v>
       </c>
       <c r="H122" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="I122" t="s">
+        <v>88</v>
+      </c>
+      <c r="J122">
+        <v>56</v>
+      </c>
+      <c r="K122">
+        <v>33</v>
+      </c>
+      <c r="L122" t="s">
+        <v>17</v>
+      </c>
+      <c r="M122" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="N122" t="s">
         <v>143</v>
       </c>
-      <c r="J122">
-        <v>160</v>
-      </c>
-      <c r="K122">
-        <v>33</v>
-      </c>
-      <c r="L122" t="s">
-        <v>17</v>
-      </c>
-      <c r="M122" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="N122" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14">
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A123">
-        <v>252002</v>
+        <v>252122</v>
       </c>
       <c r="B123" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="C123">
         <v>5</v>
@@ -7198,33 +6717,33 @@
         <v>122</v>
       </c>
       <c r="H123" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="I123" t="s">
+        <v>88</v>
+      </c>
+      <c r="J123">
+        <v>56</v>
+      </c>
+      <c r="K123">
+        <v>33</v>
+      </c>
+      <c r="L123" t="s">
+        <v>17</v>
+      </c>
+      <c r="M123" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="N123" t="s">
         <v>143</v>
       </c>
-      <c r="J123">
-        <v>160</v>
-      </c>
-      <c r="K123">
-        <v>33</v>
-      </c>
-      <c r="L123" t="s">
-        <v>17</v>
-      </c>
-      <c r="M123" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="N123" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14">
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A124">
-        <v>253003</v>
+        <v>253123</v>
       </c>
       <c r="B124" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="C124">
         <v>5</v>
@@ -7242,33 +6761,33 @@
         <v>123</v>
       </c>
       <c r="H124" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="I124" t="s">
+        <v>88</v>
+      </c>
+      <c r="J124">
+        <v>56</v>
+      </c>
+      <c r="K124">
+        <v>33</v>
+      </c>
+      <c r="L124" t="s">
+        <v>17</v>
+      </c>
+      <c r="M124" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="N124" t="s">
         <v>143</v>
       </c>
-      <c r="J124">
-        <v>160</v>
-      </c>
-      <c r="K124">
-        <v>33</v>
-      </c>
-      <c r="L124" t="s">
-        <v>17</v>
-      </c>
-      <c r="M124" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="N124" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14">
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A125">
-        <v>254004</v>
+        <v>254124</v>
       </c>
       <c r="B125" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="C125">
         <v>5</v>
@@ -7286,33 +6805,33 @@
         <v>124</v>
       </c>
       <c r="H125" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="I125" t="s">
+        <v>88</v>
+      </c>
+      <c r="J125">
+        <v>56</v>
+      </c>
+      <c r="K125">
+        <v>33</v>
+      </c>
+      <c r="L125" t="s">
+        <v>17</v>
+      </c>
+      <c r="M125" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="N125" t="s">
         <v>143</v>
       </c>
-      <c r="J125">
-        <v>160</v>
-      </c>
-      <c r="K125">
-        <v>33</v>
-      </c>
-      <c r="L125" t="s">
-        <v>17</v>
-      </c>
-      <c r="M125" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="N125" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14">
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A126">
-        <v>251005</v>
+        <v>251125</v>
       </c>
       <c r="B126" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="C126">
         <v>5</v>
@@ -7330,13 +6849,13 @@
         <v>125</v>
       </c>
       <c r="H126" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="I126" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="J126" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="K126">
         <v>33</v>
@@ -7345,18 +6864,18 @@
         <v>17</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="N126" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A127">
-        <v>252006</v>
+        <v>252126</v>
       </c>
       <c r="B127" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="C127">
         <v>5</v>
@@ -7374,13 +6893,13 @@
         <v>126</v>
       </c>
       <c r="H127" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="I127" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="J127" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="K127">
         <v>33</v>
@@ -7389,18 +6908,18 @@
         <v>17</v>
       </c>
       <c r="M127" s="4" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="N127" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A128">
-        <v>253007</v>
+        <v>253127</v>
       </c>
       <c r="B128" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="C128">
         <v>5</v>
@@ -7418,13 +6937,13 @@
         <v>127</v>
       </c>
       <c r="H128" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="I128" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="J128" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="K128">
         <v>33</v>
@@ -7433,18 +6952,18 @@
         <v>17</v>
       </c>
       <c r="M128" s="4" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="N128" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A129">
-        <v>254008</v>
+        <v>254128</v>
       </c>
       <c r="B129" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="C129">
         <v>5</v>
@@ -7462,13 +6981,13 @@
         <v>128</v>
       </c>
       <c r="H129" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="I129" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="J129" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="K129">
         <v>33</v>
@@ -7477,18 +6996,18 @@
         <v>17</v>
       </c>
       <c r="M129" s="4" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="N129" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A130">
-        <v>251009</v>
+        <v>251129</v>
       </c>
       <c r="B130" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="C130">
         <v>5</v>
@@ -7506,13 +7025,13 @@
         <v>129</v>
       </c>
       <c r="H130" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="I130" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="J130" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="K130">
         <v>33</v>
@@ -7521,18 +7040,18 @@
         <v>17</v>
       </c>
       <c r="M130" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="N130" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A131">
-        <v>252010</v>
+        <v>252130</v>
       </c>
       <c r="B131" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="C131">
         <v>5</v>
@@ -7550,13 +7069,13 @@
         <v>130</v>
       </c>
       <c r="H131" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="I131" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="J131" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="K131">
         <v>33</v>
@@ -7565,18 +7084,18 @@
         <v>17</v>
       </c>
       <c r="M131" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="N131" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A132">
-        <v>253011</v>
+        <v>253131</v>
       </c>
       <c r="B132" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="C132">
         <v>5</v>
@@ -7594,13 +7113,13 @@
         <v>131</v>
       </c>
       <c r="H132" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="I132" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="J132" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="K132">
         <v>33</v>
@@ -7609,18 +7128,18 @@
         <v>17</v>
       </c>
       <c r="M132" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="N132" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A133">
-        <v>254012</v>
+        <v>254132</v>
       </c>
       <c r="B133" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="C133">
         <v>5</v>
@@ -7638,13 +7157,13 @@
         <v>132</v>
       </c>
       <c r="H133" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="I133" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="J133" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="K133">
         <v>33</v>
@@ -7653,18 +7172,18 @@
         <v>17</v>
       </c>
       <c r="M133" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="N133" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A134">
-        <v>251013</v>
+        <v>251133</v>
       </c>
       <c r="B134" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="C134">
         <v>5</v>
@@ -7682,13 +7201,13 @@
         <v>133</v>
       </c>
       <c r="H134" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="I134" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="J134" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K134">
         <v>33</v>
@@ -7697,18 +7216,18 @@
         <v>17</v>
       </c>
       <c r="M134" s="4" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="N134" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A135">
-        <v>252014</v>
+        <v>252134</v>
       </c>
       <c r="B135" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="C135">
         <v>5</v>
@@ -7726,13 +7245,13 @@
         <v>134</v>
       </c>
       <c r="H135" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="I135" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="J135" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K135">
         <v>33</v>
@@ -7741,18 +7260,18 @@
         <v>17</v>
       </c>
       <c r="M135" s="4" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="N135" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A136">
-        <v>253015</v>
+        <v>253135</v>
       </c>
       <c r="B136" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="C136">
         <v>5</v>
@@ -7770,13 +7289,13 @@
         <v>135</v>
       </c>
       <c r="H136" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="I136" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="J136" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K136">
         <v>33</v>
@@ -7785,18 +7304,18 @@
         <v>17</v>
       </c>
       <c r="M136" s="4" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="N136" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A137">
-        <v>254016</v>
+        <v>254136</v>
       </c>
       <c r="B137" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="C137">
         <v>5</v>
@@ -7814,13 +7333,13 @@
         <v>136</v>
       </c>
       <c r="H137" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="I137" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="J137" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K137">
         <v>33</v>
@@ -7829,18 +7348,18 @@
         <v>17</v>
       </c>
       <c r="M137" s="4" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="N137" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A138">
-        <v>251017</v>
+        <v>251137</v>
       </c>
       <c r="B138" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="C138">
         <v>5</v>
@@ -7858,13 +7377,13 @@
         <v>137</v>
       </c>
       <c r="H138" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="I138" t="s">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="J138" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="K138">
         <v>33</v>
@@ -7873,18 +7392,18 @@
         <v>17</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="N138" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A139">
-        <v>252018</v>
+        <v>252138</v>
       </c>
       <c r="B139" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="C139">
         <v>5</v>
@@ -7902,13 +7421,13 @@
         <v>138</v>
       </c>
       <c r="H139" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="I139" t="s">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="J139" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="K139">
         <v>33</v>
@@ -7917,18 +7436,18 @@
         <v>17</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="N139" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A140">
-        <v>253019</v>
+        <v>253139</v>
       </c>
       <c r="B140" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="C140">
         <v>5</v>
@@ -7946,13 +7465,13 @@
         <v>139</v>
       </c>
       <c r="H140" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="I140" t="s">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="J140" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="K140">
         <v>33</v>
@@ -7961,18 +7480,18 @@
         <v>17</v>
       </c>
       <c r="M140" s="4" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="N140" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A141">
-        <v>254020</v>
+        <v>254140</v>
       </c>
       <c r="B141" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="C141">
         <v>5</v>
@@ -7990,13 +7509,13 @@
         <v>140</v>
       </c>
       <c r="H141" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="I141" t="s">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="J141" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="K141">
         <v>33</v>
@@ -8005,18 +7524,18 @@
         <v>17</v>
       </c>
       <c r="M141" s="4" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="N141" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A142">
-        <v>251021</v>
+        <v>251141</v>
       </c>
       <c r="B142" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="C142">
         <v>5</v>
@@ -8034,14 +7553,14 @@
         <v>141</v>
       </c>
       <c r="H142" t="s">
+        <v>87</v>
+      </c>
+      <c r="I142" t="s">
+        <v>99</v>
+      </c>
+      <c r="J142" t="s">
         <v>142</v>
       </c>
-      <c r="I142" t="s">
-        <v>162</v>
-      </c>
-      <c r="J142" t="s">
-        <v>163</v>
-      </c>
       <c r="K142">
         <v>33</v>
       </c>
@@ -8049,18 +7568,18 @@
         <v>17</v>
       </c>
       <c r="M142" s="4" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="N142" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A143">
-        <v>252022</v>
+        <v>252142</v>
       </c>
       <c r="B143" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="C143">
         <v>5</v>
@@ -8078,14 +7597,14 @@
         <v>142</v>
       </c>
       <c r="H143" t="s">
+        <v>87</v>
+      </c>
+      <c r="I143" t="s">
+        <v>99</v>
+      </c>
+      <c r="J143" t="s">
         <v>142</v>
       </c>
-      <c r="I143" t="s">
-        <v>162</v>
-      </c>
-      <c r="J143" t="s">
-        <v>163</v>
-      </c>
       <c r="K143">
         <v>33</v>
       </c>
@@ -8093,18 +7612,18 @@
         <v>17</v>
       </c>
       <c r="M143" s="4" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="N143" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A144">
-        <v>253023</v>
+        <v>253143</v>
       </c>
       <c r="B144" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="C144">
         <v>5</v>
@@ -8122,14 +7641,14 @@
         <v>143</v>
       </c>
       <c r="H144" t="s">
+        <v>87</v>
+      </c>
+      <c r="I144" t="s">
+        <v>99</v>
+      </c>
+      <c r="J144" t="s">
         <v>142</v>
       </c>
-      <c r="I144" t="s">
-        <v>162</v>
-      </c>
-      <c r="J144" t="s">
-        <v>163</v>
-      </c>
       <c r="K144">
         <v>33</v>
       </c>
@@ -8137,18 +7656,18 @@
         <v>17</v>
       </c>
       <c r="M144" s="4" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="N144" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A145">
-        <v>254024</v>
+        <v>254144</v>
       </c>
       <c r="B145" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="C145">
         <v>5</v>
@@ -8166,14 +7685,14 @@
         <v>144</v>
       </c>
       <c r="H145" t="s">
+        <v>87</v>
+      </c>
+      <c r="I145" t="s">
+        <v>99</v>
+      </c>
+      <c r="J145" t="s">
         <v>142</v>
       </c>
-      <c r="I145" t="s">
-        <v>162</v>
-      </c>
-      <c r="J145" t="s">
-        <v>163</v>
-      </c>
       <c r="K145">
         <v>33</v>
       </c>
@@ -8181,53 +7700,94 @@
         <v>17</v>
       </c>
       <c r="M145" s="4" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="N145" t="s">
-        <v>44</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A146">
+        <v>234065</v>
+      </c>
+      <c r="B146" t="s">
+        <v>54</v>
+      </c>
+      <c r="C146">
+        <v>3</v>
+      </c>
+      <c r="D146">
+        <v>4</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>2</v>
+      </c>
+      <c r="G146">
+        <v>64</v>
+      </c>
+      <c r="H146" t="s">
+        <v>48</v>
+      </c>
+      <c r="I146" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J146" t="s">
+        <v>148</v>
+      </c>
+      <c r="K146">
+        <v>33</v>
+      </c>
+      <c r="L146" t="s">
+        <v>17</v>
+      </c>
+      <c r="M146" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="N146" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A$1:A$1048576">
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A145 A147:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A146">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/other/配置表/z-装备配置表.xlsx
+++ b/other/配置表/z-装备配置表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1121\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1127\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4049B4-EE78-4F5E-9880-F9DB81BC82F6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F447C325-3AD5-4625-BA5D-A1D81D3AB261}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30000" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,9 +411,6 @@
     <t>100,101</t>
   </si>
   <si>
-    <t>{400005,100}{400006,100}{400007,100}{400008,100}</t>
-  </si>
-  <si>
     <t>生命之剑</t>
   </si>
   <si>
@@ -436,9 +433,6 @@
   </si>
   <si>
     <t>100,114</t>
-  </si>
-  <si>
-    <t>{400001,100}{400002,100}{400007,100}{400008,100}</t>
   </si>
   <si>
     <t>重伤之剑</t>
@@ -848,6 +842,12 @@
   <si>
     <t>{400005,100}</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{400005,100}{400006,100}{400007,100}</t>
+  </si>
+  <si>
+    <t>{400001,100}{400002,100}{400007,100}</t>
   </si>
 </sst>
 </file>
@@ -1306,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="D149" sqref="D149"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1408,10 +1408,10 @@
         <v>17</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -1452,10 +1452,10 @@
         <v>17</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -1496,10 +1496,10 @@
         <v>17</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -1540,10 +1540,10 @@
         <v>17</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -1575,7 +1575,7 @@
         <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K6">
         <v>33</v>
@@ -1584,10 +1584,10 @@
         <v>17</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N6" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -1619,7 +1619,7 @@
         <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K7">
         <v>33</v>
@@ -1628,10 +1628,10 @@
         <v>17</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N7" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -1663,7 +1663,7 @@
         <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K8">
         <v>33</v>
@@ -1672,10 +1672,10 @@
         <v>17</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N8" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -1707,7 +1707,7 @@
         <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K9">
         <v>33</v>
@@ -1716,10 +1716,10 @@
         <v>17</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N9" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
@@ -1727,7 +1727,7 @@
         <v>241009</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -1748,22 +1748,22 @@
         <v>15</v>
       </c>
       <c r="I10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K10">
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="N10" t="s">
         <v>22</v>
-      </c>
-      <c r="J10" t="s">
-        <v>144</v>
-      </c>
-      <c r="K10">
-        <v>33</v>
-      </c>
-      <c r="L10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="N10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
@@ -1771,7 +1771,7 @@
         <v>242010</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -1792,22 +1792,22 @@
         <v>15</v>
       </c>
       <c r="I11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>142</v>
+      </c>
+      <c r="K11">
+        <v>33</v>
+      </c>
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="N11" t="s">
         <v>22</v>
-      </c>
-      <c r="J11" t="s">
-        <v>144</v>
-      </c>
-      <c r="K11">
-        <v>33</v>
-      </c>
-      <c r="L11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="N11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -1815,7 +1815,7 @@
         <v>243011</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -1836,22 +1836,22 @@
         <v>15</v>
       </c>
       <c r="I12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>142</v>
+      </c>
+      <c r="K12">
+        <v>33</v>
+      </c>
+      <c r="L12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="N12" t="s">
         <v>22</v>
-      </c>
-      <c r="J12" t="s">
-        <v>144</v>
-      </c>
-      <c r="K12">
-        <v>33</v>
-      </c>
-      <c r="L12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="N12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
@@ -1859,7 +1859,7 @@
         <v>244012</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -1880,22 +1880,22 @@
         <v>15</v>
       </c>
       <c r="I13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13">
+        <v>33</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="N13" t="s">
         <v>22</v>
-      </c>
-      <c r="J13" t="s">
-        <v>144</v>
-      </c>
-      <c r="K13">
-        <v>33</v>
-      </c>
-      <c r="L13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="N13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
@@ -1903,7 +1903,7 @@
         <v>241013</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -1924,22 +1924,22 @@
         <v>15</v>
       </c>
       <c r="I14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14">
+        <v>33</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N14" t="s">
         <v>25</v>
-      </c>
-      <c r="J14" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14">
-        <v>33</v>
-      </c>
-      <c r="L14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="N14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
@@ -1947,7 +1947,7 @@
         <v>242014</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1968,22 +1968,22 @@
         <v>15</v>
       </c>
       <c r="I15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15">
+        <v>33</v>
+      </c>
+      <c r="L15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N15" t="s">
         <v>25</v>
-      </c>
-      <c r="J15" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15">
-        <v>33</v>
-      </c>
-      <c r="L15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="N15" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
@@ -1991,7 +1991,7 @@
         <v>243015</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -2012,22 +2012,22 @@
         <v>15</v>
       </c>
       <c r="I16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16">
+        <v>33</v>
+      </c>
+      <c r="L16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N16" t="s">
         <v>25</v>
-      </c>
-      <c r="J16" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16">
-        <v>33</v>
-      </c>
-      <c r="L16" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="N16" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
@@ -2035,7 +2035,7 @@
         <v>244016</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -2056,22 +2056,22 @@
         <v>15</v>
       </c>
       <c r="I17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17">
+        <v>33</v>
+      </c>
+      <c r="L17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N17" t="s">
         <v>25</v>
-      </c>
-      <c r="J17" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17">
-        <v>33</v>
-      </c>
-      <c r="L17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="N17" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
@@ -2079,7 +2079,7 @@
         <v>241017</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -2100,10 +2100,10 @@
         <v>15</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K18">
         <v>33</v>
@@ -2112,10 +2112,10 @@
         <v>17</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N18" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
@@ -2123,7 +2123,7 @@
         <v>242018</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -2144,10 +2144,10 @@
         <v>15</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K19">
         <v>33</v>
@@ -2156,10 +2156,10 @@
         <v>17</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N19" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -2167,7 +2167,7 @@
         <v>243019</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -2188,10 +2188,10 @@
         <v>15</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K20">
         <v>33</v>
@@ -2200,10 +2200,10 @@
         <v>17</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N20" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
@@ -2211,7 +2211,7 @@
         <v>244020</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -2232,10 +2232,10 @@
         <v>15</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K21">
         <v>33</v>
@@ -2244,10 +2244,10 @@
         <v>17</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N21" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
@@ -2255,7 +2255,7 @@
         <v>241021</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -2276,10 +2276,10 @@
         <v>15</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K22">
         <v>33</v>
@@ -2288,10 +2288,10 @@
         <v>17</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
@@ -2299,7 +2299,7 @@
         <v>242022</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -2320,10 +2320,10 @@
         <v>15</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K23">
         <v>33</v>
@@ -2332,10 +2332,10 @@
         <v>17</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
@@ -2343,7 +2343,7 @@
         <v>243023</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -2364,10 +2364,10 @@
         <v>15</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K24">
         <v>33</v>
@@ -2376,10 +2376,10 @@
         <v>17</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
@@ -2387,7 +2387,7 @@
         <v>244024</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -2408,10 +2408,10 @@
         <v>15</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K25">
         <v>33</v>
@@ -2420,10 +2420,10 @@
         <v>17</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
@@ -2431,7 +2431,7 @@
         <v>221025</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -2449,10 +2449,10 @@
         <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J26">
         <v>64</v>
@@ -2464,10 +2464,10 @@
         <v>17</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
@@ -2475,7 +2475,7 @@
         <v>222026</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -2493,10 +2493,10 @@
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J27">
         <v>64</v>
@@ -2508,10 +2508,10 @@
         <v>17</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
@@ -2519,7 +2519,7 @@
         <v>223027</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -2537,10 +2537,10 @@
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J28">
         <v>64</v>
@@ -2552,10 +2552,10 @@
         <v>17</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
@@ -2563,7 +2563,7 @@
         <v>224028</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -2581,10 +2581,10 @@
         <v>28</v>
       </c>
       <c r="H29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J29">
         <v>64</v>
@@ -2596,10 +2596,10 @@
         <v>17</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
@@ -2607,7 +2607,7 @@
         <v>221029</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -2625,13 +2625,13 @@
         <v>29</v>
       </c>
       <c r="H30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K30">
         <v>33</v>
@@ -2640,10 +2640,10 @@
         <v>17</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N30" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
@@ -2651,7 +2651,7 @@
         <v>222030</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -2669,13 +2669,13 @@
         <v>30</v>
       </c>
       <c r="H31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J31" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K31">
         <v>33</v>
@@ -2684,10 +2684,10 @@
         <v>17</v>
       </c>
       <c r="M31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N31" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
@@ -2695,7 +2695,7 @@
         <v>223031</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -2713,13 +2713,13 @@
         <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K32">
         <v>33</v>
@@ -2728,10 +2728,10 @@
         <v>17</v>
       </c>
       <c r="M32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N32" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
@@ -2739,7 +2739,7 @@
         <v>224032</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -2757,13 +2757,13 @@
         <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K33">
         <v>33</v>
@@ -2772,10 +2772,10 @@
         <v>17</v>
       </c>
       <c r="M33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N33" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
@@ -2783,7 +2783,7 @@
         <v>221033</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -2801,13 +2801,13 @@
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K34">
         <v>33</v>
@@ -2816,10 +2816,10 @@
         <v>17</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
@@ -2827,7 +2827,7 @@
         <v>222034</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -2845,13 +2845,13 @@
         <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K35">
         <v>33</v>
@@ -2860,10 +2860,10 @@
         <v>17</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
@@ -2871,7 +2871,7 @@
         <v>223035</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -2889,13 +2889,13 @@
         <v>35</v>
       </c>
       <c r="H36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J36" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K36">
         <v>33</v>
@@ -2904,10 +2904,10 @@
         <v>17</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
@@ -2915,7 +2915,7 @@
         <v>224036</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -2933,13 +2933,13 @@
         <v>36</v>
       </c>
       <c r="H37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K37">
         <v>33</v>
@@ -2948,10 +2948,10 @@
         <v>17</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
@@ -2959,7 +2959,7 @@
         <v>221037</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -2977,13 +2977,13 @@
         <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K38">
         <v>33</v>
@@ -2992,10 +2992,10 @@
         <v>17</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
@@ -3003,7 +3003,7 @@
         <v>222038</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -3021,13 +3021,13 @@
         <v>38</v>
       </c>
       <c r="H39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J39" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K39">
         <v>33</v>
@@ -3036,10 +3036,10 @@
         <v>17</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
@@ -3047,7 +3047,7 @@
         <v>223039</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -3065,13 +3065,13 @@
         <v>39</v>
       </c>
       <c r="H40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J40" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K40">
         <v>33</v>
@@ -3080,10 +3080,10 @@
         <v>17</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
@@ -3091,7 +3091,7 @@
         <v>224040</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -3109,13 +3109,13 @@
         <v>40</v>
       </c>
       <c r="H41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K41">
         <v>33</v>
@@ -3124,10 +3124,10 @@
         <v>17</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
@@ -3135,7 +3135,7 @@
         <v>221041</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -3153,13 +3153,13 @@
         <v>41</v>
       </c>
       <c r="H42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K42">
         <v>33</v>
@@ -3168,10 +3168,10 @@
         <v>17</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N42" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
@@ -3179,7 +3179,7 @@
         <v>222042</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -3197,13 +3197,13 @@
         <v>42</v>
       </c>
       <c r="H43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K43">
         <v>33</v>
@@ -3212,10 +3212,10 @@
         <v>17</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N43" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
@@ -3223,7 +3223,7 @@
         <v>223043</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -3241,13 +3241,13 @@
         <v>43</v>
       </c>
       <c r="H44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K44">
         <v>33</v>
@@ -3256,10 +3256,10 @@
         <v>17</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N44" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
@@ -3267,7 +3267,7 @@
         <v>224044</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -3285,13 +3285,13 @@
         <v>44</v>
       </c>
       <c r="H45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K45">
         <v>33</v>
@@ -3300,10 +3300,10 @@
         <v>17</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N45" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
@@ -3311,7 +3311,7 @@
         <v>221045</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -3329,13 +3329,13 @@
         <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K46">
         <v>33</v>
@@ -3344,10 +3344,10 @@
         <v>17</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
@@ -3355,7 +3355,7 @@
         <v>222046</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -3373,13 +3373,13 @@
         <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J47" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K47">
         <v>33</v>
@@ -3388,10 +3388,10 @@
         <v>17</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
@@ -3399,7 +3399,7 @@
         <v>223047</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -3417,13 +3417,13 @@
         <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K48">
         <v>33</v>
@@ -3432,10 +3432,10 @@
         <v>17</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
@@ -3443,7 +3443,7 @@
         <v>224048</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -3461,13 +3461,13 @@
         <v>48</v>
       </c>
       <c r="H49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J49" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K49">
         <v>33</v>
@@ -3476,10 +3476,10 @@
         <v>17</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.15">
@@ -3487,7 +3487,7 @@
         <v>231049</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -3505,10 +3505,10 @@
         <v>49</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J50">
         <v>3200</v>
@@ -3520,10 +3520,10 @@
         <v>17</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.15">
@@ -3531,7 +3531,7 @@
         <v>232050</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -3549,10 +3549,10 @@
         <v>50</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J51">
         <v>3200</v>
@@ -3564,10 +3564,10 @@
         <v>17</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N51" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.15">
@@ -3575,7 +3575,7 @@
         <v>233051</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -3593,10 +3593,10 @@
         <v>51</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J52">
         <v>3200</v>
@@ -3608,10 +3608,10 @@
         <v>17</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.15">
@@ -3619,7 +3619,7 @@
         <v>234052</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -3637,10 +3637,10 @@
         <v>52</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J53">
         <v>3200</v>
@@ -3652,10 +3652,10 @@
         <v>17</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N53" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.15">
@@ -3663,7 +3663,7 @@
         <v>231053</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -3681,13 +3681,13 @@
         <v>53</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J54" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K54">
         <v>33</v>
@@ -3696,10 +3696,10 @@
         <v>17</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N54" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.15">
@@ -3707,7 +3707,7 @@
         <v>232054</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -3725,13 +3725,13 @@
         <v>54</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J55" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K55">
         <v>33</v>
@@ -3740,10 +3740,10 @@
         <v>17</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N55" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.15">
@@ -3751,7 +3751,7 @@
         <v>233055</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -3769,13 +3769,13 @@
         <v>55</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K56">
         <v>33</v>
@@ -3784,10 +3784,10 @@
         <v>17</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N56" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.15">
@@ -3795,7 +3795,7 @@
         <v>234056</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -3813,13 +3813,13 @@
         <v>56</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J57" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K57">
         <v>33</v>
@@ -3828,10 +3828,10 @@
         <v>17</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N57" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.15">
@@ -3839,7 +3839,7 @@
         <v>231057</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -3857,13 +3857,13 @@
         <v>57</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J58" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K58">
         <v>33</v>
@@ -3872,10 +3872,10 @@
         <v>17</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.15">
@@ -3883,7 +3883,7 @@
         <v>232058</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -3901,13 +3901,13 @@
         <v>58</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J59" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K59">
         <v>33</v>
@@ -3916,10 +3916,10 @@
         <v>17</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.15">
@@ -3927,7 +3927,7 @@
         <v>233059</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -3945,13 +3945,13 @@
         <v>59</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J60" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K60">
         <v>33</v>
@@ -3960,10 +3960,10 @@
         <v>17</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.15">
@@ -3971,7 +3971,7 @@
         <v>234060</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -3989,13 +3989,13 @@
         <v>60</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J61" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K61">
         <v>33</v>
@@ -4004,10 +4004,10 @@
         <v>17</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.15">
@@ -4015,7 +4015,7 @@
         <v>231061</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -4033,13 +4033,13 @@
         <v>61</v>
       </c>
       <c r="H62" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J62" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K62">
         <v>33</v>
@@ -4048,10 +4048,10 @@
         <v>17</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.15">
@@ -4059,7 +4059,7 @@
         <v>232062</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -4077,13 +4077,13 @@
         <v>62</v>
       </c>
       <c r="H63" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K63">
         <v>33</v>
@@ -4092,10 +4092,10 @@
         <v>17</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.15">
@@ -4103,7 +4103,7 @@
         <v>233063</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -4121,13 +4121,13 @@
         <v>63</v>
       </c>
       <c r="H64" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J64" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K64">
         <v>33</v>
@@ -4136,10 +4136,10 @@
         <v>17</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.15">
@@ -4147,7 +4147,7 @@
         <v>234064</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -4165,13 +4165,13 @@
         <v>64</v>
       </c>
       <c r="H65" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J65" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K65">
         <v>33</v>
@@ -4180,10 +4180,10 @@
         <v>17</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.15">
@@ -4191,7 +4191,7 @@
         <v>231065</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -4209,13 +4209,13 @@
         <v>65</v>
       </c>
       <c r="H66" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J66" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K66">
         <v>33</v>
@@ -4224,10 +4224,10 @@
         <v>17</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N66" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.15">
@@ -4235,7 +4235,7 @@
         <v>232066</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -4253,13 +4253,13 @@
         <v>66</v>
       </c>
       <c r="H67" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J67" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K67">
         <v>33</v>
@@ -4268,10 +4268,10 @@
         <v>17</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N67" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.15">
@@ -4279,7 +4279,7 @@
         <v>233067</v>
       </c>
       <c r="B68" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -4297,13 +4297,13 @@
         <v>67</v>
       </c>
       <c r="H68" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J68" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K68">
         <v>33</v>
@@ -4312,10 +4312,10 @@
         <v>17</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N68" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.15">
@@ -4323,7 +4323,7 @@
         <v>234068</v>
       </c>
       <c r="B69" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -4341,13 +4341,13 @@
         <v>68</v>
       </c>
       <c r="H69" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J69" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K69">
         <v>33</v>
@@ -4356,10 +4356,10 @@
         <v>17</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N69" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.15">
@@ -4367,7 +4367,7 @@
         <v>231069</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -4385,13 +4385,13 @@
         <v>69</v>
       </c>
       <c r="H70" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J70" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K70">
         <v>33</v>
@@ -4400,10 +4400,10 @@
         <v>17</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N70" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.15">
@@ -4411,7 +4411,7 @@
         <v>232070</v>
       </c>
       <c r="B71" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -4429,13 +4429,13 @@
         <v>70</v>
       </c>
       <c r="H71" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J71" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K71">
         <v>33</v>
@@ -4444,10 +4444,10 @@
         <v>17</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N71" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.15">
@@ -4455,7 +4455,7 @@
         <v>233071</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -4473,13 +4473,13 @@
         <v>71</v>
       </c>
       <c r="H72" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J72" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K72">
         <v>33</v>
@@ -4488,10 +4488,10 @@
         <v>17</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N72" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.15">
@@ -4499,7 +4499,7 @@
         <v>234072</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -4517,13 +4517,13 @@
         <v>72</v>
       </c>
       <c r="H73" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J73" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K73">
         <v>33</v>
@@ -4532,10 +4532,10 @@
         <v>17</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N73" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.15">
@@ -4543,7 +4543,7 @@
         <v>261073</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C74">
         <v>6</v>
@@ -4561,10 +4561,10 @@
         <v>73</v>
       </c>
       <c r="H74" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I74" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J74">
         <v>160</v>
@@ -4576,10 +4576,10 @@
         <v>17</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.15">
@@ -4587,7 +4587,7 @@
         <v>262074</v>
       </c>
       <c r="B75" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C75">
         <v>6</v>
@@ -4605,10 +4605,10 @@
         <v>74</v>
       </c>
       <c r="H75" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I75" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J75">
         <v>160</v>
@@ -4620,10 +4620,10 @@
         <v>17</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.15">
@@ -4631,7 +4631,7 @@
         <v>263075</v>
       </c>
       <c r="B76" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C76">
         <v>6</v>
@@ -4649,10 +4649,10 @@
         <v>75</v>
       </c>
       <c r="H76" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I76" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J76">
         <v>160</v>
@@ -4664,10 +4664,10 @@
         <v>17</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N76" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.15">
@@ -4675,7 +4675,7 @@
         <v>264076</v>
       </c>
       <c r="B77" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C77">
         <v>6</v>
@@ -4693,10 +4693,10 @@
         <v>76</v>
       </c>
       <c r="H77" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I77" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J77">
         <v>160</v>
@@ -4708,10 +4708,10 @@
         <v>17</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N77" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.15">
@@ -4719,7 +4719,7 @@
         <v>261077</v>
       </c>
       <c r="B78" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -4737,13 +4737,13 @@
         <v>77</v>
       </c>
       <c r="H78" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J78" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K78">
         <v>33</v>
@@ -4752,10 +4752,10 @@
         <v>17</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N78" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.15">
@@ -4763,7 +4763,7 @@
         <v>262078</v>
       </c>
       <c r="B79" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C79">
         <v>6</v>
@@ -4781,13 +4781,13 @@
         <v>78</v>
       </c>
       <c r="H79" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J79" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K79">
         <v>33</v>
@@ -4796,10 +4796,10 @@
         <v>17</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N79" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.15">
@@ -4807,7 +4807,7 @@
         <v>263079</v>
       </c>
       <c r="B80" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C80">
         <v>6</v>
@@ -4825,13 +4825,13 @@
         <v>79</v>
       </c>
       <c r="H80" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J80" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K80">
         <v>33</v>
@@ -4840,10 +4840,10 @@
         <v>17</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N80" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.15">
@@ -4851,7 +4851,7 @@
         <v>264080</v>
       </c>
       <c r="B81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C81">
         <v>6</v>
@@ -4869,13 +4869,13 @@
         <v>80</v>
       </c>
       <c r="H81" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J81" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K81">
         <v>33</v>
@@ -4884,10 +4884,10 @@
         <v>17</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N81" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.15">
@@ -4895,7 +4895,7 @@
         <v>261081</v>
       </c>
       <c r="B82" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C82">
         <v>6</v>
@@ -4913,13 +4913,13 @@
         <v>81</v>
       </c>
       <c r="H82" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J82" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K82">
         <v>33</v>
@@ -4928,10 +4928,10 @@
         <v>17</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.15">
@@ -4939,7 +4939,7 @@
         <v>262082</v>
       </c>
       <c r="B83" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C83">
         <v>6</v>
@@ -4957,13 +4957,13 @@
         <v>82</v>
       </c>
       <c r="H83" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J83" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K83">
         <v>33</v>
@@ -4972,10 +4972,10 @@
         <v>17</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.15">
@@ -4983,7 +4983,7 @@
         <v>263083</v>
       </c>
       <c r="B84" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C84">
         <v>6</v>
@@ -5001,13 +5001,13 @@
         <v>83</v>
       </c>
       <c r="H84" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J84" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K84">
         <v>33</v>
@@ -5016,10 +5016,10 @@
         <v>17</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.15">
@@ -5027,7 +5027,7 @@
         <v>264084</v>
       </c>
       <c r="B85" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C85">
         <v>6</v>
@@ -5045,13 +5045,13 @@
         <v>84</v>
       </c>
       <c r="H85" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J85" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K85">
         <v>33</v>
@@ -5060,10 +5060,10 @@
         <v>17</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.15">
@@ -5071,7 +5071,7 @@
         <v>261085</v>
       </c>
       <c r="B86" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C86">
         <v>6</v>
@@ -5089,13 +5089,13 @@
         <v>85</v>
       </c>
       <c r="H86" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J86" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K86">
         <v>33</v>
@@ -5104,10 +5104,10 @@
         <v>17</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.15">
@@ -5115,7 +5115,7 @@
         <v>262086</v>
       </c>
       <c r="B87" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C87">
         <v>6</v>
@@ -5133,13 +5133,13 @@
         <v>86</v>
       </c>
       <c r="H87" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J87" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K87">
         <v>33</v>
@@ -5148,10 +5148,10 @@
         <v>17</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.15">
@@ -5159,7 +5159,7 @@
         <v>263087</v>
       </c>
       <c r="B88" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C88">
         <v>6</v>
@@ -5177,13 +5177,13 @@
         <v>87</v>
       </c>
       <c r="H88" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J88" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K88">
         <v>33</v>
@@ -5192,10 +5192,10 @@
         <v>17</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N88" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.15">
@@ -5203,7 +5203,7 @@
         <v>264088</v>
       </c>
       <c r="B89" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C89">
         <v>6</v>
@@ -5221,13 +5221,13 @@
         <v>88</v>
       </c>
       <c r="H89" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J89" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K89">
         <v>33</v>
@@ -5236,10 +5236,10 @@
         <v>17</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.15">
@@ -5247,7 +5247,7 @@
         <v>261089</v>
       </c>
       <c r="B90" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C90">
         <v>6</v>
@@ -5265,13 +5265,13 @@
         <v>89</v>
       </c>
       <c r="H90" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J90" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K90">
         <v>33</v>
@@ -5280,10 +5280,10 @@
         <v>17</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N90" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.15">
@@ -5291,7 +5291,7 @@
         <v>262090</v>
       </c>
       <c r="B91" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C91">
         <v>6</v>
@@ -5309,13 +5309,13 @@
         <v>90</v>
       </c>
       <c r="H91" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J91" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K91">
         <v>33</v>
@@ -5324,10 +5324,10 @@
         <v>17</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N91" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.15">
@@ -5335,7 +5335,7 @@
         <v>263091</v>
       </c>
       <c r="B92" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C92">
         <v>6</v>
@@ -5353,13 +5353,13 @@
         <v>91</v>
       </c>
       <c r="H92" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J92" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K92">
         <v>33</v>
@@ -5368,10 +5368,10 @@
         <v>17</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N92" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.15">
@@ -5379,7 +5379,7 @@
         <v>264092</v>
       </c>
       <c r="B93" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C93">
         <v>6</v>
@@ -5397,13 +5397,13 @@
         <v>92</v>
       </c>
       <c r="H93" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J93" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K93">
         <v>33</v>
@@ -5412,10 +5412,10 @@
         <v>17</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N93" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.15">
@@ -5423,7 +5423,7 @@
         <v>261093</v>
       </c>
       <c r="B94" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C94">
         <v>6</v>
@@ -5441,13 +5441,13 @@
         <v>93</v>
       </c>
       <c r="H94" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J94" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K94">
         <v>33</v>
@@ -5456,10 +5456,10 @@
         <v>17</v>
       </c>
       <c r="M94" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N94" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.15">
@@ -5467,7 +5467,7 @@
         <v>262094</v>
       </c>
       <c r="B95" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C95">
         <v>6</v>
@@ -5485,13 +5485,13 @@
         <v>94</v>
       </c>
       <c r="H95" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J95" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K95">
         <v>33</v>
@@ -5500,10 +5500,10 @@
         <v>17</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N95" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.15">
@@ -5511,7 +5511,7 @@
         <v>263095</v>
       </c>
       <c r="B96" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C96">
         <v>6</v>
@@ -5529,13 +5529,13 @@
         <v>95</v>
       </c>
       <c r="H96" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J96" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K96">
         <v>33</v>
@@ -5544,10 +5544,10 @@
         <v>17</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N96" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.15">
@@ -5555,7 +5555,7 @@
         <v>264096</v>
       </c>
       <c r="B97" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C97">
         <v>6</v>
@@ -5573,13 +5573,13 @@
         <v>96</v>
       </c>
       <c r="H97" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J97" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K97">
         <v>33</v>
@@ -5588,10 +5588,10 @@
         <v>17</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N97" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.15">
@@ -5599,7 +5599,7 @@
         <v>211097</v>
       </c>
       <c r="B98" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -5617,10 +5617,10 @@
         <v>97</v>
       </c>
       <c r="H98" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I98" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J98">
         <v>40</v>
@@ -5632,10 +5632,10 @@
         <v>17</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.15">
@@ -5643,7 +5643,7 @@
         <v>212098</v>
       </c>
       <c r="B99" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -5661,10 +5661,10 @@
         <v>98</v>
       </c>
       <c r="H99" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I99" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J99">
         <v>40</v>
@@ -5676,10 +5676,10 @@
         <v>17</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N99" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.15">
@@ -5687,7 +5687,7 @@
         <v>213099</v>
       </c>
       <c r="B100" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -5705,10 +5705,10 @@
         <v>99</v>
       </c>
       <c r="H100" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I100" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J100">
         <v>40</v>
@@ -5720,10 +5720,10 @@
         <v>17</v>
       </c>
       <c r="M100" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N100" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.15">
@@ -5731,7 +5731,7 @@
         <v>214100</v>
       </c>
       <c r="B101" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -5749,10 +5749,10 @@
         <v>100</v>
       </c>
       <c r="H101" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I101" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J101">
         <v>40</v>
@@ -5764,10 +5764,10 @@
         <v>17</v>
       </c>
       <c r="M101" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N101" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.15">
@@ -5775,7 +5775,7 @@
         <v>211101</v>
       </c>
       <c r="B102" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -5793,13 +5793,13 @@
         <v>101</v>
       </c>
       <c r="H102" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I102" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J102" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K102">
         <v>33</v>
@@ -5808,10 +5808,10 @@
         <v>17</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N102" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.15">
@@ -5819,7 +5819,7 @@
         <v>212102</v>
       </c>
       <c r="B103" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -5837,13 +5837,13 @@
         <v>102</v>
       </c>
       <c r="H103" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J103" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K103">
         <v>33</v>
@@ -5852,10 +5852,10 @@
         <v>17</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N103" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.15">
@@ -5863,7 +5863,7 @@
         <v>213103</v>
       </c>
       <c r="B104" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -5881,13 +5881,13 @@
         <v>103</v>
       </c>
       <c r="H104" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I104" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J104" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K104">
         <v>33</v>
@@ -5896,10 +5896,10 @@
         <v>17</v>
       </c>
       <c r="M104" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N104" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.15">
@@ -5907,7 +5907,7 @@
         <v>214104</v>
       </c>
       <c r="B105" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -5925,13 +5925,13 @@
         <v>104</v>
       </c>
       <c r="H105" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I105" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J105" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K105">
         <v>33</v>
@@ -5940,10 +5940,10 @@
         <v>17</v>
       </c>
       <c r="M105" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N105" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.15">
@@ -5951,7 +5951,7 @@
         <v>211105</v>
       </c>
       <c r="B106" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -5969,13 +5969,13 @@
         <v>105</v>
       </c>
       <c r="H106" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I106" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J106" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K106">
         <v>33</v>
@@ -5984,10 +5984,10 @@
         <v>17</v>
       </c>
       <c r="M106" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N106" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.15">
@@ -5995,7 +5995,7 @@
         <v>212106</v>
       </c>
       <c r="B107" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -6013,13 +6013,13 @@
         <v>106</v>
       </c>
       <c r="H107" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I107" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J107" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K107">
         <v>33</v>
@@ -6028,10 +6028,10 @@
         <v>17</v>
       </c>
       <c r="M107" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N107" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.15">
@@ -6039,7 +6039,7 @@
         <v>213107</v>
       </c>
       <c r="B108" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -6057,13 +6057,13 @@
         <v>107</v>
       </c>
       <c r="H108" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I108" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J108" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K108">
         <v>33</v>
@@ -6072,10 +6072,10 @@
         <v>17</v>
       </c>
       <c r="M108" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.15">
@@ -6083,7 +6083,7 @@
         <v>214108</v>
       </c>
       <c r="B109" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -6101,13 +6101,13 @@
         <v>108</v>
       </c>
       <c r="H109" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I109" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J109" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K109">
         <v>33</v>
@@ -6116,10 +6116,10 @@
         <v>17</v>
       </c>
       <c r="M109" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.15">
@@ -6127,7 +6127,7 @@
         <v>211109</v>
       </c>
       <c r="B110" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -6145,13 +6145,13 @@
         <v>109</v>
       </c>
       <c r="H110" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I110" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J110" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K110">
         <v>33</v>
@@ -6160,10 +6160,10 @@
         <v>17</v>
       </c>
       <c r="M110" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N110" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.15">
@@ -6171,7 +6171,7 @@
         <v>212110</v>
       </c>
       <c r="B111" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -6189,13 +6189,13 @@
         <v>110</v>
       </c>
       <c r="H111" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I111" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J111" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K111">
         <v>33</v>
@@ -6204,10 +6204,10 @@
         <v>17</v>
       </c>
       <c r="M111" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N111" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.15">
@@ -6215,7 +6215,7 @@
         <v>213111</v>
       </c>
       <c r="B112" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -6233,13 +6233,13 @@
         <v>111</v>
       </c>
       <c r="H112" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I112" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J112" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K112">
         <v>33</v>
@@ -6248,10 +6248,10 @@
         <v>17</v>
       </c>
       <c r="M112" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N112" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.15">
@@ -6259,7 +6259,7 @@
         <v>214112</v>
       </c>
       <c r="B113" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -6277,13 +6277,13 @@
         <v>112</v>
       </c>
       <c r="H113" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I113" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J113" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K113">
         <v>33</v>
@@ -6292,10 +6292,10 @@
         <v>17</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N113" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.15">
@@ -6303,7 +6303,7 @@
         <v>211113</v>
       </c>
       <c r="B114" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -6321,13 +6321,13 @@
         <v>113</v>
       </c>
       <c r="H114" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I114" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J114" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K114">
         <v>33</v>
@@ -6336,10 +6336,10 @@
         <v>17</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N114" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.15">
@@ -6347,7 +6347,7 @@
         <v>212114</v>
       </c>
       <c r="B115" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -6365,13 +6365,13 @@
         <v>114</v>
       </c>
       <c r="H115" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I115" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J115" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K115">
         <v>33</v>
@@ -6380,10 +6380,10 @@
         <v>17</v>
       </c>
       <c r="M115" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N115" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.15">
@@ -6391,7 +6391,7 @@
         <v>213115</v>
       </c>
       <c r="B116" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -6409,13 +6409,13 @@
         <v>115</v>
       </c>
       <c r="H116" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I116" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J116" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K116">
         <v>33</v>
@@ -6424,10 +6424,10 @@
         <v>17</v>
       </c>
       <c r="M116" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N116" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.15">
@@ -6435,7 +6435,7 @@
         <v>214116</v>
       </c>
       <c r="B117" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -6453,13 +6453,13 @@
         <v>116</v>
       </c>
       <c r="H117" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I117" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J117" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K117">
         <v>33</v>
@@ -6468,10 +6468,10 @@
         <v>17</v>
       </c>
       <c r="M117" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N117" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.15">
@@ -6479,7 +6479,7 @@
         <v>211117</v>
       </c>
       <c r="B118" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -6497,13 +6497,13 @@
         <v>117</v>
       </c>
       <c r="H118" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I118" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J118" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K118">
         <v>33</v>
@@ -6512,10 +6512,10 @@
         <v>17</v>
       </c>
       <c r="M118" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N118" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.15">
@@ -6523,7 +6523,7 @@
         <v>212118</v>
       </c>
       <c r="B119" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -6541,13 +6541,13 @@
         <v>118</v>
       </c>
       <c r="H119" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I119" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J119" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K119">
         <v>33</v>
@@ -6556,10 +6556,10 @@
         <v>17</v>
       </c>
       <c r="M119" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N119" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.15">
@@ -6567,7 +6567,7 @@
         <v>213119</v>
       </c>
       <c r="B120" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -6585,13 +6585,13 @@
         <v>119</v>
       </c>
       <c r="H120" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I120" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J120" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K120">
         <v>33</v>
@@ -6600,10 +6600,10 @@
         <v>17</v>
       </c>
       <c r="M120" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N120" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.15">
@@ -6611,7 +6611,7 @@
         <v>214120</v>
       </c>
       <c r="B121" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -6629,13 +6629,13 @@
         <v>120</v>
       </c>
       <c r="H121" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I121" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J121" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K121">
         <v>33</v>
@@ -6644,10 +6644,10 @@
         <v>17</v>
       </c>
       <c r="M121" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N121" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.15">
@@ -6655,7 +6655,7 @@
         <v>251121</v>
       </c>
       <c r="B122" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C122">
         <v>5</v>
@@ -6673,10 +6673,10 @@
         <v>121</v>
       </c>
       <c r="H122" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I122" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J122">
         <v>56</v>
@@ -6688,10 +6688,10 @@
         <v>17</v>
       </c>
       <c r="M122" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N122" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.15">
@@ -6699,7 +6699,7 @@
         <v>252122</v>
       </c>
       <c r="B123" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C123">
         <v>5</v>
@@ -6717,10 +6717,10 @@
         <v>122</v>
       </c>
       <c r="H123" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I123" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J123">
         <v>56</v>
@@ -6732,10 +6732,10 @@
         <v>17</v>
       </c>
       <c r="M123" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N123" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.15">
@@ -6743,7 +6743,7 @@
         <v>253123</v>
       </c>
       <c r="B124" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C124">
         <v>5</v>
@@ -6761,10 +6761,10 @@
         <v>123</v>
       </c>
       <c r="H124" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I124" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J124">
         <v>56</v>
@@ -6776,10 +6776,10 @@
         <v>17</v>
       </c>
       <c r="M124" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N124" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.15">
@@ -6787,7 +6787,7 @@
         <v>254124</v>
       </c>
       <c r="B125" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C125">
         <v>5</v>
@@ -6805,10 +6805,10 @@
         <v>124</v>
       </c>
       <c r="H125" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I125" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J125">
         <v>56</v>
@@ -6820,10 +6820,10 @@
         <v>17</v>
       </c>
       <c r="M125" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N125" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.15">
@@ -6831,7 +6831,7 @@
         <v>251125</v>
       </c>
       <c r="B126" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C126">
         <v>5</v>
@@ -6849,13 +6849,13 @@
         <v>125</v>
       </c>
       <c r="H126" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I126" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J126" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K126">
         <v>33</v>
@@ -6864,10 +6864,10 @@
         <v>17</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N126" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.15">
@@ -6875,7 +6875,7 @@
         <v>252126</v>
       </c>
       <c r="B127" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C127">
         <v>5</v>
@@ -6893,13 +6893,13 @@
         <v>126</v>
       </c>
       <c r="H127" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I127" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J127" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K127">
         <v>33</v>
@@ -6908,10 +6908,10 @@
         <v>17</v>
       </c>
       <c r="M127" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N127" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.15">
@@ -6919,7 +6919,7 @@
         <v>253127</v>
       </c>
       <c r="B128" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C128">
         <v>5</v>
@@ -6937,13 +6937,13 @@
         <v>127</v>
       </c>
       <c r="H128" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I128" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J128" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K128">
         <v>33</v>
@@ -6952,10 +6952,10 @@
         <v>17</v>
       </c>
       <c r="M128" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N128" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.15">
@@ -6963,7 +6963,7 @@
         <v>254128</v>
       </c>
       <c r="B129" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C129">
         <v>5</v>
@@ -6981,13 +6981,13 @@
         <v>128</v>
       </c>
       <c r="H129" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I129" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J129" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K129">
         <v>33</v>
@@ -6996,10 +6996,10 @@
         <v>17</v>
       </c>
       <c r="M129" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N129" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.15">
@@ -7007,7 +7007,7 @@
         <v>251129</v>
       </c>
       <c r="B130" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C130">
         <v>5</v>
@@ -7025,13 +7025,13 @@
         <v>129</v>
       </c>
       <c r="H130" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I130" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J130" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K130">
         <v>33</v>
@@ -7040,10 +7040,10 @@
         <v>17</v>
       </c>
       <c r="M130" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N130" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.15">
@@ -7051,7 +7051,7 @@
         <v>252130</v>
       </c>
       <c r="B131" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C131">
         <v>5</v>
@@ -7069,13 +7069,13 @@
         <v>130</v>
       </c>
       <c r="H131" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I131" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J131" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K131">
         <v>33</v>
@@ -7084,10 +7084,10 @@
         <v>17</v>
       </c>
       <c r="M131" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N131" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.15">
@@ -7095,7 +7095,7 @@
         <v>253131</v>
       </c>
       <c r="B132" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C132">
         <v>5</v>
@@ -7113,13 +7113,13 @@
         <v>131</v>
       </c>
       <c r="H132" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I132" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J132" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K132">
         <v>33</v>
@@ -7128,10 +7128,10 @@
         <v>17</v>
       </c>
       <c r="M132" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N132" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.15">
@@ -7139,7 +7139,7 @@
         <v>254132</v>
       </c>
       <c r="B133" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C133">
         <v>5</v>
@@ -7157,13 +7157,13 @@
         <v>132</v>
       </c>
       <c r="H133" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I133" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K133">
         <v>33</v>
@@ -7172,10 +7172,10 @@
         <v>17</v>
       </c>
       <c r="M133" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N133" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.15">
@@ -7183,7 +7183,7 @@
         <v>251133</v>
       </c>
       <c r="B134" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C134">
         <v>5</v>
@@ -7201,13 +7201,13 @@
         <v>133</v>
       </c>
       <c r="H134" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I134" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J134" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K134">
         <v>33</v>
@@ -7216,10 +7216,10 @@
         <v>17</v>
       </c>
       <c r="M134" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N134" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.15">
@@ -7227,7 +7227,7 @@
         <v>252134</v>
       </c>
       <c r="B135" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C135">
         <v>5</v>
@@ -7245,13 +7245,13 @@
         <v>134</v>
       </c>
       <c r="H135" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I135" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J135" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K135">
         <v>33</v>
@@ -7260,10 +7260,10 @@
         <v>17</v>
       </c>
       <c r="M135" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N135" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.15">
@@ -7271,7 +7271,7 @@
         <v>253135</v>
       </c>
       <c r="B136" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C136">
         <v>5</v>
@@ -7289,13 +7289,13 @@
         <v>135</v>
       </c>
       <c r="H136" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I136" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J136" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K136">
         <v>33</v>
@@ -7304,10 +7304,10 @@
         <v>17</v>
       </c>
       <c r="M136" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N136" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.15">
@@ -7315,7 +7315,7 @@
         <v>254136</v>
       </c>
       <c r="B137" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C137">
         <v>5</v>
@@ -7333,13 +7333,13 @@
         <v>136</v>
       </c>
       <c r="H137" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I137" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J137" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K137">
         <v>33</v>
@@ -7348,10 +7348,10 @@
         <v>17</v>
       </c>
       <c r="M137" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N137" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.15">
@@ -7359,7 +7359,7 @@
         <v>251137</v>
       </c>
       <c r="B138" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C138">
         <v>5</v>
@@ -7377,13 +7377,13 @@
         <v>137</v>
       </c>
       <c r="H138" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I138" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J138" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K138">
         <v>33</v>
@@ -7392,10 +7392,10 @@
         <v>17</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N138" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.15">
@@ -7403,7 +7403,7 @@
         <v>252138</v>
       </c>
       <c r="B139" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C139">
         <v>5</v>
@@ -7421,13 +7421,13 @@
         <v>138</v>
       </c>
       <c r="H139" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I139" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J139" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K139">
         <v>33</v>
@@ -7436,10 +7436,10 @@
         <v>17</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N139" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.15">
@@ -7447,7 +7447,7 @@
         <v>253139</v>
       </c>
       <c r="B140" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C140">
         <v>5</v>
@@ -7465,13 +7465,13 @@
         <v>139</v>
       </c>
       <c r="H140" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I140" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J140" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K140">
         <v>33</v>
@@ -7480,10 +7480,10 @@
         <v>17</v>
       </c>
       <c r="M140" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N140" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.15">
@@ -7491,7 +7491,7 @@
         <v>254140</v>
       </c>
       <c r="B141" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C141">
         <v>5</v>
@@ -7509,13 +7509,13 @@
         <v>140</v>
       </c>
       <c r="H141" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I141" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J141" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K141">
         <v>33</v>
@@ -7524,10 +7524,10 @@
         <v>17</v>
       </c>
       <c r="M141" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N141" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.15">
@@ -7535,7 +7535,7 @@
         <v>251141</v>
       </c>
       <c r="B142" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C142">
         <v>5</v>
@@ -7553,13 +7553,13 @@
         <v>141</v>
       </c>
       <c r="H142" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I142" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J142" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K142">
         <v>33</v>
@@ -7568,10 +7568,10 @@
         <v>17</v>
       </c>
       <c r="M142" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N142" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.15">
@@ -7579,7 +7579,7 @@
         <v>252142</v>
       </c>
       <c r="B143" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C143">
         <v>5</v>
@@ -7597,13 +7597,13 @@
         <v>142</v>
       </c>
       <c r="H143" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I143" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J143" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K143">
         <v>33</v>
@@ -7612,10 +7612,10 @@
         <v>17</v>
       </c>
       <c r="M143" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N143" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.15">
@@ -7623,7 +7623,7 @@
         <v>253143</v>
       </c>
       <c r="B144" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C144">
         <v>5</v>
@@ -7641,13 +7641,13 @@
         <v>143</v>
       </c>
       <c r="H144" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I144" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J144" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K144">
         <v>33</v>
@@ -7656,10 +7656,10 @@
         <v>17</v>
       </c>
       <c r="M144" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N144" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.15">
@@ -7667,7 +7667,7 @@
         <v>254144</v>
       </c>
       <c r="B145" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C145">
         <v>5</v>
@@ -7685,13 +7685,13 @@
         <v>144</v>
       </c>
       <c r="H145" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I145" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J145" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K145">
         <v>33</v>
@@ -7700,10 +7700,10 @@
         <v>17</v>
       </c>
       <c r="M145" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N145" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.15">
@@ -7711,7 +7711,7 @@
         <v>234065</v>
       </c>
       <c r="B146" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C146">
         <v>3</v>
@@ -7729,13 +7729,13 @@
         <v>64</v>
       </c>
       <c r="H146" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I146" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J146" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K146">
         <v>33</v>
@@ -7744,10 +7744,10 @@
         <v>17</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N146" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/z-装备配置表.xlsx
+++ b/other/配置表/z-装备配置表.xlsx
@@ -1,42 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1127\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F447C325-3AD5-4625-BA5D-A1D81D3AB261}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30000" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19770" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Jayork</author>
     <author>CL</author>
+    <author>zsbin</author>
     <author>48203541@qq.com</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jayork:</t>
@@ -45,7 +39,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -56,14 +49,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -72,7 +64,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -81,14 +72,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -97,7 +87,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -111,14 +100,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jayork:</t>
@@ -127,7 +115,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -138,14 +125,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -154,7 +140,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -162,14 +147,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="F1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -178,7 +162,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -187,14 +170,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="G1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -203,7 +185,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -212,14 +193,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="H1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -228,7 +208,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -237,14 +216,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="I1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -253,7 +231,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -270,14 +247,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jayork:</t>
@@ -286,7 +262,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -294,14 +269,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jayork:</t>
@@ -310,7 +284,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -318,15 +291,36 @@
         </r>
       </text>
     </comment>
-    <comment ref="B146" authorId="2" shapeId="0" xr:uid="{06D2C812-DE0D-4D98-9C23-2F43A7424FCB}">
+    <comment ref="O1" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+特殊属性条数，随机出现，如果只有只配置了一条，那么满概率是1000，如果多条按照权重来随，多次随机可重复
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B146" authorId="3">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>48203541@qq.com:</t>
@@ -334,9 +328,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -349,7 +341,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312">
   <si>
     <t>id</t>
   </si>
@@ -393,6 +385,9 @@
     <t>affix</t>
   </si>
   <si>
+    <t>affix_count</t>
+  </si>
+  <si>
     <t>纯粹之剑</t>
   </si>
   <si>
@@ -405,45 +400,159 @@
     <t>{20,33}{40,67}{60,200}{80,300}{100,450}{120,675}{140,1013}{160,1519}{180,2279}{200,3418}{220,5127}{240,7691}{260,11536}{280,17304}{300,25956}{320,38934}{340,58401}{360,87602}{380,131403}{400,197104}{420,295656}{440,443484}{460,665226}{480,997839}{500,1496759}</t>
   </si>
   <si>
+    <t>({20,10}{40,24}{60,36}{80,48}{100,60}{120,72}{140,84}{160,96}{180,108}{200,120}{220,132}{240,144}{260,156}{280,168}{300,180}{320,192}{340,204}{360,216}{380,228}{400,240}{420,252}{440,264}{460,276}{480,288}{500,300})</t>
+  </si>
+  <si>
+    <t>{400001,100}{400002,100}{400003,100}{400004,100}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,300}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,301}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,302}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,303}</t>
+  </si>
+  <si>
     <t>钢铁之剑</t>
   </si>
   <si>
     <t>100,101</t>
   </si>
   <si>
+    <t>56,26</t>
+  </si>
+  <si>
+    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
+  </si>
+  <si>
+    <t>{400005,100}{400006,100}{400007,100}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,304}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,305}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,306}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,307}</t>
+  </si>
+  <si>
     <t>生命之剑</t>
   </si>
   <si>
     <t>100,102</t>
   </si>
   <si>
+    <t>56,1280</t>
+  </si>
+  <si>
+    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,160}{40,400}{60,600}{80,800}{100,1000}{120,1200}{140,1400}{160,1600}{180,1800}{200,2000}{220,2200}{240,2400}{260,2600}{280,2800}{300,3000}{320,3200}{340,3400}{360,3600}{380,3800}{400,4000}{420,4200}{440,4400}{460,4600}{480,4800}{500,5000})</t>
+  </si>
+  <si>
     <t>{400001,100}{400002,100}{400005,100}{400006,100}</t>
   </si>
   <si>
+    <t>{1,100}{2,200}{3,308}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,309}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,310}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,311}</t>
+  </si>
+  <si>
     <t>暴伤之剑</t>
   </si>
   <si>
     <t>100,113</t>
   </si>
   <si>
+    <t>56,64</t>
+  </si>
+  <si>
+    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
+  </si>
+  <si>
     <t>{400003,100}{400004,100}{400005,100}{400006,100}</t>
   </si>
   <si>
+    <t>{1,100}{2,200}{3,312}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,313}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,314}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,315}</t>
+  </si>
+  <si>
     <t>速度之剑</t>
   </si>
   <si>
     <t>100,114</t>
   </si>
   <si>
+    <t>56,16</t>
+  </si>
+  <si>
+    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
+  </si>
+  <si>
+    <t>{400001,100}{400002,100}{400007,100}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,316}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,317}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,318}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,319}</t>
+  </si>
+  <si>
     <t>重伤之剑</t>
   </si>
   <si>
     <t>100,115</t>
   </si>
   <si>
+    <t>56,22</t>
+  </si>
+  <si>
+    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
+  </si>
+  <si>
     <t>{400001,100}{400003,100}{400005,100}{400007,100}</t>
   </si>
   <si>
+    <t>{1,100}{2,200}{3,320}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,321}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,322}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,323}</t>
+  </si>
+  <si>
     <t>纯粹之甲</t>
   </si>
   <si>
@@ -453,37 +562,139 @@
     <t>101</t>
   </si>
   <si>
+    <t>({20,8}{40,20}{60,30}{80,40}{100,50}{120,60}{140,70}{160,80}{180,90}{200,100}{220,110}{240,120}{260,130}{280,140}{300,150}{320,160}{340,170}{360,180}{380,190}{400,200}{420,210}{440,220}{460,230}{480,240}{500,250})</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,324}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,325}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,326}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,327}</t>
+  </si>
+  <si>
     <t>攻击之甲</t>
   </si>
   <si>
     <t>101,100</t>
   </si>
   <si>
+    <t>45,32</t>
+  </si>
+  <si>
+    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,328}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,329}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,330}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,331}</t>
+  </si>
+  <si>
     <t>生命之甲</t>
   </si>
   <si>
     <t>101,102</t>
   </si>
   <si>
+    <t>45,1280</t>
+  </si>
+  <si>
+    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,160}{40,400}{60,600}{80,800}{100,1000}{120,1200}{140,1400}{160,1600}{180,1800}{200,2000}{220,2200}{240,2400}{260,2600}{280,2800}{300,3000}{320,3200}{340,3400}{360,3600}{380,3800}{400,4000}{420,4200}{440,4400}{460,4600}{480,4800}{500,5000})</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,332}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,333}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,334}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,335}</t>
+  </si>
+  <si>
     <t>暴伤之甲</t>
   </si>
   <si>
     <t>101,113</t>
   </si>
   <si>
+    <t>45,64</t>
+  </si>
+  <si>
+    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,336}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,337}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,338}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,339}</t>
+  </si>
+  <si>
     <t>速度之甲</t>
   </si>
   <si>
     <t>101,114</t>
   </si>
   <si>
+    <t>45,16</t>
+  </si>
+  <si>
+    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,340}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,341}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,342}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,343}</t>
+  </si>
+  <si>
     <t>重伤之甲</t>
   </si>
   <si>
     <t>101,115</t>
   </si>
   <si>
-    <t>56,64</t>
+    <t>45,22</t>
+  </si>
+  <si>
+    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,344}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,345}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,346}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,347}</t>
   </si>
   <si>
     <t>纯粹之靴</t>
@@ -495,36 +706,141 @@
     <t>102</t>
   </si>
   <si>
+    <t>({20,400}{40,1000}{60,1500}{80,2000}{100,2500}{120,3000}{140,3500}{160,4000}{180,4500}{200,5000}{220,5500}{240,6000}{260,6500}{280,7000}{300,7500}{320,8000}{340,8500}{360,9000}{380,9500}{400,10000}{420,10500}{440,11000}{460,11500}{480,12000}{500,12500})</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,348}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,349}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,350}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,351}</t>
+  </si>
+  <si>
     <t>攻击之靴</t>
   </si>
   <si>
     <t>102,100</t>
   </si>
   <si>
+    <t>2240,32</t>
+  </si>
+  <si>
+    <t>({20,280}{40,700}{60,1050}{80,1400}{100,1750}{120,2100}{140,2450}{160,2800}{180,3150}{200,3500}{220,3850}{240,4200}{260,4550}{280,4900}{300,5250}{320,5600}{340,5950}{360,6300}{380,6650}{400,7000}{420,7350}{440,7700}{460,8050}{480,8400}{500,8750})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,352}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,353}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,354}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,355}</t>
+  </si>
+  <si>
     <t>钢铁之靴</t>
   </si>
   <si>
     <t>102,101</t>
   </si>
   <si>
+    <t>2240,26</t>
+  </si>
+  <si>
+    <t>({20,280}{40,700}{60,1050}{80,1400}{100,1750}{120,2100}{140,2450}{160,2800}{180,3150}{200,3500}{220,3850}{240,4200}{260,4550}{280,4900}{300,5250}{320,5600}{340,5950}{360,6300}{380,6650}{400,7000}{420,7350}{440,7700}{460,8050}{480,8400}{500,8750})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,356}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,357}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,358}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,359}</t>
+  </si>
+  <si>
     <t>暴伤之靴</t>
   </si>
   <si>
     <t>102,113</t>
   </si>
   <si>
+    <t>2240,64</t>
+  </si>
+  <si>
+    <t>({20,280}{40,700}{60,1050}{80,1400}{100,1750}{120,2100}{140,2450}{160,2800}{180,3150}{200,3500}{220,3850}{240,4200}{260,4550}{280,4900}{300,5250}{320,5600}{340,5950}{360,6300}{380,6650}{400,7000}{420,7350}{440,7700}{460,8050}{480,8400}{500,8750})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,360}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,361}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,362}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,363}</t>
+  </si>
+  <si>
     <t>速度之靴</t>
   </si>
   <si>
     <t>102,114</t>
   </si>
   <si>
+    <t>2240,16</t>
+  </si>
+  <si>
+    <t>({20,280}{40,700}{60,1050}{80,1400}{100,1750}{120,2100}{140,2450}{160,2800}{180,3150}{200,3500}{220,3850}{240,4200}{260,4550}{280,4900}{300,5250}{320,5600}{340,5950}{360,6300}{380,6650}{400,7000}{420,7350}{440,7700}{460,8050}{480,8400}{500,8750})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,364}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,365}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,366}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,367}</t>
+  </si>
+  <si>
     <t>重伤之靴</t>
   </si>
   <si>
     <t>102,115</t>
   </si>
   <si>
+    <t>2240,22</t>
+  </si>
+  <si>
+    <t>({20,280}{40,700}{60,1050}{80,1400}{100,1750}{120,2100}{140,2450}{160,2800}{180,3150}{200,3500}{220,3850}{240,4200}{260,4550}{280,4900}{300,5250}{320,5600}{340,5950}{360,6300}{380,6650}{400,7000}{420,7350}{440,7700}{460,8050}{480,8400}{500,8750})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,368}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,369}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,370}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,371}</t>
+  </si>
+  <si>
     <t>纯粹戒指</t>
   </si>
   <si>
@@ -534,36 +850,141 @@
     <t>113</t>
   </si>
   <si>
+    <t>({20,20}{40,48}{60,72}{80,96}{100,120}{120,144}{140,168}{160,192}{180,216}{200,240}{220,264}{240,288}{260,312}{280,336}{300,360}{320,384}{340,408}{360,432}{380,456}{400,480}{420,504}{440,528}{460,552}{480,576}{500,600})</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,372}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,373}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,374}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,375}</t>
+  </si>
+  <si>
     <t>攻击戒指</t>
   </si>
   <si>
     <t>113,100</t>
   </si>
   <si>
+    <t>112,32</t>
+  </si>
+  <si>
+    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,376}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,377}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,378}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,379}</t>
+  </si>
+  <si>
     <t>钢铁戒指</t>
   </si>
   <si>
     <t>113,101</t>
   </si>
   <si>
+    <t>112,26</t>
+  </si>
+  <si>
+    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,380}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,381}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,382}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,383}</t>
+  </si>
+  <si>
     <t>生命戒指</t>
   </si>
   <si>
     <t>113,102</t>
   </si>
   <si>
+    <t>112,1280</t>
+  </si>
+  <si>
+    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,160}{40,400}{60,600}{80,800}{100,1000}{120,1200}{140,1400}{160,1600}{180,1800}{200,2000}{220,2200}{240,2400}{260,2600}{280,2800}{300,3000}{320,3200}{340,3400}{360,3600}{380,3800}{400,4000}{420,4200}{440,4400}{460,4600}{480,4800}{500,5000})</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,384}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,385}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,386}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,387}</t>
+  </si>
+  <si>
     <t>速度戒指</t>
   </si>
   <si>
     <t>113,114</t>
   </si>
   <si>
+    <t>112,16</t>
+  </si>
+  <si>
+    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,388}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,389}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,390}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,391}</t>
+  </si>
+  <si>
     <t>重伤戒指</t>
   </si>
   <si>
     <t>113,115</t>
   </si>
   <si>
+    <t>112,64</t>
+  </si>
+  <si>
+    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,392}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,393}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,394}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,395}</t>
+  </si>
+  <si>
     <t>纯粹头盔</t>
   </si>
   <si>
@@ -573,36 +994,141 @@
     <t>114</t>
   </si>
   <si>
+    <t>({20,5}{40,12}{60,18}{80,24}{100,30}{120,36}{140,42}{160,48}{180,54}{200,60}{220,66}{240,72}{260,78}{280,84}{300,90}{320,96}{340,102}{360,108}{380,114}{400,120}{420,126}{440,132}{460,138}{480,144}{500,150})</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,396}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,397}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,398}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,399}</t>
+  </si>
+  <si>
     <t>攻击头盔</t>
   </si>
   <si>
     <t>114,100</t>
   </si>
   <si>
+    <t>28,32</t>
+  </si>
+  <si>
+    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,400}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,401}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,402}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,403}</t>
+  </si>
+  <si>
     <t>钢铁头盔</t>
   </si>
   <si>
     <t>114,101</t>
   </si>
   <si>
+    <t>28,26</t>
+  </si>
+  <si>
+    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,404}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,405}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,406}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,407}</t>
+  </si>
+  <si>
     <t>生命头盔</t>
   </si>
   <si>
     <t>114,102</t>
   </si>
   <si>
+    <t>28,1280</t>
+  </si>
+  <si>
+    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,160}{40,400}{60,600}{80,800}{100,1000}{120,1200}{140,1400}{160,1600}{180,1800}{200,2000}{220,2200}{240,2400}{260,2600}{280,2800}{300,3000}{320,3200}{340,3400}{360,3600}{380,3800}{400,4000}{420,4200}{440,4400}{460,4600}{480,4800}{500,5000})</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,408}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,409}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,410}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,411}</t>
+  </si>
+  <si>
     <t>暴伤头盔</t>
   </si>
   <si>
     <t>114,113</t>
   </si>
   <si>
+    <t>28,64</t>
+  </si>
+  <si>
+    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,412}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,413}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,414}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,415}</t>
+  </si>
+  <si>
     <t>重伤头盔</t>
   </si>
   <si>
     <t>114,115</t>
   </si>
   <si>
+    <t>28,22</t>
+  </si>
+  <si>
+    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,416}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,417}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,418}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,419}</t>
+  </si>
+  <si>
     <t>纯粹项链</t>
   </si>
   <si>
@@ -612,19 +1138,67 @@
     <t>115</t>
   </si>
   <si>
+    <t>({20,7}{40,16}{60,24}{80,32}{100,40}{120,48}{140,56}{160,64}{180,72}{200,80}{220,88}{240,96}{260,104}{280,112}{300,120}{320,128}{340,136}{360,144}{380,152}{400,160}{420,168}{440,176}{460,184}{480,192}{500,200})</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,420}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,421}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,422}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,423}</t>
+  </si>
+  <si>
     <t>攻击项链</t>
   </si>
   <si>
     <t>115,100</t>
   </si>
   <si>
+    <t>39,32</t>
+  </si>
+  <si>
+    <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,424}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,425}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,426}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,427}</t>
+  </si>
+  <si>
     <t>钢铁项链</t>
   </si>
   <si>
     <t>115,101</t>
   </si>
   <si>
-    <t>112,32</t>
+    <t>39,26</t>
+  </si>
+  <si>
+    <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,428}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,429}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,430}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,431}</t>
   </si>
   <si>
     <t>生命项链</t>
@@ -633,228 +1207,89 @@
     <t>115,102</t>
   </si>
   <si>
+    <t>39,1280</t>
+  </si>
+  <si>
+    <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,160}{40,400}{60,600}{80,800}{100,1000}{120,1200}{140,1400}{160,1600}{180,1800}{200,2000}{220,2200}{240,2400}{260,2600}{280,2800}{300,3000}{320,3200}{340,3400}{360,3600}{380,3800}{400,4000}{420,4200}{440,4400}{460,4600}{480,4800}{500,5000})</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,432}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,433}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,434}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,435}</t>
+  </si>
+  <si>
     <t>暴伤项链</t>
   </si>
   <si>
     <t>115,113</t>
   </si>
   <si>
+    <t>39,64</t>
+  </si>
+  <si>
+    <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,436}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,437}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,438}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,439}</t>
+  </si>
+  <si>
     <t>速度项链</t>
   </si>
   <si>
     <t>115,114</t>
   </si>
   <si>
-    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
-  </si>
-  <si>
-    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
-  </si>
-  <si>
-    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
-  </si>
-  <si>
-    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
-  </si>
-  <si>
-    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
-  </si>
-  <si>
-    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
-  </si>
-  <si>
-    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
-  </si>
-  <si>
-    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
-  </si>
-  <si>
-    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
-  </si>
-  <si>
-    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
-  </si>
-  <si>
-    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
-  </si>
-  <si>
-    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
-  </si>
-  <si>
-    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
-  </si>
-  <si>
-    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
-  </si>
-  <si>
-    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
-  </si>
-  <si>
-    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
-  </si>
-  <si>
-    <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
-  </si>
-  <si>
-    <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
-  </si>
-  <si>
-    <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
+    <t>39,16</t>
   </si>
   <si>
     <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
   </si>
   <si>
-    <t>({20,10}{40,24}{60,36}{80,48}{100,60}{120,72}{140,84}{160,96}{180,108}{200,120}{220,132}{240,144}{260,156}{280,168}{300,180}{320,192}{340,204}{360,216}{380,228}{400,240}{420,252}{440,264}{460,276}{480,288}{500,300})</t>
-  </si>
-  <si>
-    <t>({20,8}{40,20}{60,30}{80,40}{100,50}{120,60}{140,70}{160,80}{180,90}{200,100}{220,110}{240,120}{260,130}{280,140}{300,150}{320,160}{340,170}{360,180}{380,190}{400,200}{420,210}{440,220}{460,230}{480,240}{500,250})</t>
-  </si>
-  <si>
-    <t>({20,20}{40,48}{60,72}{80,96}{100,120}{120,144}{140,168}{160,192}{180,216}{200,240}{220,264}{240,288}{260,312}{280,336}{300,360}{320,384}{340,408}{360,432}{380,456}{400,480}{420,504}{440,528}{460,552}{480,576}{500,600})</t>
-  </si>
-  <si>
-    <t>({20,5}{40,12}{60,18}{80,24}{100,30}{120,36}{140,42}{160,48}{180,54}{200,60}{220,66}{240,72}{260,78}{280,84}{300,90}{320,96}{340,102}{360,108}{380,114}{400,120}{420,126}{440,132}{460,138}{480,144}{500,150})</t>
-  </si>
-  <si>
-    <t>({20,7}{40,16}{60,24}{80,32}{100,40}{120,48}{140,56}{160,64}{180,72}{200,80}{220,88}{240,96}{260,104}{280,112}{300,120}{320,128}{340,136}{360,144}{380,152}{400,160}{420,168}{440,176}{460,184}{480,192}{500,200})</t>
-  </si>
-  <si>
-    <t>56,26</t>
-  </si>
-  <si>
-    <t>56,16</t>
-  </si>
-  <si>
-    <t>56,22</t>
-  </si>
-  <si>
-    <t>45,32</t>
-  </si>
-  <si>
-    <t>45,64</t>
-  </si>
-  <si>
-    <t>45,16</t>
-  </si>
-  <si>
-    <t>45,22</t>
-  </si>
-  <si>
-    <t>112,26</t>
-  </si>
-  <si>
-    <t>112,16</t>
-  </si>
-  <si>
-    <t>112,64</t>
-  </si>
-  <si>
-    <t>28,32</t>
-  </si>
-  <si>
-    <t>28,26</t>
-  </si>
-  <si>
-    <t>28,64</t>
-  </si>
-  <si>
-    <t>28,22</t>
-  </si>
-  <si>
-    <t>39,32</t>
-  </si>
-  <si>
-    <t>39,26</t>
-  </si>
-  <si>
-    <t>39,64</t>
-  </si>
-  <si>
-    <t>39,16</t>
-  </si>
-  <si>
-    <t>{400001,100}{400002,100}{400003,100}{400004,100}</t>
-  </si>
-  <si>
-    <t>56,1280</t>
-  </si>
-  <si>
-    <t>45,1280</t>
-  </si>
-  <si>
-    <t>2240,32</t>
-  </si>
-  <si>
-    <t>2240,26</t>
-  </si>
-  <si>
-    <t>2240,64</t>
-  </si>
-  <si>
-    <t>2240,16</t>
-  </si>
-  <si>
-    <t>2240,22</t>
-  </si>
-  <si>
-    <t>112,1280</t>
-  </si>
-  <si>
-    <t>28,1280</t>
-  </si>
-  <si>
-    <t>39,1280</t>
-  </si>
-  <si>
-    <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,160}{40,400}{60,600}{80,800}{100,1000}{120,1200}{140,1400}{160,1600}{180,1800}{200,2000}{220,2200}{240,2400}{260,2600}{280,2800}{300,3000}{320,3200}{340,3400}{360,3600}{380,3800}{400,4000}{420,4200}{440,4400}{460,4600}{480,4800}{500,5000})</t>
-  </si>
-  <si>
-    <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,160}{40,400}{60,600}{80,800}{100,1000}{120,1200}{140,1400}{160,1600}{180,1800}{200,2000}{220,2200}{240,2400}{260,2600}{280,2800}{300,3000}{320,3200}{340,3400}{360,3600}{380,3800}{400,4000}{420,4200}{440,4400}{460,4600}{480,4800}{500,5000})</t>
-  </si>
-  <si>
-    <t>({20,400}{40,1000}{60,1500}{80,2000}{100,2500}{120,3000}{140,3500}{160,4000}{180,4500}{200,5000}{220,5500}{240,6000}{260,6500}{280,7000}{300,7500}{320,8000}{340,8500}{360,9000}{380,9500}{400,10000}{420,10500}{440,11000}{460,11500}{480,12000}{500,12500})</t>
-  </si>
-  <si>
-    <t>({20,280}{40,700}{60,1050}{80,1400}{100,1750}{120,2100}{140,2450}{160,2800}{180,3150}{200,3500}{220,3850}{240,4200}{260,4550}{280,4900}{300,5250}{320,5600}{340,5950}{360,6300}{380,6650}{400,7000}{420,7350}{440,7700}{460,8050}{480,8400}{500,8750})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
-  </si>
-  <si>
-    <t>({20,280}{40,700}{60,1050}{80,1400}{100,1750}{120,2100}{140,2450}{160,2800}{180,3150}{200,3500}{220,3850}{240,4200}{260,4550}{280,4900}{300,5250}{320,5600}{340,5950}{360,6300}{380,6650}{400,7000}{420,7350}{440,7700}{460,8050}{480,8400}{500,8750})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
-  </si>
-  <si>
-    <t>({20,280}{40,700}{60,1050}{80,1400}{100,1750}{120,2100}{140,2450}{160,2800}{180,3150}{200,3500}{220,3850}{240,4200}{260,4550}{280,4900}{300,5250}{320,5600}{340,5950}{360,6300}{380,6650}{400,7000}{420,7350}{440,7700}{460,8050}{480,8400}{500,8750})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
-  </si>
-  <si>
-    <t>({20,280}{40,700}{60,1050}{80,1400}{100,1750}{120,2100}{140,2450}{160,2800}{180,3150}{200,3500}{220,3850}{240,4200}{260,4550}{280,4900}{300,5250}{320,5600}{340,5950}{360,6300}{380,6650}{400,7000}{420,7350}{440,7700}{460,8050}{480,8400}{500,8750})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
-  </si>
-  <si>
-    <t>({20,280}{40,700}{60,1050}{80,1400}{100,1750}{120,2100}{140,2450}{160,2800}{180,3150}{200,3500}{220,3850}{240,4200}{260,4550}{280,4900}{300,5250}{320,5600}{340,5950}{360,6300}{380,6650}{400,7000}{420,7350}{440,7700}{460,8050}{480,8400}{500,8750})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
-  </si>
-  <si>
-    <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,160}{40,400}{60,600}{80,800}{100,1000}{120,1200}{140,1400}{160,1600}{180,1800}{200,2000}{220,2200}{240,2400}{260,2600}{280,2800}{300,3000}{320,3200}{340,3400}{360,3600}{380,3800}{400,4000}{420,4200}{440,4400}{460,4600}{480,4800}{500,5000})</t>
-  </si>
-  <si>
-    <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,160}{40,400}{60,600}{80,800}{100,1000}{120,1200}{140,1400}{160,1600}{180,1800}{200,2000}{220,2200}{240,2400}{260,2600}{280,2800}{300,3000}{320,3200}{340,3400}{360,3600}{380,3800}{400,4000}{420,4200}{440,4400}{460,4600}{480,4800}{500,5000})</t>
-  </si>
-  <si>
-    <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,160}{40,400}{60,600}{80,800}{100,1000}{120,1200}{140,1400}{160,1600}{180,1800}{200,2000}{220,2200}{240,2400}{260,2600}{280,2800}{300,3000}{320,3200}{340,3400}{360,3600}{380,3800}{400,4000}{420,4200}{440,4400}{460,4600}{480,4800}{500,5000})</t>
+    <t>{1,100}{2,200}{3,440}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,441}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,442}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,443}</t>
   </si>
   <si>
     <t>{400005,100}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{400005,100}{400006,100}{400007,100}</t>
-  </si>
-  <si>
-    <t>{400001,100}{400002,100}{400007,100}</t>
+  </si>
+  <si>
+    <t>{1,100}{2,200}{3,444}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -864,57 +1299,365 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -922,17 +1665,262 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -944,22 +1932,66 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -975,9 +2007,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1026,7 +2055,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1059,26 +2088,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1111,23 +2123,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1298,22 +2293,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N146"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:O146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.375"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="5.25" customWidth="1"/>
     <col min="4" max="4" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="9.375"/>
@@ -1323,10 +2318,11 @@
     <col min="11" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="24.875" customWidth="1"/>
     <col min="13" max="13" width="40.375" customWidth="1"/>
-    <col min="14" max="14" width="50.5" customWidth="1"/>
+    <col min="14" max="14" width="50.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="23.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1336,19 +2332,19 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1363,19 +2359,22 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>241001</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -1393,10 +2392,10 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2">
         <v>80</v>
@@ -1405,21 +2404,24 @@
         <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="N2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>242002</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -1437,10 +2439,10 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3">
         <v>80</v>
@@ -1449,21 +2451,24 @@
         <v>33</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="N3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>243003</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -1481,10 +2486,10 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4">
         <v>80</v>
@@ -1493,21 +2498,24 @@
         <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="N4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>244004</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1525,10 +2533,10 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J5">
         <v>80</v>
@@ -1537,21 +2545,24 @@
         <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="N5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>241005</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1569,33 +2580,36 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="K6">
         <v>33</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="N6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>242006</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -1613,33 +2627,36 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="K7">
         <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="N7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>243007</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -1657,33 +2674,36 @@
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="J8" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="K8">
         <v>33</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="N8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>244008</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -1701,33 +2721,36 @@
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="J9" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="K9">
         <v>33</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="N9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>241009</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -1745,33 +2768,36 @@
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="J10" t="s">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="K10">
         <v>33</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="N10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>242010</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -1789,33 +2815,36 @@
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="J11" t="s">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="K11">
         <v>33</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="N11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>243011</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -1833,33 +2862,36 @@
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="J12" t="s">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="K12">
         <v>33</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="N12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>244012</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -1877,33 +2909,36 @@
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="J13" t="s">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="K13">
         <v>33</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="N13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>241013</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -1921,33 +2956,36 @@
         <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K14">
         <v>33</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="N14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>242014</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1965,33 +3003,36 @@
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K15">
         <v>33</v>
       </c>
       <c r="L15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="N15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>243015</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -2009,33 +3050,36 @@
         <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K16">
         <v>33</v>
       </c>
       <c r="L16" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="N16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>244016</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -2053,33 +3097,36 @@
         <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K17">
         <v>33</v>
       </c>
       <c r="L17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="N17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>241017</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -2097,33 +3144,36 @@
         <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="J18" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="K18">
         <v>33</v>
       </c>
       <c r="L18" t="s">
-        <v>17</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="N18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>242018</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -2141,33 +3191,36 @@
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="J19" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="K19">
         <v>33</v>
       </c>
       <c r="L19" t="s">
-        <v>17</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="N19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>243019</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -2185,33 +3238,36 @@
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="J20" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="K20">
         <v>33</v>
       </c>
       <c r="L20" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="N20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>244020</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -2229,33 +3285,36 @@
         <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="J21" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="K21">
         <v>33</v>
       </c>
       <c r="L21" t="s">
-        <v>17</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="N21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>241021</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -2273,33 +3332,36 @@
         <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="J22" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="K22">
         <v>33</v>
       </c>
       <c r="L22" t="s">
-        <v>17</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="N22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>242022</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -2317,33 +3379,36 @@
         <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="J23" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="K23">
         <v>33</v>
       </c>
       <c r="L23" t="s">
-        <v>17</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="N23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>243023</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -2361,33 +3426,36 @@
         <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="J24" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="K24">
         <v>33</v>
       </c>
       <c r="L24" t="s">
-        <v>17</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="N24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>244024</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -2405,33 +3473,36 @@
         <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="J25" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="K25">
         <v>33</v>
       </c>
       <c r="L25" t="s">
-        <v>17</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="N25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>221025</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -2449,10 +3520,10 @@
         <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="I26" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="J26">
         <v>64</v>
@@ -2461,21 +3532,24 @@
         <v>33</v>
       </c>
       <c r="L26" t="s">
-        <v>17</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="N26" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>222026</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -2493,10 +3567,10 @@
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="I27" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="J27">
         <v>64</v>
@@ -2505,21 +3579,24 @@
         <v>33</v>
       </c>
       <c r="L27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="N27" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>223027</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -2537,10 +3614,10 @@
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="I28" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="J28">
         <v>64</v>
@@ -2549,21 +3626,24 @@
         <v>33</v>
       </c>
       <c r="L28" t="s">
-        <v>17</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="N28" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>224028</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -2581,10 +3661,10 @@
         <v>28</v>
       </c>
       <c r="H29" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="I29" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="J29">
         <v>64</v>
@@ -2593,21 +3673,24 @@
         <v>33</v>
       </c>
       <c r="L29" t="s">
-        <v>17</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="N29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>221029</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -2625,33 +3708,36 @@
         <v>29</v>
       </c>
       <c r="H30" t="s">
-        <v>32</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>35</v>
+        <v>71</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="J30" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="K30">
         <v>33</v>
       </c>
       <c r="L30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="N30" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>222030</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -2669,33 +3755,36 @@
         <v>30</v>
       </c>
       <c r="H31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>35</v>
+        <v>71</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="J31" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="K31">
         <v>33</v>
       </c>
       <c r="L31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M31" t="s">
-        <v>101</v>
-      </c>
-      <c r="N31" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>223031</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -2713,33 +3802,36 @@
         <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>32</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>35</v>
+        <v>71</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="J32" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="K32">
         <v>33</v>
       </c>
       <c r="L32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M32" t="s">
-        <v>101</v>
-      </c>
-      <c r="N32" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>224032</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -2757,33 +3849,36 @@
         <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>32</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>35</v>
+        <v>71</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="J33" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="K33">
         <v>33</v>
       </c>
       <c r="L33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M33" t="s">
-        <v>101</v>
-      </c>
-      <c r="N33" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>221033</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -2801,33 +3896,36 @@
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>37</v>
+        <v>71</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="J34" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="K34">
         <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>17</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="N34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>222034</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -2845,33 +3943,36 @@
         <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>32</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>37</v>
+        <v>71</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="J35" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="K35">
         <v>33</v>
       </c>
       <c r="L35" t="s">
-        <v>17</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="N35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>223035</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -2889,33 +3990,36 @@
         <v>35</v>
       </c>
       <c r="H36" t="s">
-        <v>32</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>37</v>
+        <v>71</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="J36" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="K36">
         <v>33</v>
       </c>
       <c r="L36" t="s">
-        <v>17</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="N36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>224036</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -2933,33 +4037,36 @@
         <v>36</v>
       </c>
       <c r="H37" t="s">
-        <v>32</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>37</v>
+        <v>71</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="J37" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="K37">
         <v>33</v>
       </c>
       <c r="L37" t="s">
-        <v>17</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="N37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>221037</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -2977,33 +4084,36 @@
         <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>32</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>39</v>
+        <v>71</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="J38" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="K38">
         <v>33</v>
       </c>
       <c r="L38" t="s">
-        <v>17</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="N38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>222038</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -3021,33 +4131,36 @@
         <v>38</v>
       </c>
       <c r="H39" t="s">
-        <v>32</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>39</v>
+        <v>71</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="J39" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="K39">
         <v>33</v>
       </c>
       <c r="L39" t="s">
-        <v>17</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="N39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>223039</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -3065,33 +4178,36 @@
         <v>39</v>
       </c>
       <c r="H40" t="s">
-        <v>32</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>39</v>
+        <v>71</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="J40" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="K40">
         <v>33</v>
       </c>
       <c r="L40" t="s">
-        <v>17</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="N40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>224040</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -3109,33 +4225,36 @@
         <v>40</v>
       </c>
       <c r="H41" t="s">
-        <v>32</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>39</v>
+        <v>71</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="J41" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="K41">
         <v>33</v>
       </c>
       <c r="L41" t="s">
-        <v>17</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="N41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>221041</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -3153,33 +4272,36 @@
         <v>41</v>
       </c>
       <c r="H42" t="s">
-        <v>32</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>41</v>
+        <v>71</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="J42" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="K42">
         <v>33</v>
       </c>
       <c r="L42" t="s">
-        <v>17</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="N42" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>222042</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -3197,33 +4319,36 @@
         <v>42</v>
       </c>
       <c r="H43" t="s">
-        <v>32</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>41</v>
+        <v>71</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="J43" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="K43">
         <v>33</v>
       </c>
       <c r="L43" t="s">
-        <v>17</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="N43" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>223043</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -3241,33 +4366,36 @@
         <v>43</v>
       </c>
       <c r="H44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>41</v>
+        <v>71</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="J44" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="K44">
         <v>33</v>
       </c>
       <c r="L44" t="s">
-        <v>17</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="N44" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
         <v>224044</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -3285,33 +4413,36 @@
         <v>44</v>
       </c>
       <c r="H45" t="s">
-        <v>32</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>41</v>
+        <v>71</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="J45" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="K45">
         <v>33</v>
       </c>
       <c r="L45" t="s">
-        <v>17</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="N45" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>221045</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -3329,33 +4460,36 @@
         <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>32</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>43</v>
+        <v>71</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="J46" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="K46">
         <v>33</v>
       </c>
       <c r="L46" t="s">
-        <v>17</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="N46" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>222046</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -3373,33 +4507,36 @@
         <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>43</v>
+        <v>71</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="J47" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="K47">
         <v>33</v>
       </c>
       <c r="L47" t="s">
-        <v>17</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="N47" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>223047</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -3417,33 +4554,36 @@
         <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>32</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>43</v>
+        <v>71</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="J48" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="K48">
         <v>33</v>
       </c>
       <c r="L48" t="s">
-        <v>17</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="N48" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
         <v>224048</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -3461,33 +4601,36 @@
         <v>48</v>
       </c>
       <c r="H49" t="s">
-        <v>32</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>43</v>
+        <v>71</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="J49" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="K49">
         <v>33</v>
       </c>
       <c r="L49" t="s">
-        <v>17</v>
-      </c>
-      <c r="M49" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="N49" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>231049</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -3505,10 +4648,10 @@
         <v>49</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="I50" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="J50">
         <v>3200</v>
@@ -3517,21 +4660,24 @@
         <v>33</v>
       </c>
       <c r="L50" t="s">
-        <v>17</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="N50" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>232050</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -3549,10 +4695,10 @@
         <v>50</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="I51" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="J51">
         <v>3200</v>
@@ -3561,21 +4707,24 @@
         <v>33</v>
       </c>
       <c r="L51" t="s">
-        <v>17</v>
-      </c>
-      <c r="M51" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="N51" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>233051</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -3593,10 +4742,10 @@
         <v>51</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="I52" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="J52">
         <v>3200</v>
@@ -3605,21 +4754,24 @@
         <v>33</v>
       </c>
       <c r="L52" t="s">
-        <v>17</v>
-      </c>
-      <c r="M52" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="N52" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>234052</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -3637,10 +4789,10 @@
         <v>52</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="I53" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="J53">
         <v>3200</v>
@@ -3649,21 +4801,24 @@
         <v>33</v>
       </c>
       <c r="L53" t="s">
-        <v>17</v>
-      </c>
-      <c r="M53" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="N53" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
         <v>231053</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -3681,33 +4836,36 @@
         <v>53</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>49</v>
+        <v>119</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="J54" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="K54">
         <v>33</v>
       </c>
       <c r="L54" t="s">
-        <v>17</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="N54" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
         <v>232054</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -3725,33 +4883,36 @@
         <v>54</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>49</v>
+        <v>119</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="J55" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="K55">
         <v>33</v>
       </c>
       <c r="L55" t="s">
-        <v>17</v>
-      </c>
-      <c r="M55" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="N55" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
         <v>233055</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -3769,33 +4930,36 @@
         <v>55</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>49</v>
+        <v>119</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="J56" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="K56">
         <v>33</v>
       </c>
       <c r="L56" t="s">
-        <v>17</v>
-      </c>
-      <c r="M56" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="N56" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
         <v>234056</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -3813,33 +4977,36 @@
         <v>56</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>49</v>
+        <v>119</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="J57" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="K57">
         <v>33</v>
       </c>
       <c r="L57" t="s">
-        <v>17</v>
-      </c>
-      <c r="M57" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="N57" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
         <v>231057</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -3857,33 +5024,36 @@
         <v>57</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>51</v>
+        <v>119</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="J58" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="K58">
         <v>33</v>
       </c>
       <c r="L58" t="s">
-        <v>17</v>
-      </c>
-      <c r="M58" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="N58" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O58" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
         <v>232058</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -3901,33 +5071,36 @@
         <v>58</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>51</v>
+        <v>119</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="J59" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="K59">
         <v>33</v>
       </c>
       <c r="L59" t="s">
-        <v>17</v>
-      </c>
-      <c r="M59" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="N59" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O59" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
         <v>233059</v>
       </c>
       <c r="B60" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -3945,33 +5118,36 @@
         <v>59</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>51</v>
+        <v>119</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="J60" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="K60">
         <v>33</v>
       </c>
       <c r="L60" t="s">
-        <v>17</v>
-      </c>
-      <c r="M60" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="N60" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O60" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
         <v>234060</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -3989,33 +5165,36 @@
         <v>60</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>51</v>
+        <v>119</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="J61" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="K61">
         <v>33</v>
       </c>
       <c r="L61" t="s">
-        <v>17</v>
-      </c>
-      <c r="M61" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="N61" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
         <v>231061</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -4033,33 +5212,36 @@
         <v>61</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>53</v>
+        <v>119</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="J62" t="s">
+        <v>144</v>
+      </c>
+      <c r="K62">
+        <v>33</v>
+      </c>
+      <c r="L62" t="s">
+        <v>18</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O62" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="K62">
-        <v>33</v>
-      </c>
-      <c r="L62" t="s">
-        <v>17</v>
-      </c>
-      <c r="M62" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N62" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
         <v>232062</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -4077,33 +5259,36 @@
         <v>62</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>53</v>
+        <v>119</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="J63" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K63">
         <v>33</v>
       </c>
       <c r="L63" t="s">
-        <v>17</v>
-      </c>
-      <c r="M63" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N63" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
         <v>233063</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -4121,33 +5306,36 @@
         <v>63</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>53</v>
+        <v>119</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="J64" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K64">
         <v>33</v>
       </c>
       <c r="L64" t="s">
-        <v>17</v>
-      </c>
-      <c r="M64" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N64" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
         <v>234064</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -4165,33 +5353,36 @@
         <v>64</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>53</v>
+        <v>119</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="J65" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K65">
         <v>33</v>
       </c>
       <c r="L65" t="s">
-        <v>17</v>
-      </c>
-      <c r="M65" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N65" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M65" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O65" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
         <v>231065</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -4209,33 +5400,36 @@
         <v>65</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>55</v>
+        <v>119</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="J66" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K66">
         <v>33</v>
       </c>
       <c r="L66" t="s">
-        <v>17</v>
-      </c>
-      <c r="M66" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="N66" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O66" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
         <v>232066</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -4253,33 +5447,36 @@
         <v>66</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>55</v>
+        <v>119</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="J67" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K67">
         <v>33</v>
       </c>
       <c r="L67" t="s">
-        <v>17</v>
-      </c>
-      <c r="M67" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="N67" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O67" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
         <v>233067</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -4297,33 +5494,36 @@
         <v>67</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>55</v>
+        <v>119</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="J68" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K68">
         <v>33</v>
       </c>
       <c r="L68" t="s">
-        <v>17</v>
-      </c>
-      <c r="M68" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="N68" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O68" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
         <v>234068</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -4341,33 +5541,36 @@
         <v>68</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>55</v>
+        <v>119</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="J69" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K69">
         <v>33</v>
       </c>
       <c r="L69" t="s">
-        <v>17</v>
-      </c>
-      <c r="M69" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="N69" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="N69" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O69" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
         <v>231069</v>
       </c>
       <c r="B70" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -4385,33 +5588,36 @@
         <v>69</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>57</v>
+        <v>119</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="J70" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="K70">
         <v>33</v>
       </c>
       <c r="L70" t="s">
-        <v>17</v>
-      </c>
-      <c r="M70" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="N70" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M70" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
         <v>232070</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -4429,33 +5635,36 @@
         <v>70</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>57</v>
+        <v>119</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="J71" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="K71">
         <v>33</v>
       </c>
       <c r="L71" t="s">
-        <v>17</v>
-      </c>
-      <c r="M71" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="N71" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="N71" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O71" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
         <v>233071</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -4473,33 +5682,36 @@
         <v>71</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>57</v>
+        <v>119</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="J72" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="K72">
         <v>33</v>
       </c>
       <c r="L72" t="s">
-        <v>17</v>
-      </c>
-      <c r="M72" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="N72" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="N72" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O72" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
         <v>234072</v>
       </c>
       <c r="B73" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -4517,33 +5729,36 @@
         <v>72</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>57</v>
+        <v>119</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="J73" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="K73">
         <v>33</v>
       </c>
       <c r="L73" t="s">
-        <v>17</v>
-      </c>
-      <c r="M73" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="N73" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="N73" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O73" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
         <v>261073</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c r="C74">
         <v>6</v>
@@ -4561,10 +5776,10 @@
         <v>73</v>
       </c>
       <c r="H74" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="I74" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="J74">
         <v>160</v>
@@ -4573,21 +5788,24 @@
         <v>33</v>
       </c>
       <c r="L74" t="s">
-        <v>17</v>
-      </c>
-      <c r="M74" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="N74" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M74" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="N74" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O74" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
         <v>262074</v>
       </c>
       <c r="B75" t="s">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c r="C75">
         <v>6</v>
@@ -4605,10 +5823,10 @@
         <v>74</v>
       </c>
       <c r="H75" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="I75" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="J75">
         <v>160</v>
@@ -4617,21 +5835,24 @@
         <v>33</v>
       </c>
       <c r="L75" t="s">
-        <v>17</v>
-      </c>
-      <c r="M75" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="N75" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M75" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="N75" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O75" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
         <v>263075</v>
       </c>
       <c r="B76" t="s">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c r="C76">
         <v>6</v>
@@ -4649,10 +5870,10 @@
         <v>75</v>
       </c>
       <c r="H76" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="I76" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="J76">
         <v>160</v>
@@ -4661,21 +5882,24 @@
         <v>33</v>
       </c>
       <c r="L76" t="s">
-        <v>17</v>
-      </c>
-      <c r="M76" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="N76" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="N76" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O76" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
         <v>264076</v>
       </c>
       <c r="B77" t="s">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c r="C77">
         <v>6</v>
@@ -4693,10 +5917,10 @@
         <v>76</v>
       </c>
       <c r="H77" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="I77" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="J77">
         <v>160</v>
@@ -4705,21 +5929,24 @@
         <v>33</v>
       </c>
       <c r="L77" t="s">
-        <v>17</v>
-      </c>
-      <c r="M77" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="N77" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M77" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="N77" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O77" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
         <v>261077</v>
       </c>
       <c r="B78" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -4737,33 +5964,36 @@
         <v>77</v>
       </c>
       <c r="H78" t="s">
-        <v>59</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>62</v>
+        <v>167</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="J78" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="K78">
         <v>33</v>
       </c>
       <c r="L78" t="s">
-        <v>17</v>
-      </c>
-      <c r="M78" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="N78" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M78" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="N78" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O78" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
         <v>262078</v>
       </c>
       <c r="B79" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="C79">
         <v>6</v>
@@ -4781,33 +6011,36 @@
         <v>78</v>
       </c>
       <c r="H79" t="s">
-        <v>59</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>62</v>
+        <v>167</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="J79" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="K79">
         <v>33</v>
       </c>
       <c r="L79" t="s">
-        <v>17</v>
-      </c>
-      <c r="M79" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="N79" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M79" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="N79" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O79" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80">
         <v>263079</v>
       </c>
       <c r="B80" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="C80">
         <v>6</v>
@@ -4825,33 +6058,36 @@
         <v>79</v>
       </c>
       <c r="H80" t="s">
-        <v>59</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>62</v>
+        <v>167</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="J80" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="K80">
         <v>33</v>
       </c>
       <c r="L80" t="s">
-        <v>17</v>
-      </c>
-      <c r="M80" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="N80" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M80" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="N80" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O80" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81">
         <v>264080</v>
       </c>
       <c r="B81" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="C81">
         <v>6</v>
@@ -4869,33 +6105,36 @@
         <v>80</v>
       </c>
       <c r="H81" t="s">
-        <v>59</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>62</v>
+        <v>167</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="J81" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="K81">
         <v>33</v>
       </c>
       <c r="L81" t="s">
-        <v>17</v>
-      </c>
-      <c r="M81" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="N81" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="N81" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O81" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82">
         <v>261081</v>
       </c>
       <c r="B82" t="s">
-        <v>63</v>
+        <v>182</v>
       </c>
       <c r="C82">
         <v>6</v>
@@ -4913,33 +6152,36 @@
         <v>81</v>
       </c>
       <c r="H82" t="s">
-        <v>59</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>64</v>
+        <v>167</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="J82" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="K82">
         <v>33</v>
       </c>
       <c r="L82" t="s">
-        <v>17</v>
-      </c>
-      <c r="M82" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="N82" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="N82" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O82" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83">
         <v>262082</v>
       </c>
       <c r="B83" t="s">
-        <v>63</v>
+        <v>182</v>
       </c>
       <c r="C83">
         <v>6</v>
@@ -4957,33 +6199,36 @@
         <v>82</v>
       </c>
       <c r="H83" t="s">
-        <v>59</v>
-      </c>
-      <c r="I83" s="5" t="s">
-        <v>64</v>
+        <v>167</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="J83" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="K83">
         <v>33</v>
       </c>
       <c r="L83" t="s">
-        <v>17</v>
-      </c>
-      <c r="M83" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="N83" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="N83" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O83" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84">
         <v>263083</v>
       </c>
       <c r="B84" t="s">
-        <v>63</v>
+        <v>182</v>
       </c>
       <c r="C84">
         <v>6</v>
@@ -5001,33 +6246,36 @@
         <v>83</v>
       </c>
       <c r="H84" t="s">
-        <v>59</v>
-      </c>
-      <c r="I84" s="5" t="s">
-        <v>64</v>
+        <v>167</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="J84" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="K84">
         <v>33</v>
       </c>
       <c r="L84" t="s">
-        <v>17</v>
-      </c>
-      <c r="M84" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="N84" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M84" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="N84" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O84" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85">
         <v>264084</v>
       </c>
       <c r="B85" t="s">
-        <v>63</v>
+        <v>182</v>
       </c>
       <c r="C85">
         <v>6</v>
@@ -5045,33 +6293,36 @@
         <v>84</v>
       </c>
       <c r="H85" t="s">
-        <v>59</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>64</v>
+        <v>167</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="J85" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="K85">
         <v>33</v>
       </c>
       <c r="L85" t="s">
-        <v>17</v>
-      </c>
-      <c r="M85" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="N85" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M85" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="N85" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O85" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86">
         <v>261085</v>
       </c>
       <c r="B86" t="s">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="C86">
         <v>6</v>
@@ -5089,33 +6340,36 @@
         <v>85</v>
       </c>
       <c r="H86" t="s">
-        <v>59</v>
-      </c>
-      <c r="I86" s="5" t="s">
-        <v>66</v>
+        <v>167</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="J86" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="K86">
         <v>33</v>
       </c>
       <c r="L86" t="s">
-        <v>17</v>
-      </c>
-      <c r="M86" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="N86" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M86" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="N86" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O86" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87">
         <v>262086</v>
       </c>
       <c r="B87" t="s">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="C87">
         <v>6</v>
@@ -5133,33 +6387,36 @@
         <v>86</v>
       </c>
       <c r="H87" t="s">
-        <v>59</v>
-      </c>
-      <c r="I87" s="5" t="s">
-        <v>66</v>
+        <v>167</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="J87" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="K87">
         <v>33</v>
       </c>
       <c r="L87" t="s">
-        <v>17</v>
-      </c>
-      <c r="M87" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="N87" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M87" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="N87" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O87" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88">
         <v>263087</v>
       </c>
       <c r="B88" t="s">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="C88">
         <v>6</v>
@@ -5177,33 +6434,36 @@
         <v>87</v>
       </c>
       <c r="H88" t="s">
-        <v>59</v>
-      </c>
-      <c r="I88" s="5" t="s">
-        <v>66</v>
+        <v>167</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="J88" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="K88">
         <v>33</v>
       </c>
       <c r="L88" t="s">
-        <v>17</v>
-      </c>
-      <c r="M88" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="N88" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M88" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="N88" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O88" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89">
         <v>264088</v>
       </c>
       <c r="B89" t="s">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="C89">
         <v>6</v>
@@ -5221,33 +6481,36 @@
         <v>88</v>
       </c>
       <c r="H89" t="s">
-        <v>59</v>
-      </c>
-      <c r="I89" s="5" t="s">
-        <v>66</v>
+        <v>167</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="J89" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="K89">
         <v>33</v>
       </c>
       <c r="L89" t="s">
-        <v>17</v>
-      </c>
-      <c r="M89" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="N89" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M89" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="N89" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O89" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90">
         <v>261089</v>
       </c>
       <c r="B90" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="C90">
         <v>6</v>
@@ -5265,33 +6528,36 @@
         <v>89</v>
       </c>
       <c r="H90" t="s">
-        <v>59</v>
-      </c>
-      <c r="I90" s="5" t="s">
-        <v>68</v>
+        <v>167</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="J90" t="s">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="K90">
         <v>33</v>
       </c>
       <c r="L90" t="s">
-        <v>17</v>
-      </c>
-      <c r="M90" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="N90" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M90" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="N90" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O90" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91">
         <v>262090</v>
       </c>
       <c r="B91" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="C91">
         <v>6</v>
@@ -5309,33 +6575,36 @@
         <v>90</v>
       </c>
       <c r="H91" t="s">
-        <v>59</v>
-      </c>
-      <c r="I91" s="5" t="s">
-        <v>68</v>
+        <v>167</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="J91" t="s">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="K91">
         <v>33</v>
       </c>
       <c r="L91" t="s">
-        <v>17</v>
-      </c>
-      <c r="M91" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="N91" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M91" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="N91" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O91" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92">
         <v>263091</v>
       </c>
       <c r="B92" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="C92">
         <v>6</v>
@@ -5353,33 +6622,36 @@
         <v>91</v>
       </c>
       <c r="H92" t="s">
-        <v>59</v>
-      </c>
-      <c r="I92" s="5" t="s">
-        <v>68</v>
+        <v>167</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="J92" t="s">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="K92">
         <v>33</v>
       </c>
       <c r="L92" t="s">
-        <v>17</v>
-      </c>
-      <c r="M92" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="N92" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="N92" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O92" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93">
         <v>264092</v>
       </c>
       <c r="B93" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="C93">
         <v>6</v>
@@ -5397,33 +6669,36 @@
         <v>92</v>
       </c>
       <c r="H93" t="s">
-        <v>59</v>
-      </c>
-      <c r="I93" s="5" t="s">
-        <v>68</v>
+        <v>167</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="J93" t="s">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="K93">
         <v>33</v>
       </c>
       <c r="L93" t="s">
-        <v>17</v>
-      </c>
-      <c r="M93" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="N93" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="N93" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O93" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94">
         <v>261093</v>
       </c>
       <c r="B94" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="C94">
         <v>6</v>
@@ -5441,33 +6716,36 @@
         <v>93</v>
       </c>
       <c r="H94" t="s">
-        <v>59</v>
-      </c>
-      <c r="I94" s="5" t="s">
-        <v>70</v>
+        <v>167</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="J94" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="K94">
         <v>33</v>
       </c>
       <c r="L94" t="s">
-        <v>17</v>
-      </c>
-      <c r="M94" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="N94" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M94" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="N94" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O94" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95">
         <v>262094</v>
       </c>
       <c r="B95" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="C95">
         <v>6</v>
@@ -5485,33 +6763,36 @@
         <v>94</v>
       </c>
       <c r="H95" t="s">
-        <v>59</v>
-      </c>
-      <c r="I95" s="5" t="s">
-        <v>70</v>
+        <v>167</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="J95" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="K95">
         <v>33</v>
       </c>
       <c r="L95" t="s">
-        <v>17</v>
-      </c>
-      <c r="M95" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="N95" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M95" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="N95" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O95" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96">
         <v>263095</v>
       </c>
       <c r="B96" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="C96">
         <v>6</v>
@@ -5529,33 +6810,36 @@
         <v>95</v>
       </c>
       <c r="H96" t="s">
-        <v>59</v>
-      </c>
-      <c r="I96" s="5" t="s">
-        <v>70</v>
+        <v>167</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="J96" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="K96">
         <v>33</v>
       </c>
       <c r="L96" t="s">
-        <v>17</v>
-      </c>
-      <c r="M96" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="N96" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M96" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="N96" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O96" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97">
         <v>264096</v>
       </c>
       <c r="B97" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="C97">
         <v>6</v>
@@ -5573,33 +6857,36 @@
         <v>96</v>
       </c>
       <c r="H97" t="s">
-        <v>59</v>
-      </c>
-      <c r="I97" s="5" t="s">
-        <v>70</v>
+        <v>167</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="J97" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="K97">
         <v>33</v>
       </c>
       <c r="L97" t="s">
-        <v>17</v>
-      </c>
-      <c r="M97" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="N97" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="N97" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O97" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98">
         <v>211097</v>
       </c>
       <c r="B98" t="s">
-        <v>71</v>
+        <v>214</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -5617,10 +6904,10 @@
         <v>97</v>
       </c>
       <c r="H98" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="I98" t="s">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="J98">
         <v>40</v>
@@ -5629,21 +6916,24 @@
         <v>33</v>
       </c>
       <c r="L98" t="s">
-        <v>17</v>
-      </c>
-      <c r="M98" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="N98" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M98" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="N98" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O98" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99">
         <v>212098</v>
       </c>
       <c r="B99" t="s">
-        <v>71</v>
+        <v>214</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -5661,10 +6951,10 @@
         <v>98</v>
       </c>
       <c r="H99" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="I99" t="s">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="J99">
         <v>40</v>
@@ -5673,21 +6963,24 @@
         <v>33</v>
       </c>
       <c r="L99" t="s">
-        <v>17</v>
-      </c>
-      <c r="M99" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="N99" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="N99" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O99" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100">
         <v>213099</v>
       </c>
       <c r="B100" t="s">
-        <v>71</v>
+        <v>214</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -5705,10 +6998,10 @@
         <v>99</v>
       </c>
       <c r="H100" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="I100" t="s">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="J100">
         <v>40</v>
@@ -5717,21 +7010,24 @@
         <v>33</v>
       </c>
       <c r="L100" t="s">
-        <v>17</v>
-      </c>
-      <c r="M100" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="N100" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M100" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="N100" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O100" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101">
         <v>214100</v>
       </c>
       <c r="B101" t="s">
-        <v>71</v>
+        <v>214</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -5749,10 +7045,10 @@
         <v>100</v>
       </c>
       <c r="H101" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="I101" t="s">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="J101">
         <v>40</v>
@@ -5761,21 +7057,24 @@
         <v>33</v>
       </c>
       <c r="L101" t="s">
-        <v>17</v>
-      </c>
-      <c r="M101" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="N101" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M101" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="N101" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O101" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102">
         <v>211101</v>
       </c>
       <c r="B102" t="s">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -5793,33 +7092,36 @@
         <v>101</v>
       </c>
       <c r="H102" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="I102" t="s">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="J102" t="s">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="K102">
         <v>33</v>
       </c>
       <c r="L102" t="s">
-        <v>17</v>
-      </c>
-      <c r="M102" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="N102" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M102" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="N102" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O102" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103">
         <v>212102</v>
       </c>
       <c r="B103" t="s">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -5837,33 +7139,36 @@
         <v>102</v>
       </c>
       <c r="H103" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="I103" t="s">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="J103" t="s">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="K103">
         <v>33</v>
       </c>
       <c r="L103" t="s">
-        <v>17</v>
-      </c>
-      <c r="M103" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="N103" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M103" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="N103" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O103" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104">
         <v>213103</v>
       </c>
       <c r="B104" t="s">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -5881,33 +7186,36 @@
         <v>103</v>
       </c>
       <c r="H104" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="I104" t="s">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="J104" t="s">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="K104">
         <v>33</v>
       </c>
       <c r="L104" t="s">
-        <v>17</v>
-      </c>
-      <c r="M104" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="N104" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="N104" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O104" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105">
         <v>214104</v>
       </c>
       <c r="B105" t="s">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -5925,33 +7233,36 @@
         <v>104</v>
       </c>
       <c r="H105" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="I105" t="s">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="J105" t="s">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="K105">
         <v>33</v>
       </c>
       <c r="L105" t="s">
-        <v>17</v>
-      </c>
-      <c r="M105" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="N105" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M105" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="N105" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O105" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106">
         <v>211105</v>
       </c>
       <c r="B106" t="s">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -5969,33 +7280,36 @@
         <v>105</v>
       </c>
       <c r="H106" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="I106" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="J106" t="s">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="K106">
         <v>33</v>
       </c>
       <c r="L106" t="s">
-        <v>17</v>
-      </c>
-      <c r="M106" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="N106" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="N106" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O106" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107">
         <v>212106</v>
       </c>
       <c r="B107" t="s">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -6013,33 +7327,36 @@
         <v>106</v>
       </c>
       <c r="H107" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="I107" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="J107" t="s">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="K107">
         <v>33</v>
       </c>
       <c r="L107" t="s">
-        <v>17</v>
-      </c>
-      <c r="M107" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="N107" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M107" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="N107" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O107" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108">
         <v>213107</v>
       </c>
       <c r="B108" t="s">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -6057,33 +7374,36 @@
         <v>107</v>
       </c>
       <c r="H108" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="I108" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="J108" t="s">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="K108">
         <v>33</v>
       </c>
       <c r="L108" t="s">
-        <v>17</v>
-      </c>
-      <c r="M108" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="N108" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M108" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="N108" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O108" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109">
         <v>214108</v>
       </c>
       <c r="B109" t="s">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -6101,33 +7421,36 @@
         <v>108</v>
       </c>
       <c r="H109" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="I109" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="J109" t="s">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="K109">
         <v>33</v>
       </c>
       <c r="L109" t="s">
-        <v>17</v>
-      </c>
-      <c r="M109" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="N109" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M109" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="N109" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O109" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110">
         <v>211109</v>
       </c>
       <c r="B110" t="s">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -6145,33 +7468,36 @@
         <v>109</v>
       </c>
       <c r="H110" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="I110" t="s">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="J110" t="s">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="K110">
         <v>33</v>
       </c>
       <c r="L110" t="s">
-        <v>17</v>
-      </c>
-      <c r="M110" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="N110" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M110" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="N110" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O110" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111">
         <v>212110</v>
       </c>
       <c r="B111" t="s">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -6189,33 +7515,36 @@
         <v>110</v>
       </c>
       <c r="H111" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="I111" t="s">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="J111" t="s">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="K111">
         <v>33</v>
       </c>
       <c r="L111" t="s">
-        <v>17</v>
-      </c>
-      <c r="M111" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="N111" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M111" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="N111" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O111" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112">
         <v>213111</v>
       </c>
       <c r="B112" t="s">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -6233,33 +7562,36 @@
         <v>111</v>
       </c>
       <c r="H112" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="I112" t="s">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="J112" t="s">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="K112">
         <v>33</v>
       </c>
       <c r="L112" t="s">
-        <v>17</v>
-      </c>
-      <c r="M112" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="N112" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M112" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="N112" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O112" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113">
         <v>214112</v>
       </c>
       <c r="B113" t="s">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -6277,33 +7609,36 @@
         <v>112</v>
       </c>
       <c r="H113" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="I113" t="s">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="J113" t="s">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="K113">
         <v>33</v>
       </c>
       <c r="L113" t="s">
-        <v>17</v>
-      </c>
-      <c r="M113" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="N113" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M113" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="N113" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O113" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114">
         <v>211113</v>
       </c>
       <c r="B114" t="s">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -6321,33 +7656,36 @@
         <v>113</v>
       </c>
       <c r="H114" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="I114" t="s">
-        <v>81</v>
+        <v>247</v>
       </c>
       <c r="J114" t="s">
-        <v>135</v>
+        <v>248</v>
       </c>
       <c r="K114">
         <v>33</v>
       </c>
       <c r="L114" t="s">
-        <v>17</v>
-      </c>
-      <c r="M114" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="N114" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M114" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="N114" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O114" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115">
         <v>212114</v>
       </c>
       <c r="B115" t="s">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -6365,33 +7703,36 @@
         <v>114</v>
       </c>
       <c r="H115" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="I115" t="s">
-        <v>81</v>
+        <v>247</v>
       </c>
       <c r="J115" t="s">
-        <v>135</v>
+        <v>248</v>
       </c>
       <c r="K115">
         <v>33</v>
       </c>
       <c r="L115" t="s">
-        <v>17</v>
-      </c>
-      <c r="M115" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="N115" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M115" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="N115" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O115" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
       <c r="A116">
         <v>213115</v>
       </c>
       <c r="B116" t="s">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -6409,33 +7750,36 @@
         <v>115</v>
       </c>
       <c r="H116" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="I116" t="s">
-        <v>81</v>
+        <v>247</v>
       </c>
       <c r="J116" t="s">
-        <v>135</v>
+        <v>248</v>
       </c>
       <c r="K116">
         <v>33</v>
       </c>
       <c r="L116" t="s">
-        <v>17</v>
-      </c>
-      <c r="M116" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="N116" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M116" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="N116" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O116" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
       <c r="A117">
         <v>214116</v>
       </c>
       <c r="B117" t="s">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -6453,33 +7797,36 @@
         <v>116</v>
       </c>
       <c r="H117" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="I117" t="s">
-        <v>81</v>
+        <v>247</v>
       </c>
       <c r="J117" t="s">
-        <v>135</v>
+        <v>248</v>
       </c>
       <c r="K117">
         <v>33</v>
       </c>
       <c r="L117" t="s">
-        <v>17</v>
-      </c>
-      <c r="M117" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="N117" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M117" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="N117" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O117" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118">
         <v>211117</v>
       </c>
       <c r="B118" t="s">
-        <v>82</v>
+        <v>254</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -6497,33 +7844,36 @@
         <v>117</v>
       </c>
       <c r="H118" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="I118" t="s">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="J118" t="s">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c r="K118">
         <v>33</v>
       </c>
       <c r="L118" t="s">
-        <v>17</v>
-      </c>
-      <c r="M118" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="N118" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M118" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="N118" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O118" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
       <c r="A119">
         <v>212118</v>
       </c>
       <c r="B119" t="s">
-        <v>82</v>
+        <v>254</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -6541,33 +7891,36 @@
         <v>118</v>
       </c>
       <c r="H119" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="I119" t="s">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="J119" t="s">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c r="K119">
         <v>33</v>
       </c>
       <c r="L119" t="s">
-        <v>17</v>
-      </c>
-      <c r="M119" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="N119" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M119" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="N119" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O119" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
       <c r="A120">
         <v>213119</v>
       </c>
       <c r="B120" t="s">
-        <v>82</v>
+        <v>254</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -6585,33 +7938,36 @@
         <v>119</v>
       </c>
       <c r="H120" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="I120" t="s">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="J120" t="s">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c r="K120">
         <v>33</v>
       </c>
       <c r="L120" t="s">
-        <v>17</v>
-      </c>
-      <c r="M120" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="N120" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M120" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="N120" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O120" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
       <c r="A121">
         <v>214120</v>
       </c>
       <c r="B121" t="s">
-        <v>82</v>
+        <v>254</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -6629,33 +7985,36 @@
         <v>120</v>
       </c>
       <c r="H121" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="I121" t="s">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="J121" t="s">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c r="K121">
         <v>33</v>
       </c>
       <c r="L121" t="s">
-        <v>17</v>
-      </c>
-      <c r="M121" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="N121" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M121" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="N121" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O121" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
       <c r="A122">
         <v>251121</v>
       </c>
       <c r="B122" t="s">
-        <v>84</v>
+        <v>262</v>
       </c>
       <c r="C122">
         <v>5</v>
@@ -6673,10 +8032,10 @@
         <v>121</v>
       </c>
       <c r="H122" t="s">
-        <v>85</v>
+        <v>263</v>
       </c>
       <c r="I122" t="s">
-        <v>86</v>
+        <v>264</v>
       </c>
       <c r="J122">
         <v>56</v>
@@ -6685,21 +8044,24 @@
         <v>33</v>
       </c>
       <c r="L122" t="s">
-        <v>17</v>
-      </c>
-      <c r="M122" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="N122" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M122" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="N122" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O122" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
       <c r="A123">
         <v>252122</v>
       </c>
       <c r="B123" t="s">
-        <v>84</v>
+        <v>262</v>
       </c>
       <c r="C123">
         <v>5</v>
@@ -6717,10 +8079,10 @@
         <v>122</v>
       </c>
       <c r="H123" t="s">
-        <v>85</v>
+        <v>263</v>
       </c>
       <c r="I123" t="s">
-        <v>86</v>
+        <v>264</v>
       </c>
       <c r="J123">
         <v>56</v>
@@ -6729,21 +8091,24 @@
         <v>33</v>
       </c>
       <c r="L123" t="s">
-        <v>17</v>
-      </c>
-      <c r="M123" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="N123" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M123" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="N123" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O123" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
       <c r="A124">
         <v>253123</v>
       </c>
       <c r="B124" t="s">
-        <v>84</v>
+        <v>262</v>
       </c>
       <c r="C124">
         <v>5</v>
@@ -6761,10 +8126,10 @@
         <v>123</v>
       </c>
       <c r="H124" t="s">
-        <v>85</v>
+        <v>263</v>
       </c>
       <c r="I124" t="s">
-        <v>86</v>
+        <v>264</v>
       </c>
       <c r="J124">
         <v>56</v>
@@ -6773,21 +8138,24 @@
         <v>33</v>
       </c>
       <c r="L124" t="s">
-        <v>17</v>
-      </c>
-      <c r="M124" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="N124" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M124" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="N124" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O124" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
       <c r="A125">
         <v>254124</v>
       </c>
       <c r="B125" t="s">
-        <v>84</v>
+        <v>262</v>
       </c>
       <c r="C125">
         <v>5</v>
@@ -6805,10 +8173,10 @@
         <v>124</v>
       </c>
       <c r="H125" t="s">
-        <v>85</v>
+        <v>263</v>
       </c>
       <c r="I125" t="s">
-        <v>86</v>
+        <v>264</v>
       </c>
       <c r="J125">
         <v>56</v>
@@ -6817,21 +8185,24 @@
         <v>33</v>
       </c>
       <c r="L125" t="s">
-        <v>17</v>
-      </c>
-      <c r="M125" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="N125" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M125" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="N125" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O125" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
       <c r="A126">
         <v>251125</v>
       </c>
       <c r="B126" t="s">
-        <v>87</v>
+        <v>270</v>
       </c>
       <c r="C126">
         <v>5</v>
@@ -6849,33 +8220,36 @@
         <v>125</v>
       </c>
       <c r="H126" t="s">
-        <v>85</v>
+        <v>263</v>
       </c>
       <c r="I126" t="s">
-        <v>88</v>
+        <v>271</v>
       </c>
       <c r="J126" t="s">
-        <v>137</v>
+        <v>272</v>
       </c>
       <c r="K126">
         <v>33</v>
       </c>
       <c r="L126" t="s">
-        <v>17</v>
-      </c>
-      <c r="M126" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="N126" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M126" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="N126" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O126" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
       <c r="A127">
         <v>252126</v>
       </c>
       <c r="B127" t="s">
-        <v>87</v>
+        <v>270</v>
       </c>
       <c r="C127">
         <v>5</v>
@@ -6893,33 +8267,36 @@
         <v>126</v>
       </c>
       <c r="H127" t="s">
-        <v>85</v>
+        <v>263</v>
       </c>
       <c r="I127" t="s">
-        <v>88</v>
+        <v>271</v>
       </c>
       <c r="J127" t="s">
-        <v>137</v>
+        <v>272</v>
       </c>
       <c r="K127">
         <v>33</v>
       </c>
       <c r="L127" t="s">
-        <v>17</v>
-      </c>
-      <c r="M127" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="N127" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M127" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="N127" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O127" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
       <c r="A128">
         <v>253127</v>
       </c>
       <c r="B128" t="s">
-        <v>87</v>
+        <v>270</v>
       </c>
       <c r="C128">
         <v>5</v>
@@ -6937,33 +8314,36 @@
         <v>127</v>
       </c>
       <c r="H128" t="s">
-        <v>85</v>
+        <v>263</v>
       </c>
       <c r="I128" t="s">
-        <v>88</v>
+        <v>271</v>
       </c>
       <c r="J128" t="s">
-        <v>137</v>
+        <v>272</v>
       </c>
       <c r="K128">
         <v>33</v>
       </c>
       <c r="L128" t="s">
-        <v>17</v>
-      </c>
-      <c r="M128" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="N128" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M128" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="N128" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O128" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
       <c r="A129">
         <v>254128</v>
       </c>
       <c r="B129" t="s">
-        <v>87</v>
+        <v>270</v>
       </c>
       <c r="C129">
         <v>5</v>
@@ -6981,33 +8361,36 @@
         <v>128</v>
       </c>
       <c r="H129" t="s">
-        <v>85</v>
+        <v>263</v>
       </c>
       <c r="I129" t="s">
-        <v>88</v>
+        <v>271</v>
       </c>
       <c r="J129" t="s">
-        <v>137</v>
+        <v>272</v>
       </c>
       <c r="K129">
         <v>33</v>
       </c>
       <c r="L129" t="s">
-        <v>17</v>
-      </c>
-      <c r="M129" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="N129" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M129" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="N129" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O129" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130">
         <v>251129</v>
       </c>
       <c r="B130" t="s">
-        <v>89</v>
+        <v>278</v>
       </c>
       <c r="C130">
         <v>5</v>
@@ -7025,33 +8408,36 @@
         <v>129</v>
       </c>
       <c r="H130" t="s">
-        <v>85</v>
+        <v>263</v>
       </c>
       <c r="I130" t="s">
-        <v>90</v>
+        <v>279</v>
       </c>
       <c r="J130" t="s">
-        <v>138</v>
+        <v>280</v>
       </c>
       <c r="K130">
         <v>33</v>
       </c>
       <c r="L130" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M130" t="s">
-        <v>115</v>
-      </c>
-      <c r="N130" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.15">
+        <v>281</v>
+      </c>
+      <c r="N130" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O130" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131">
         <v>252130</v>
       </c>
       <c r="B131" t="s">
-        <v>89</v>
+        <v>278</v>
       </c>
       <c r="C131">
         <v>5</v>
@@ -7069,33 +8455,36 @@
         <v>130</v>
       </c>
       <c r="H131" t="s">
-        <v>85</v>
+        <v>263</v>
       </c>
       <c r="I131" t="s">
-        <v>90</v>
+        <v>279</v>
       </c>
       <c r="J131" t="s">
-        <v>138</v>
+        <v>280</v>
       </c>
       <c r="K131">
         <v>33</v>
       </c>
       <c r="L131" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M131" t="s">
-        <v>115</v>
-      </c>
-      <c r="N131" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.15">
+        <v>281</v>
+      </c>
+      <c r="N131" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O131" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132">
         <v>253131</v>
       </c>
       <c r="B132" t="s">
-        <v>89</v>
+        <v>278</v>
       </c>
       <c r="C132">
         <v>5</v>
@@ -7113,33 +8502,36 @@
         <v>131</v>
       </c>
       <c r="H132" t="s">
-        <v>85</v>
+        <v>263</v>
       </c>
       <c r="I132" t="s">
-        <v>90</v>
+        <v>279</v>
       </c>
       <c r="J132" t="s">
-        <v>138</v>
+        <v>280</v>
       </c>
       <c r="K132">
         <v>33</v>
       </c>
       <c r="L132" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M132" t="s">
-        <v>115</v>
-      </c>
-      <c r="N132" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.15">
+        <v>281</v>
+      </c>
+      <c r="N132" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O132" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
       <c r="A133">
         <v>254132</v>
       </c>
       <c r="B133" t="s">
-        <v>89</v>
+        <v>278</v>
       </c>
       <c r="C133">
         <v>5</v>
@@ -7157,33 +8549,36 @@
         <v>132</v>
       </c>
       <c r="H133" t="s">
-        <v>85</v>
+        <v>263</v>
       </c>
       <c r="I133" t="s">
-        <v>90</v>
+        <v>279</v>
       </c>
       <c r="J133" t="s">
-        <v>138</v>
+        <v>280</v>
       </c>
       <c r="K133">
         <v>33</v>
       </c>
       <c r="L133" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M133" t="s">
-        <v>115</v>
-      </c>
-      <c r="N133" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.15">
+        <v>281</v>
+      </c>
+      <c r="N133" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O133" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
       <c r="A134">
         <v>251133</v>
       </c>
       <c r="B134" t="s">
-        <v>92</v>
+        <v>286</v>
       </c>
       <c r="C134">
         <v>5</v>
@@ -7201,33 +8596,36 @@
         <v>133</v>
       </c>
       <c r="H134" t="s">
-        <v>85</v>
+        <v>263</v>
       </c>
       <c r="I134" t="s">
-        <v>93</v>
+        <v>287</v>
       </c>
       <c r="J134" t="s">
-        <v>151</v>
+        <v>288</v>
       </c>
       <c r="K134">
         <v>33</v>
       </c>
       <c r="L134" t="s">
-        <v>17</v>
-      </c>
-      <c r="M134" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="N134" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M134" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="N134" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O134" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135">
         <v>252134</v>
       </c>
       <c r="B135" t="s">
-        <v>92</v>
+        <v>286</v>
       </c>
       <c r="C135">
         <v>5</v>
@@ -7245,33 +8643,36 @@
         <v>134</v>
       </c>
       <c r="H135" t="s">
-        <v>85</v>
+        <v>263</v>
       </c>
       <c r="I135" t="s">
-        <v>93</v>
+        <v>287</v>
       </c>
       <c r="J135" t="s">
-        <v>151</v>
+        <v>288</v>
       </c>
       <c r="K135">
         <v>33</v>
       </c>
       <c r="L135" t="s">
-        <v>17</v>
-      </c>
-      <c r="M135" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="N135" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M135" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="N135" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O135" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136">
         <v>253135</v>
       </c>
       <c r="B136" t="s">
-        <v>92</v>
+        <v>286</v>
       </c>
       <c r="C136">
         <v>5</v>
@@ -7289,33 +8690,36 @@
         <v>135</v>
       </c>
       <c r="H136" t="s">
-        <v>85</v>
+        <v>263</v>
       </c>
       <c r="I136" t="s">
-        <v>93</v>
+        <v>287</v>
       </c>
       <c r="J136" t="s">
-        <v>151</v>
+        <v>288</v>
       </c>
       <c r="K136">
         <v>33</v>
       </c>
       <c r="L136" t="s">
-        <v>17</v>
-      </c>
-      <c r="M136" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="N136" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M136" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="N136" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O136" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
       <c r="A137">
         <v>254136</v>
       </c>
       <c r="B137" t="s">
-        <v>92</v>
+        <v>286</v>
       </c>
       <c r="C137">
         <v>5</v>
@@ -7333,33 +8737,36 @@
         <v>136</v>
       </c>
       <c r="H137" t="s">
-        <v>85</v>
+        <v>263</v>
       </c>
       <c r="I137" t="s">
-        <v>93</v>
+        <v>287</v>
       </c>
       <c r="J137" t="s">
-        <v>151</v>
+        <v>288</v>
       </c>
       <c r="K137">
         <v>33</v>
       </c>
       <c r="L137" t="s">
-        <v>17</v>
-      </c>
-      <c r="M137" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="N137" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M137" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="N137" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O137" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
       <c r="A138">
         <v>251137</v>
       </c>
       <c r="B138" t="s">
-        <v>94</v>
+        <v>294</v>
       </c>
       <c r="C138">
         <v>5</v>
@@ -7377,33 +8784,36 @@
         <v>137</v>
       </c>
       <c r="H138" t="s">
-        <v>85</v>
+        <v>263</v>
       </c>
       <c r="I138" t="s">
-        <v>95</v>
+        <v>295</v>
       </c>
       <c r="J138" t="s">
-        <v>139</v>
+        <v>296</v>
       </c>
       <c r="K138">
         <v>33</v>
       </c>
       <c r="L138" t="s">
-        <v>17</v>
-      </c>
-      <c r="M138" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="N138" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M138" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="N138" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O138" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
       <c r="A139">
         <v>252138</v>
       </c>
       <c r="B139" t="s">
-        <v>94</v>
+        <v>294</v>
       </c>
       <c r="C139">
         <v>5</v>
@@ -7421,33 +8831,36 @@
         <v>138</v>
       </c>
       <c r="H139" t="s">
-        <v>85</v>
+        <v>263</v>
       </c>
       <c r="I139" t="s">
-        <v>95</v>
+        <v>295</v>
       </c>
       <c r="J139" t="s">
-        <v>139</v>
+        <v>296</v>
       </c>
       <c r="K139">
         <v>33</v>
       </c>
       <c r="L139" t="s">
-        <v>17</v>
-      </c>
-      <c r="M139" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="N139" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M139" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="N139" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O139" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
       <c r="A140">
         <v>253139</v>
       </c>
       <c r="B140" t="s">
-        <v>94</v>
+        <v>294</v>
       </c>
       <c r="C140">
         <v>5</v>
@@ -7465,33 +8878,36 @@
         <v>139</v>
       </c>
       <c r="H140" t="s">
-        <v>85</v>
+        <v>263</v>
       </c>
       <c r="I140" t="s">
-        <v>95</v>
+        <v>295</v>
       </c>
       <c r="J140" t="s">
-        <v>139</v>
+        <v>296</v>
       </c>
       <c r="K140">
         <v>33</v>
       </c>
       <c r="L140" t="s">
-        <v>17</v>
-      </c>
-      <c r="M140" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="N140" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M140" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="N140" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O140" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
       <c r="A141">
         <v>254140</v>
       </c>
       <c r="B141" t="s">
-        <v>94</v>
+        <v>294</v>
       </c>
       <c r="C141">
         <v>5</v>
@@ -7509,33 +8925,36 @@
         <v>140</v>
       </c>
       <c r="H141" t="s">
-        <v>85</v>
+        <v>263</v>
       </c>
       <c r="I141" t="s">
-        <v>95</v>
+        <v>295</v>
       </c>
       <c r="J141" t="s">
-        <v>139</v>
+        <v>296</v>
       </c>
       <c r="K141">
         <v>33</v>
       </c>
       <c r="L141" t="s">
-        <v>17</v>
-      </c>
-      <c r="M141" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="N141" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M141" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="N141" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O141" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142">
         <v>251141</v>
       </c>
       <c r="B142" t="s">
-        <v>96</v>
+        <v>302</v>
       </c>
       <c r="C142">
         <v>5</v>
@@ -7553,33 +8972,36 @@
         <v>141</v>
       </c>
       <c r="H142" t="s">
-        <v>85</v>
+        <v>263</v>
       </c>
       <c r="I142" t="s">
-        <v>97</v>
+        <v>303</v>
       </c>
       <c r="J142" t="s">
-        <v>140</v>
+        <v>304</v>
       </c>
       <c r="K142">
         <v>33</v>
       </c>
       <c r="L142" t="s">
-        <v>17</v>
-      </c>
-      <c r="M142" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="N142" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M142" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="N142" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O142" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
       <c r="A143">
         <v>252142</v>
       </c>
       <c r="B143" t="s">
-        <v>96</v>
+        <v>302</v>
       </c>
       <c r="C143">
         <v>5</v>
@@ -7597,33 +9019,36 @@
         <v>142</v>
       </c>
       <c r="H143" t="s">
-        <v>85</v>
+        <v>263</v>
       </c>
       <c r="I143" t="s">
-        <v>97</v>
+        <v>303</v>
       </c>
       <c r="J143" t="s">
-        <v>140</v>
+        <v>304</v>
       </c>
       <c r="K143">
         <v>33</v>
       </c>
       <c r="L143" t="s">
-        <v>17</v>
-      </c>
-      <c r="M143" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="N143" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M143" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="N143" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O143" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
       <c r="A144">
         <v>253143</v>
       </c>
       <c r="B144" t="s">
-        <v>96</v>
+        <v>302</v>
       </c>
       <c r="C144">
         <v>5</v>
@@ -7641,33 +9066,36 @@
         <v>143</v>
       </c>
       <c r="H144" t="s">
-        <v>85</v>
+        <v>263</v>
       </c>
       <c r="I144" t="s">
-        <v>97</v>
+        <v>303</v>
       </c>
       <c r="J144" t="s">
-        <v>140</v>
+        <v>304</v>
       </c>
       <c r="K144">
         <v>33</v>
       </c>
       <c r="L144" t="s">
-        <v>17</v>
-      </c>
-      <c r="M144" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="N144" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M144" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="N144" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O144" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145">
         <v>254144</v>
       </c>
       <c r="B145" t="s">
-        <v>96</v>
+        <v>302</v>
       </c>
       <c r="C145">
         <v>5</v>
@@ -7685,33 +9113,36 @@
         <v>144</v>
       </c>
       <c r="H145" t="s">
-        <v>85</v>
+        <v>263</v>
       </c>
       <c r="I145" t="s">
-        <v>97</v>
+        <v>303</v>
       </c>
       <c r="J145" t="s">
-        <v>140</v>
+        <v>304</v>
       </c>
       <c r="K145">
         <v>33</v>
       </c>
       <c r="L145" t="s">
-        <v>17</v>
-      </c>
-      <c r="M145" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="N145" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="M145" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="N145" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O145" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146">
         <v>234065</v>
       </c>
       <c r="B146" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="C146">
         <v>3</v>
@@ -7729,65 +9160,74 @@
         <v>64</v>
       </c>
       <c r="H146" t="s">
-        <v>46</v>
-      </c>
-      <c r="I146" s="5" t="s">
-        <v>53</v>
+        <v>119</v>
+      </c>
+      <c r="I146" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="J146" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K146">
         <v>33</v>
       </c>
       <c r="L146" t="s">
-        <v>17</v>
-      </c>
-      <c r="M146" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N146" s="4" t="s">
-        <v>163</v>
+        <v>18</v>
+      </c>
+      <c r="M146" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="N146" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="O146" s="5" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A145 A147:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A146">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <conditionalFormatting sqref="A1:A145 A147:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/other/配置表/z-装备配置表.xlsx
+++ b/other/配置表/z-装备配置表.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1129\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B44150-08AE-469F-8B45-0611332563FD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jayork</author>
     <author>CL</author>
@@ -24,13 +30,14 @@
     <author>48203541@qq.com</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jayork:</t>
@@ -39,6 +46,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -49,13 +57,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="1">
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -64,6 +73,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -72,13 +82,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -87,6 +98,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -100,13 +112,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jayork:</t>
@@ -115,6 +128,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -125,13 +139,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="1">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -140,6 +155,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -147,13 +163,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1">
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -162,6 +179,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -170,13 +188,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1">
+    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -185,6 +204,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -193,13 +213,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1">
+    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -208,6 +229,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -216,13 +238,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="1">
+    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -231,6 +254,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -247,13 +271,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jayork:</t>
@@ -262,6 +287,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -269,13 +295,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jayork:</t>
@@ -284,6 +311,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -291,13 +319,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="2">
+    <comment ref="O1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -306,6 +335,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -314,13 +344,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B146" authorId="3">
+    <comment ref="B146" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>48203541@qq.com:</t>
@@ -329,6 +360,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -341,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="169">
   <si>
     <t>id</t>
   </si>
@@ -403,21 +435,6 @@
     <t>({20,10}{40,24}{60,36}{80,48}{100,60}{120,72}{140,84}{160,96}{180,108}{200,120}{220,132}{240,144}{260,156}{280,168}{300,180}{320,192}{340,204}{360,216}{380,228}{400,240}{420,252}{440,264}{460,276}{480,288}{500,300})</t>
   </si>
   <si>
-    <t>{400001,100}{400002,100}{400003,100}{400004,100}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,300}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,301}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,302}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,303}</t>
-  </si>
-  <si>
     <t>钢铁之剑</t>
   </si>
   <si>
@@ -430,21 +447,6 @@
     <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
   </si>
   <si>
-    <t>{400005,100}{400006,100}{400007,100}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,304}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,305}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,306}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,307}</t>
-  </si>
-  <si>
     <t>生命之剑</t>
   </si>
   <si>
@@ -457,21 +459,6 @@
     <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,160}{40,400}{60,600}{80,800}{100,1000}{120,1200}{140,1400}{160,1600}{180,1800}{200,2000}{220,2200}{240,2400}{260,2600}{280,2800}{300,3000}{320,3200}{340,3400}{360,3600}{380,3800}{400,4000}{420,4200}{440,4400}{460,4600}{480,4800}{500,5000})</t>
   </si>
   <si>
-    <t>{400001,100}{400002,100}{400005,100}{400006,100}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,308}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,309}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,310}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,311}</t>
-  </si>
-  <si>
     <t>暴伤之剑</t>
   </si>
   <si>
@@ -484,21 +471,6 @@
     <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
   </si>
   <si>
-    <t>{400003,100}{400004,100}{400005,100}{400006,100}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,312}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,313}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,314}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,315}</t>
-  </si>
-  <si>
     <t>速度之剑</t>
   </si>
   <si>
@@ -511,21 +483,6 @@
     <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
   </si>
   <si>
-    <t>{400001,100}{400002,100}{400007,100}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,316}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,317}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,318}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,319}</t>
-  </si>
-  <si>
     <t>重伤之剑</t>
   </si>
   <si>
@@ -538,21 +495,6 @@
     <t>({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
   </si>
   <si>
-    <t>{400001,100}{400003,100}{400005,100}{400007,100}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,320}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,321}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,322}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,323}</t>
-  </si>
-  <si>
     <t>纯粹之甲</t>
   </si>
   <si>
@@ -565,18 +507,6 @@
     <t>({20,8}{40,20}{60,30}{80,40}{100,50}{120,60}{140,70}{160,80}{180,90}{200,100}{220,110}{240,120}{260,130}{280,140}{300,150}{320,160}{340,170}{360,180}{380,190}{400,200}{420,210}{440,220}{460,230}{480,240}{500,250})</t>
   </si>
   <si>
-    <t>{1,100}{2,200}{3,324}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,325}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,326}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,327}</t>
-  </si>
-  <si>
     <t>攻击之甲</t>
   </si>
   <si>
@@ -589,18 +519,6 @@
     <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
   </si>
   <si>
-    <t>{1,100}{2,200}{3,328}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,329}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,330}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,331}</t>
-  </si>
-  <si>
     <t>生命之甲</t>
   </si>
   <si>
@@ -613,18 +531,6 @@
     <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,160}{40,400}{60,600}{80,800}{100,1000}{120,1200}{140,1400}{160,1600}{180,1800}{200,2000}{220,2200}{240,2400}{260,2600}{280,2800}{300,3000}{320,3200}{340,3400}{360,3600}{380,3800}{400,4000}{420,4200}{440,4400}{460,4600}{480,4800}{500,5000})</t>
   </si>
   <si>
-    <t>{1,100}{2,200}{3,332}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,333}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,334}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,335}</t>
-  </si>
-  <si>
     <t>暴伤之甲</t>
   </si>
   <si>
@@ -637,18 +543,6 @@
     <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
   </si>
   <si>
-    <t>{1,100}{2,200}{3,336}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,337}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,338}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,339}</t>
-  </si>
-  <si>
     <t>速度之甲</t>
   </si>
   <si>
@@ -661,18 +555,6 @@
     <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
   </si>
   <si>
-    <t>{1,100}{2,200}{3,340}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,341}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,342}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,343}</t>
-  </si>
-  <si>
     <t>重伤之甲</t>
   </si>
   <si>
@@ -685,18 +567,6 @@
     <t>({20,6}{40,14}{60,21}{80,28}{100,35}{120,42}{140,49}{160,56}{180,63}{200,70}{220,77}{240,84}{260,91}{280,98}{300,105}{320,112}{340,119}{360,126}{380,133}{400,140}{420,147}{440,154}{460,161}{480,168}{500,175})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
   </si>
   <si>
-    <t>{1,100}{2,200}{3,344}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,345}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,346}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,347}</t>
-  </si>
-  <si>
     <t>纯粹之靴</t>
   </si>
   <si>
@@ -709,18 +579,6 @@
     <t>({20,400}{40,1000}{60,1500}{80,2000}{100,2500}{120,3000}{140,3500}{160,4000}{180,4500}{200,5000}{220,5500}{240,6000}{260,6500}{280,7000}{300,7500}{320,8000}{340,8500}{360,9000}{380,9500}{400,10000}{420,10500}{440,11000}{460,11500}{480,12000}{500,12500})</t>
   </si>
   <si>
-    <t>{1,100}{2,200}{3,348}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,349}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,350}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,351}</t>
-  </si>
-  <si>
     <t>攻击之靴</t>
   </si>
   <si>
@@ -733,18 +591,6 @@
     <t>({20,280}{40,700}{60,1050}{80,1400}{100,1750}{120,2100}{140,2450}{160,2800}{180,3150}{200,3500}{220,3850}{240,4200}{260,4550}{280,4900}{300,5250}{320,5600}{340,5950}{360,6300}{380,6650}{400,7000}{420,7350}{440,7700}{460,8050}{480,8400}{500,8750})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
   </si>
   <si>
-    <t>{1,100}{2,200}{3,352}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,353}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,354}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,355}</t>
-  </si>
-  <si>
     <t>钢铁之靴</t>
   </si>
   <si>
@@ -757,18 +603,6 @@
     <t>({20,280}{40,700}{60,1050}{80,1400}{100,1750}{120,2100}{140,2450}{160,2800}{180,3150}{200,3500}{220,3850}{240,4200}{260,4550}{280,4900}{300,5250}{320,5600}{340,5950}{360,6300}{380,6650}{400,7000}{420,7350}{440,7700}{460,8050}{480,8400}{500,8750})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
   </si>
   <si>
-    <t>{1,100}{2,200}{3,356}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,357}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,358}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,359}</t>
-  </si>
-  <si>
     <t>暴伤之靴</t>
   </si>
   <si>
@@ -781,18 +615,6 @@
     <t>({20,280}{40,700}{60,1050}{80,1400}{100,1750}{120,2100}{140,2450}{160,2800}{180,3150}{200,3500}{220,3850}{240,4200}{260,4550}{280,4900}{300,5250}{320,5600}{340,5950}{360,6300}{380,6650}{400,7000}{420,7350}{440,7700}{460,8050}{480,8400}{500,8750})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
   </si>
   <si>
-    <t>{1,100}{2,200}{3,360}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,361}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,362}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,363}</t>
-  </si>
-  <si>
     <t>速度之靴</t>
   </si>
   <si>
@@ -805,18 +627,6 @@
     <t>({20,280}{40,700}{60,1050}{80,1400}{100,1750}{120,2100}{140,2450}{160,2800}{180,3150}{200,3500}{220,3850}{240,4200}{260,4550}{280,4900}{300,5250}{320,5600}{340,5950}{360,6300}{380,6650}{400,7000}{420,7350}{440,7700}{460,8050}{480,8400}{500,8750})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
   </si>
   <si>
-    <t>{1,100}{2,200}{3,364}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,365}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,366}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,367}</t>
-  </si>
-  <si>
     <t>重伤之靴</t>
   </si>
   <si>
@@ -829,18 +639,6 @@
     <t>({20,280}{40,700}{60,1050}{80,1400}{100,1750}{120,2100}{140,2450}{160,2800}{180,3150}{200,3500}{220,3850}{240,4200}{260,4550}{280,4900}{300,5250}{320,5600}{340,5950}{360,6300}{380,6650}{400,7000}{420,7350}{440,7700}{460,8050}{480,8400}{500,8750})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
   </si>
   <si>
-    <t>{1,100}{2,200}{3,368}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,369}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,370}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,371}</t>
-  </si>
-  <si>
     <t>纯粹戒指</t>
   </si>
   <si>
@@ -853,18 +651,6 @@
     <t>({20,20}{40,48}{60,72}{80,96}{100,120}{120,144}{140,168}{160,192}{180,216}{200,240}{220,264}{240,288}{260,312}{280,336}{300,360}{320,384}{340,408}{360,432}{380,456}{400,480}{420,504}{440,528}{460,552}{480,576}{500,600})</t>
   </si>
   <si>
-    <t>{1,100}{2,200}{3,372}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,373}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,374}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,375}</t>
-  </si>
-  <si>
     <t>攻击戒指</t>
   </si>
   <si>
@@ -877,18 +663,6 @@
     <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
   </si>
   <si>
-    <t>{1,100}{2,200}{3,376}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,377}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,378}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,379}</t>
-  </si>
-  <si>
     <t>钢铁戒指</t>
   </si>
   <si>
@@ -901,18 +675,6 @@
     <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
   </si>
   <si>
-    <t>{1,100}{2,200}{3,380}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,381}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,382}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,383}</t>
-  </si>
-  <si>
     <t>生命戒指</t>
   </si>
   <si>
@@ -925,18 +687,6 @@
     <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,160}{40,400}{60,600}{80,800}{100,1000}{120,1200}{140,1400}{160,1600}{180,1800}{200,2000}{220,2200}{240,2400}{260,2600}{280,2800}{300,3000}{320,3200}{340,3400}{360,3600}{380,3800}{400,4000}{420,4200}{440,4400}{460,4600}{480,4800}{500,5000})</t>
   </si>
   <si>
-    <t>{1,100}{2,200}{3,384}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,385}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,386}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,387}</t>
-  </si>
-  <si>
     <t>速度戒指</t>
   </si>
   <si>
@@ -949,18 +699,6 @@
     <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
   </si>
   <si>
-    <t>{1,100}{2,200}{3,388}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,389}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,390}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,391}</t>
-  </si>
-  <si>
     <t>重伤戒指</t>
   </si>
   <si>
@@ -973,18 +711,6 @@
     <t>({20,14}{40,34}{60,50}{80,67}{100,84}{120,101}{140,118}{160,134}{180,151}{200,168}{220,185}{240,202}{260,218}{280,235}{300,252}{320,269}{340,286}{360,302}{380,319}{400,336}{420,353}{440,370}{460,386}{480,403}{500,420})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
   </si>
   <si>
-    <t>{1,100}{2,200}{3,392}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,393}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,394}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,395}</t>
-  </si>
-  <si>
     <t>纯粹头盔</t>
   </si>
   <si>
@@ -997,18 +723,6 @@
     <t>({20,5}{40,12}{60,18}{80,24}{100,30}{120,36}{140,42}{160,48}{180,54}{200,60}{220,66}{240,72}{260,78}{280,84}{300,90}{320,96}{340,102}{360,108}{380,114}{400,120}{420,126}{440,132}{460,138}{480,144}{500,150})</t>
   </si>
   <si>
-    <t>{1,100}{2,200}{3,396}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,397}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,398}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,399}</t>
-  </si>
-  <si>
     <t>攻击头盔</t>
   </si>
   <si>
@@ -1021,18 +735,6 @@
     <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
   </si>
   <si>
-    <t>{1,100}{2,200}{3,400}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,401}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,402}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,403}</t>
-  </si>
-  <si>
     <t>钢铁头盔</t>
   </si>
   <si>
@@ -1045,18 +747,6 @@
     <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
   </si>
   <si>
-    <t>{1,100}{2,200}{3,404}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,405}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,406}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,407}</t>
-  </si>
-  <si>
     <t>生命头盔</t>
   </si>
   <si>
@@ -1069,18 +759,6 @@
     <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,160}{40,400}{60,600}{80,800}{100,1000}{120,1200}{140,1400}{160,1600}{180,1800}{200,2000}{220,2200}{240,2400}{260,2600}{280,2800}{300,3000}{320,3200}{340,3400}{360,3600}{380,3800}{400,4000}{420,4200}{440,4400}{460,4600}{480,4800}{500,5000})</t>
   </si>
   <si>
-    <t>{1,100}{2,200}{3,408}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,409}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,410}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,411}</t>
-  </si>
-  <si>
     <t>暴伤头盔</t>
   </si>
   <si>
@@ -1093,18 +771,6 @@
     <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
   </si>
   <si>
-    <t>{1,100}{2,200}{3,412}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,413}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,414}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,415}</t>
-  </si>
-  <si>
     <t>重伤头盔</t>
   </si>
   <si>
@@ -1117,18 +783,6 @@
     <t>({20,4}{40,8}{60,13}{80,17}{100,21}{120,25}{140,29}{160,34}{180,38}{200,42}{220,46}{240,50}{260,55}{280,59}{300,63}{320,67}{340,71}{360,76}{380,80}{400,84}{420,88}{440,92}{460,97}{480,101}{500,105})({20,3}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
   </si>
   <si>
-    <t>{1,100}{2,200}{3,416}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,417}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,418}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,419}</t>
-  </si>
-  <si>
     <t>纯粹项链</t>
   </si>
   <si>
@@ -1141,18 +795,6 @@
     <t>({20,7}{40,16}{60,24}{80,32}{100,40}{120,48}{140,56}{160,64}{180,72}{200,80}{220,88}{240,96}{260,104}{280,112}{300,120}{320,128}{340,136}{360,144}{380,152}{400,160}{420,168}{440,176}{460,184}{480,192}{500,200})</t>
   </si>
   <si>
-    <t>{1,100}{2,200}{3,420}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,421}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,422}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,423}</t>
-  </si>
-  <si>
     <t>攻击项链</t>
   </si>
   <si>
@@ -1165,18 +807,6 @@
     <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,4}{40,10}{60,14}{80,19}{100,24}{120,29}{140,34}{160,38}{180,43}{200,48}{220,53}{240,58}{260,62}{280,67}{300,72}{320,77}{340,82}{360,86}{380,91}{400,96}{420,101}{440,106}{460,110}{480,115}{500,120})</t>
   </si>
   <si>
-    <t>{1,100}{2,200}{3,424}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,425}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,426}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,427}</t>
-  </si>
-  <si>
     <t>钢铁项链</t>
   </si>
   <si>
@@ -1189,18 +819,6 @@
     <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
   </si>
   <si>
-    <t>{1,100}{2,200}{3,428}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,429}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,430}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,431}</t>
-  </si>
-  <si>
     <t>生命项链</t>
   </si>
   <si>
@@ -1213,18 +831,6 @@
     <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,160}{40,400}{60,600}{80,800}{100,1000}{120,1200}{140,1400}{160,1600}{180,1800}{200,2000}{220,2200}{240,2400}{260,2600}{280,2800}{300,3000}{320,3200}{340,3400}{360,3600}{380,3800}{400,4000}{420,4200}{440,4400}{460,4600}{480,4800}{500,5000})</t>
   </si>
   <si>
-    <t>{1,100}{2,200}{3,432}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,433}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,434}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,435}</t>
-  </si>
-  <si>
     <t>暴伤项链</t>
   </si>
   <si>
@@ -1237,18 +843,6 @@
     <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
   </si>
   <si>
-    <t>{1,100}{2,200}{3,436}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,437}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,438}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,439}</t>
-  </si>
-  <si>
     <t>速度项链</t>
   </si>
   <si>
@@ -1261,35 +855,244 @@
     <t>({20,5}{40,11}{60,17}{80,22}{100,28}{120,34}{140,39}{160,45}{180,50}{200,56}{220,62}{240,67}{260,73}{280,78}{300,84}{320,90}{340,95}{360,101}{380,106}{400,112}{420,118}{440,123}{460,129}{480,134}{500,140})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
   </si>
   <si>
-    <t>{1,100}{2,200}{3,440}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,441}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,442}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,443}</t>
-  </si>
-  <si>
-    <t>{400005,100}</t>
-  </si>
-  <si>
-    <t>{1,100}{2,200}{3,444}</t>
+    <t>{1,1000}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1,1000}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{1,1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}{2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}{3,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{3,500}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{1,1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}{2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}{3,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{1,1500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}{2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{400005,100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{400001,100}{400002,100}{400003,100}{400004,100}{400005,100}{400006,100}{400007,100}{400009,100}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{1,1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{400009,1000}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1301,6 +1104,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1308,6 +1112,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1315,349 +1140,20 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1665,251 +1161,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1936,62 +1190,44 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2007,6 +1243,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2293,19 +1532,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:O146"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="O146" sqref="A146:O147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.375"/>
     <col min="2" max="2" width="9" customWidth="1"/>
@@ -2322,7 +1561,7 @@
     <col min="15" max="15" width="23.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2369,7 +1608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>241001</v>
       </c>
@@ -2410,13 +1649,13 @@
         <v>19</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>242002</v>
       </c>
@@ -2457,13 +1696,13 @@
         <v>19</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>243003</v>
       </c>
@@ -2504,13 +1743,13 @@
         <v>19</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>244004</v>
       </c>
@@ -2551,18 +1790,18 @@
         <v>19</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>241005</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2583,10 +1822,10 @@
         <v>16</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K6">
         <v>33</v>
@@ -2595,21 +1834,21 @@
         <v>18</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>242006</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -2630,10 +1869,10 @@
         <v>16</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K7">
         <v>33</v>
@@ -2642,21 +1881,21 @@
         <v>18</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>243007</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2677,10 +1916,10 @@
         <v>16</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K8">
         <v>33</v>
@@ -2689,21 +1928,21 @@
         <v>18</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>244008</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -2724,10 +1963,10 @@
         <v>16</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K9">
         <v>33</v>
@@ -2736,21 +1975,21 @@
         <v>18</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>241009</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -2771,10 +2010,10 @@
         <v>16</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K10">
         <v>33</v>
@@ -2783,21 +2022,21 @@
         <v>18</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>242010</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -2818,10 +2057,10 @@
         <v>16</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K11">
         <v>33</v>
@@ -2830,21 +2069,21 @@
         <v>18</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>243011</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -2865,10 +2104,10 @@
         <v>16</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K12">
         <v>33</v>
@@ -2877,21 +2116,21 @@
         <v>18</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>244012</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -2912,10 +2151,10 @@
         <v>16</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J13" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K13">
         <v>33</v>
@@ -2924,21 +2163,21 @@
         <v>18</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>241013</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -2959,10 +2198,10 @@
         <v>16</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K14">
         <v>33</v>
@@ -2971,21 +2210,21 @@
         <v>18</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>242014</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -3006,10 +2245,10 @@
         <v>16</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K15">
         <v>33</v>
@@ -3018,21 +2257,21 @@
         <v>18</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>243015</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -3053,10 +2292,10 @@
         <v>16</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K16">
         <v>33</v>
@@ -3065,21 +2304,21 @@
         <v>18</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>244016</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -3100,10 +2339,10 @@
         <v>16</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K17">
         <v>33</v>
@@ -3112,21 +2351,21 @@
         <v>18</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>241017</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -3147,10 +2386,10 @@
         <v>16</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="K18">
         <v>33</v>
@@ -3159,21 +2398,21 @@
         <v>18</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>242018</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -3194,10 +2433,10 @@
         <v>16</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="K19">
         <v>33</v>
@@ -3206,21 +2445,21 @@
         <v>18</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>243019</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -3241,10 +2480,10 @@
         <v>16</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="K20">
         <v>33</v>
@@ -3253,21 +2492,21 @@
         <v>18</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>244020</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -3288,10 +2527,10 @@
         <v>16</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J21" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="K21">
         <v>33</v>
@@ -3300,21 +2539,21 @@
         <v>18</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>241021</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -3335,10 +2574,10 @@
         <v>16</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="J22" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="K22">
         <v>33</v>
@@ -3347,21 +2586,21 @@
         <v>18</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>242022</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -3382,10 +2621,10 @@
         <v>16</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="J23" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="K23">
         <v>33</v>
@@ -3394,21 +2633,21 @@
         <v>18</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>243023</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -3429,10 +2668,10 @@
         <v>16</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="J24" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="K24">
         <v>33</v>
@@ -3441,21 +2680,21 @@
         <v>18</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>244024</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -3476,10 +2715,10 @@
         <v>16</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="J25" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="K25">
         <v>33</v>
@@ -3488,21 +2727,21 @@
         <v>18</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>221025</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -3520,10 +2759,10 @@
         <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="I26" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>64</v>
@@ -3535,21 +2774,21 @@
         <v>18</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>222026</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -3567,10 +2806,10 @@
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="I27" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>64</v>
@@ -3582,21 +2821,21 @@
         <v>18</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>223027</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -3614,10 +2853,10 @@
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="I28" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>64</v>
@@ -3629,21 +2868,21 @@
         <v>18</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>224028</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -3661,10 +2900,10 @@
         <v>28</v>
       </c>
       <c r="H29" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="I29" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>64</v>
@@ -3676,21 +2915,21 @@
         <v>18</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>221029</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -3708,13 +2947,13 @@
         <v>29</v>
       </c>
       <c r="H30" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="J30" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="K30">
         <v>33</v>
@@ -3723,21 +2962,21 @@
         <v>18</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>222030</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -3755,13 +2994,13 @@
         <v>30</v>
       </c>
       <c r="H31" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="J31" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="K31">
         <v>33</v>
@@ -3770,21 +3009,21 @@
         <v>18</v>
       </c>
       <c r="M31" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>223031</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -3802,13 +3041,13 @@
         <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="J32" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="K32">
         <v>33</v>
@@ -3817,21 +3056,21 @@
         <v>18</v>
       </c>
       <c r="M32" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O32" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>224032</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -3849,13 +3088,13 @@
         <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="J33" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="K33">
         <v>33</v>
@@ -3864,21 +3103,21 @@
         <v>18</v>
       </c>
       <c r="M33" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O33" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>221033</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -3896,13 +3135,13 @@
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="J34" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="K34">
         <v>33</v>
@@ -3911,21 +3150,21 @@
         <v>18</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>222034</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -3943,13 +3182,13 @@
         <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="J35" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="K35">
         <v>33</v>
@@ -3958,21 +3197,21 @@
         <v>18</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O35" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>223035</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -3990,13 +3229,13 @@
         <v>35</v>
       </c>
       <c r="H36" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="J36" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="K36">
         <v>33</v>
@@ -4005,21 +3244,21 @@
         <v>18</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>224036</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -4037,13 +3276,13 @@
         <v>36</v>
       </c>
       <c r="H37" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="J37" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="K37">
         <v>33</v>
@@ -4052,21 +3291,21 @@
         <v>18</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O37" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>221037</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -4084,13 +3323,13 @@
         <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="J38" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="K38">
         <v>33</v>
@@ -4099,21 +3338,21 @@
         <v>18</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>222038</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -4131,13 +3370,13 @@
         <v>38</v>
       </c>
       <c r="H39" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="J39" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="K39">
         <v>33</v>
@@ -4146,21 +3385,21 @@
         <v>18</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O39" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>223039</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -4178,13 +3417,13 @@
         <v>39</v>
       </c>
       <c r="H40" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="J40" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="K40">
         <v>33</v>
@@ -4193,21 +3432,21 @@
         <v>18</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O40" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>224040</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -4225,13 +3464,13 @@
         <v>40</v>
       </c>
       <c r="H41" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="J41" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="K41">
         <v>33</v>
@@ -4240,21 +3479,21 @@
         <v>18</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O41" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>221041</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -4272,13 +3511,13 @@
         <v>41</v>
       </c>
       <c r="H42" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="J42" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="K42">
         <v>33</v>
@@ -4287,21 +3526,21 @@
         <v>18</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>222042</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -4319,13 +3558,13 @@
         <v>42</v>
       </c>
       <c r="H43" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="J43" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="K43">
         <v>33</v>
@@ -4334,21 +3573,21 @@
         <v>18</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O43" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>223043</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -4366,13 +3605,13 @@
         <v>43</v>
       </c>
       <c r="H44" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="J44" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="K44">
         <v>33</v>
@@ -4381,21 +3620,21 @@
         <v>18</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O44" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>224044</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -4413,13 +3652,13 @@
         <v>44</v>
       </c>
       <c r="H45" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="J45" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="K45">
         <v>33</v>
@@ -4428,21 +3667,21 @@
         <v>18</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O45" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>221045</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -4460,13 +3699,13 @@
         <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="J46" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="K46">
         <v>33</v>
@@ -4475,21 +3714,21 @@
         <v>18</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>222046</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -4507,13 +3746,13 @@
         <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="J47" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="K47">
         <v>33</v>
@@ -4522,21 +3761,21 @@
         <v>18</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O47" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>223047</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -4554,13 +3793,13 @@
         <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="J48" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="K48">
         <v>33</v>
@@ -4569,21 +3808,21 @@
         <v>18</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O48" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>224048</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -4601,13 +3840,13 @@
         <v>48</v>
       </c>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="J49" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="K49">
         <v>33</v>
@@ -4616,21 +3855,21 @@
         <v>18</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O49" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>231049</v>
       </c>
       <c r="B50" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -4648,10 +3887,10 @@
         <v>49</v>
       </c>
       <c r="H50" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="I50" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="J50">
         <v>3200</v>
@@ -4663,21 +3902,21 @@
         <v>18</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>232050</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -4695,10 +3934,10 @@
         <v>50</v>
       </c>
       <c r="H51" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="I51" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="J51">
         <v>3200</v>
@@ -4710,21 +3949,21 @@
         <v>18</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O51" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O51" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>233051</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -4742,10 +3981,10 @@
         <v>51</v>
       </c>
       <c r="H52" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="I52" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="J52">
         <v>3200</v>
@@ -4757,21 +3996,21 @@
         <v>18</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O52" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O52" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>234052</v>
       </c>
       <c r="B53" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -4789,10 +4028,10 @@
         <v>52</v>
       </c>
       <c r="H53" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="I53" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="J53">
         <v>3200</v>
@@ -4804,21 +4043,21 @@
         <v>18</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O53" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O53" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>231053</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -4836,13 +4075,13 @@
         <v>53</v>
       </c>
       <c r="H54" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="J54" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="K54">
         <v>33</v>
@@ -4851,21 +4090,21 @@
         <v>18</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>232054</v>
       </c>
       <c r="B55" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -4883,13 +4122,13 @@
         <v>54</v>
       </c>
       <c r="H55" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="J55" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="K55">
         <v>33</v>
@@ -4898,21 +4137,21 @@
         <v>18</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O55" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O55" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>233055</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -4930,13 +4169,13 @@
         <v>55</v>
       </c>
       <c r="H56" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="J56" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="K56">
         <v>33</v>
@@ -4945,21 +4184,21 @@
         <v>18</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O56" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O56" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>234056</v>
       </c>
       <c r="B57" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -4977,13 +4216,13 @@
         <v>56</v>
       </c>
       <c r="H57" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="J57" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="K57">
         <v>33</v>
@@ -4992,21 +4231,21 @@
         <v>18</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O57" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O57" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>231057</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -5024,13 +4263,13 @@
         <v>57</v>
       </c>
       <c r="H58" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="J58" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="K58">
         <v>33</v>
@@ -5039,21 +4278,21 @@
         <v>18</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>232058</v>
       </c>
       <c r="B59" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -5071,13 +4310,13 @@
         <v>58</v>
       </c>
       <c r="H59" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="J59" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="K59">
         <v>33</v>
@@ -5086,21 +4325,21 @@
         <v>18</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O59" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O59" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>233059</v>
       </c>
       <c r="B60" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -5118,13 +4357,13 @@
         <v>59</v>
       </c>
       <c r="H60" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="J60" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="K60">
         <v>33</v>
@@ -5133,21 +4372,21 @@
         <v>18</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O60" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O60" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>234060</v>
       </c>
       <c r="B61" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -5165,13 +4404,13 @@
         <v>60</v>
       </c>
       <c r="H61" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="J61" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="K61">
         <v>33</v>
@@ -5180,21 +4419,21 @@
         <v>18</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O61" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O61" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>231061</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -5212,13 +4451,13 @@
         <v>61</v>
       </c>
       <c r="H62" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="J62" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="K62">
         <v>33</v>
@@ -5227,21 +4466,21 @@
         <v>18</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>232062</v>
       </c>
       <c r="B63" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -5259,13 +4498,13 @@
         <v>62</v>
       </c>
       <c r="H63" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="J63" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="K63">
         <v>33</v>
@@ -5274,21 +4513,21 @@
         <v>18</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O63" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O63" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>233063</v>
       </c>
       <c r="B64" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -5306,13 +4545,13 @@
         <v>63</v>
       </c>
       <c r="H64" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="J64" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="K64">
         <v>33</v>
@@ -5321,21 +4560,21 @@
         <v>18</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O64" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O64" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>234064</v>
       </c>
       <c r="B65" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -5353,13 +4592,13 @@
         <v>64</v>
       </c>
       <c r="H65" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="J65" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="K65">
         <v>33</v>
@@ -5368,21 +4607,21 @@
         <v>18</v>
       </c>
       <c r="M65" s="6" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O65" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O65" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>231065</v>
       </c>
       <c r="B66" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -5400,13 +4639,13 @@
         <v>65</v>
       </c>
       <c r="H66" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="J66" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="K66">
         <v>33</v>
@@ -5415,21 +4654,21 @@
         <v>18</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="O66" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>232066</v>
       </c>
       <c r="B67" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -5447,13 +4686,13 @@
         <v>66</v>
       </c>
       <c r="H67" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="J67" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="K67">
         <v>33</v>
@@ -5462,21 +4701,21 @@
         <v>18</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O67" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O67" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>233067</v>
       </c>
       <c r="B68" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -5494,13 +4733,13 @@
         <v>67</v>
       </c>
       <c r="H68" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="J68" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="K68">
         <v>33</v>
@@ -5509,21 +4748,21 @@
         <v>18</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="N68" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O68" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O68" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>234068</v>
       </c>
       <c r="B69" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -5541,13 +4780,13 @@
         <v>68</v>
       </c>
       <c r="H69" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="J69" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="K69">
         <v>33</v>
@@ -5556,21 +4795,21 @@
         <v>18</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O69" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O69" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>231069</v>
       </c>
       <c r="B70" t="s">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -5588,13 +4827,13 @@
         <v>69</v>
       </c>
       <c r="H70" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="J70" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="K70">
         <v>33</v>
@@ -5603,21 +4842,21 @@
         <v>18</v>
       </c>
       <c r="M70" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="O70" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="N70" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O70" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>232070</v>
       </c>
       <c r="B71" t="s">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -5635,13 +4874,13 @@
         <v>70</v>
       </c>
       <c r="H71" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="J71" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="K71">
         <v>33</v>
@@ -5650,21 +4889,21 @@
         <v>18</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="N71" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O71" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O71" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>233071</v>
       </c>
       <c r="B72" t="s">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -5682,13 +4921,13 @@
         <v>71</v>
       </c>
       <c r="H72" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="J72" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="K72">
         <v>33</v>
@@ -5697,21 +4936,21 @@
         <v>18</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="N72" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O72" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O72" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>234072</v>
       </c>
       <c r="B73" t="s">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -5729,13 +4968,13 @@
         <v>72</v>
       </c>
       <c r="H73" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="J73" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="K73">
         <v>33</v>
@@ -5744,21 +4983,21 @@
         <v>18</v>
       </c>
       <c r="M73" s="6" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="N73" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O73" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O73" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>261073</v>
       </c>
       <c r="B74" t="s">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="C74">
         <v>6</v>
@@ -5776,10 +5015,10 @@
         <v>73</v>
       </c>
       <c r="H74" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="I74" t="s">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="J74">
         <v>160</v>
@@ -5791,21 +5030,21 @@
         <v>18</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="O74" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>262074</v>
       </c>
       <c r="B75" t="s">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="C75">
         <v>6</v>
@@ -5823,10 +5062,10 @@
         <v>74</v>
       </c>
       <c r="H75" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="I75" t="s">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="J75">
         <v>160</v>
@@ -5838,21 +5077,21 @@
         <v>18</v>
       </c>
       <c r="M75" s="6" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O75" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O75" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>263075</v>
       </c>
       <c r="B76" t="s">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="C76">
         <v>6</v>
@@ -5870,10 +5109,10 @@
         <v>75</v>
       </c>
       <c r="H76" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="I76" t="s">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="J76">
         <v>160</v>
@@ -5885,21 +5124,21 @@
         <v>18</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O76" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O76" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>264076</v>
       </c>
       <c r="B77" t="s">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="C77">
         <v>6</v>
@@ -5917,10 +5156,10 @@
         <v>76</v>
       </c>
       <c r="H77" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="I77" t="s">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="J77">
         <v>160</v>
@@ -5932,21 +5171,21 @@
         <v>18</v>
       </c>
       <c r="M77" s="6" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="N77" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O77" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O77" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>261077</v>
       </c>
       <c r="B78" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -5964,13 +5203,13 @@
         <v>77</v>
       </c>
       <c r="H78" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="J78" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="K78">
         <v>33</v>
@@ -5979,21 +5218,21 @@
         <v>18</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>177</v>
+        <v>95</v>
       </c>
       <c r="N78" s="5" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="O78" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>262078</v>
       </c>
       <c r="B79" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="C79">
         <v>6</v>
@@ -6011,13 +5250,13 @@
         <v>78</v>
       </c>
       <c r="H79" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="J79" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="K79">
         <v>33</v>
@@ -6026,21 +5265,21 @@
         <v>18</v>
       </c>
       <c r="M79" s="6" t="s">
-        <v>177</v>
+        <v>95</v>
       </c>
       <c r="N79" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O79" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O79" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>263079</v>
       </c>
       <c r="B80" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="C80">
         <v>6</v>
@@ -6058,13 +5297,13 @@
         <v>79</v>
       </c>
       <c r="H80" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="J80" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="K80">
         <v>33</v>
@@ -6073,21 +5312,21 @@
         <v>18</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>177</v>
+        <v>95</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O80" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O80" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>264080</v>
       </c>
       <c r="B81" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="C81">
         <v>6</v>
@@ -6105,13 +5344,13 @@
         <v>80</v>
       </c>
       <c r="H81" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="J81" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="K81">
         <v>33</v>
@@ -6120,21 +5359,21 @@
         <v>18</v>
       </c>
       <c r="M81" s="6" t="s">
-        <v>177</v>
+        <v>95</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O81" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O81" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>261081</v>
       </c>
       <c r="B82" t="s">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="C82">
         <v>6</v>
@@ -6152,13 +5391,13 @@
         <v>81</v>
       </c>
       <c r="H82" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c r="J82" t="s">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="K82">
         <v>33</v>
@@ -6167,21 +5406,21 @@
         <v>18</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="O82" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>262082</v>
       </c>
       <c r="B83" t="s">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="C83">
         <v>6</v>
@@ -6199,13 +5438,13 @@
         <v>82</v>
       </c>
       <c r="H83" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c r="J83" t="s">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="K83">
         <v>33</v>
@@ -6214,21 +5453,21 @@
         <v>18</v>
       </c>
       <c r="M83" s="6" t="s">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="N83" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O83" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O83" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>263083</v>
       </c>
       <c r="B84" t="s">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="C84">
         <v>6</v>
@@ -6246,13 +5485,13 @@
         <v>83</v>
       </c>
       <c r="H84" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c r="J84" t="s">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="K84">
         <v>33</v>
@@ -6261,21 +5500,21 @@
         <v>18</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="N84" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O84" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O84" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>264084</v>
       </c>
       <c r="B85" t="s">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="C85">
         <v>6</v>
@@ -6293,13 +5532,13 @@
         <v>84</v>
       </c>
       <c r="H85" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c r="J85" t="s">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="K85">
         <v>33</v>
@@ -6308,21 +5547,21 @@
         <v>18</v>
       </c>
       <c r="M85" s="6" t="s">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="N85" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O85" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O85" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>261085</v>
       </c>
       <c r="B86" t="s">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="C86">
         <v>6</v>
@@ -6340,13 +5579,13 @@
         <v>85</v>
       </c>
       <c r="H86" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="J86" t="s">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="K86">
         <v>33</v>
@@ -6355,21 +5594,21 @@
         <v>18</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>193</v>
+        <v>103</v>
       </c>
       <c r="N86" s="5" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
       <c r="O86" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>262086</v>
       </c>
       <c r="B87" t="s">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="C87">
         <v>6</v>
@@ -6387,13 +5626,13 @@
         <v>86</v>
       </c>
       <c r="H87" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="J87" t="s">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="K87">
         <v>33</v>
@@ -6402,21 +5641,21 @@
         <v>18</v>
       </c>
       <c r="M87" s="6" t="s">
-        <v>193</v>
+        <v>103</v>
       </c>
       <c r="N87" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O87" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O87" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>263087</v>
       </c>
       <c r="B88" t="s">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="C88">
         <v>6</v>
@@ -6434,13 +5673,13 @@
         <v>87</v>
       </c>
       <c r="H88" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="J88" t="s">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="K88">
         <v>33</v>
@@ -6449,21 +5688,21 @@
         <v>18</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>193</v>
+        <v>103</v>
       </c>
       <c r="N88" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O88" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O88" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>264088</v>
       </c>
       <c r="B89" t="s">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="C89">
         <v>6</v>
@@ -6481,13 +5720,13 @@
         <v>88</v>
       </c>
       <c r="H89" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="J89" t="s">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="K89">
         <v>33</v>
@@ -6496,21 +5735,21 @@
         <v>18</v>
       </c>
       <c r="M89" s="6" t="s">
-        <v>193</v>
+        <v>103</v>
       </c>
       <c r="N89" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O89" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O89" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>261089</v>
       </c>
       <c r="B90" t="s">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="C90">
         <v>6</v>
@@ -6528,13 +5767,13 @@
         <v>89</v>
       </c>
       <c r="H90" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>199</v>
+        <v>105</v>
       </c>
       <c r="J90" t="s">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="K90">
         <v>33</v>
@@ -6543,21 +5782,21 @@
         <v>18</v>
       </c>
       <c r="M90" s="6" t="s">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="N90" s="5" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="O90" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>262090</v>
       </c>
       <c r="B91" t="s">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="C91">
         <v>6</v>
@@ -6575,13 +5814,13 @@
         <v>90</v>
       </c>
       <c r="H91" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>199</v>
+        <v>105</v>
       </c>
       <c r="J91" t="s">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="K91">
         <v>33</v>
@@ -6590,21 +5829,21 @@
         <v>18</v>
       </c>
       <c r="M91" s="6" t="s">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="N91" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O91" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O91" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>263091</v>
       </c>
       <c r="B92" t="s">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="C92">
         <v>6</v>
@@ -6622,13 +5861,13 @@
         <v>91</v>
       </c>
       <c r="H92" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>199</v>
+        <v>105</v>
       </c>
       <c r="J92" t="s">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="K92">
         <v>33</v>
@@ -6637,21 +5876,21 @@
         <v>18</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="N92" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O92" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O92" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>264092</v>
       </c>
       <c r="B93" t="s">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="C93">
         <v>6</v>
@@ -6669,13 +5908,13 @@
         <v>92</v>
       </c>
       <c r="H93" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>199</v>
+        <v>105</v>
       </c>
       <c r="J93" t="s">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="K93">
         <v>33</v>
@@ -6684,21 +5923,21 @@
         <v>18</v>
       </c>
       <c r="M93" s="6" t="s">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="N93" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O93" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O93" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>261093</v>
       </c>
       <c r="B94" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="C94">
         <v>6</v>
@@ -6716,13 +5955,13 @@
         <v>93</v>
       </c>
       <c r="H94" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="J94" t="s">
-        <v>208</v>
+        <v>110</v>
       </c>
       <c r="K94">
         <v>33</v>
@@ -6731,21 +5970,21 @@
         <v>18</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>209</v>
+        <v>111</v>
       </c>
       <c r="N94" s="5" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="O94" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>262094</v>
       </c>
       <c r="B95" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="C95">
         <v>6</v>
@@ -6763,13 +6002,13 @@
         <v>94</v>
       </c>
       <c r="H95" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="J95" t="s">
-        <v>208</v>
+        <v>110</v>
       </c>
       <c r="K95">
         <v>33</v>
@@ -6778,21 +6017,21 @@
         <v>18</v>
       </c>
       <c r="M95" s="6" t="s">
-        <v>209</v>
+        <v>111</v>
       </c>
       <c r="N95" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O95" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O95" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>263095</v>
       </c>
       <c r="B96" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="C96">
         <v>6</v>
@@ -6810,13 +6049,13 @@
         <v>95</v>
       </c>
       <c r="H96" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="J96" t="s">
-        <v>208</v>
+        <v>110</v>
       </c>
       <c r="K96">
         <v>33</v>
@@ -6825,21 +6064,21 @@
         <v>18</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>209</v>
+        <v>111</v>
       </c>
       <c r="N96" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O96" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O96" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>264096</v>
       </c>
       <c r="B97" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="C97">
         <v>6</v>
@@ -6857,13 +6096,13 @@
         <v>96</v>
       </c>
       <c r="H97" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="J97" t="s">
-        <v>208</v>
+        <v>110</v>
       </c>
       <c r="K97">
         <v>33</v>
@@ -6872,21 +6111,21 @@
         <v>18</v>
       </c>
       <c r="M97" s="6" t="s">
-        <v>209</v>
+        <v>111</v>
       </c>
       <c r="N97" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O97" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O97" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>211097</v>
       </c>
       <c r="B98" t="s">
-        <v>214</v>
+        <v>112</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -6904,10 +6143,10 @@
         <v>97</v>
       </c>
       <c r="H98" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="I98" t="s">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="J98">
         <v>40</v>
@@ -6919,21 +6158,21 @@
         <v>18</v>
       </c>
       <c r="M98" s="6" t="s">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="N98" s="5" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="O98" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>212098</v>
       </c>
       <c r="B99" t="s">
-        <v>214</v>
+        <v>112</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -6951,10 +6190,10 @@
         <v>98</v>
       </c>
       <c r="H99" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="I99" t="s">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="J99">
         <v>40</v>
@@ -6966,21 +6205,21 @@
         <v>18</v>
       </c>
       <c r="M99" s="6" t="s">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="N99" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O99" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O99" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>213099</v>
       </c>
       <c r="B100" t="s">
-        <v>214</v>
+        <v>112</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -6998,10 +6237,10 @@
         <v>99</v>
       </c>
       <c r="H100" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="I100" t="s">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="J100">
         <v>40</v>
@@ -7013,21 +6252,21 @@
         <v>18</v>
       </c>
       <c r="M100" s="6" t="s">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="N100" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O100" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O100" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>214100</v>
       </c>
       <c r="B101" t="s">
-        <v>214</v>
+        <v>112</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -7045,10 +6284,10 @@
         <v>100</v>
       </c>
       <c r="H101" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="I101" t="s">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="J101">
         <v>40</v>
@@ -7060,21 +6299,21 @@
         <v>18</v>
       </c>
       <c r="M101" s="6" t="s">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="N101" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O101" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O101" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>211101</v>
       </c>
       <c r="B102" t="s">
-        <v>222</v>
+        <v>116</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -7092,13 +6331,13 @@
         <v>101</v>
       </c>
       <c r="H102" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="I102" t="s">
-        <v>223</v>
+        <v>117</v>
       </c>
       <c r="J102" t="s">
-        <v>224</v>
+        <v>118</v>
       </c>
       <c r="K102">
         <v>33</v>
@@ -7107,21 +6346,21 @@
         <v>18</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>225</v>
+        <v>119</v>
       </c>
       <c r="N102" s="5" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="O102" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>212102</v>
       </c>
       <c r="B103" t="s">
-        <v>222</v>
+        <v>116</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -7139,13 +6378,13 @@
         <v>102</v>
       </c>
       <c r="H103" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="I103" t="s">
-        <v>223</v>
+        <v>117</v>
       </c>
       <c r="J103" t="s">
-        <v>224</v>
+        <v>118</v>
       </c>
       <c r="K103">
         <v>33</v>
@@ -7154,21 +6393,21 @@
         <v>18</v>
       </c>
       <c r="M103" s="6" t="s">
-        <v>225</v>
+        <v>119</v>
       </c>
       <c r="N103" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O103" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O103" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>213103</v>
       </c>
       <c r="B104" t="s">
-        <v>222</v>
+        <v>116</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -7186,13 +6425,13 @@
         <v>103</v>
       </c>
       <c r="H104" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="I104" t="s">
-        <v>223</v>
+        <v>117</v>
       </c>
       <c r="J104" t="s">
-        <v>224</v>
+        <v>118</v>
       </c>
       <c r="K104">
         <v>33</v>
@@ -7201,21 +6440,21 @@
         <v>18</v>
       </c>
       <c r="M104" s="6" t="s">
-        <v>225</v>
+        <v>119</v>
       </c>
       <c r="N104" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O104" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O104" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>214104</v>
       </c>
       <c r="B105" t="s">
-        <v>222</v>
+        <v>116</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -7233,13 +6472,13 @@
         <v>104</v>
       </c>
       <c r="H105" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="I105" t="s">
-        <v>223</v>
+        <v>117</v>
       </c>
       <c r="J105" t="s">
-        <v>224</v>
+        <v>118</v>
       </c>
       <c r="K105">
         <v>33</v>
@@ -7248,21 +6487,21 @@
         <v>18</v>
       </c>
       <c r="M105" s="6" t="s">
-        <v>225</v>
+        <v>119</v>
       </c>
       <c r="N105" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O105" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O105" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>211105</v>
       </c>
       <c r="B106" t="s">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -7280,13 +6519,13 @@
         <v>105</v>
       </c>
       <c r="H106" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="I106" t="s">
-        <v>231</v>
+        <v>121</v>
       </c>
       <c r="J106" t="s">
-        <v>232</v>
+        <v>122</v>
       </c>
       <c r="K106">
         <v>33</v>
@@ -7295,21 +6534,21 @@
         <v>18</v>
       </c>
       <c r="M106" s="6" t="s">
-        <v>233</v>
+        <v>123</v>
       </c>
       <c r="N106" s="5" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="O106" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>212106</v>
       </c>
       <c r="B107" t="s">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -7327,13 +6566,13 @@
         <v>106</v>
       </c>
       <c r="H107" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="I107" t="s">
-        <v>231</v>
+        <v>121</v>
       </c>
       <c r="J107" t="s">
-        <v>232</v>
+        <v>122</v>
       </c>
       <c r="K107">
         <v>33</v>
@@ -7342,21 +6581,21 @@
         <v>18</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>233</v>
+        <v>123</v>
       </c>
       <c r="N107" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O107" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O107" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>213107</v>
       </c>
       <c r="B108" t="s">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -7374,13 +6613,13 @@
         <v>107</v>
       </c>
       <c r="H108" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="I108" t="s">
-        <v>231</v>
+        <v>121</v>
       </c>
       <c r="J108" t="s">
-        <v>232</v>
+        <v>122</v>
       </c>
       <c r="K108">
         <v>33</v>
@@ -7389,21 +6628,21 @@
         <v>18</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>233</v>
+        <v>123</v>
       </c>
       <c r="N108" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O108" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O108" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>214108</v>
       </c>
       <c r="B109" t="s">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -7421,13 +6660,13 @@
         <v>108</v>
       </c>
       <c r="H109" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="I109" t="s">
-        <v>231</v>
+        <v>121</v>
       </c>
       <c r="J109" t="s">
-        <v>232</v>
+        <v>122</v>
       </c>
       <c r="K109">
         <v>33</v>
@@ -7436,21 +6675,21 @@
         <v>18</v>
       </c>
       <c r="M109" s="6" t="s">
-        <v>233</v>
+        <v>123</v>
       </c>
       <c r="N109" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O109" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O109" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>211109</v>
       </c>
       <c r="B110" t="s">
-        <v>238</v>
+        <v>124</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -7468,13 +6707,13 @@
         <v>109</v>
       </c>
       <c r="H110" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="I110" t="s">
-        <v>239</v>
+        <v>125</v>
       </c>
       <c r="J110" t="s">
-        <v>240</v>
+        <v>126</v>
       </c>
       <c r="K110">
         <v>33</v>
@@ -7483,21 +6722,21 @@
         <v>18</v>
       </c>
       <c r="M110" s="6" t="s">
-        <v>241</v>
+        <v>127</v>
       </c>
       <c r="N110" s="5" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
       <c r="O110" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>212110</v>
       </c>
       <c r="B111" t="s">
-        <v>238</v>
+        <v>124</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -7515,13 +6754,13 @@
         <v>110</v>
       </c>
       <c r="H111" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="I111" t="s">
-        <v>239</v>
+        <v>125</v>
       </c>
       <c r="J111" t="s">
-        <v>240</v>
+        <v>126</v>
       </c>
       <c r="K111">
         <v>33</v>
@@ -7530,21 +6769,21 @@
         <v>18</v>
       </c>
       <c r="M111" s="6" t="s">
-        <v>241</v>
+        <v>127</v>
       </c>
       <c r="N111" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O111" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O111" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>213111</v>
       </c>
       <c r="B112" t="s">
-        <v>238</v>
+        <v>124</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -7562,13 +6801,13 @@
         <v>111</v>
       </c>
       <c r="H112" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="I112" t="s">
-        <v>239</v>
+        <v>125</v>
       </c>
       <c r="J112" t="s">
-        <v>240</v>
+        <v>126</v>
       </c>
       <c r="K112">
         <v>33</v>
@@ -7577,21 +6816,21 @@
         <v>18</v>
       </c>
       <c r="M112" s="6" t="s">
-        <v>241</v>
+        <v>127</v>
       </c>
       <c r="N112" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O112" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O112" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>214112</v>
       </c>
       <c r="B113" t="s">
-        <v>238</v>
+        <v>124</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -7609,13 +6848,13 @@
         <v>112</v>
       </c>
       <c r="H113" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="I113" t="s">
-        <v>239</v>
+        <v>125</v>
       </c>
       <c r="J113" t="s">
-        <v>240</v>
+        <v>126</v>
       </c>
       <c r="K113">
         <v>33</v>
@@ -7624,21 +6863,21 @@
         <v>18</v>
       </c>
       <c r="M113" s="6" t="s">
-        <v>241</v>
+        <v>127</v>
       </c>
       <c r="N113" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O113" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O113" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>211113</v>
       </c>
       <c r="B114" t="s">
-        <v>246</v>
+        <v>128</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -7656,13 +6895,13 @@
         <v>113</v>
       </c>
       <c r="H114" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="I114" t="s">
-        <v>247</v>
+        <v>129</v>
       </c>
       <c r="J114" t="s">
-        <v>248</v>
+        <v>130</v>
       </c>
       <c r="K114">
         <v>33</v>
@@ -7671,21 +6910,21 @@
         <v>18</v>
       </c>
       <c r="M114" s="6" t="s">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="N114" s="5" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="O114" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>212114</v>
       </c>
       <c r="B115" t="s">
-        <v>246</v>
+        <v>128</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -7703,13 +6942,13 @@
         <v>114</v>
       </c>
       <c r="H115" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="I115" t="s">
-        <v>247</v>
+        <v>129</v>
       </c>
       <c r="J115" t="s">
-        <v>248</v>
+        <v>130</v>
       </c>
       <c r="K115">
         <v>33</v>
@@ -7718,21 +6957,21 @@
         <v>18</v>
       </c>
       <c r="M115" s="6" t="s">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="N115" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O115" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O115" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>213115</v>
       </c>
       <c r="B116" t="s">
-        <v>246</v>
+        <v>128</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -7750,13 +6989,13 @@
         <v>115</v>
       </c>
       <c r="H116" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="I116" t="s">
-        <v>247</v>
+        <v>129</v>
       </c>
       <c r="J116" t="s">
-        <v>248</v>
+        <v>130</v>
       </c>
       <c r="K116">
         <v>33</v>
@@ -7765,21 +7004,21 @@
         <v>18</v>
       </c>
       <c r="M116" s="6" t="s">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="N116" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O116" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O116" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>214116</v>
       </c>
       <c r="B117" t="s">
-        <v>246</v>
+        <v>128</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -7797,13 +7036,13 @@
         <v>116</v>
       </c>
       <c r="H117" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="I117" t="s">
-        <v>247</v>
+        <v>129</v>
       </c>
       <c r="J117" t="s">
-        <v>248</v>
+        <v>130</v>
       </c>
       <c r="K117">
         <v>33</v>
@@ -7812,21 +7051,21 @@
         <v>18</v>
       </c>
       <c r="M117" s="6" t="s">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="N117" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O117" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O117" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>211117</v>
       </c>
       <c r="B118" t="s">
-        <v>254</v>
+        <v>132</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -7844,13 +7083,13 @@
         <v>117</v>
       </c>
       <c r="H118" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="I118" t="s">
-        <v>255</v>
+        <v>133</v>
       </c>
       <c r="J118" t="s">
-        <v>256</v>
+        <v>134</v>
       </c>
       <c r="K118">
         <v>33</v>
@@ -7859,21 +7098,21 @@
         <v>18</v>
       </c>
       <c r="M118" s="6" t="s">
-        <v>257</v>
+        <v>135</v>
       </c>
       <c r="N118" s="5" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="O118" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>212118</v>
       </c>
       <c r="B119" t="s">
-        <v>254</v>
+        <v>132</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -7891,13 +7130,13 @@
         <v>118</v>
       </c>
       <c r="H119" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="I119" t="s">
-        <v>255</v>
+        <v>133</v>
       </c>
       <c r="J119" t="s">
-        <v>256</v>
+        <v>134</v>
       </c>
       <c r="K119">
         <v>33</v>
@@ -7906,21 +7145,21 @@
         <v>18</v>
       </c>
       <c r="M119" s="6" t="s">
-        <v>257</v>
+        <v>135</v>
       </c>
       <c r="N119" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O119" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O119" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>213119</v>
       </c>
       <c r="B120" t="s">
-        <v>254</v>
+        <v>132</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -7938,13 +7177,13 @@
         <v>119</v>
       </c>
       <c r="H120" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="I120" t="s">
-        <v>255</v>
+        <v>133</v>
       </c>
       <c r="J120" t="s">
-        <v>256</v>
+        <v>134</v>
       </c>
       <c r="K120">
         <v>33</v>
@@ -7953,21 +7192,21 @@
         <v>18</v>
       </c>
       <c r="M120" s="6" t="s">
-        <v>257</v>
+        <v>135</v>
       </c>
       <c r="N120" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O120" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O120" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>214120</v>
       </c>
       <c r="B121" t="s">
-        <v>254</v>
+        <v>132</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -7985,13 +7224,13 @@
         <v>120</v>
       </c>
       <c r="H121" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="I121" t="s">
-        <v>255</v>
+        <v>133</v>
       </c>
       <c r="J121" t="s">
-        <v>256</v>
+        <v>134</v>
       </c>
       <c r="K121">
         <v>33</v>
@@ -8000,21 +7239,21 @@
         <v>18</v>
       </c>
       <c r="M121" s="6" t="s">
-        <v>257</v>
+        <v>135</v>
       </c>
       <c r="N121" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O121" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O121" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>251121</v>
       </c>
       <c r="B122" t="s">
-        <v>262</v>
+        <v>136</v>
       </c>
       <c r="C122">
         <v>5</v>
@@ -8032,10 +7271,10 @@
         <v>121</v>
       </c>
       <c r="H122" t="s">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="I122" t="s">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="J122">
         <v>56</v>
@@ -8047,21 +7286,21 @@
         <v>18</v>
       </c>
       <c r="M122" s="6" t="s">
-        <v>265</v>
+        <v>139</v>
       </c>
       <c r="N122" s="5" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="O122" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>252122</v>
       </c>
       <c r="B123" t="s">
-        <v>262</v>
+        <v>136</v>
       </c>
       <c r="C123">
         <v>5</v>
@@ -8079,10 +7318,10 @@
         <v>122</v>
       </c>
       <c r="H123" t="s">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="I123" t="s">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="J123">
         <v>56</v>
@@ -8094,21 +7333,21 @@
         <v>18</v>
       </c>
       <c r="M123" s="6" t="s">
-        <v>265</v>
+        <v>139</v>
       </c>
       <c r="N123" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O123" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O123" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>253123</v>
       </c>
       <c r="B124" t="s">
-        <v>262</v>
+        <v>136</v>
       </c>
       <c r="C124">
         <v>5</v>
@@ -8126,10 +7365,10 @@
         <v>123</v>
       </c>
       <c r="H124" t="s">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="I124" t="s">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="J124">
         <v>56</v>
@@ -8141,21 +7380,21 @@
         <v>18</v>
       </c>
       <c r="M124" s="6" t="s">
-        <v>265</v>
+        <v>139</v>
       </c>
       <c r="N124" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O124" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O124" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>254124</v>
       </c>
       <c r="B125" t="s">
-        <v>262</v>
+        <v>136</v>
       </c>
       <c r="C125">
         <v>5</v>
@@ -8173,10 +7412,10 @@
         <v>124</v>
       </c>
       <c r="H125" t="s">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="I125" t="s">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="J125">
         <v>56</v>
@@ -8188,21 +7427,21 @@
         <v>18</v>
       </c>
       <c r="M125" s="6" t="s">
-        <v>265</v>
+        <v>139</v>
       </c>
       <c r="N125" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O125" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O125" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>251125</v>
       </c>
       <c r="B126" t="s">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="C126">
         <v>5</v>
@@ -8220,13 +7459,13 @@
         <v>125</v>
       </c>
       <c r="H126" t="s">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="I126" t="s">
-        <v>271</v>
+        <v>141</v>
       </c>
       <c r="J126" t="s">
-        <v>272</v>
+        <v>142</v>
       </c>
       <c r="K126">
         <v>33</v>
@@ -8235,21 +7474,21 @@
         <v>18</v>
       </c>
       <c r="M126" s="6" t="s">
-        <v>273</v>
+        <v>143</v>
       </c>
       <c r="N126" s="5" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="O126" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>252126</v>
       </c>
       <c r="B127" t="s">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="C127">
         <v>5</v>
@@ -8267,13 +7506,13 @@
         <v>126</v>
       </c>
       <c r="H127" t="s">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="I127" t="s">
-        <v>271</v>
+        <v>141</v>
       </c>
       <c r="J127" t="s">
-        <v>272</v>
+        <v>142</v>
       </c>
       <c r="K127">
         <v>33</v>
@@ -8282,21 +7521,21 @@
         <v>18</v>
       </c>
       <c r="M127" s="6" t="s">
-        <v>273</v>
+        <v>143</v>
       </c>
       <c r="N127" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O127" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O127" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>253127</v>
       </c>
       <c r="B128" t="s">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="C128">
         <v>5</v>
@@ -8314,13 +7553,13 @@
         <v>127</v>
       </c>
       <c r="H128" t="s">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="I128" t="s">
-        <v>271</v>
+        <v>141</v>
       </c>
       <c r="J128" t="s">
-        <v>272</v>
+        <v>142</v>
       </c>
       <c r="K128">
         <v>33</v>
@@ -8329,21 +7568,21 @@
         <v>18</v>
       </c>
       <c r="M128" s="6" t="s">
-        <v>273</v>
+        <v>143</v>
       </c>
       <c r="N128" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O128" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O128" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>254128</v>
       </c>
       <c r="B129" t="s">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="C129">
         <v>5</v>
@@ -8361,13 +7600,13 @@
         <v>128</v>
       </c>
       <c r="H129" t="s">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="I129" t="s">
-        <v>271</v>
+        <v>141</v>
       </c>
       <c r="J129" t="s">
-        <v>272</v>
+        <v>142</v>
       </c>
       <c r="K129">
         <v>33</v>
@@ -8376,21 +7615,21 @@
         <v>18</v>
       </c>
       <c r="M129" s="6" t="s">
-        <v>273</v>
+        <v>143</v>
       </c>
       <c r="N129" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O129" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O129" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>251129</v>
       </c>
       <c r="B130" t="s">
-        <v>278</v>
+        <v>144</v>
       </c>
       <c r="C130">
         <v>5</v>
@@ -8408,13 +7647,13 @@
         <v>129</v>
       </c>
       <c r="H130" t="s">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="I130" t="s">
-        <v>279</v>
+        <v>145</v>
       </c>
       <c r="J130" t="s">
-        <v>280</v>
+        <v>146</v>
       </c>
       <c r="K130">
         <v>33</v>
@@ -8423,21 +7662,21 @@
         <v>18</v>
       </c>
       <c r="M130" t="s">
-        <v>281</v>
+        <v>147</v>
       </c>
       <c r="N130" s="5" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="O130" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>252130</v>
       </c>
       <c r="B131" t="s">
-        <v>278</v>
+        <v>144</v>
       </c>
       <c r="C131">
         <v>5</v>
@@ -8455,13 +7694,13 @@
         <v>130</v>
       </c>
       <c r="H131" t="s">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="I131" t="s">
-        <v>279</v>
+        <v>145</v>
       </c>
       <c r="J131" t="s">
-        <v>280</v>
+        <v>146</v>
       </c>
       <c r="K131">
         <v>33</v>
@@ -8470,21 +7709,21 @@
         <v>18</v>
       </c>
       <c r="M131" t="s">
-        <v>281</v>
+        <v>147</v>
       </c>
       <c r="N131" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O131" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O131" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>253131</v>
       </c>
       <c r="B132" t="s">
-        <v>278</v>
+        <v>144</v>
       </c>
       <c r="C132">
         <v>5</v>
@@ -8502,13 +7741,13 @@
         <v>131</v>
       </c>
       <c r="H132" t="s">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="I132" t="s">
-        <v>279</v>
+        <v>145</v>
       </c>
       <c r="J132" t="s">
-        <v>280</v>
+        <v>146</v>
       </c>
       <c r="K132">
         <v>33</v>
@@ -8517,21 +7756,21 @@
         <v>18</v>
       </c>
       <c r="M132" t="s">
-        <v>281</v>
+        <v>147</v>
       </c>
       <c r="N132" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O132" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O132" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>254132</v>
       </c>
       <c r="B133" t="s">
-        <v>278</v>
+        <v>144</v>
       </c>
       <c r="C133">
         <v>5</v>
@@ -8549,13 +7788,13 @@
         <v>132</v>
       </c>
       <c r="H133" t="s">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="I133" t="s">
-        <v>279</v>
+        <v>145</v>
       </c>
       <c r="J133" t="s">
-        <v>280</v>
+        <v>146</v>
       </c>
       <c r="K133">
         <v>33</v>
@@ -8564,21 +7803,21 @@
         <v>18</v>
       </c>
       <c r="M133" t="s">
-        <v>281</v>
+        <v>147</v>
       </c>
       <c r="N133" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O133" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O133" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>251133</v>
       </c>
       <c r="B134" t="s">
-        <v>286</v>
+        <v>148</v>
       </c>
       <c r="C134">
         <v>5</v>
@@ -8596,13 +7835,13 @@
         <v>133</v>
       </c>
       <c r="H134" t="s">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="I134" t="s">
-        <v>287</v>
+        <v>149</v>
       </c>
       <c r="J134" t="s">
-        <v>288</v>
+        <v>150</v>
       </c>
       <c r="K134">
         <v>33</v>
@@ -8611,21 +7850,21 @@
         <v>18</v>
       </c>
       <c r="M134" s="6" t="s">
-        <v>289</v>
+        <v>151</v>
       </c>
       <c r="N134" s="5" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
       <c r="O134" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>252134</v>
       </c>
       <c r="B135" t="s">
-        <v>286</v>
+        <v>148</v>
       </c>
       <c r="C135">
         <v>5</v>
@@ -8643,13 +7882,13 @@
         <v>134</v>
       </c>
       <c r="H135" t="s">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="I135" t="s">
-        <v>287</v>
+        <v>149</v>
       </c>
       <c r="J135" t="s">
-        <v>288</v>
+        <v>150</v>
       </c>
       <c r="K135">
         <v>33</v>
@@ -8658,21 +7897,21 @@
         <v>18</v>
       </c>
       <c r="M135" s="6" t="s">
-        <v>289</v>
+        <v>151</v>
       </c>
       <c r="N135" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O135" s="5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O135" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>253135</v>
       </c>
       <c r="B136" t="s">
-        <v>286</v>
+        <v>148</v>
       </c>
       <c r="C136">
         <v>5</v>
@@ -8690,13 +7929,13 @@
         <v>135</v>
       </c>
       <c r="H136" t="s">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="I136" t="s">
-        <v>287</v>
+        <v>149</v>
       </c>
       <c r="J136" t="s">
-        <v>288</v>
+        <v>150</v>
       </c>
       <c r="K136">
         <v>33</v>
@@ -8705,21 +7944,21 @@
         <v>18</v>
       </c>
       <c r="M136" s="6" t="s">
-        <v>289</v>
+        <v>151</v>
       </c>
       <c r="N136" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O136" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O136" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>254136</v>
       </c>
       <c r="B137" t="s">
-        <v>286</v>
+        <v>148</v>
       </c>
       <c r="C137">
         <v>5</v>
@@ -8737,13 +7976,13 @@
         <v>136</v>
       </c>
       <c r="H137" t="s">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="I137" t="s">
-        <v>287</v>
+        <v>149</v>
       </c>
       <c r="J137" t="s">
-        <v>288</v>
+        <v>150</v>
       </c>
       <c r="K137">
         <v>33</v>
@@ -8752,21 +7991,21 @@
         <v>18</v>
       </c>
       <c r="M137" s="6" t="s">
-        <v>289</v>
+        <v>151</v>
       </c>
       <c r="N137" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O137" s="5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O137" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>251137</v>
       </c>
       <c r="B138" t="s">
-        <v>294</v>
+        <v>152</v>
       </c>
       <c r="C138">
         <v>5</v>
@@ -8784,13 +8023,13 @@
         <v>137</v>
       </c>
       <c r="H138" t="s">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="I138" t="s">
-        <v>295</v>
+        <v>153</v>
       </c>
       <c r="J138" t="s">
-        <v>296</v>
+        <v>154</v>
       </c>
       <c r="K138">
         <v>33</v>
@@ -8799,21 +8038,21 @@
         <v>18</v>
       </c>
       <c r="M138" s="6" t="s">
-        <v>297</v>
+        <v>155</v>
       </c>
       <c r="N138" s="5" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="O138" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>252138</v>
       </c>
       <c r="B139" t="s">
-        <v>294</v>
+        <v>152</v>
       </c>
       <c r="C139">
         <v>5</v>
@@ -8831,13 +8070,13 @@
         <v>138</v>
       </c>
       <c r="H139" t="s">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="I139" t="s">
-        <v>295</v>
+        <v>153</v>
       </c>
       <c r="J139" t="s">
-        <v>296</v>
+        <v>154</v>
       </c>
       <c r="K139">
         <v>33</v>
@@ -8846,21 +8085,21 @@
         <v>18</v>
       </c>
       <c r="M139" s="6" t="s">
-        <v>297</v>
+        <v>155</v>
       </c>
       <c r="N139" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O139" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O139" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>253139</v>
       </c>
       <c r="B140" t="s">
-        <v>294</v>
+        <v>152</v>
       </c>
       <c r="C140">
         <v>5</v>
@@ -8878,13 +8117,13 @@
         <v>139</v>
       </c>
       <c r="H140" t="s">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="I140" t="s">
-        <v>295</v>
+        <v>153</v>
       </c>
       <c r="J140" t="s">
-        <v>296</v>
+        <v>154</v>
       </c>
       <c r="K140">
         <v>33</v>
@@ -8893,21 +8132,21 @@
         <v>18</v>
       </c>
       <c r="M140" s="6" t="s">
-        <v>297</v>
+        <v>155</v>
       </c>
       <c r="N140" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O140" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O140" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>254140</v>
       </c>
       <c r="B141" t="s">
-        <v>294</v>
+        <v>152</v>
       </c>
       <c r="C141">
         <v>5</v>
@@ -8925,13 +8164,13 @@
         <v>140</v>
       </c>
       <c r="H141" t="s">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="I141" t="s">
-        <v>295</v>
+        <v>153</v>
       </c>
       <c r="J141" t="s">
-        <v>296</v>
+        <v>154</v>
       </c>
       <c r="K141">
         <v>33</v>
@@ -8940,21 +8179,21 @@
         <v>18</v>
       </c>
       <c r="M141" s="6" t="s">
-        <v>297</v>
+        <v>155</v>
       </c>
       <c r="N141" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O141" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O141" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>251141</v>
       </c>
       <c r="B142" t="s">
-        <v>302</v>
+        <v>156</v>
       </c>
       <c r="C142">
         <v>5</v>
@@ -8972,13 +8211,13 @@
         <v>141</v>
       </c>
       <c r="H142" t="s">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="I142" t="s">
-        <v>303</v>
+        <v>157</v>
       </c>
       <c r="J142" t="s">
-        <v>304</v>
+        <v>158</v>
       </c>
       <c r="K142">
         <v>33</v>
@@ -8987,21 +8226,21 @@
         <v>18</v>
       </c>
       <c r="M142" s="6" t="s">
-        <v>305</v>
+        <v>159</v>
       </c>
       <c r="N142" s="5" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="O142" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>252142</v>
       </c>
       <c r="B143" t="s">
-        <v>302</v>
+        <v>156</v>
       </c>
       <c r="C143">
         <v>5</v>
@@ -9019,13 +8258,13 @@
         <v>142</v>
       </c>
       <c r="H143" t="s">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="I143" t="s">
-        <v>303</v>
+        <v>157</v>
       </c>
       <c r="J143" t="s">
-        <v>304</v>
+        <v>158</v>
       </c>
       <c r="K143">
         <v>33</v>
@@ -9034,21 +8273,21 @@
         <v>18</v>
       </c>
       <c r="M143" s="6" t="s">
-        <v>305</v>
+        <v>159</v>
       </c>
       <c r="N143" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O143" s="5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O143" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>253143</v>
       </c>
       <c r="B144" t="s">
-        <v>302</v>
+        <v>156</v>
       </c>
       <c r="C144">
         <v>5</v>
@@ -9066,13 +8305,13 @@
         <v>143</v>
       </c>
       <c r="H144" t="s">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="I144" t="s">
-        <v>303</v>
+        <v>157</v>
       </c>
       <c r="J144" t="s">
-        <v>304</v>
+        <v>158</v>
       </c>
       <c r="K144">
         <v>33</v>
@@ -9081,21 +8320,21 @@
         <v>18</v>
       </c>
       <c r="M144" s="6" t="s">
-        <v>305</v>
+        <v>159</v>
       </c>
       <c r="N144" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O144" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O144" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>254144</v>
       </c>
       <c r="B145" t="s">
-        <v>302</v>
+        <v>156</v>
       </c>
       <c r="C145">
         <v>5</v>
@@ -9113,13 +8352,13 @@
         <v>144</v>
       </c>
       <c r="H145" t="s">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="I145" t="s">
-        <v>303</v>
+        <v>157</v>
       </c>
       <c r="J145" t="s">
-        <v>304</v>
+        <v>158</v>
       </c>
       <c r="K145">
         <v>33</v>
@@ -9128,21 +8367,21 @@
         <v>18</v>
       </c>
       <c r="M145" s="6" t="s">
-        <v>305</v>
+        <v>159</v>
       </c>
       <c r="N145" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O145" s="5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15">
+        <v>166</v>
+      </c>
+      <c r="O145" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>234065</v>
       </c>
       <c r="B146" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="C146">
         <v>3</v>
@@ -9160,74 +8399,121 @@
         <v>64</v>
       </c>
       <c r="H146" t="s">
+        <v>65</v>
+      </c>
+      <c r="I146" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J146" t="s">
+        <v>78</v>
+      </c>
+      <c r="K146">
+        <v>33</v>
+      </c>
+      <c r="L146" t="s">
+        <v>18</v>
+      </c>
+      <c r="M146" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N146" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="O146" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A147">
+        <v>214105</v>
+      </c>
+      <c r="B147" t="s">
+        <v>116</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>2</v>
+      </c>
+      <c r="G147">
+        <v>103</v>
+      </c>
+      <c r="H147" t="s">
+        <v>113</v>
+      </c>
+      <c r="I147" t="s">
+        <v>117</v>
+      </c>
+      <c r="J147" t="s">
+        <v>118</v>
+      </c>
+      <c r="K147">
+        <v>33</v>
+      </c>
+      <c r="L147" t="s">
+        <v>18</v>
+      </c>
+      <c r="M147" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I146" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="J146" t="s">
-        <v>144</v>
-      </c>
-      <c r="K146">
-        <v>33</v>
-      </c>
-      <c r="L146" t="s">
-        <v>18</v>
-      </c>
-      <c r="M146" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="N146" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="O146" s="5" t="s">
-        <v>311</v>
+      <c r="N147" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="O147" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A146">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A145 A148:A1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A145 A147:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/other/配置表/z-装备配置表.xlsx
+++ b/other/配置表/z-装备配置表.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大魔王\配置表1205\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="30000" windowHeight="14145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30000" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -23,13 +28,14 @@
     <author>zsbin</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jayork:</t>
@@ -38,6 +44,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -48,13 +55,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="1">
+    <comment ref="B1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -63,6 +71,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -71,13 +80,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1">
+    <comment ref="C1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -86,6 +96,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -99,13 +110,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jayork:</t>
@@ -114,6 +126,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -124,13 +137,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="1">
+    <comment ref="E1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -139,6 +153,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -146,13 +161,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1">
+    <comment ref="F1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -161,6 +177,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -169,13 +186,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1">
+    <comment ref="G1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -184,6 +202,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -192,13 +211,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1">
+    <comment ref="H1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -207,6 +227,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -215,13 +236,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="1">
+    <comment ref="I1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CL:</t>
@@ -230,6 +252,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -246,13 +269,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jayork:</t>
@@ -261,6 +285,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -268,13 +293,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jayork:</t>
@@ -283,6 +309,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -290,13 +317,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="2">
+    <comment ref="O1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -305,6 +333,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -313,13 +342,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="2">
+    <comment ref="P1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -328,6 +358,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -336,13 +367,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="2">
+    <comment ref="Q1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -351,6 +383,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -365,7 +398,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="384">
   <si>
     <t>id</t>
   </si>
@@ -419,9 +452,6 @@
   </si>
   <si>
     <t>纯粹之剑</t>
-  </si>
-  <si>
-    <t>equip_2000004</t>
   </si>
   <si>
     <t>100</t>
@@ -447,6 +477,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{0,500}</t>
@@ -456,6 +487,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{1,1500</t>
@@ -465,6 +497,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}{2,1000}</t>
@@ -479,6 +512,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{0,300}</t>
@@ -488,6 +522,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{1,1000</t>
@@ -497,6 +532,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}{2,1000}{3,400}</t>
@@ -656,9 +692,6 @@
     <t>纯粹之甲</t>
   </si>
   <si>
-    <t>equip_2000002</t>
-  </si>
-  <si>
     <t>101</t>
   </si>
   <si>
@@ -821,9 +854,6 @@
     <t>纯粹之靴</t>
   </si>
   <si>
-    <t>equip_2000003</t>
-  </si>
-  <si>
     <t>102</t>
   </si>
   <si>
@@ -908,27 +938,15 @@
     <t>1536,48</t>
   </si>
   <si>
-    <t>({20,192}{40,480}{60,720}{80,960}{100,1200}{120,1440}{140,1680}{160,1920}{180,2160}{200,2400}{220,2640}{240,2880}{260,3120}{280,3360}{300,3600}{320,3840}{340,4080}{360,4320}{380,4560}{400,4800}{420,5040}{440,5280}{460,5520}{480,5760}{500,6000})({20,6}{40,300}{60,450}{80,600}{100,750}{120,900}{140,1050}{160,1200}{180,1350}{200,1500}{220,1650}{240,1800}{260,1950}{280,2100}{300,2250}{320,2400}{340,2550}{360,2700}{380,137}{400,144}{420,151}{440,158}{460,166}{480,173}{500,180})</t>
-  </si>
-  <si>
     <t>1792,56</t>
   </si>
   <si>
-    <t>({20,224}{40,560}{60,840}{80,1120}{100,1400}{120,1680}{140,1960}{160,2240}{180,2520}{200,2800}{220,3080}{240,3360}{260,3640}{280,3920}{300,4200}{320,4480}{340,4760}{360,5040}{380,5320}{400,5600}{420,5880}{440,6160}{460,6440}{480,6720}{500,7000})({20,7}{40,350}{60,525}{80,700}{100,875}{120,1050}{140,1225}{160,1400}{180,1575}{200,1750}{220,1925}{240,2100}{260,2275}{280,2450}{300,2625}{320,2800}{340,2975}{360,3150}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})</t>
-  </si>
-  <si>
     <t>2048,64</t>
   </si>
   <si>
-    <t>({20,256}{40,640}{60,960}{80,1280}{100,1600}{120,1920}{140,2240}{160,2560}{180,2880}{200,3200}{220,3520}{240,3840}{260,4160}{280,4480}{300,4800}{320,5120}{340,5440}{360,5760}{380,6080}{400,6400}{420,6720}{440,7040}{460,7360}{480,7680}{500,8000})({20,8}{40,400}{60,600}{80,800}{100,1000}{120,1200}{140,1400}{160,1600}{180,1800}{200,2000}{220,2200}{240,2400}{260,2600}{280,2800}{300,3000}{320,3200}{340,3400}{360,3600}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
-  </si>
-  <si>
     <t>2560,80</t>
   </si>
   <si>
-    <t>({20,320}{40,800}{60,1200}{80,1600}{100,2000}{120,2400}{140,2800}{160,3200}{180,3600}{200,4000}{220,4400}{240,4800}{260,5200}{280,5600}{300,6000}{320,6400}{340,6800}{360,7200}{380,7600}{400,8000}{420,8400}{440,8800}{460,9200}{480,9600}{500,10000})({20,10}{40,500}{60,750}{80,1000}{100,1250}{120,1500}{140,1750}{160,2000}{180,2250}{200,2500}{220,2750}{240,3000}{260,3250}{280,3500}{300,3750}{320,4000}{340,4250}{360,4500}{380,228}{400,240}{420,252}{440,264}{460,276}{480,288}{500,300})</t>
-  </si>
-  <si>
     <t>速度之靴</t>
   </si>
   <si>
@@ -950,15 +968,9 @@
     <t>2048,19</t>
   </si>
   <si>
-    <t>({20,256}{40,640}{60,960}{80,1280}{100,1600}{120,1920}{140,2240}{160,2560}{180,2880}{200,3200}{220,3520}{240,3840}{260,4160}{280,4480}{300,4800}{320,5120}{340,5440}{360,5760}{380,6080}{400,6400}{420,6720}{440,7040}{460,7360}{480,7680}{500,8000})({20,2}{40,400}{60,600}{80,800}{100,1000}{120,1200}{140,1400}{160,1600}{180,1800}{200,2000}{220,2200}{240,2400}{260,2600}{280,2800}{300,3000}{320,3200}{340,3400}{360,3600}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
-  </si>
-  <si>
     <t>2560,24</t>
   </si>
   <si>
-    <t>({20,320}{40,800}{60,1200}{80,1600}{100,2000}{120,2400}{140,2800}{160,3200}{180,3600}{200,4000}{220,4400}{240,4800}{260,5200}{280,5600}{300,6000}{320,6400}{340,6800}{360,7200}{380,7600}{400,8000}{420,8400}{440,8800}{460,9200}{480,9600}{500,10000})({20,3}{40,500}{60,750}{80,1000}{100,1250}{120,1500}{140,1750}{160,2000}{180,2250}{200,2500}{220,2750}{240,3000}{260,3250}{280,3500}{300,3750}{320,4000}{340,4250}{360,4500}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
-  </si>
-  <si>
     <t>重伤之靴</t>
   </si>
   <si>
@@ -986,9 +998,6 @@
     <t>纯粹戒指</t>
   </si>
   <si>
-    <t>equip_2000006</t>
-  </si>
-  <si>
     <t>113</t>
   </si>
   <si>
@@ -1073,21 +1082,12 @@
     <t>77,960</t>
   </si>
   <si>
-    <t>({20,10}{40,23}{60,35}{80,46}{100,58}{120,69}{140,81}{160,92}{180,104}{200,115}{220,127}{240,138}{260,150}{280,161}{300,173}{320,184}{340,196}{360,207}{380,219}{400,230}{420,242}{440,253}{460,265}{480,276}{500,288})({20,200}{40,500}{60,750}{80,1000}{100,1250}{120,1500}{140,1750}{160,2000}{180,2250}{200,2500}{220,2750}{240,3000}{260,3250}{280,3500}{300,3750}{320,4000}{340,4250}{360,4500}{380,4750}{400,5000}{420,5250}{440,5500}{460,5750}{480,6000}{500,6250})</t>
-  </si>
-  <si>
     <t>90,1120</t>
   </si>
   <si>
-    <t>({20,11}{40,27}{60,40}{80,54}{100,67}{120,81}{140,94}{160,108}{180,121}{200,134}{220,148}{240,161}{260,175}{280,188}{300,202}{320,215}{340,228}{360,242}{380,255}{400,269}{420,282}{440,296}{460,309}{480,323}{500,336})({20,200}{40,500}{60,750}{80,1000}{100,1250}{120,1500}{140,1750}{160,2000}{180,2250}{200,2500}{220,2750}{240,3000}{260,3250}{280,3500}{300,3750}{320,4000}{340,4250}{360,4500}{380,4750}{400,5000}{420,5250}{440,5500}{460,5750}{480,6000}{500,6250})</t>
-  </si>
-  <si>
     <t>102,1280</t>
   </si>
   <si>
-    <t>({20,13}{40,31}{60,46}{80,61}{100,77}{120,92}{140,108}{160,123}{180,138}{200,154}{220,169}{240,184}{260,200}{280,215}{300,230}{320,246}{340,261}{360,276}{380,292}{400,307}{420,323}{440,338}{460,353}{480,369}{500,384})({20,200}{40,500}{60,750}{80,1000}{100,1250}{120,1500}{140,1750}{160,2000}{180,2250}{200,2500}{220,2750}{240,3000}{260,3250}{280,3500}{300,3750}{320,4000}{340,4250}{360,4500}{380,4750}{400,5000}{420,5250}{440,5500}{460,5750}{480,6000}{500,6250})</t>
-  </si>
-  <si>
     <t>128,1600</t>
   </si>
   <si>
@@ -1157,9 +1157,6 @@
     <t>纯粹头盔</t>
   </si>
   <si>
-    <t>equip_2000001</t>
-  </si>
-  <si>
     <t>114</t>
   </si>
   <si>
@@ -1322,9 +1319,6 @@
     <t>纯粹项链</t>
   </si>
   <si>
-    <t>equip_2000005</t>
-  </si>
-  <si>
     <t>115</t>
   </si>
   <si>
@@ -1454,9 +1448,6 @@
     <t>({20,6}{40,13}{60,19}{80,26}{100,32}{120,38}{140,45}{160,51}{180,58}{200,64}{220,70}{240,77}{260,83}{280,90}{300,96}{320,102}{340,109}{360,115}{380,122}{400,128}{420,134}{440,141}{460,147}{480,154}{500,160})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
   </si>
   <si>
-    <t>({20,128}{40,320}{60,480}{80,640}{100,800}{120,960}{140,1120}{160,1280}{180,1440}{200,1600}{220,1760}{240,1920}{260,2080}{280,2240}{300,2400}{320,2560}{340,2720}{360,2880}{380,3040}{400,3200}{420,3360}{440,3520}{460,3680}{480,3840}{500,4000})({20,10}{40,200}{60,300}{80,400}{100,500}{120,600}{140,700}{160,800}{180,900}{200,1000}{220,1100}{240,1200}{260,1300}{280,1400}{300,1500}{320,1600}{340,1700}{360,1800}{380,228}{400,240}{420,252}{440,264}{460,276}{480,288}{500,300})</t>
-  </si>
-  <si>
     <t>{400005,10000}</t>
   </si>
   <si>
@@ -1464,19 +1455,222 @@
   </si>
   <si>
     <t>{400009,10000}</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>({20,192}{40,480}{60,720}{80,960}{100,1200}{120,1440}{140,1680}{160,1920}{180,2160}{200,2400}{220,2640}{240,2880}{260,3120}{280,3360}{300,3600}{320,3840}{340,4080}{360,4320}{380,4560}{400,4800}{420,5040}{440,5280}{460,5520}{480,5760}{500,6000})({20,2}{40,5}{60,7}{80,10}{100,12}{120,14}{140,17}{160,19}{180,22}{200,24}{220,26}{240,29}{260,31}{280,34}{300,36}{320,38}{340,41}{360,43}{380,46}{400,48}{420,50}{440,53}{460,55}{480,58}{500,60})</t>
+  </si>
+  <si>
+    <t>({20,224}{40,560}{60,840}{80,1120}{100,1400}{120,1680}{140,1960}{160,2240}{180,2520}{200,2800}{220,3080}{240,3360}{260,3640}{280,3920}{300,4200}{320,4480}{340,4760}{360,5040}{380,5320}{400,5600}{420,5880}{440,6160}{460,6440}{480,6720}{500,7000})({20,2}{40,6}{60,8}{80,11}{100,14}{120,17}{140,20}{160,22}{180,25}{200,28}{220,31}{240,34}{260,36}{280,39}{300,42}{320,45}{340,48}{360,50}{380,53}{400,56}{420,59}{440,62}{460,64}{480,67}{500,70})</t>
+  </si>
+  <si>
+    <t>({20,256}{40,640}{60,960}{80,1280}{100,1600}{120,1920}{140,2240}{160,2560}{180,2880}{200,3200}{220,3520}{240,3840}{260,4160}{280,4480}{300,4800}{320,5120}{340,5440}{360,5760}{380,6080}{400,6400}{420,6720}{440,7040}{460,7360}{480,7680}{500,8000})({20,2}{40,6}{60,10}{80,13}{100,16}{120,19}{140,22}{160,26}{180,29}{200,32}{220,35}{240,38}{260,42}{280,45}{300,48}{320,51}{340,54}{360,58}{380,61}{400,64}{420,67}{440,70}{460,74}{480,77}{500,80})</t>
+  </si>
+  <si>
+    <t>({20,320}{40,800}{60,1200}{80,1600}{100,2000}{120,2400}{140,2800}{160,3200}{180,3600}{200,4000}{220,4400}{240,4800}{260,5200}{280,5600}{300,6000}{320,6400}{340,6800}{360,7200}{380,7600}{400,8000}{420,8400}{440,8800}{460,9200}{480,9600}{500,10000})({20,3}{40,8}{60,12}{80,16}{100,20}{120,24}{140,28}{160,32}{180,36}{200,40}{220,44}{240,48}{260,52}{280,56}{300,60}{320,64}{340,68}{360,72}{380,76}{400,80}{420,84}{440,88}{460,92}{480,96}{500,100})</t>
+  </si>
+  <si>
+    <t>({20,10}{40,23}{60,35}{80,46}{100,58}{120,69}{140,81}{160,92}{180,104}{200,115}{220,127}{240,138}{260,150}{280,161}{300,173}{320,184}{340,196}{360,207}{380,219}{400,230}{420,242}{440,253}{460,265}{480,276}{500,288})({20,120}{40,300}{60,450}{80,600}{100,750}{120,900}{140,1050}{160,1200}{180,1350}{200,1500}{220,1650}{240,1800}{260,1950}{280,2100}{300,2250}{320,2400}{340,2550}{360,2700}{380,2850}{400,3000}{420,3150}{440,3300}{460,3450}{480,3600}{500,3750})</t>
+  </si>
+  <si>
+    <t>({20,11}{40,27}{60,40}{80,54}{100,67}{120,81}{140,94}{160,108}{180,121}{200,134}{220,148}{240,161}{260,175}{280,188}{300,202}{320,215}{340,228}{360,242}{380,255}{400,269}{420,282}{440,296}{460,309}{480,323}{500,336})({20,140}{40,350}{60,525}{80,700}{100,875}{120,1050}{140,1225}{160,1400}{180,1575}{200,1750}{220,1925}{240,2100}{260,2275}{280,2450}{300,2625}{320,2800}{340,2975}{360,3150}{380,3325}{400,3500}{420,3675}{440,3850}{460,4025}{480,4200}{500,4375})</t>
+  </si>
+  <si>
+    <t>({20,13}{40,31}{60,46}{80,61}{100,77}{120,92}{140,108}{160,123}{180,138}{200,154}{220,169}{240,184}{260,200}{280,215}{300,230}{320,246}{340,261}{360,276}{380,292}{400,307}{420,323}{440,338}{460,353}{480,369}{500,384})({20,160}{40,400}{60,600}{80,800}{100,1000}{120,1200}{140,1400}{160,1600}{180,1800}{200,2000}{220,2200}{240,2400}{260,2600}{280,2800}{300,3000}{320,3200}{340,3400}{360,3600}{380,3800}{400,4000}{420,4200}{440,4400}{460,4600}{480,4800}{500,5000})</t>
+  </si>
+  <si>
+    <t>({20,192}{40,480}{60,720}{80,960}{100,1200}{120,1440}{140,1680}{160,1920}{180,2160}{200,2400}{220,2640}{240,2880}{260,3120}{280,3360}{300,3600}{320,3840}{340,4080}{360,4320}{380,4560}{400,4800}{420,5040}{440,5280}{460,5520}{480,5760}{500,6000})({20,6}{40,14}{60,22}{80,29}{100,36}{120,43}{140,50}{160,58}{180,65}{200,72}{220,79}{240,86}{260,94}{280,101}{300,108}{320,115}{340,122}{360,130}{380,137}{400,144}{420,151}{440,158}{460,166}{480,173}{500,180})</t>
+  </si>
+  <si>
+    <t>({20,224}{40,560}{60,840}{80,1120}{100,1400}{120,1680}{140,1960}{160,2240}{180,2520}{200,2800}{220,3080}{240,3360}{260,3640}{280,3920}{300,4200}{320,4480}{340,4760}{360,5040}{380,5320}{400,5600}{420,5880}{440,6160}{460,6440}{480,6720}{500,7000})({20,7}{40,17}{60,25}{80,34}{100,42}{120,50}{140,59}{160,67}{180,76}{200,84}{220,92}{240,101}{260,109}{280,118}{300,126}{320,134}{340,143}{360,151}{380,160}{400,168}{420,176}{440,185}{460,193}{480,202}{500,210})</t>
+  </si>
+  <si>
+    <t>({20,256}{40,640}{60,960}{80,1280}{100,1600}{120,1920}{140,2240}{160,2560}{180,2880}{200,3200}{220,3520}{240,3840}{260,4160}{280,4480}{300,4800}{320,5120}{340,5440}{360,5760}{380,6080}{400,6400}{420,6720}{440,7040}{460,7360}{480,7680}{500,8000})({20,8}{40,19}{60,29}{80,38}{100,48}{120,58}{140,67}{160,77}{180,86}{200,96}{220,106}{240,115}{260,125}{280,134}{300,144}{320,154}{340,163}{360,173}{380,182}{400,192}{420,202}{440,211}{460,221}{480,230}{500,240})</t>
+  </si>
+  <si>
+    <t>({20,320}{40,800}{60,1200}{80,1600}{100,2000}{120,2400}{140,2800}{160,3200}{180,3600}{200,4000}{220,4400}{240,4800}{260,5200}{280,5600}{300,6000}{320,6400}{340,6800}{360,7200}{380,7600}{400,8000}{420,8400}{440,8800}{460,9200}{480,9600}{500,10000})({20,10}{40,24}{60,36}{80,48}{100,60}{120,72}{140,84}{160,96}{180,108}{200,120}{220,132}{240,144}{260,156}{280,168}{300,180}{320,192}{340,204}{360,216}{380,228}{400,240}{420,252}{440,264}{460,276}{480,288}{500,300})</t>
+  </si>
+  <si>
+    <t>equip_400001</t>
+  </si>
+  <si>
+    <t>equip_400002</t>
+  </si>
+  <si>
+    <t>equip_400003</t>
+  </si>
+  <si>
+    <t>equip_400004</t>
+  </si>
+  <si>
+    <t>equip_400005</t>
+  </si>
+  <si>
+    <t>equip_400006</t>
+  </si>
+  <si>
+    <t>equip_200001</t>
+  </si>
+  <si>
+    <t>equip_200002</t>
+  </si>
+  <si>
+    <t>equip_200003</t>
+  </si>
+  <si>
+    <t>equip_200004</t>
+  </si>
+  <si>
+    <t>equip_200005</t>
+  </si>
+  <si>
+    <t>equip_200006</t>
+  </si>
+  <si>
+    <t>equip_300001</t>
+  </si>
+  <si>
+    <t>equip_300002</t>
+  </si>
+  <si>
+    <t>equip_300003</t>
+  </si>
+  <si>
+    <t>equip_300004</t>
+  </si>
+  <si>
+    <t>equip_300005</t>
+  </si>
+  <si>
+    <t>equip_300006</t>
+  </si>
+  <si>
+    <t>equip_600001</t>
+  </si>
+  <si>
+    <t>equip_600002</t>
+  </si>
+  <si>
+    <t>equip_600003</t>
+  </si>
+  <si>
+    <t>equip_600004</t>
+  </si>
+  <si>
+    <t>equip_600005</t>
+  </si>
+  <si>
+    <t>equip_600006</t>
+  </si>
+  <si>
+    <t>equip_100001</t>
+  </si>
+  <si>
+    <t>equip_100002</t>
+  </si>
+  <si>
+    <t>equip_100003</t>
+  </si>
+  <si>
+    <t>equip_100004</t>
+  </si>
+  <si>
+    <t>equip_100005</t>
+  </si>
+  <si>
+    <t>equip_100006</t>
+  </si>
+  <si>
+    <t>equip_500001</t>
+  </si>
+  <si>
+    <t>equip_500002</t>
+  </si>
+  <si>
+    <t>equip_500003</t>
+  </si>
+  <si>
+    <t>equip_500004</t>
+  </si>
+  <si>
+    <t>equip_500005</t>
+  </si>
+  <si>
+    <t>equip_500006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1488,6 +1682,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1495,349 +1690,47 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1845,255 +1738,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2113,59 +1764,54 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2191,6 +1837,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2477,19 +2126,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:Q147"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="H146" sqref="H146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.375"/>
     <col min="2" max="2" width="9" customWidth="1"/>
@@ -2502,12 +2151,12 @@
     <col min="11" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="24.875" customWidth="1"/>
     <col min="13" max="13" width="40.375" customWidth="1"/>
-    <col min="14" max="14" width="36.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="42.625" style="2" customWidth="1"/>
     <col min="15" max="15" width="23.75" style="2" customWidth="1"/>
     <col min="16" max="17" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2560,7 +2209,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>241001</v>
       </c>
@@ -2583,10 +2232,10 @@
         <v>197</v>
       </c>
       <c r="H2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I2" t="s">
         <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
       </c>
       <c r="J2">
         <v>48</v>
@@ -2595,19 +2244,25 @@
         <v>33</v>
       </c>
       <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="N2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>242002</v>
       </c>
@@ -2630,10 +2285,10 @@
         <v>165</v>
       </c>
       <c r="H3" t="s">
+        <v>348</v>
+      </c>
+      <c r="I3" t="s">
         <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
       </c>
       <c r="J3">
         <v>56</v>
@@ -2642,19 +2297,25 @@
         <v>33</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>243003</v>
       </c>
@@ -2677,10 +2338,10 @@
         <v>133</v>
       </c>
       <c r="H4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I4" t="s">
         <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
       </c>
       <c r="J4">
         <v>64</v>
@@ -2689,19 +2350,25 @@
         <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>244004</v>
       </c>
@@ -2724,10 +2391,10 @@
         <v>101</v>
       </c>
       <c r="H5" t="s">
+        <v>348</v>
+      </c>
+      <c r="I5" t="s">
         <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
       </c>
       <c r="J5">
         <v>80</v>
@@ -2736,24 +2403,30 @@
         <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>241005</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2771,36 +2444,42 @@
         <v>198</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="I6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
         <v>31</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K6">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="N6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>242006</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -2818,36 +2497,42 @@
         <v>166</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K7">
-        <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="N7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>243007</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2865,36 +2550,42 @@
         <v>134</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K8">
-        <v>33</v>
-      </c>
-      <c r="L8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="N8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>244008</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -2912,36 +2603,42 @@
         <v>102</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K9">
-        <v>33</v>
-      </c>
-      <c r="L9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="N9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>241009</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -2959,36 +2656,42 @@
         <v>199</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>350</v>
       </c>
       <c r="I10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s">
         <v>41</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10">
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K10">
-        <v>33</v>
-      </c>
-      <c r="L10" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="N10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>242010</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -3006,36 +2709,42 @@
         <v>167</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>350</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11">
+        <v>33</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K11">
-        <v>33</v>
-      </c>
-      <c r="L11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="N11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>243011</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -3053,36 +2762,42 @@
         <v>135</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>350</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12">
+        <v>33</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K12">
-        <v>33</v>
-      </c>
-      <c r="L12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="N12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>244012</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -3100,36 +2815,42 @@
         <v>103</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>350</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13">
+        <v>33</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K13">
-        <v>33</v>
-      </c>
-      <c r="L13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="N13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>241013</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -3147,36 +2868,42 @@
         <v>200</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>351</v>
       </c>
       <c r="I14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" t="s">
         <v>51</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14">
+        <v>33</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K14">
-        <v>33</v>
-      </c>
-      <c r="L14" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="N14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>242014</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -3194,36 +2921,42 @@
         <v>168</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>351</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15">
+        <v>33</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="K15">
-        <v>33</v>
-      </c>
-      <c r="L15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="N15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>243015</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -3241,36 +2974,42 @@
         <v>136</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>351</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J16" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16">
+        <v>33</v>
+      </c>
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="K16">
-        <v>33</v>
-      </c>
-      <c r="L16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="N16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>244016</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -3288,36 +3027,42 @@
         <v>104</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>351</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J17" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17">
+        <v>33</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="K17">
-        <v>33</v>
-      </c>
-      <c r="L17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="N17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>241017</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -3335,36 +3080,42 @@
         <v>201</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>352</v>
       </c>
       <c r="I18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" t="s">
         <v>61</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18">
+        <v>33</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K18">
-        <v>33</v>
-      </c>
-      <c r="L18" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="N18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>242018</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -3382,36 +3133,42 @@
         <v>169</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>352</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J19" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19">
+        <v>33</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="K19">
-        <v>33</v>
-      </c>
-      <c r="L19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="N19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>243019</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -3429,36 +3186,42 @@
         <v>137</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>352</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J20" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20">
+        <v>33</v>
+      </c>
+      <c r="L20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="K20">
-        <v>33</v>
-      </c>
-      <c r="L20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="N20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>244020</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -3476,36 +3239,42 @@
         <v>105</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>352</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J21" t="s">
+        <v>67</v>
+      </c>
+      <c r="K21">
+        <v>33</v>
+      </c>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K21">
-        <v>33</v>
-      </c>
-      <c r="L21" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="N21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>241021</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -3523,36 +3292,42 @@
         <v>202</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>353</v>
       </c>
       <c r="I22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" t="s">
         <v>71</v>
       </c>
-      <c r="J22" t="s">
-        <v>72</v>
-      </c>
       <c r="K22">
         <v>33</v>
       </c>
       <c r="L22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>242022</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -3570,36 +3345,42 @@
         <v>170</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>353</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K23">
         <v>33</v>
       </c>
       <c r="L23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>243023</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -3617,36 +3398,42 @@
         <v>138</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>353</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J24" t="s">
+        <v>73</v>
+      </c>
+      <c r="K24">
+        <v>33</v>
+      </c>
+      <c r="L24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="K24">
-        <v>33</v>
-      </c>
-      <c r="L24" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="N24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>244024</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -3664,36 +3451,42 @@
         <v>106</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>353</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J25" t="s">
+        <v>75</v>
+      </c>
+      <c r="K25">
+        <v>33</v>
+      </c>
+      <c r="L25" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K25">
-        <v>33</v>
-      </c>
-      <c r="L25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="N25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>221025</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -3711,10 +3504,10 @@
         <v>203</v>
       </c>
       <c r="H26" t="s">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="I26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J26">
         <v>64</v>
@@ -3723,24 +3516,30 @@
         <v>33</v>
       </c>
       <c r="L26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O26" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>222026</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -3758,10 +3557,10 @@
         <v>171</v>
       </c>
       <c r="H27" t="s">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="I27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J27">
         <v>45</v>
@@ -3770,24 +3569,30 @@
         <v>33</v>
       </c>
       <c r="L27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>223027</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -3805,10 +3610,10 @@
         <v>139</v>
       </c>
       <c r="H28" t="s">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="I28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J28">
         <v>51</v>
@@ -3817,24 +3622,30 @@
         <v>33</v>
       </c>
       <c r="L28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>224028</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -3852,10 +3663,10 @@
         <v>107</v>
       </c>
       <c r="H29" t="s">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="I29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J29">
         <v>64</v>
@@ -3864,24 +3675,30 @@
         <v>33</v>
       </c>
       <c r="L29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>221029</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -3899,36 +3716,42 @@
         <v>204</v>
       </c>
       <c r="H30" t="s">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="I30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J30" t="s">
+        <v>85</v>
+      </c>
+      <c r="K30">
+        <v>33</v>
+      </c>
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J30" t="s">
-        <v>87</v>
-      </c>
-      <c r="K30">
-        <v>33</v>
-      </c>
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="N30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O30" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>222030</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -3946,36 +3769,42 @@
         <v>172</v>
       </c>
       <c r="H31" t="s">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K31">
         <v>33</v>
       </c>
       <c r="L31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>223031</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -3993,36 +3822,42 @@
         <v>140</v>
       </c>
       <c r="H32" t="s">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K32">
         <v>33</v>
       </c>
       <c r="L32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>224032</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -4040,36 +3875,42 @@
         <v>108</v>
       </c>
       <c r="H33" t="s">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K33">
         <v>33</v>
       </c>
       <c r="L33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>221033</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -4087,36 +3928,42 @@
         <v>205</v>
       </c>
       <c r="H34" t="s">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="I34" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J34" t="s">
+        <v>95</v>
+      </c>
+      <c r="K34">
+        <v>33</v>
+      </c>
+      <c r="L34" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J34" t="s">
-        <v>97</v>
-      </c>
-      <c r="K34">
-        <v>33</v>
-      </c>
-      <c r="L34" t="s">
-        <v>20</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="N34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O34" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O34" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="P34" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>222034</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -4134,36 +3981,42 @@
         <v>173</v>
       </c>
       <c r="H35" t="s">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K35">
         <v>33</v>
       </c>
       <c r="L35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>223035</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -4181,36 +4034,42 @@
         <v>141</v>
       </c>
       <c r="H36" t="s">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K36">
         <v>33</v>
       </c>
       <c r="L36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>224036</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -4228,36 +4087,42 @@
         <v>109</v>
       </c>
       <c r="H37" t="s">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K37">
         <v>33</v>
       </c>
       <c r="L37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>221037</v>
       </c>
       <c r="B38" t="s">
-     